--- a/designDocuments/databaseDesignDocument/データベース設計書.xlsx
+++ b/designDocuments/databaseDesignDocument/データベース設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takeshitakanta/Desktop/prodate/student_dontneed_shop/designDocuments/databaseDesignDocument/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C0AADA-DF4C-9542-8922-C7C1DEE2B89A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315C4740-A892-044B-946E-D27C1736FF9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="14920" windowHeight="16160" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14920" windowHeight="16160" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="12" r:id="rId1"/>
@@ -354,7 +354,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="191">
   <si>
     <t>No</t>
   </si>
@@ -1374,14 +1374,6 @@
   </si>
   <si>
     <t>char(16)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>admin_address</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>admin_post</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -2879,6 +2871,231 @@
     <xf numFmtId="177" fontId="30" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="24">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="18" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="5" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="45" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="42" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="40" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="24" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="14" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="21" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="24" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="24" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="5" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="43" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="23" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="8" xfId="24" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="7" xfId="24" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="5" xfId="24" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="4" xfId="24" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="11" xfId="24" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="10" xfId="24" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="20" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="19" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="22" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="7" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="48" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="28" xfId="24" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="27" xfId="24" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="27" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="47" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="26" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="10" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="45" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="44" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="46" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="13" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="31" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="24" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="31" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="15" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="30" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="30" xfId="24" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="31" xfId="24" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="29" xfId="24" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="43" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="10" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="0" borderId="15" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2927,18 +3144,9 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2966,33 +3174,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -3011,6 +3192,210 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="44" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="45" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="52" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="44" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="45" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="44" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="53" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="45" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="16" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="25" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="49" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="50" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="51" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="48" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="22" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="20" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="41" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="42" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="51" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="48" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="54" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="19" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="41" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="52" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="42" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="44" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="53" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="45" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="24" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="24" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="58" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="41" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="52" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="42" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="59" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="60" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="32" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="32" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3020,6 +3405,30 @@
     <xf numFmtId="49" fontId="15" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3035,9 +3444,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3047,80 +3453,29 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3130,369 +3485,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="24">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="18" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="24" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="48" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="54" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="51" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="5" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="45" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="44" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="53" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="45" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="42" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="52" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="41" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="42" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="40" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="24" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="14" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="16" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="20" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="19" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="22" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="21" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="24" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="24" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="5" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="45" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="44" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="53" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="43" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="23" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="8" xfId="24" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="7" xfId="24" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="48" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="51" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="5" xfId="24" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="4" xfId="24" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="45" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="44" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="11" xfId="24" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="10" xfId="24" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="52" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="42" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="41" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="20" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="19" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="22" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="7" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="48" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="28" xfId="24" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="27" xfId="24" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="27" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="45" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="44" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="47" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="26" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="10" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="45" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="44" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="50" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="49" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="46" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="13" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="25" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="31" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="24" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="31" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="15" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="30" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="30" xfId="24" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="31" xfId="24" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="29" xfId="24" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="43" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="10" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="30" fillId="0" borderId="15" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="32" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="32" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="60" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="59" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="42" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="52" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="41" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="58" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="24" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="25">
@@ -5315,21 +5307,21 @@
       <c r="R3" s="16"/>
       <c r="S3" s="16"/>
       <c r="T3" s="16"/>
-      <c r="U3" s="165" t="s">
+      <c r="U3" s="214" t="s">
         <v>33</v>
       </c>
-      <c r="V3" s="166"/>
-      <c r="W3" s="167">
+      <c r="V3" s="216"/>
+      <c r="W3" s="240">
         <v>43969</v>
       </c>
-      <c r="X3" s="168"/>
-      <c r="Y3" s="168"/>
-      <c r="Z3" s="168"/>
-      <c r="AA3" s="168"/>
-      <c r="AB3" s="168"/>
-      <c r="AC3" s="168"/>
-      <c r="AD3" s="168"/>
-      <c r="AE3" s="166"/>
+      <c r="X3" s="215"/>
+      <c r="Y3" s="215"/>
+      <c r="Z3" s="215"/>
+      <c r="AA3" s="215"/>
+      <c r="AB3" s="215"/>
+      <c r="AC3" s="215"/>
+      <c r="AD3" s="215"/>
+      <c r="AE3" s="216"/>
       <c r="AF3" s="16"/>
     </row>
     <row r="4" spans="1:176" ht="15.75" customHeight="1">
@@ -5442,20 +5434,20 @@
       <c r="C7" s="44"/>
       <c r="D7" s="44"/>
       <c r="E7" s="45"/>
-      <c r="F7" s="150" t="s">
+      <c r="F7" s="225" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="151"/>
-      <c r="H7" s="151"/>
-      <c r="I7" s="151"/>
-      <c r="J7" s="151"/>
-      <c r="K7" s="151"/>
-      <c r="L7" s="151"/>
-      <c r="M7" s="151"/>
-      <c r="N7" s="151"/>
-      <c r="O7" s="151"/>
-      <c r="P7" s="151"/>
-      <c r="Q7" s="152"/>
+      <c r="G7" s="226"/>
+      <c r="H7" s="226"/>
+      <c r="I7" s="226"/>
+      <c r="J7" s="226"/>
+      <c r="K7" s="226"/>
+      <c r="L7" s="226"/>
+      <c r="M7" s="226"/>
+      <c r="N7" s="226"/>
+      <c r="O7" s="226"/>
+      <c r="P7" s="226"/>
+      <c r="Q7" s="227"/>
       <c r="R7" s="16"/>
       <c r="S7" s="16"/>
       <c r="T7" s="16"/>
@@ -5473,82 +5465,82 @@
     </row>
     <row r="8" spans="1:176" ht="15.75" customHeight="1">
       <c r="A8" s="16"/>
-      <c r="B8" s="153" t="s">
+      <c r="B8" s="228" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="154"/>
-      <c r="D8" s="154"/>
-      <c r="E8" s="155"/>
-      <c r="F8" s="159"/>
-      <c r="G8" s="160"/>
-      <c r="H8" s="160"/>
-      <c r="I8" s="160"/>
-      <c r="J8" s="160"/>
-      <c r="K8" s="160"/>
-      <c r="L8" s="160"/>
-      <c r="M8" s="160"/>
-      <c r="N8" s="160"/>
-      <c r="O8" s="160"/>
-      <c r="P8" s="160"/>
-      <c r="Q8" s="161"/>
+      <c r="C8" s="229"/>
+      <c r="D8" s="229"/>
+      <c r="E8" s="230"/>
+      <c r="F8" s="234"/>
+      <c r="G8" s="235"/>
+      <c r="H8" s="235"/>
+      <c r="I8" s="235"/>
+      <c r="J8" s="235"/>
+      <c r="K8" s="235"/>
+      <c r="L8" s="235"/>
+      <c r="M8" s="235"/>
+      <c r="N8" s="235"/>
+      <c r="O8" s="235"/>
+      <c r="P8" s="235"/>
+      <c r="Q8" s="236"/>
       <c r="R8" s="16"/>
       <c r="S8" s="16"/>
       <c r="T8" s="16"/>
       <c r="U8" s="16"/>
       <c r="V8" s="16"/>
-      <c r="W8" s="149" t="s">
+      <c r="W8" s="224" t="s">
         <v>38</v>
       </c>
-      <c r="X8" s="149"/>
-      <c r="Y8" s="149"/>
-      <c r="Z8" s="149" t="s">
+      <c r="X8" s="224"/>
+      <c r="Y8" s="224"/>
+      <c r="Z8" s="224" t="s">
         <v>39</v>
       </c>
-      <c r="AA8" s="149"/>
-      <c r="AB8" s="149"/>
-      <c r="AC8" s="149" t="s">
+      <c r="AA8" s="224"/>
+      <c r="AB8" s="224"/>
+      <c r="AC8" s="224" t="s">
         <v>40</v>
       </c>
-      <c r="AD8" s="149"/>
-      <c r="AE8" s="149"/>
+      <c r="AD8" s="224"/>
+      <c r="AE8" s="224"/>
       <c r="AF8" s="16"/>
     </row>
     <row r="9" spans="1:176" ht="15.75" customHeight="1">
       <c r="A9" s="16"/>
-      <c r="B9" s="156"/>
-      <c r="C9" s="157"/>
-      <c r="D9" s="157"/>
-      <c r="E9" s="158"/>
-      <c r="F9" s="162"/>
-      <c r="G9" s="163"/>
-      <c r="H9" s="163"/>
-      <c r="I9" s="163"/>
-      <c r="J9" s="163"/>
-      <c r="K9" s="163"/>
-      <c r="L9" s="163"/>
-      <c r="M9" s="163"/>
-      <c r="N9" s="163"/>
-      <c r="O9" s="163"/>
-      <c r="P9" s="163"/>
-      <c r="Q9" s="164"/>
+      <c r="B9" s="231"/>
+      <c r="C9" s="232"/>
+      <c r="D9" s="232"/>
+      <c r="E9" s="233"/>
+      <c r="F9" s="237"/>
+      <c r="G9" s="238"/>
+      <c r="H9" s="238"/>
+      <c r="I9" s="238"/>
+      <c r="J9" s="238"/>
+      <c r="K9" s="238"/>
+      <c r="L9" s="238"/>
+      <c r="M9" s="238"/>
+      <c r="N9" s="238"/>
+      <c r="O9" s="238"/>
+      <c r="P9" s="238"/>
+      <c r="Q9" s="239"/>
       <c r="R9" s="16"/>
       <c r="S9" s="16"/>
       <c r="T9" s="16"/>
       <c r="U9" s="16"/>
       <c r="V9" s="16"/>
-      <c r="W9" s="169" t="s">
+      <c r="W9" s="241" t="s">
         <v>61</v>
       </c>
-      <c r="X9" s="170"/>
-      <c r="Y9" s="171"/>
-      <c r="Z9" s="169"/>
-      <c r="AA9" s="170"/>
-      <c r="AB9" s="171"/>
-      <c r="AC9" s="169" t="s">
+      <c r="X9" s="242"/>
+      <c r="Y9" s="243"/>
+      <c r="Z9" s="241"/>
+      <c r="AA9" s="242"/>
+      <c r="AB9" s="243"/>
+      <c r="AC9" s="241" t="s">
         <v>62</v>
       </c>
-      <c r="AD9" s="170"/>
-      <c r="AE9" s="171"/>
+      <c r="AD9" s="242"/>
+      <c r="AE9" s="243"/>
       <c r="AF9" s="16"/>
     </row>
     <row r="10" spans="1:176" ht="15.75" customHeight="1">
@@ -5574,15 +5566,15 @@
       <c r="T10" s="16"/>
       <c r="U10" s="16"/>
       <c r="V10" s="16"/>
-      <c r="W10" s="172"/>
-      <c r="X10" s="173"/>
-      <c r="Y10" s="174"/>
-      <c r="Z10" s="172"/>
-      <c r="AA10" s="173"/>
-      <c r="AB10" s="174"/>
-      <c r="AC10" s="172"/>
-      <c r="AD10" s="173"/>
-      <c r="AE10" s="174"/>
+      <c r="W10" s="244"/>
+      <c r="X10" s="245"/>
+      <c r="Y10" s="246"/>
+      <c r="Z10" s="244"/>
+      <c r="AA10" s="245"/>
+      <c r="AB10" s="246"/>
+      <c r="AC10" s="244"/>
+      <c r="AD10" s="245"/>
+      <c r="AE10" s="246"/>
       <c r="AF10" s="16"/>
     </row>
     <row r="11" spans="1:176" ht="15.75" customHeight="1">
@@ -5608,15 +5600,15 @@
       <c r="T11" s="16"/>
       <c r="U11" s="16"/>
       <c r="V11" s="16"/>
-      <c r="W11" s="172"/>
-      <c r="X11" s="173"/>
-      <c r="Y11" s="174"/>
-      <c r="Z11" s="172"/>
-      <c r="AA11" s="173"/>
-      <c r="AB11" s="174"/>
-      <c r="AC11" s="172"/>
-      <c r="AD11" s="173"/>
-      <c r="AE11" s="174"/>
+      <c r="W11" s="244"/>
+      <c r="X11" s="245"/>
+      <c r="Y11" s="246"/>
+      <c r="Z11" s="244"/>
+      <c r="AA11" s="245"/>
+      <c r="AB11" s="246"/>
+      <c r="AC11" s="244"/>
+      <c r="AD11" s="245"/>
+      <c r="AE11" s="246"/>
       <c r="AF11" s="16"/>
     </row>
     <row r="12" spans="1:176" ht="15.75" customHeight="1">
@@ -5642,15 +5634,15 @@
       <c r="T12" s="20"/>
       <c r="U12" s="20"/>
       <c r="V12" s="20"/>
-      <c r="W12" s="175"/>
-      <c r="X12" s="176"/>
-      <c r="Y12" s="177"/>
-      <c r="Z12" s="175"/>
-      <c r="AA12" s="176"/>
-      <c r="AB12" s="177"/>
-      <c r="AC12" s="175"/>
-      <c r="AD12" s="176"/>
-      <c r="AE12" s="177"/>
+      <c r="W12" s="247"/>
+      <c r="X12" s="248"/>
+      <c r="Y12" s="249"/>
+      <c r="Z12" s="247"/>
+      <c r="AA12" s="248"/>
+      <c r="AB12" s="249"/>
+      <c r="AC12" s="247"/>
+      <c r="AD12" s="248"/>
+      <c r="AE12" s="249"/>
       <c r="AF12" s="16"/>
     </row>
     <row r="13" spans="1:176" ht="15.75" customHeight="1">
@@ -5749,106 +5741,106 @@
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
       <c r="A16" s="16"/>
-      <c r="B16" s="178" t="s">
+      <c r="B16" s="223" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="178"/>
-      <c r="D16" s="178"/>
-      <c r="E16" s="178"/>
-      <c r="F16" s="178"/>
-      <c r="G16" s="178"/>
-      <c r="H16" s="178"/>
-      <c r="I16" s="178"/>
-      <c r="J16" s="178"/>
-      <c r="K16" s="178"/>
-      <c r="L16" s="178"/>
-      <c r="M16" s="178"/>
-      <c r="N16" s="178"/>
-      <c r="O16" s="178"/>
-      <c r="P16" s="178"/>
-      <c r="Q16" s="178"/>
-      <c r="R16" s="178"/>
-      <c r="S16" s="178"/>
-      <c r="T16" s="178"/>
-      <c r="U16" s="178"/>
-      <c r="V16" s="178"/>
-      <c r="W16" s="178"/>
-      <c r="X16" s="178"/>
-      <c r="Y16" s="178"/>
-      <c r="Z16" s="178"/>
-      <c r="AA16" s="178"/>
-      <c r="AB16" s="178"/>
-      <c r="AC16" s="178"/>
-      <c r="AD16" s="178"/>
-      <c r="AE16" s="178"/>
+      <c r="C16" s="223"/>
+      <c r="D16" s="223"/>
+      <c r="E16" s="223"/>
+      <c r="F16" s="223"/>
+      <c r="G16" s="223"/>
+      <c r="H16" s="223"/>
+      <c r="I16" s="223"/>
+      <c r="J16" s="223"/>
+      <c r="K16" s="223"/>
+      <c r="L16" s="223"/>
+      <c r="M16" s="223"/>
+      <c r="N16" s="223"/>
+      <c r="O16" s="223"/>
+      <c r="P16" s="223"/>
+      <c r="Q16" s="223"/>
+      <c r="R16" s="223"/>
+      <c r="S16" s="223"/>
+      <c r="T16" s="223"/>
+      <c r="U16" s="223"/>
+      <c r="V16" s="223"/>
+      <c r="W16" s="223"/>
+      <c r="X16" s="223"/>
+      <c r="Y16" s="223"/>
+      <c r="Z16" s="223"/>
+      <c r="AA16" s="223"/>
+      <c r="AB16" s="223"/>
+      <c r="AC16" s="223"/>
+      <c r="AD16" s="223"/>
+      <c r="AE16" s="223"/>
       <c r="AF16" s="16"/>
     </row>
     <row r="17" spans="1:32" ht="15" customHeight="1">
       <c r="A17" s="16"/>
-      <c r="B17" s="178"/>
-      <c r="C17" s="178"/>
-      <c r="D17" s="178"/>
-      <c r="E17" s="178"/>
-      <c r="F17" s="178"/>
-      <c r="G17" s="178"/>
-      <c r="H17" s="178"/>
-      <c r="I17" s="178"/>
-      <c r="J17" s="178"/>
-      <c r="K17" s="178"/>
-      <c r="L17" s="178"/>
-      <c r="M17" s="178"/>
-      <c r="N17" s="178"/>
-      <c r="O17" s="178"/>
-      <c r="P17" s="178"/>
-      <c r="Q17" s="178"/>
-      <c r="R17" s="178"/>
-      <c r="S17" s="178"/>
-      <c r="T17" s="178"/>
-      <c r="U17" s="178"/>
-      <c r="V17" s="178"/>
-      <c r="W17" s="178"/>
-      <c r="X17" s="178"/>
-      <c r="Y17" s="178"/>
-      <c r="Z17" s="178"/>
-      <c r="AA17" s="178"/>
-      <c r="AB17" s="178"/>
-      <c r="AC17" s="178"/>
-      <c r="AD17" s="178"/>
-      <c r="AE17" s="178"/>
+      <c r="B17" s="223"/>
+      <c r="C17" s="223"/>
+      <c r="D17" s="223"/>
+      <c r="E17" s="223"/>
+      <c r="F17" s="223"/>
+      <c r="G17" s="223"/>
+      <c r="H17" s="223"/>
+      <c r="I17" s="223"/>
+      <c r="J17" s="223"/>
+      <c r="K17" s="223"/>
+      <c r="L17" s="223"/>
+      <c r="M17" s="223"/>
+      <c r="N17" s="223"/>
+      <c r="O17" s="223"/>
+      <c r="P17" s="223"/>
+      <c r="Q17" s="223"/>
+      <c r="R17" s="223"/>
+      <c r="S17" s="223"/>
+      <c r="T17" s="223"/>
+      <c r="U17" s="223"/>
+      <c r="V17" s="223"/>
+      <c r="W17" s="223"/>
+      <c r="X17" s="223"/>
+      <c r="Y17" s="223"/>
+      <c r="Z17" s="223"/>
+      <c r="AA17" s="223"/>
+      <c r="AB17" s="223"/>
+      <c r="AC17" s="223"/>
+      <c r="AD17" s="223"/>
+      <c r="AE17" s="223"/>
       <c r="AF17" s="16"/>
     </row>
     <row r="18" spans="1:32" ht="15" customHeight="1">
       <c r="A18" s="16"/>
-      <c r="B18" s="178"/>
-      <c r="C18" s="178"/>
-      <c r="D18" s="178"/>
-      <c r="E18" s="178"/>
-      <c r="F18" s="178"/>
-      <c r="G18" s="178"/>
-      <c r="H18" s="178"/>
-      <c r="I18" s="178"/>
-      <c r="J18" s="178"/>
-      <c r="K18" s="178"/>
-      <c r="L18" s="178"/>
-      <c r="M18" s="178"/>
-      <c r="N18" s="178"/>
-      <c r="O18" s="178"/>
-      <c r="P18" s="178"/>
-      <c r="Q18" s="178"/>
-      <c r="R18" s="178"/>
-      <c r="S18" s="178"/>
-      <c r="T18" s="178"/>
-      <c r="U18" s="178"/>
-      <c r="V18" s="178"/>
-      <c r="W18" s="178"/>
-      <c r="X18" s="178"/>
-      <c r="Y18" s="178"/>
-      <c r="Z18" s="178"/>
-      <c r="AA18" s="178"/>
-      <c r="AB18" s="178"/>
-      <c r="AC18" s="178"/>
-      <c r="AD18" s="178"/>
-      <c r="AE18" s="178"/>
+      <c r="B18" s="223"/>
+      <c r="C18" s="223"/>
+      <c r="D18" s="223"/>
+      <c r="E18" s="223"/>
+      <c r="F18" s="223"/>
+      <c r="G18" s="223"/>
+      <c r="H18" s="223"/>
+      <c r="I18" s="223"/>
+      <c r="J18" s="223"/>
+      <c r="K18" s="223"/>
+      <c r="L18" s="223"/>
+      <c r="M18" s="223"/>
+      <c r="N18" s="223"/>
+      <c r="O18" s="223"/>
+      <c r="P18" s="223"/>
+      <c r="Q18" s="223"/>
+      <c r="R18" s="223"/>
+      <c r="S18" s="223"/>
+      <c r="T18" s="223"/>
+      <c r="U18" s="223"/>
+      <c r="V18" s="223"/>
+      <c r="W18" s="223"/>
+      <c r="X18" s="223"/>
+      <c r="Y18" s="223"/>
+      <c r="Z18" s="223"/>
+      <c r="AA18" s="223"/>
+      <c r="AB18" s="223"/>
+      <c r="AC18" s="223"/>
+      <c r="AD18" s="223"/>
+      <c r="AE18" s="223"/>
       <c r="AF18" s="16"/>
     </row>
     <row r="19" spans="1:32" ht="15" customHeight="1">
@@ -5991,416 +5983,416 @@
     </row>
     <row r="23" spans="1:32" s="49" customFormat="1" ht="29.25" customHeight="1">
       <c r="A23" s="46"/>
-      <c r="B23" s="165" t="s">
+      <c r="B23" s="214" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="168"/>
-      <c r="D23" s="168"/>
-      <c r="E23" s="166"/>
-      <c r="F23" s="165" t="s">
+      <c r="C23" s="215"/>
+      <c r="D23" s="215"/>
+      <c r="E23" s="216"/>
+      <c r="F23" s="214" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="168"/>
-      <c r="H23" s="168"/>
-      <c r="I23" s="166"/>
-      <c r="J23" s="165" t="s">
+      <c r="G23" s="215"/>
+      <c r="H23" s="215"/>
+      <c r="I23" s="216"/>
+      <c r="J23" s="214" t="s">
         <v>44</v>
       </c>
-      <c r="K23" s="168"/>
-      <c r="L23" s="168"/>
-      <c r="M23" s="168"/>
-      <c r="N23" s="168"/>
-      <c r="O23" s="168"/>
-      <c r="P23" s="168"/>
-      <c r="Q23" s="168"/>
-      <c r="R23" s="168"/>
-      <c r="S23" s="168"/>
-      <c r="T23" s="168"/>
-      <c r="U23" s="168"/>
-      <c r="V23" s="168"/>
-      <c r="W23" s="168"/>
-      <c r="X23" s="168"/>
-      <c r="Y23" s="168"/>
-      <c r="Z23" s="168"/>
-      <c r="AA23" s="168"/>
-      <c r="AB23" s="166"/>
-      <c r="AC23" s="165" t="s">
+      <c r="K23" s="215"/>
+      <c r="L23" s="215"/>
+      <c r="M23" s="215"/>
+      <c r="N23" s="215"/>
+      <c r="O23" s="215"/>
+      <c r="P23" s="215"/>
+      <c r="Q23" s="215"/>
+      <c r="R23" s="215"/>
+      <c r="S23" s="215"/>
+      <c r="T23" s="215"/>
+      <c r="U23" s="215"/>
+      <c r="V23" s="215"/>
+      <c r="W23" s="215"/>
+      <c r="X23" s="215"/>
+      <c r="Y23" s="215"/>
+      <c r="Z23" s="215"/>
+      <c r="AA23" s="215"/>
+      <c r="AB23" s="216"/>
+      <c r="AC23" s="214" t="s">
         <v>40</v>
       </c>
-      <c r="AD23" s="168"/>
-      <c r="AE23" s="166"/>
+      <c r="AD23" s="215"/>
+      <c r="AE23" s="216"/>
       <c r="AF23" s="46"/>
     </row>
     <row r="24" spans="1:32" ht="29.25" customHeight="1">
       <c r="A24" s="16"/>
-      <c r="B24" s="165" t="s">
+      <c r="B24" s="214" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="168"/>
-      <c r="D24" s="168"/>
-      <c r="E24" s="166"/>
-      <c r="F24" s="179">
+      <c r="C24" s="215"/>
+      <c r="D24" s="215"/>
+      <c r="E24" s="216"/>
+      <c r="F24" s="217">
         <v>43969</v>
       </c>
-      <c r="G24" s="180"/>
-      <c r="H24" s="180"/>
-      <c r="I24" s="181"/>
-      <c r="J24" s="182" t="s">
+      <c r="G24" s="218"/>
+      <c r="H24" s="218"/>
+      <c r="I24" s="219"/>
+      <c r="J24" s="220" t="s">
         <v>51</v>
       </c>
-      <c r="K24" s="183"/>
-      <c r="L24" s="183"/>
-      <c r="M24" s="183"/>
-      <c r="N24" s="183"/>
-      <c r="O24" s="183"/>
-      <c r="P24" s="183"/>
-      <c r="Q24" s="183"/>
-      <c r="R24" s="183"/>
-      <c r="S24" s="183"/>
-      <c r="T24" s="183"/>
-      <c r="U24" s="183"/>
-      <c r="V24" s="183"/>
-      <c r="W24" s="183"/>
-      <c r="X24" s="183"/>
-      <c r="Y24" s="183"/>
-      <c r="Z24" s="183"/>
-      <c r="AA24" s="183"/>
-      <c r="AB24" s="184"/>
-      <c r="AC24" s="165" t="s">
+      <c r="K24" s="221"/>
+      <c r="L24" s="221"/>
+      <c r="M24" s="221"/>
+      <c r="N24" s="221"/>
+      <c r="O24" s="221"/>
+      <c r="P24" s="221"/>
+      <c r="Q24" s="221"/>
+      <c r="R24" s="221"/>
+      <c r="S24" s="221"/>
+      <c r="T24" s="221"/>
+      <c r="U24" s="221"/>
+      <c r="V24" s="221"/>
+      <c r="W24" s="221"/>
+      <c r="X24" s="221"/>
+      <c r="Y24" s="221"/>
+      <c r="Z24" s="221"/>
+      <c r="AA24" s="221"/>
+      <c r="AB24" s="222"/>
+      <c r="AC24" s="214" t="s">
         <v>60</v>
       </c>
-      <c r="AD24" s="168"/>
-      <c r="AE24" s="166"/>
+      <c r="AD24" s="215"/>
+      <c r="AE24" s="216"/>
       <c r="AF24" s="16"/>
     </row>
     <row r="25" spans="1:32" ht="29.25" customHeight="1">
       <c r="A25" s="16"/>
-      <c r="B25" s="165" t="s">
+      <c r="B25" s="214" t="s">
         <v>132</v>
       </c>
-      <c r="C25" s="168"/>
-      <c r="D25" s="168"/>
-      <c r="E25" s="166"/>
-      <c r="F25" s="179">
+      <c r="C25" s="215"/>
+      <c r="D25" s="215"/>
+      <c r="E25" s="216"/>
+      <c r="F25" s="217">
         <v>43971</v>
       </c>
-      <c r="G25" s="180"/>
-      <c r="H25" s="180"/>
-      <c r="I25" s="181"/>
-      <c r="J25" s="182" t="s">
+      <c r="G25" s="218"/>
+      <c r="H25" s="218"/>
+      <c r="I25" s="219"/>
+      <c r="J25" s="220" t="s">
         <v>134</v>
       </c>
-      <c r="K25" s="183"/>
-      <c r="L25" s="183"/>
-      <c r="M25" s="183"/>
-      <c r="N25" s="183"/>
-      <c r="O25" s="183"/>
-      <c r="P25" s="183"/>
-      <c r="Q25" s="183"/>
-      <c r="R25" s="183"/>
-      <c r="S25" s="183"/>
-      <c r="T25" s="183"/>
-      <c r="U25" s="183"/>
-      <c r="V25" s="183"/>
-      <c r="W25" s="183"/>
-      <c r="X25" s="183"/>
-      <c r="Y25" s="183"/>
-      <c r="Z25" s="183"/>
-      <c r="AA25" s="183"/>
-      <c r="AB25" s="184"/>
-      <c r="AC25" s="165" t="s">
+      <c r="K25" s="221"/>
+      <c r="L25" s="221"/>
+      <c r="M25" s="221"/>
+      <c r="N25" s="221"/>
+      <c r="O25" s="221"/>
+      <c r="P25" s="221"/>
+      <c r="Q25" s="221"/>
+      <c r="R25" s="221"/>
+      <c r="S25" s="221"/>
+      <c r="T25" s="221"/>
+      <c r="U25" s="221"/>
+      <c r="V25" s="221"/>
+      <c r="W25" s="221"/>
+      <c r="X25" s="221"/>
+      <c r="Y25" s="221"/>
+      <c r="Z25" s="221"/>
+      <c r="AA25" s="221"/>
+      <c r="AB25" s="222"/>
+      <c r="AC25" s="214" t="s">
         <v>133</v>
       </c>
-      <c r="AD25" s="168"/>
-      <c r="AE25" s="166"/>
+      <c r="AD25" s="215"/>
+      <c r="AE25" s="216"/>
       <c r="AF25" s="16"/>
     </row>
     <row r="26" spans="1:32" ht="29.25" customHeight="1">
       <c r="A26" s="16"/>
-      <c r="B26" s="165" t="s">
+      <c r="B26" s="214" t="s">
         <v>158</v>
       </c>
-      <c r="C26" s="168"/>
-      <c r="D26" s="168"/>
-      <c r="E26" s="166"/>
-      <c r="F26" s="179">
+      <c r="C26" s="215"/>
+      <c r="D26" s="215"/>
+      <c r="E26" s="216"/>
+      <c r="F26" s="217">
         <v>43972</v>
       </c>
-      <c r="G26" s="180"/>
-      <c r="H26" s="180"/>
-      <c r="I26" s="181"/>
-      <c r="J26" s="182" t="s">
+      <c r="G26" s="218"/>
+      <c r="H26" s="218"/>
+      <c r="I26" s="219"/>
+      <c r="J26" s="220" t="s">
         <v>159</v>
       </c>
-      <c r="K26" s="183"/>
-      <c r="L26" s="183"/>
-      <c r="M26" s="183"/>
-      <c r="N26" s="183"/>
-      <c r="O26" s="183"/>
-      <c r="P26" s="183"/>
-      <c r="Q26" s="183"/>
-      <c r="R26" s="183"/>
-      <c r="S26" s="183"/>
-      <c r="T26" s="183"/>
-      <c r="U26" s="183"/>
-      <c r="V26" s="183"/>
-      <c r="W26" s="183"/>
-      <c r="X26" s="183"/>
-      <c r="Y26" s="183"/>
-      <c r="Z26" s="183"/>
-      <c r="AA26" s="183"/>
-      <c r="AB26" s="184"/>
-      <c r="AC26" s="165" t="s">
+      <c r="K26" s="221"/>
+      <c r="L26" s="221"/>
+      <c r="M26" s="221"/>
+      <c r="N26" s="221"/>
+      <c r="O26" s="221"/>
+      <c r="P26" s="221"/>
+      <c r="Q26" s="221"/>
+      <c r="R26" s="221"/>
+      <c r="S26" s="221"/>
+      <c r="T26" s="221"/>
+      <c r="U26" s="221"/>
+      <c r="V26" s="221"/>
+      <c r="W26" s="221"/>
+      <c r="X26" s="221"/>
+      <c r="Y26" s="221"/>
+      <c r="Z26" s="221"/>
+      <c r="AA26" s="221"/>
+      <c r="AB26" s="222"/>
+      <c r="AC26" s="214" t="s">
         <v>62</v>
       </c>
-      <c r="AD26" s="168"/>
-      <c r="AE26" s="166"/>
+      <c r="AD26" s="215"/>
+      <c r="AE26" s="216"/>
       <c r="AF26" s="16"/>
     </row>
     <row r="27" spans="1:32" ht="29.25" customHeight="1">
       <c r="A27" s="16"/>
-      <c r="B27" s="165" t="s">
+      <c r="B27" s="214" t="s">
         <v>173</v>
       </c>
-      <c r="C27" s="168"/>
-      <c r="D27" s="168"/>
-      <c r="E27" s="166"/>
-      <c r="F27" s="179">
+      <c r="C27" s="215"/>
+      <c r="D27" s="215"/>
+      <c r="E27" s="216"/>
+      <c r="F27" s="217">
         <v>43976</v>
       </c>
-      <c r="G27" s="180"/>
-      <c r="H27" s="180"/>
-      <c r="I27" s="181"/>
-      <c r="J27" s="182" t="s">
+      <c r="G27" s="218"/>
+      <c r="H27" s="218"/>
+      <c r="I27" s="219"/>
+      <c r="J27" s="220" t="s">
         <v>174</v>
       </c>
-      <c r="K27" s="183"/>
-      <c r="L27" s="183"/>
-      <c r="M27" s="183"/>
-      <c r="N27" s="183"/>
-      <c r="O27" s="183"/>
-      <c r="P27" s="183"/>
-      <c r="Q27" s="183"/>
-      <c r="R27" s="183"/>
-      <c r="S27" s="183"/>
-      <c r="T27" s="183"/>
-      <c r="U27" s="183"/>
-      <c r="V27" s="183"/>
-      <c r="W27" s="183"/>
-      <c r="X27" s="183"/>
-      <c r="Y27" s="183"/>
-      <c r="Z27" s="183"/>
-      <c r="AA27" s="183"/>
-      <c r="AB27" s="184"/>
-      <c r="AC27" s="165" t="s">
+      <c r="K27" s="221"/>
+      <c r="L27" s="221"/>
+      <c r="M27" s="221"/>
+      <c r="N27" s="221"/>
+      <c r="O27" s="221"/>
+      <c r="P27" s="221"/>
+      <c r="Q27" s="221"/>
+      <c r="R27" s="221"/>
+      <c r="S27" s="221"/>
+      <c r="T27" s="221"/>
+      <c r="U27" s="221"/>
+      <c r="V27" s="221"/>
+      <c r="W27" s="221"/>
+      <c r="X27" s="221"/>
+      <c r="Y27" s="221"/>
+      <c r="Z27" s="221"/>
+      <c r="AA27" s="221"/>
+      <c r="AB27" s="222"/>
+      <c r="AC27" s="214" t="s">
         <v>62</v>
       </c>
-      <c r="AD27" s="168"/>
-      <c r="AE27" s="166"/>
+      <c r="AD27" s="215"/>
+      <c r="AE27" s="216"/>
       <c r="AF27" s="16"/>
     </row>
     <row r="28" spans="1:32" ht="29.25" customHeight="1">
       <c r="A28" s="16"/>
-      <c r="B28" s="165"/>
-      <c r="C28" s="168"/>
-      <c r="D28" s="168"/>
-      <c r="E28" s="166"/>
-      <c r="F28" s="179"/>
-      <c r="G28" s="180"/>
-      <c r="H28" s="180"/>
-      <c r="I28" s="181"/>
-      <c r="J28" s="182"/>
-      <c r="K28" s="183"/>
-      <c r="L28" s="183"/>
-      <c r="M28" s="183"/>
-      <c r="N28" s="183"/>
-      <c r="O28" s="183"/>
-      <c r="P28" s="183"/>
-      <c r="Q28" s="183"/>
-      <c r="R28" s="183"/>
-      <c r="S28" s="183"/>
-      <c r="T28" s="183"/>
-      <c r="U28" s="183"/>
-      <c r="V28" s="183"/>
-      <c r="W28" s="183"/>
-      <c r="X28" s="183"/>
-      <c r="Y28" s="183"/>
-      <c r="Z28" s="183"/>
-      <c r="AA28" s="183"/>
-      <c r="AB28" s="184"/>
-      <c r="AC28" s="165"/>
-      <c r="AD28" s="168"/>
-      <c r="AE28" s="166"/>
+      <c r="B28" s="214"/>
+      <c r="C28" s="215"/>
+      <c r="D28" s="215"/>
+      <c r="E28" s="216"/>
+      <c r="F28" s="217"/>
+      <c r="G28" s="218"/>
+      <c r="H28" s="218"/>
+      <c r="I28" s="219"/>
+      <c r="J28" s="220"/>
+      <c r="K28" s="221"/>
+      <c r="L28" s="221"/>
+      <c r="M28" s="221"/>
+      <c r="N28" s="221"/>
+      <c r="O28" s="221"/>
+      <c r="P28" s="221"/>
+      <c r="Q28" s="221"/>
+      <c r="R28" s="221"/>
+      <c r="S28" s="221"/>
+      <c r="T28" s="221"/>
+      <c r="U28" s="221"/>
+      <c r="V28" s="221"/>
+      <c r="W28" s="221"/>
+      <c r="X28" s="221"/>
+      <c r="Y28" s="221"/>
+      <c r="Z28" s="221"/>
+      <c r="AA28" s="221"/>
+      <c r="AB28" s="222"/>
+      <c r="AC28" s="214"/>
+      <c r="AD28" s="215"/>
+      <c r="AE28" s="216"/>
       <c r="AF28" s="16"/>
     </row>
     <row r="29" spans="1:32" ht="29.25" customHeight="1">
       <c r="A29" s="16"/>
-      <c r="B29" s="165"/>
-      <c r="C29" s="168"/>
-      <c r="D29" s="168"/>
-      <c r="E29" s="166"/>
-      <c r="F29" s="179"/>
-      <c r="G29" s="180"/>
-      <c r="H29" s="180"/>
-      <c r="I29" s="181"/>
-      <c r="J29" s="182"/>
-      <c r="K29" s="183"/>
-      <c r="L29" s="183"/>
-      <c r="M29" s="183"/>
-      <c r="N29" s="183"/>
-      <c r="O29" s="183"/>
-      <c r="P29" s="183"/>
-      <c r="Q29" s="183"/>
-      <c r="R29" s="183"/>
-      <c r="S29" s="183"/>
-      <c r="T29" s="183"/>
-      <c r="U29" s="183"/>
-      <c r="V29" s="183"/>
-      <c r="W29" s="183"/>
-      <c r="X29" s="183"/>
-      <c r="Y29" s="183"/>
-      <c r="Z29" s="183"/>
-      <c r="AA29" s="183"/>
-      <c r="AB29" s="184"/>
-      <c r="AC29" s="165"/>
-      <c r="AD29" s="168"/>
-      <c r="AE29" s="166"/>
+      <c r="B29" s="214"/>
+      <c r="C29" s="215"/>
+      <c r="D29" s="215"/>
+      <c r="E29" s="216"/>
+      <c r="F29" s="217"/>
+      <c r="G29" s="218"/>
+      <c r="H29" s="218"/>
+      <c r="I29" s="219"/>
+      <c r="J29" s="220"/>
+      <c r="K29" s="221"/>
+      <c r="L29" s="221"/>
+      <c r="M29" s="221"/>
+      <c r="N29" s="221"/>
+      <c r="O29" s="221"/>
+      <c r="P29" s="221"/>
+      <c r="Q29" s="221"/>
+      <c r="R29" s="221"/>
+      <c r="S29" s="221"/>
+      <c r="T29" s="221"/>
+      <c r="U29" s="221"/>
+      <c r="V29" s="221"/>
+      <c r="W29" s="221"/>
+      <c r="X29" s="221"/>
+      <c r="Y29" s="221"/>
+      <c r="Z29" s="221"/>
+      <c r="AA29" s="221"/>
+      <c r="AB29" s="222"/>
+      <c r="AC29" s="214"/>
+      <c r="AD29" s="215"/>
+      <c r="AE29" s="216"/>
       <c r="AF29" s="16"/>
     </row>
     <row r="30" spans="1:32" ht="29.25" customHeight="1">
       <c r="A30" s="16"/>
-      <c r="B30" s="165"/>
-      <c r="C30" s="168"/>
-      <c r="D30" s="168"/>
-      <c r="E30" s="166"/>
-      <c r="F30" s="179"/>
-      <c r="G30" s="180"/>
-      <c r="H30" s="180"/>
-      <c r="I30" s="181"/>
-      <c r="J30" s="182"/>
-      <c r="K30" s="183"/>
-      <c r="L30" s="183"/>
-      <c r="M30" s="183"/>
-      <c r="N30" s="183"/>
-      <c r="O30" s="183"/>
-      <c r="P30" s="183"/>
-      <c r="Q30" s="183"/>
-      <c r="R30" s="183"/>
-      <c r="S30" s="183"/>
-      <c r="T30" s="183"/>
-      <c r="U30" s="183"/>
-      <c r="V30" s="183"/>
-      <c r="W30" s="183"/>
-      <c r="X30" s="183"/>
-      <c r="Y30" s="183"/>
-      <c r="Z30" s="183"/>
-      <c r="AA30" s="183"/>
-      <c r="AB30" s="184"/>
-      <c r="AC30" s="165"/>
-      <c r="AD30" s="168"/>
-      <c r="AE30" s="166"/>
+      <c r="B30" s="214"/>
+      <c r="C30" s="215"/>
+      <c r="D30" s="215"/>
+      <c r="E30" s="216"/>
+      <c r="F30" s="217"/>
+      <c r="G30" s="218"/>
+      <c r="H30" s="218"/>
+      <c r="I30" s="219"/>
+      <c r="J30" s="220"/>
+      <c r="K30" s="221"/>
+      <c r="L30" s="221"/>
+      <c r="M30" s="221"/>
+      <c r="N30" s="221"/>
+      <c r="O30" s="221"/>
+      <c r="P30" s="221"/>
+      <c r="Q30" s="221"/>
+      <c r="R30" s="221"/>
+      <c r="S30" s="221"/>
+      <c r="T30" s="221"/>
+      <c r="U30" s="221"/>
+      <c r="V30" s="221"/>
+      <c r="W30" s="221"/>
+      <c r="X30" s="221"/>
+      <c r="Y30" s="221"/>
+      <c r="Z30" s="221"/>
+      <c r="AA30" s="221"/>
+      <c r="AB30" s="222"/>
+      <c r="AC30" s="214"/>
+      <c r="AD30" s="215"/>
+      <c r="AE30" s="216"/>
       <c r="AF30" s="16"/>
     </row>
     <row r="31" spans="1:32" ht="29.25" customHeight="1">
       <c r="A31" s="16"/>
-      <c r="B31" s="165"/>
-      <c r="C31" s="168"/>
-      <c r="D31" s="168"/>
-      <c r="E31" s="166"/>
-      <c r="F31" s="179"/>
-      <c r="G31" s="180"/>
-      <c r="H31" s="180"/>
-      <c r="I31" s="181"/>
-      <c r="J31" s="182"/>
-      <c r="K31" s="183"/>
-      <c r="L31" s="183"/>
-      <c r="M31" s="183"/>
-      <c r="N31" s="183"/>
-      <c r="O31" s="183"/>
-      <c r="P31" s="183"/>
-      <c r="Q31" s="183"/>
-      <c r="R31" s="183"/>
-      <c r="S31" s="183"/>
-      <c r="T31" s="183"/>
-      <c r="U31" s="183"/>
-      <c r="V31" s="183"/>
-      <c r="W31" s="183"/>
-      <c r="X31" s="183"/>
-      <c r="Y31" s="183"/>
-      <c r="Z31" s="183"/>
-      <c r="AA31" s="183"/>
-      <c r="AB31" s="184"/>
-      <c r="AC31" s="165"/>
-      <c r="AD31" s="168"/>
-      <c r="AE31" s="166"/>
+      <c r="B31" s="214"/>
+      <c r="C31" s="215"/>
+      <c r="D31" s="215"/>
+      <c r="E31" s="216"/>
+      <c r="F31" s="217"/>
+      <c r="G31" s="218"/>
+      <c r="H31" s="218"/>
+      <c r="I31" s="219"/>
+      <c r="J31" s="220"/>
+      <c r="K31" s="221"/>
+      <c r="L31" s="221"/>
+      <c r="M31" s="221"/>
+      <c r="N31" s="221"/>
+      <c r="O31" s="221"/>
+      <c r="P31" s="221"/>
+      <c r="Q31" s="221"/>
+      <c r="R31" s="221"/>
+      <c r="S31" s="221"/>
+      <c r="T31" s="221"/>
+      <c r="U31" s="221"/>
+      <c r="V31" s="221"/>
+      <c r="W31" s="221"/>
+      <c r="X31" s="221"/>
+      <c r="Y31" s="221"/>
+      <c r="Z31" s="221"/>
+      <c r="AA31" s="221"/>
+      <c r="AB31" s="222"/>
+      <c r="AC31" s="214"/>
+      <c r="AD31" s="215"/>
+      <c r="AE31" s="216"/>
       <c r="AF31" s="16"/>
     </row>
     <row r="32" spans="1:32" ht="29.25" customHeight="1">
       <c r="A32" s="16"/>
-      <c r="B32" s="165"/>
-      <c r="C32" s="168"/>
-      <c r="D32" s="168"/>
-      <c r="E32" s="166"/>
-      <c r="F32" s="179"/>
-      <c r="G32" s="180"/>
-      <c r="H32" s="180"/>
-      <c r="I32" s="181"/>
-      <c r="J32" s="182"/>
-      <c r="K32" s="183"/>
-      <c r="L32" s="183"/>
-      <c r="M32" s="183"/>
-      <c r="N32" s="183"/>
-      <c r="O32" s="183"/>
-      <c r="P32" s="183"/>
-      <c r="Q32" s="183"/>
-      <c r="R32" s="183"/>
-      <c r="S32" s="183"/>
-      <c r="T32" s="183"/>
-      <c r="U32" s="183"/>
-      <c r="V32" s="183"/>
-      <c r="W32" s="183"/>
-      <c r="X32" s="183"/>
-      <c r="Y32" s="183"/>
-      <c r="Z32" s="183"/>
-      <c r="AA32" s="183"/>
-      <c r="AB32" s="184"/>
-      <c r="AC32" s="165"/>
-      <c r="AD32" s="168"/>
-      <c r="AE32" s="166"/>
+      <c r="B32" s="214"/>
+      <c r="C32" s="215"/>
+      <c r="D32" s="215"/>
+      <c r="E32" s="216"/>
+      <c r="F32" s="217"/>
+      <c r="G32" s="218"/>
+      <c r="H32" s="218"/>
+      <c r="I32" s="219"/>
+      <c r="J32" s="220"/>
+      <c r="K32" s="221"/>
+      <c r="L32" s="221"/>
+      <c r="M32" s="221"/>
+      <c r="N32" s="221"/>
+      <c r="O32" s="221"/>
+      <c r="P32" s="221"/>
+      <c r="Q32" s="221"/>
+      <c r="R32" s="221"/>
+      <c r="S32" s="221"/>
+      <c r="T32" s="221"/>
+      <c r="U32" s="221"/>
+      <c r="V32" s="221"/>
+      <c r="W32" s="221"/>
+      <c r="X32" s="221"/>
+      <c r="Y32" s="221"/>
+      <c r="Z32" s="221"/>
+      <c r="AA32" s="221"/>
+      <c r="AB32" s="222"/>
+      <c r="AC32" s="214"/>
+      <c r="AD32" s="215"/>
+      <c r="AE32" s="216"/>
       <c r="AF32" s="16"/>
     </row>
     <row r="33" spans="1:32" ht="29.25" customHeight="1">
       <c r="A33" s="16"/>
-      <c r="B33" s="165"/>
-      <c r="C33" s="168"/>
-      <c r="D33" s="168"/>
-      <c r="E33" s="166"/>
-      <c r="F33" s="179"/>
-      <c r="G33" s="180"/>
-      <c r="H33" s="180"/>
-      <c r="I33" s="181"/>
-      <c r="J33" s="182"/>
-      <c r="K33" s="183"/>
-      <c r="L33" s="183"/>
-      <c r="M33" s="183"/>
-      <c r="N33" s="183"/>
-      <c r="O33" s="183"/>
-      <c r="P33" s="183"/>
-      <c r="Q33" s="183"/>
-      <c r="R33" s="183"/>
-      <c r="S33" s="183"/>
-      <c r="T33" s="183"/>
-      <c r="U33" s="183"/>
-      <c r="V33" s="183"/>
-      <c r="W33" s="183"/>
-      <c r="X33" s="183"/>
-      <c r="Y33" s="183"/>
-      <c r="Z33" s="183"/>
-      <c r="AA33" s="183"/>
-      <c r="AB33" s="184"/>
-      <c r="AC33" s="165"/>
-      <c r="AD33" s="168"/>
-      <c r="AE33" s="166"/>
+      <c r="B33" s="214"/>
+      <c r="C33" s="215"/>
+      <c r="D33" s="215"/>
+      <c r="E33" s="216"/>
+      <c r="F33" s="217"/>
+      <c r="G33" s="218"/>
+      <c r="H33" s="218"/>
+      <c r="I33" s="219"/>
+      <c r="J33" s="220"/>
+      <c r="K33" s="221"/>
+      <c r="L33" s="221"/>
+      <c r="M33" s="221"/>
+      <c r="N33" s="221"/>
+      <c r="O33" s="221"/>
+      <c r="P33" s="221"/>
+      <c r="Q33" s="221"/>
+      <c r="R33" s="221"/>
+      <c r="S33" s="221"/>
+      <c r="T33" s="221"/>
+      <c r="U33" s="221"/>
+      <c r="V33" s="221"/>
+      <c r="W33" s="221"/>
+      <c r="X33" s="221"/>
+      <c r="Y33" s="221"/>
+      <c r="Z33" s="221"/>
+      <c r="AA33" s="221"/>
+      <c r="AB33" s="222"/>
+      <c r="AC33" s="214"/>
+      <c r="AD33" s="215"/>
+      <c r="AE33" s="216"/>
       <c r="AF33" s="16"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
@@ -6439,51 +6431,6 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B16:AE18"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:AB23"/>
-    <mergeCell ref="AC23:AE23"/>
     <mergeCell ref="AC8:AE8"/>
     <mergeCell ref="F7:Q7"/>
     <mergeCell ref="B8:E9"/>
@@ -6495,6 +6442,51 @@
     <mergeCell ref="AC9:AE12"/>
     <mergeCell ref="Z9:AB12"/>
     <mergeCell ref="W9:Y12"/>
+    <mergeCell ref="B16:AE18"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -6544,10 +6536,10 @@
       <c r="F1" s="127"/>
     </row>
     <row r="2" spans="1:6" s="40" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="185" t="s">
+      <c r="A2" s="256" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="186"/>
+      <c r="B2" s="257"/>
       <c r="C2" s="37"/>
       <c r="D2" s="38"/>
       <c r="E2" s="39" t="s">
@@ -6558,10 +6550,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="40" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="185" t="s">
+      <c r="A3" s="256" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="186"/>
+      <c r="B3" s="257"/>
       <c r="C3" s="37"/>
       <c r="D3" s="38"/>
       <c r="E3" s="39" t="s">
@@ -6572,10 +6564,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="40" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="185" t="s">
+      <c r="A4" s="256" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="186"/>
+      <c r="B4" s="257"/>
       <c r="C4" s="37"/>
       <c r="D4" s="38"/>
       <c r="E4" s="39" t="s">
@@ -6586,10 +6578,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" s="40" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="185" t="s">
+      <c r="A5" s="256" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="186"/>
+      <c r="B5" s="257"/>
       <c r="C5" s="41"/>
       <c r="D5" s="38"/>
       <c r="E5" s="39" t="s">
@@ -6598,10 +6590,10 @@
       <c r="F5" s="92"/>
     </row>
     <row r="6" spans="1:6" s="40" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="185" t="s">
+      <c r="A6" s="256" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="186"/>
+      <c r="B6" s="257"/>
       <c r="C6" s="37"/>
       <c r="D6" s="38"/>
       <c r="E6" s="39" t="s">
@@ -6640,10 +6632,10 @@
       <c r="D9" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="191" t="s">
+      <c r="E9" s="254" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="192"/>
+      <c r="F9" s="255"/>
     </row>
     <row r="10" spans="1:6" ht="33.75" customHeight="1">
       <c r="A10" s="64">
@@ -6658,8 +6650,8 @@
       <c r="D10" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="187"/>
-      <c r="F10" s="188"/>
+      <c r="E10" s="250"/>
+      <c r="F10" s="251"/>
     </row>
     <row r="11" spans="1:6" ht="33.75" customHeight="1">
       <c r="A11" s="64">
@@ -6674,8 +6666,8 @@
       <c r="D11" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="187"/>
-      <c r="F11" s="188"/>
+      <c r="E11" s="250"/>
+      <c r="F11" s="251"/>
     </row>
     <row r="12" spans="1:6" ht="33.75" customHeight="1">
       <c r="A12" s="64">
@@ -6690,8 +6682,8 @@
       <c r="D12" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="187"/>
-      <c r="F12" s="188"/>
+      <c r="E12" s="250"/>
+      <c r="F12" s="251"/>
     </row>
     <row r="13" spans="1:6" ht="33.75" customHeight="1">
       <c r="A13" s="64">
@@ -6706,8 +6698,8 @@
       <c r="D13" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="187"/>
-      <c r="F13" s="188"/>
+      <c r="E13" s="250"/>
+      <c r="F13" s="251"/>
     </row>
     <row r="14" spans="1:6" ht="33.75" customHeight="1">
       <c r="A14" s="64">
@@ -6722,8 +6714,8 @@
       <c r="D14" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="E14" s="187"/>
-      <c r="F14" s="188"/>
+      <c r="E14" s="250"/>
+      <c r="F14" s="251"/>
     </row>
     <row r="15" spans="1:6" ht="33.75" customHeight="1">
       <c r="A15" s="9">
@@ -6738,24 +6730,24 @@
       <c r="D15" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="189"/>
-      <c r="F15" s="190"/>
+      <c r="E15" s="252"/>
+      <c r="F15" s="253"/>
     </row>
     <row r="16" spans="1:6" ht="33.75" customHeight="1">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="189"/>
-      <c r="F16" s="190"/>
+      <c r="E16" s="252"/>
+      <c r="F16" s="253"/>
     </row>
     <row r="17" spans="1:6" ht="33.75" customHeight="1">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="189"/>
-      <c r="F17" s="190"/>
+      <c r="E17" s="252"/>
+      <c r="F17" s="253"/>
     </row>
     <row r="18" spans="1:6" ht="29.25" customHeight="1">
       <c r="A18" s="36" t="s">
@@ -7217,6 +7209,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
@@ -7226,11 +7223,6 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7251,47 +7243,47 @@
   </sheetPr>
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="241" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="241" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" style="241" customWidth="1"/>
-    <col min="4" max="6" width="13.5" style="241" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" style="241" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" style="241" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="241"/>
+    <col min="1" max="1" width="3.6640625" style="149" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="149" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" style="149" customWidth="1"/>
+    <col min="4" max="6" width="13.5" style="149" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" style="149" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" style="149" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="149"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15">
-      <c r="A1" s="339" t="s">
+      <c r="A1" s="210" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="338"/>
-      <c r="C1" s="338"/>
-      <c r="D1" s="338"/>
-      <c r="E1" s="338"/>
-      <c r="F1" s="338"/>
-      <c r="G1" s="338"/>
-      <c r="H1" s="337"/>
+      <c r="B1" s="209"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="208"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A2" s="328" t="s">
+      <c r="A2" s="199" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="328"/>
-      <c r="C2" s="335"/>
-      <c r="D2" s="334"/>
-      <c r="E2" s="333" t="s">
+      <c r="B2" s="199"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="204" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="334" t="s">
+      <c r="F2" s="205" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="333" t="s">
+      <c r="G2" s="204" t="s">
         <v>24</v>
       </c>
       <c r="H2" s="147">
@@ -7300,726 +7292,761 @@
       <c r="I2" s="146"/>
     </row>
     <row r="3" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A3" s="328" t="s">
+      <c r="A3" s="199" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="328"/>
-      <c r="C3" s="335"/>
-      <c r="D3" s="334"/>
-      <c r="E3" s="333" t="s">
+      <c r="B3" s="199"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="205"/>
+      <c r="E3" s="204" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="334"/>
-      <c r="G3" s="333" t="s">
+      <c r="F3" s="205"/>
+      <c r="G3" s="204" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="336">
+      <c r="H3" s="207">
         <v>43993</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A4" s="328" t="s">
+      <c r="A4" s="199" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="328"/>
-      <c r="C4" s="335"/>
-      <c r="D4" s="335"/>
-      <c r="E4" s="334"/>
-      <c r="F4" s="334"/>
-      <c r="G4" s="333" t="s">
+      <c r="B4" s="199"/>
+      <c r="C4" s="206"/>
+      <c r="D4" s="206"/>
+      <c r="E4" s="205"/>
+      <c r="F4" s="205"/>
+      <c r="G4" s="204" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="332"/>
-    </row>
-    <row r="5" spans="1:9" s="329" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A5" s="330"/>
-      <c r="B5" s="330"/>
-      <c r="C5" s="330"/>
-      <c r="D5" s="330"/>
-      <c r="E5" s="330"/>
-      <c r="F5" s="330"/>
-      <c r="G5" s="331"/>
-      <c r="H5" s="330"/>
+      <c r="H4" s="203"/>
+    </row>
+    <row r="5" spans="1:9" s="200" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A5" s="201"/>
+      <c r="B5" s="201"/>
+      <c r="C5" s="201"/>
+      <c r="D5" s="201"/>
+      <c r="E5" s="201"/>
+      <c r="F5" s="201"/>
+      <c r="G5" s="202"/>
+      <c r="H5" s="201"/>
     </row>
     <row r="6" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A6" s="328" t="s">
+      <c r="A6" s="199" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="327"/>
-      <c r="C6" s="326" t="s">
+      <c r="B6" s="198"/>
+      <c r="C6" s="268" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="325"/>
-      <c r="E6" s="325"/>
-      <c r="F6" s="325"/>
-      <c r="G6" s="325"/>
-      <c r="H6" s="324"/>
+      <c r="D6" s="269"/>
+      <c r="E6" s="269"/>
+      <c r="F6" s="269"/>
+      <c r="G6" s="269"/>
+      <c r="H6" s="270"/>
     </row>
     <row r="7" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A7" s="328" t="s">
+      <c r="A7" s="199" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="327"/>
-      <c r="C7" s="326" t="s">
+      <c r="B7" s="198"/>
+      <c r="C7" s="268" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="325"/>
-      <c r="E7" s="325"/>
-      <c r="F7" s="325"/>
-      <c r="G7" s="325"/>
-      <c r="H7" s="324"/>
+      <c r="D7" s="269"/>
+      <c r="E7" s="269"/>
+      <c r="F7" s="269"/>
+      <c r="G7" s="269"/>
+      <c r="H7" s="270"/>
     </row>
     <row r="8" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A8" s="328" t="s">
+      <c r="A8" s="199" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="327"/>
-      <c r="C8" s="326"/>
-      <c r="D8" s="325"/>
-      <c r="E8" s="325"/>
-      <c r="F8" s="325"/>
-      <c r="G8" s="325"/>
-      <c r="H8" s="324"/>
+      <c r="B8" s="198"/>
+      <c r="C8" s="268"/>
+      <c r="D8" s="269"/>
+      <c r="E8" s="269"/>
+      <c r="F8" s="269"/>
+      <c r="G8" s="269"/>
+      <c r="H8" s="270"/>
     </row>
     <row r="9" spans="1:9" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A9" s="273" t="s">
+      <c r="A9" s="163" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="273"/>
-      <c r="C9" s="273"/>
-      <c r="D9" s="273"/>
-      <c r="E9" s="273"/>
-      <c r="F9" s="273"/>
-      <c r="G9" s="273"/>
-      <c r="H9" s="273"/>
+      <c r="B9" s="163"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="163"/>
+      <c r="H9" s="163"/>
     </row>
     <row r="10" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A10" s="271" t="s">
+      <c r="A10" s="161" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="322" t="s">
+      <c r="B10" s="197" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="266" t="s">
+      <c r="C10" s="271" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="323"/>
-      <c r="E10" s="322" t="s">
+      <c r="D10" s="272"/>
+      <c r="E10" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="322" t="s">
+      <c r="F10" s="197" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="322" t="s">
+      <c r="G10" s="197" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="264" t="s">
+      <c r="H10" s="159" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A11" s="303">
+      <c r="A11" s="182">
         <v>1</v>
       </c>
-      <c r="B11" s="321" t="s">
+      <c r="B11" s="196" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="320" t="s">
+      <c r="C11" s="273" t="s">
         <v>141</v>
       </c>
-      <c r="D11" s="319"/>
-      <c r="E11" s="316" t="s">
+      <c r="D11" s="274"/>
+      <c r="E11" s="193" t="s">
         <v>81</v>
       </c>
-      <c r="F11" s="316" t="s">
+      <c r="F11" s="193" t="s">
         <v>80</v>
       </c>
-      <c r="G11" s="299"/>
-      <c r="H11" s="298" t="s">
+      <c r="G11" s="181"/>
+      <c r="H11" s="180" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A12" s="297">
+      <c r="A12" s="179">
         <v>2</v>
       </c>
-      <c r="B12" s="314" t="s">
+      <c r="B12" s="191" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="318" t="s">
+      <c r="C12" s="195" t="s">
         <v>142</v>
       </c>
-      <c r="D12" s="317"/>
-      <c r="E12" s="316" t="s">
+      <c r="D12" s="194"/>
+      <c r="E12" s="193" t="s">
         <v>170</v>
       </c>
-      <c r="F12" s="311" t="s">
+      <c r="F12" s="190" t="s">
         <v>80</v>
       </c>
-      <c r="G12" s="310"/>
-      <c r="H12" s="309"/>
+      <c r="G12" s="189"/>
+      <c r="H12" s="188"/>
     </row>
     <row r="13" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A13" s="297">
+      <c r="A13" s="179">
         <v>3</v>
       </c>
-      <c r="B13" s="314" t="s">
+      <c r="B13" s="191" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="318" t="s">
+      <c r="C13" s="195" t="s">
         <v>143</v>
       </c>
-      <c r="D13" s="317"/>
-      <c r="E13" s="316" t="s">
+      <c r="D13" s="194"/>
+      <c r="E13" s="193" t="s">
         <v>163</v>
       </c>
-      <c r="F13" s="311" t="s">
+      <c r="F13" s="190" t="s">
         <v>80</v>
       </c>
-      <c r="G13" s="310"/>
-      <c r="H13" s="309"/>
+      <c r="G13" s="189"/>
+      <c r="H13" s="188"/>
     </row>
     <row r="14" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A14" s="315">
+      <c r="A14" s="192">
         <v>4</v>
       </c>
-      <c r="B14" s="314" t="s">
+      <c r="B14" s="191" t="s">
         <v>124</v>
       </c>
-      <c r="C14" s="318" t="s">
+      <c r="C14" s="195" t="s">
         <v>126</v>
       </c>
-      <c r="D14" s="317"/>
-      <c r="E14" s="316" t="s">
+      <c r="D14" s="194"/>
+      <c r="E14" s="193" t="s">
         <v>188</v>
       </c>
-      <c r="F14" s="311" t="s">
+      <c r="F14" s="190" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="310"/>
-      <c r="H14" s="309"/>
+      <c r="G14" s="189"/>
+      <c r="H14" s="188"/>
     </row>
     <row r="15" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A15" s="315">
+      <c r="A15" s="192">
         <v>5</v>
       </c>
-      <c r="B15" s="314" t="s">
+      <c r="B15" s="191" t="s">
         <v>125</v>
       </c>
-      <c r="C15" s="318" t="s">
+      <c r="C15" s="195" t="s">
         <v>127</v>
       </c>
-      <c r="D15" s="317"/>
-      <c r="E15" s="316" t="s">
+      <c r="D15" s="194"/>
+      <c r="E15" s="193" t="s">
         <v>128</v>
       </c>
-      <c r="F15" s="311" t="s">
+      <c r="F15" s="190" t="s">
         <v>80</v>
       </c>
-      <c r="G15" s="310"/>
-      <c r="H15" s="309"/>
+      <c r="G15" s="189"/>
+      <c r="H15" s="188"/>
     </row>
     <row r="16" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A16" s="315">
+      <c r="A16" s="192">
         <v>6</v>
       </c>
-      <c r="B16" s="314" t="s">
+      <c r="B16" s="191" t="s">
         <v>160</v>
       </c>
-      <c r="C16" s="318" t="s">
+      <c r="C16" s="195" t="s">
         <v>161</v>
       </c>
-      <c r="D16" s="317"/>
-      <c r="E16" s="311" t="s">
+      <c r="D16" s="194"/>
+      <c r="E16" s="190" t="s">
         <v>162</v>
       </c>
-      <c r="F16" s="311" t="s">
+      <c r="F16" s="190" t="s">
         <v>80</v>
       </c>
-      <c r="G16" s="310"/>
-      <c r="H16" s="309"/>
+      <c r="G16" s="189"/>
+      <c r="H16" s="188"/>
     </row>
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A17" s="315">
+      <c r="A17" s="192">
         <v>7</v>
       </c>
-      <c r="B17" s="314" t="s">
+      <c r="B17" s="191" t="s">
         <v>187</v>
       </c>
-      <c r="C17" s="318" t="s">
+      <c r="C17" s="195" t="s">
         <v>186</v>
       </c>
-      <c r="D17" s="317"/>
-      <c r="E17" s="311" t="s">
+      <c r="D17" s="194"/>
+      <c r="E17" s="190" t="s">
         <v>185</v>
       </c>
-      <c r="F17" s="311" t="s">
+      <c r="F17" s="190" t="s">
         <v>80</v>
       </c>
-      <c r="G17" s="310"/>
-      <c r="H17" s="309"/>
+      <c r="G17" s="189"/>
+      <c r="H17" s="188"/>
     </row>
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A18" s="315">
+      <c r="A18" s="192">
         <v>8</v>
       </c>
-      <c r="B18" s="314" t="s">
+      <c r="B18" s="191" t="s">
         <v>184</v>
       </c>
-      <c r="C18" s="313" t="s">
+      <c r="C18" s="258" t="s">
         <v>183</v>
       </c>
-      <c r="D18" s="312"/>
-      <c r="E18" s="311" t="s">
+      <c r="D18" s="259"/>
+      <c r="E18" s="190" t="s">
         <v>95</v>
       </c>
-      <c r="F18" s="311" t="s">
+      <c r="F18" s="190" t="s">
         <v>80</v>
       </c>
-      <c r="G18" s="310"/>
-      <c r="H18" s="309"/>
+      <c r="G18" s="189"/>
+      <c r="H18" s="188"/>
     </row>
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A19" s="315">
+      <c r="A19" s="192">
         <v>9</v>
       </c>
-      <c r="B19" s="314" t="s">
+      <c r="B19" s="191" t="s">
         <v>182</v>
       </c>
-      <c r="C19" s="313" t="s">
+      <c r="C19" s="258" t="s">
         <v>181</v>
       </c>
-      <c r="D19" s="312"/>
-      <c r="E19" s="311" t="s">
+      <c r="D19" s="259"/>
+      <c r="E19" s="190" t="s">
         <v>180</v>
       </c>
-      <c r="F19" s="311" t="s">
+      <c r="F19" s="190" t="s">
         <v>80</v>
       </c>
-      <c r="G19" s="310"/>
-      <c r="H19" s="309"/>
+      <c r="G19" s="189"/>
+      <c r="H19" s="188"/>
     </row>
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A20" s="315">
+      <c r="A20" s="192">
         <v>10</v>
       </c>
-      <c r="B20" s="314" t="s">
+      <c r="B20" s="191" t="s">
         <v>179</v>
       </c>
-      <c r="C20" s="313" t="s">
+      <c r="C20" s="258" t="s">
         <v>178</v>
       </c>
-      <c r="D20" s="312"/>
-      <c r="E20" s="316" t="s">
+      <c r="D20" s="259"/>
+      <c r="E20" s="193" t="s">
         <v>170</v>
       </c>
-      <c r="F20" s="311" t="s">
+      <c r="F20" s="190" t="s">
         <v>80</v>
       </c>
-      <c r="G20" s="310"/>
-      <c r="H20" s="309" t="s">
+      <c r="G20" s="189"/>
+      <c r="H20" s="188" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A21" s="315"/>
-      <c r="B21" s="314"/>
-      <c r="C21" s="313"/>
-      <c r="D21" s="312"/>
-      <c r="E21" s="311"/>
-      <c r="F21" s="311"/>
-      <c r="G21" s="310"/>
-      <c r="H21" s="309"/>
+      <c r="A21" s="192"/>
+      <c r="B21" s="191"/>
+      <c r="C21" s="258"/>
+      <c r="D21" s="259"/>
+      <c r="E21" s="190"/>
+      <c r="F21" s="190"/>
+      <c r="G21" s="189"/>
+      <c r="H21" s="188"/>
     </row>
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A22" s="315"/>
-      <c r="B22" s="314"/>
-      <c r="C22" s="313"/>
-      <c r="D22" s="312"/>
-      <c r="E22" s="311"/>
-      <c r="F22" s="311"/>
-      <c r="G22" s="310"/>
-      <c r="H22" s="309"/>
+      <c r="A22" s="192"/>
+      <c r="B22" s="191"/>
+      <c r="C22" s="258"/>
+      <c r="D22" s="259"/>
+      <c r="E22" s="190"/>
+      <c r="F22" s="190"/>
+      <c r="G22" s="189"/>
+      <c r="H22" s="188"/>
     </row>
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A23" s="315"/>
-      <c r="B23" s="314"/>
-      <c r="C23" s="313"/>
-      <c r="D23" s="312"/>
-      <c r="E23" s="311"/>
-      <c r="F23" s="311"/>
-      <c r="G23" s="310"/>
-      <c r="H23" s="309"/>
+      <c r="A23" s="192"/>
+      <c r="B23" s="191"/>
+      <c r="C23" s="258"/>
+      <c r="D23" s="259"/>
+      <c r="E23" s="190"/>
+      <c r="F23" s="190"/>
+      <c r="G23" s="189"/>
+      <c r="H23" s="188"/>
     </row>
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A24" s="315"/>
-      <c r="B24" s="314"/>
-      <c r="C24" s="313"/>
-      <c r="D24" s="312"/>
-      <c r="E24" s="311"/>
-      <c r="F24" s="311"/>
-      <c r="G24" s="310"/>
-      <c r="H24" s="309"/>
+      <c r="A24" s="192"/>
+      <c r="B24" s="191"/>
+      <c r="C24" s="258"/>
+      <c r="D24" s="259"/>
+      <c r="E24" s="190"/>
+      <c r="F24" s="190"/>
+      <c r="G24" s="189"/>
+      <c r="H24" s="188"/>
     </row>
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A25" s="315"/>
-      <c r="B25" s="314"/>
-      <c r="C25" s="313"/>
-      <c r="D25" s="312"/>
-      <c r="E25" s="311"/>
-      <c r="F25" s="311"/>
-      <c r="G25" s="310"/>
-      <c r="H25" s="309"/>
+      <c r="A25" s="192"/>
+      <c r="B25" s="191"/>
+      <c r="C25" s="258"/>
+      <c r="D25" s="259"/>
+      <c r="E25" s="190"/>
+      <c r="F25" s="190"/>
+      <c r="G25" s="189"/>
+      <c r="H25" s="188"/>
     </row>
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A26" s="315"/>
-      <c r="B26" s="314"/>
-      <c r="C26" s="313"/>
-      <c r="D26" s="312"/>
-      <c r="E26" s="311"/>
-      <c r="F26" s="311"/>
-      <c r="G26" s="310"/>
-      <c r="H26" s="309"/>
+      <c r="A26" s="192"/>
+      <c r="B26" s="191"/>
+      <c r="C26" s="258"/>
+      <c r="D26" s="259"/>
+      <c r="E26" s="190"/>
+      <c r="F26" s="190"/>
+      <c r="G26" s="189"/>
+      <c r="H26" s="188"/>
     </row>
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A27" s="315"/>
-      <c r="B27" s="314"/>
-      <c r="C27" s="313"/>
-      <c r="D27" s="312"/>
-      <c r="E27" s="311"/>
-      <c r="F27" s="311"/>
-      <c r="G27" s="310"/>
-      <c r="H27" s="309"/>
+      <c r="A27" s="192"/>
+      <c r="B27" s="191"/>
+      <c r="C27" s="258"/>
+      <c r="D27" s="259"/>
+      <c r="E27" s="190"/>
+      <c r="F27" s="190"/>
+      <c r="G27" s="189"/>
+      <c r="H27" s="188"/>
     </row>
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A28" s="315"/>
-      <c r="B28" s="314"/>
-      <c r="C28" s="313"/>
-      <c r="D28" s="312"/>
-      <c r="E28" s="311"/>
-      <c r="F28" s="311"/>
-      <c r="G28" s="310"/>
-      <c r="H28" s="309"/>
+      <c r="A28" s="192"/>
+      <c r="B28" s="191"/>
+      <c r="C28" s="258"/>
+      <c r="D28" s="259"/>
+      <c r="E28" s="190"/>
+      <c r="F28" s="190"/>
+      <c r="G28" s="189"/>
+      <c r="H28" s="188"/>
     </row>
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A29" s="315"/>
-      <c r="B29" s="314"/>
-      <c r="C29" s="313"/>
-      <c r="D29" s="312"/>
-      <c r="E29" s="311"/>
-      <c r="F29" s="311"/>
-      <c r="G29" s="310"/>
-      <c r="H29" s="309"/>
+      <c r="A29" s="192"/>
+      <c r="B29" s="191"/>
+      <c r="C29" s="258"/>
+      <c r="D29" s="259"/>
+      <c r="E29" s="190"/>
+      <c r="F29" s="190"/>
+      <c r="G29" s="189"/>
+      <c r="H29" s="188"/>
     </row>
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A30" s="292"/>
-      <c r="B30" s="308"/>
-      <c r="C30" s="247"/>
-      <c r="D30" s="245"/>
-      <c r="E30" s="307"/>
-      <c r="F30" s="307"/>
-      <c r="G30" s="289"/>
-      <c r="H30" s="288"/>
+      <c r="A30" s="176"/>
+      <c r="B30" s="187"/>
+      <c r="C30" s="275"/>
+      <c r="D30" s="276"/>
+      <c r="E30" s="186"/>
+      <c r="F30" s="186"/>
+      <c r="G30" s="175"/>
+      <c r="H30" s="174"/>
     </row>
     <row r="31" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A31" s="275"/>
-      <c r="B31" s="275"/>
-      <c r="C31" s="274"/>
-      <c r="D31" s="274"/>
-      <c r="E31" s="274"/>
-      <c r="F31" s="274"/>
-      <c r="G31" s="274"/>
-      <c r="H31" s="274"/>
+      <c r="A31" s="165"/>
+      <c r="B31" s="165"/>
+      <c r="C31" s="164"/>
+      <c r="D31" s="164"/>
+      <c r="E31" s="164"/>
+      <c r="F31" s="164"/>
+      <c r="G31" s="164"/>
+      <c r="H31" s="164"/>
     </row>
     <row r="32" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A32" s="273" t="s">
+      <c r="A32" s="163" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="273"/>
-      <c r="C32" s="272"/>
-      <c r="D32" s="272"/>
-      <c r="E32" s="272"/>
-      <c r="F32" s="272"/>
-      <c r="G32" s="272"/>
-      <c r="H32" s="272"/>
+      <c r="B32" s="163"/>
+      <c r="C32" s="162"/>
+      <c r="D32" s="162"/>
+      <c r="E32" s="162"/>
+      <c r="F32" s="162"/>
+      <c r="G32" s="162"/>
+      <c r="H32" s="162"/>
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A33" s="287" t="s">
+      <c r="A33" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="269" t="s">
+      <c r="B33" s="277" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="267"/>
-      <c r="D33" s="306" t="s">
+      <c r="C33" s="278"/>
+      <c r="D33" s="185" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="305"/>
-      <c r="F33" s="304"/>
-      <c r="G33" s="270" t="s">
+      <c r="E33" s="184"/>
+      <c r="F33" s="183"/>
+      <c r="G33" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="H33" s="285" t="s">
+      <c r="H33" s="172" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A34" s="303"/>
-      <c r="B34" s="302"/>
-      <c r="C34" s="301"/>
+      <c r="A34" s="182"/>
+      <c r="B34" s="279"/>
+      <c r="C34" s="280"/>
       <c r="D34" s="260"/>
-      <c r="E34" s="300"/>
-      <c r="F34" s="259"/>
-      <c r="G34" s="299"/>
-      <c r="H34" s="298"/>
+      <c r="E34" s="261"/>
+      <c r="F34" s="262"/>
+      <c r="G34" s="181"/>
+      <c r="H34" s="180"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A35" s="297"/>
-      <c r="B35" s="296"/>
-      <c r="C35" s="295"/>
-      <c r="D35" s="252"/>
-      <c r="E35" s="253"/>
-      <c r="F35" s="251"/>
-      <c r="G35" s="294"/>
-      <c r="H35" s="293"/>
+      <c r="A35" s="179"/>
+      <c r="B35" s="263"/>
+      <c r="C35" s="264"/>
+      <c r="D35" s="265"/>
+      <c r="E35" s="266"/>
+      <c r="F35" s="267"/>
+      <c r="G35" s="178"/>
+      <c r="H35" s="177"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A36" s="297"/>
-      <c r="B36" s="296"/>
-      <c r="C36" s="295"/>
-      <c r="D36" s="252"/>
-      <c r="E36" s="253"/>
-      <c r="F36" s="251"/>
-      <c r="G36" s="294"/>
-      <c r="H36" s="293"/>
+      <c r="A36" s="179"/>
+      <c r="B36" s="263"/>
+      <c r="C36" s="264"/>
+      <c r="D36" s="265"/>
+      <c r="E36" s="266"/>
+      <c r="F36" s="267"/>
+      <c r="G36" s="178"/>
+      <c r="H36" s="177"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A37" s="297"/>
-      <c r="B37" s="296"/>
-      <c r="C37" s="295"/>
-      <c r="D37" s="252"/>
-      <c r="E37" s="253"/>
-      <c r="F37" s="251"/>
-      <c r="G37" s="294"/>
-      <c r="H37" s="293"/>
+      <c r="A37" s="179"/>
+      <c r="B37" s="263"/>
+      <c r="C37" s="264"/>
+      <c r="D37" s="265"/>
+      <c r="E37" s="266"/>
+      <c r="F37" s="267"/>
+      <c r="G37" s="178"/>
+      <c r="H37" s="177"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A38" s="292"/>
-      <c r="B38" s="291"/>
-      <c r="C38" s="290"/>
-      <c r="D38" s="247"/>
-      <c r="E38" s="246"/>
-      <c r="F38" s="245"/>
-      <c r="G38" s="289"/>
-      <c r="H38" s="288"/>
+      <c r="A38" s="176"/>
+      <c r="B38" s="281"/>
+      <c r="C38" s="282"/>
+      <c r="D38" s="275"/>
+      <c r="E38" s="283"/>
+      <c r="F38" s="276"/>
+      <c r="G38" s="175"/>
+      <c r="H38" s="174"/>
     </row>
     <row r="39" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A39" s="275"/>
-      <c r="B39" s="275"/>
-      <c r="C39" s="274"/>
-      <c r="D39" s="274"/>
-      <c r="E39" s="274"/>
-      <c r="F39" s="274"/>
-      <c r="G39" s="274"/>
-      <c r="H39" s="274"/>
+      <c r="A39" s="165"/>
+      <c r="B39" s="165"/>
+      <c r="C39" s="164"/>
+      <c r="D39" s="164"/>
+      <c r="E39" s="164"/>
+      <c r="F39" s="164"/>
+      <c r="G39" s="164"/>
+      <c r="H39" s="164"/>
     </row>
     <row r="40" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A40" s="273" t="s">
+      <c r="A40" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="273"/>
-      <c r="C40" s="272"/>
-      <c r="D40" s="272"/>
-      <c r="E40" s="272"/>
-      <c r="F40" s="272"/>
-      <c r="G40" s="272"/>
-      <c r="H40" s="272"/>
+      <c r="B40" s="163"/>
+      <c r="C40" s="162"/>
+      <c r="D40" s="162"/>
+      <c r="E40" s="162"/>
+      <c r="F40" s="162"/>
+      <c r="G40" s="162"/>
+      <c r="H40" s="162"/>
     </row>
     <row r="41" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A41" s="287" t="s">
+      <c r="A41" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="270" t="s">
+      <c r="B41" s="160" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="269" t="s">
+      <c r="C41" s="277" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="268"/>
-      <c r="E41" s="267"/>
-      <c r="F41" s="269" t="s">
+      <c r="D41" s="284"/>
+      <c r="E41" s="278"/>
+      <c r="F41" s="277" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="286"/>
-      <c r="H41" s="285" t="s">
+      <c r="G41" s="285"/>
+      <c r="H41" s="172" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A42" s="284"/>
-      <c r="B42" s="283"/>
-      <c r="C42" s="258"/>
-      <c r="D42" s="257"/>
-      <c r="E42" s="256"/>
-      <c r="F42" s="258"/>
-      <c r="G42" s="256"/>
-      <c r="H42" s="282"/>
+      <c r="A42" s="171"/>
+      <c r="B42" s="170"/>
+      <c r="C42" s="286"/>
+      <c r="D42" s="287"/>
+      <c r="E42" s="288"/>
+      <c r="F42" s="286"/>
+      <c r="G42" s="288"/>
+      <c r="H42" s="169"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A43" s="281"/>
-      <c r="B43" s="280"/>
-      <c r="C43" s="278"/>
-      <c r="D43" s="279"/>
-      <c r="E43" s="277"/>
-      <c r="F43" s="278"/>
-      <c r="G43" s="277"/>
-      <c r="H43" s="276"/>
+      <c r="A43" s="168"/>
+      <c r="B43" s="167"/>
+      <c r="C43" s="289"/>
+      <c r="D43" s="290"/>
+      <c r="E43" s="291"/>
+      <c r="F43" s="289"/>
+      <c r="G43" s="291"/>
+      <c r="H43" s="166"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A44" s="255"/>
-      <c r="B44" s="254"/>
-      <c r="C44" s="252"/>
-      <c r="D44" s="253"/>
-      <c r="E44" s="251"/>
-      <c r="F44" s="252"/>
-      <c r="G44" s="251"/>
-      <c r="H44" s="250"/>
+      <c r="A44" s="155"/>
+      <c r="B44" s="154"/>
+      <c r="C44" s="265"/>
+      <c r="D44" s="266"/>
+      <c r="E44" s="267"/>
+      <c r="F44" s="265"/>
+      <c r="G44" s="267"/>
+      <c r="H44" s="153"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A45" s="255"/>
-      <c r="B45" s="254"/>
-      <c r="C45" s="252"/>
-      <c r="D45" s="253"/>
-      <c r="E45" s="251"/>
-      <c r="F45" s="252"/>
-      <c r="G45" s="251"/>
-      <c r="H45" s="250"/>
+      <c r="A45" s="155"/>
+      <c r="B45" s="154"/>
+      <c r="C45" s="265"/>
+      <c r="D45" s="266"/>
+      <c r="E45" s="267"/>
+      <c r="F45" s="265"/>
+      <c r="G45" s="267"/>
+      <c r="H45" s="153"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A46" s="249"/>
-      <c r="B46" s="248"/>
-      <c r="C46" s="247"/>
-      <c r="D46" s="246"/>
-      <c r="E46" s="245"/>
-      <c r="F46" s="244"/>
-      <c r="G46" s="243"/>
-      <c r="H46" s="242"/>
+      <c r="A46" s="152"/>
+      <c r="B46" s="151"/>
+      <c r="C46" s="275"/>
+      <c r="D46" s="283"/>
+      <c r="E46" s="276"/>
+      <c r="F46" s="292"/>
+      <c r="G46" s="293"/>
+      <c r="H46" s="150"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A47" s="275"/>
-      <c r="B47" s="275"/>
-      <c r="C47" s="274"/>
-      <c r="D47" s="274"/>
-      <c r="E47" s="274"/>
-      <c r="F47" s="274"/>
-      <c r="G47" s="274"/>
-      <c r="H47" s="274"/>
+      <c r="A47" s="165"/>
+      <c r="B47" s="165"/>
+      <c r="C47" s="164"/>
+      <c r="D47" s="164"/>
+      <c r="E47" s="164"/>
+      <c r="F47" s="164"/>
+      <c r="G47" s="164"/>
+      <c r="H47" s="164"/>
     </row>
     <row r="48" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A48" s="273" t="s">
+      <c r="A48" s="163" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="273"/>
-      <c r="C48" s="272"/>
-      <c r="D48" s="272"/>
-      <c r="E48" s="272"/>
-      <c r="F48" s="272"/>
-      <c r="G48" s="272"/>
-      <c r="H48" s="272"/>
-    </row>
-    <row r="49" spans="1:10" s="263" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A49" s="271" t="s">
+      <c r="B48" s="163"/>
+      <c r="C48" s="162"/>
+      <c r="D48" s="162"/>
+      <c r="E48" s="162"/>
+      <c r="F48" s="162"/>
+      <c r="G48" s="162"/>
+      <c r="H48" s="162"/>
+    </row>
+    <row r="49" spans="1:10" s="158" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A49" s="161" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="270" t="s">
+      <c r="B49" s="160" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="269" t="s">
+      <c r="C49" s="277" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="268"/>
-      <c r="E49" s="267"/>
-      <c r="F49" s="266" t="s">
+      <c r="D49" s="284"/>
+      <c r="E49" s="278"/>
+      <c r="F49" s="271" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="265"/>
-      <c r="H49" s="264" t="s">
+      <c r="G49" s="294"/>
+      <c r="H49" s="159" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A50" s="262"/>
-      <c r="B50" s="261"/>
-      <c r="C50" s="258" t="s">
+      <c r="A50" s="157"/>
+      <c r="B50" s="156"/>
+      <c r="C50" s="286" t="s">
         <v>144</v>
       </c>
-      <c r="D50" s="257"/>
-      <c r="E50" s="256"/>
+      <c r="D50" s="287"/>
+      <c r="E50" s="288"/>
       <c r="F50" s="260" t="s">
         <v>69</v>
       </c>
-      <c r="G50" s="259"/>
-      <c r="H50" s="258" t="s">
+      <c r="G50" s="262"/>
+      <c r="H50" s="286" t="s">
         <v>144</v>
       </c>
-      <c r="I50" s="257"/>
-      <c r="J50" s="256"/>
+      <c r="I50" s="287"/>
+      <c r="J50" s="288"/>
     </row>
     <row r="51" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A51" s="255"/>
-      <c r="B51" s="254"/>
-      <c r="C51" s="258" t="s">
+      <c r="A51" s="155"/>
+      <c r="B51" s="154"/>
+      <c r="C51" s="286" t="s">
         <v>144</v>
       </c>
-      <c r="D51" s="257"/>
-      <c r="E51" s="256"/>
-      <c r="F51" s="252" t="s">
+      <c r="D51" s="287"/>
+      <c r="E51" s="288"/>
+      <c r="F51" s="265" t="s">
         <v>103</v>
       </c>
-      <c r="G51" s="251"/>
-      <c r="H51" s="258" t="s">
+      <c r="G51" s="267"/>
+      <c r="H51" s="286" t="s">
         <v>144</v>
       </c>
-      <c r="I51" s="257"/>
-      <c r="J51" s="256"/>
+      <c r="I51" s="287"/>
+      <c r="J51" s="288"/>
     </row>
     <row r="52" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A52" s="255"/>
-      <c r="B52" s="254"/>
-      <c r="C52" s="252"/>
-      <c r="D52" s="253"/>
-      <c r="E52" s="251"/>
-      <c r="F52" s="252"/>
-      <c r="G52" s="251"/>
-      <c r="H52" s="250"/>
+      <c r="A52" s="155"/>
+      <c r="B52" s="154"/>
+      <c r="C52" s="265"/>
+      <c r="D52" s="266"/>
+      <c r="E52" s="267"/>
+      <c r="F52" s="265"/>
+      <c r="G52" s="267"/>
+      <c r="H52" s="153"/>
     </row>
     <row r="53" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A53" s="255"/>
-      <c r="B53" s="254"/>
-      <c r="C53" s="252"/>
-      <c r="D53" s="253"/>
-      <c r="E53" s="251"/>
-      <c r="F53" s="252"/>
-      <c r="G53" s="251"/>
-      <c r="H53" s="250"/>
+      <c r="A53" s="155"/>
+      <c r="B53" s="154"/>
+      <c r="C53" s="265"/>
+      <c r="D53" s="266"/>
+      <c r="E53" s="267"/>
+      <c r="F53" s="265"/>
+      <c r="G53" s="267"/>
+      <c r="H53" s="153"/>
     </row>
     <row r="54" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A54" s="249"/>
-      <c r="B54" s="248"/>
-      <c r="C54" s="247"/>
-      <c r="D54" s="246"/>
-      <c r="E54" s="245"/>
-      <c r="F54" s="244"/>
-      <c r="G54" s="243"/>
-      <c r="H54" s="242"/>
+      <c r="A54" s="152"/>
+      <c r="B54" s="151"/>
+      <c r="C54" s="275"/>
+      <c r="D54" s="283"/>
+      <c r="E54" s="276"/>
+      <c r="F54" s="292"/>
+      <c r="G54" s="293"/>
+      <c r="H54" s="150"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:F35"/>
@@ -8030,46 +8057,11 @@
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8085,47 +8077,47 @@
   </sheetPr>
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="241" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="241" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" style="241" customWidth="1"/>
-    <col min="4" max="6" width="13.5" style="241" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" style="241" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" style="241" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="241"/>
+    <col min="1" max="1" width="3.6640625" style="149" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="149" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" style="149" customWidth="1"/>
+    <col min="4" max="6" width="13.5" style="149" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" style="149" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" style="149" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="149"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15">
-      <c r="A1" s="339" t="s">
+      <c r="A1" s="210" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="338"/>
-      <c r="C1" s="338"/>
-      <c r="D1" s="338"/>
-      <c r="E1" s="338"/>
-      <c r="F1" s="338"/>
-      <c r="G1" s="338"/>
-      <c r="H1" s="337"/>
+      <c r="B1" s="209"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="208"/>
     </row>
     <row r="2" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A2" s="328" t="s">
+      <c r="A2" s="199" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="328"/>
-      <c r="C2" s="335"/>
-      <c r="D2" s="334"/>
-      <c r="E2" s="333" t="s">
+      <c r="B2" s="199"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="204" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="334" t="s">
+      <c r="F2" s="205" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="333" t="s">
+      <c r="G2" s="204" t="s">
         <v>24</v>
       </c>
       <c r="H2" s="147">
@@ -8133,733 +8125,769 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A3" s="328" t="s">
+      <c r="A3" s="199" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="328"/>
-      <c r="C3" s="335"/>
-      <c r="D3" s="334"/>
-      <c r="E3" s="333" t="s">
+      <c r="B3" s="199"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="205"/>
+      <c r="E3" s="204" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="334"/>
-      <c r="G3" s="333" t="s">
+      <c r="F3" s="205"/>
+      <c r="G3" s="204" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="342">
+      <c r="H3" s="213">
         <v>43971</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A4" s="328" t="s">
+      <c r="A4" s="199" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="328"/>
-      <c r="C4" s="335"/>
-      <c r="D4" s="335"/>
-      <c r="E4" s="334"/>
-      <c r="F4" s="334"/>
-      <c r="G4" s="333" t="s">
+      <c r="B4" s="199"/>
+      <c r="C4" s="206"/>
+      <c r="D4" s="206"/>
+      <c r="E4" s="205"/>
+      <c r="F4" s="205"/>
+      <c r="G4" s="204" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="332"/>
-    </row>
-    <row r="5" spans="1:8" s="329" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A5" s="330"/>
-      <c r="B5" s="330"/>
-      <c r="C5" s="330"/>
-      <c r="D5" s="330"/>
-      <c r="E5" s="330"/>
-      <c r="F5" s="330"/>
-      <c r="G5" s="331"/>
-      <c r="H5" s="330"/>
+      <c r="H4" s="203"/>
+    </row>
+    <row r="5" spans="1:8" s="200" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A5" s="201"/>
+      <c r="B5" s="201"/>
+      <c r="C5" s="201"/>
+      <c r="D5" s="201"/>
+      <c r="E5" s="201"/>
+      <c r="F5" s="201"/>
+      <c r="G5" s="202"/>
+      <c r="H5" s="201"/>
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A6" s="328" t="s">
+      <c r="A6" s="199" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="327"/>
-      <c r="C6" s="326"/>
-      <c r="D6" s="325"/>
-      <c r="E6" s="325"/>
-      <c r="F6" s="325"/>
-      <c r="G6" s="325"/>
-      <c r="H6" s="324"/>
+      <c r="B6" s="198"/>
+      <c r="C6" s="268"/>
+      <c r="D6" s="269"/>
+      <c r="E6" s="269"/>
+      <c r="F6" s="269"/>
+      <c r="G6" s="269"/>
+      <c r="H6" s="270"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A7" s="328" t="s">
+      <c r="A7" s="199" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="327"/>
-      <c r="C7" s="326"/>
-      <c r="D7" s="325"/>
-      <c r="E7" s="325"/>
-      <c r="F7" s="325"/>
-      <c r="G7" s="325"/>
-      <c r="H7" s="324"/>
+      <c r="B7" s="198"/>
+      <c r="C7" s="268"/>
+      <c r="D7" s="269"/>
+      <c r="E7" s="269"/>
+      <c r="F7" s="269"/>
+      <c r="G7" s="269"/>
+      <c r="H7" s="270"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A8" s="328" t="s">
+      <c r="A8" s="199" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="327"/>
-      <c r="C8" s="326"/>
-      <c r="D8" s="325"/>
-      <c r="E8" s="325"/>
-      <c r="F8" s="325"/>
-      <c r="G8" s="325"/>
-      <c r="H8" s="324"/>
+      <c r="B8" s="198"/>
+      <c r="C8" s="268"/>
+      <c r="D8" s="269"/>
+      <c r="E8" s="269"/>
+      <c r="F8" s="269"/>
+      <c r="G8" s="269"/>
+      <c r="H8" s="270"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A9" s="273" t="s">
+      <c r="A9" s="163" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="273"/>
-      <c r="C9" s="273"/>
-      <c r="D9" s="273"/>
-      <c r="E9" s="273"/>
-      <c r="F9" s="273"/>
-      <c r="G9" s="273"/>
-      <c r="H9" s="273"/>
+      <c r="B9" s="163"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="163"/>
+      <c r="H9" s="163"/>
     </row>
     <row r="10" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A10" s="271" t="s">
+      <c r="A10" s="161" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="322" t="s">
+      <c r="B10" s="197" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="266" t="s">
+      <c r="C10" s="271" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="323"/>
-      <c r="E10" s="322" t="s">
+      <c r="D10" s="272"/>
+      <c r="E10" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="322" t="s">
+      <c r="F10" s="197" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="322" t="s">
+      <c r="G10" s="197" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="264" t="s">
+      <c r="H10" s="159" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A11" s="303">
+      <c r="A11" s="182">
         <v>1</v>
       </c>
-      <c r="B11" s="321" t="s">
+      <c r="B11" s="196" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="320" t="s">
+      <c r="C11" s="273" t="s">
         <v>148</v>
       </c>
-      <c r="D11" s="319"/>
-      <c r="E11" s="316" t="s">
+      <c r="D11" s="274"/>
+      <c r="E11" s="193" t="s">
         <v>166</v>
       </c>
-      <c r="F11" s="316" t="s">
+      <c r="F11" s="193" t="s">
         <v>80</v>
       </c>
-      <c r="G11" s="299"/>
-      <c r="H11" s="298" t="s">
-        <v>192</v>
+      <c r="G11" s="181"/>
+      <c r="H11" s="180" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A12" s="297">
+      <c r="A12" s="179">
         <v>2</v>
       </c>
-      <c r="B12" s="314" t="s">
+      <c r="B12" s="191" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="318" t="s">
+      <c r="C12" s="195" t="s">
         <v>149</v>
       </c>
-      <c r="D12" s="317"/>
-      <c r="E12" s="316" t="s">
+      <c r="D12" s="194"/>
+      <c r="E12" s="193" t="s">
         <v>81</v>
       </c>
-      <c r="F12" s="311" t="s">
+      <c r="F12" s="190" t="s">
         <v>80</v>
       </c>
-      <c r="G12" s="310"/>
-      <c r="H12" s="309"/>
+      <c r="G12" s="189"/>
+      <c r="H12" s="188"/>
     </row>
     <row r="13" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A13" s="297">
+      <c r="A13" s="179">
         <v>3</v>
       </c>
-      <c r="B13" s="314" t="s">
+      <c r="B13" s="191" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="318" t="s">
+      <c r="C13" s="195" t="s">
         <v>167</v>
       </c>
-      <c r="D13" s="317"/>
-      <c r="E13" s="311" t="s">
+      <c r="D13" s="194"/>
+      <c r="E13" s="190" t="s">
         <v>102</v>
       </c>
-      <c r="F13" s="311" t="s">
+      <c r="F13" s="190" t="s">
         <v>80</v>
       </c>
-      <c r="G13" s="310"/>
-      <c r="H13" s="309"/>
+      <c r="G13" s="189"/>
+      <c r="H13" s="188"/>
     </row>
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A14" s="315">
+      <c r="A14" s="192">
         <v>4</v>
       </c>
-      <c r="B14" s="314" t="s">
+      <c r="B14" s="191" t="s">
         <v>164</v>
       </c>
-      <c r="C14" s="318" t="s">
+      <c r="C14" s="195" t="s">
         <v>165</v>
       </c>
-      <c r="D14" s="317"/>
-      <c r="E14" s="316" t="s">
+      <c r="D14" s="194"/>
+      <c r="E14" s="193" t="s">
         <v>172</v>
       </c>
-      <c r="F14" s="311"/>
-      <c r="G14" s="310"/>
-      <c r="H14" s="309"/>
+      <c r="F14" s="190"/>
+      <c r="G14" s="189"/>
+      <c r="H14" s="188"/>
     </row>
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A15" s="315">
+      <c r="A15" s="192">
         <v>5</v>
       </c>
-      <c r="B15" s="314" t="s">
+      <c r="B15" s="191" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="318" t="s">
+      <c r="C15" s="195" t="s">
         <v>168</v>
       </c>
-      <c r="D15" s="317"/>
-      <c r="E15" s="341" t="s">
+      <c r="D15" s="194"/>
+      <c r="E15" s="212" t="s">
         <v>169</v>
       </c>
-      <c r="F15" s="311" t="s">
+      <c r="F15" s="190" t="s">
         <v>80</v>
       </c>
-      <c r="G15" s="310"/>
-      <c r="H15" s="309"/>
+      <c r="G15" s="189"/>
+      <c r="H15" s="188"/>
     </row>
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A16" s="315">
+      <c r="A16" s="192">
         <v>6</v>
       </c>
-      <c r="B16" s="314" t="s">
+      <c r="B16" s="191" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="318" t="s">
+      <c r="C16" s="195" t="s">
         <v>176</v>
       </c>
-      <c r="D16" s="317"/>
-      <c r="E16" s="311" t="s">
+      <c r="D16" s="194"/>
+      <c r="E16" s="190" t="s">
         <v>171</v>
       </c>
-      <c r="F16" s="311" t="s">
+      <c r="F16" s="190" t="s">
         <v>80</v>
       </c>
-      <c r="G16" s="310" t="s">
+      <c r="G16" s="189" t="s">
         <v>175</v>
       </c>
-      <c r="H16" s="309" t="s">
-        <v>191</v>
+      <c r="H16" s="188" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A17" s="315">
+      <c r="A17" s="192">
         <v>7</v>
       </c>
-      <c r="B17" s="314" t="s">
+      <c r="B17" s="191" t="s">
         <v>89</v>
       </c>
-      <c r="C17" s="320" t="s">
+      <c r="C17" s="273" t="s">
         <v>150</v>
       </c>
-      <c r="D17" s="319"/>
-      <c r="E17" s="316" t="s">
+      <c r="D17" s="274"/>
+      <c r="E17" s="193" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="311" t="s">
+      <c r="F17" s="190" t="s">
         <v>80</v>
       </c>
-      <c r="G17" s="310"/>
-      <c r="H17" s="309" t="s">
+      <c r="G17" s="189"/>
+      <c r="H17" s="188" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A18" s="315">
+      <c r="A18" s="192">
         <v>8</v>
       </c>
-      <c r="B18" s="314" t="s">
+      <c r="B18" s="191" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="313" t="s">
+      <c r="C18" s="258" t="s">
         <v>151</v>
       </c>
-      <c r="D18" s="312"/>
-      <c r="E18" s="316" t="s">
+      <c r="D18" s="259"/>
+      <c r="E18" s="193" t="s">
         <v>82</v>
       </c>
-      <c r="F18" s="311" t="s">
+      <c r="F18" s="190" t="s">
         <v>80</v>
       </c>
-      <c r="G18" s="310"/>
-      <c r="H18" s="309" t="s">
+      <c r="G18" s="189"/>
+      <c r="H18" s="188" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A19" s="315"/>
-      <c r="B19" s="314"/>
-      <c r="C19" s="313"/>
-      <c r="D19" s="312"/>
-      <c r="E19" s="311"/>
-      <c r="F19" s="311"/>
-      <c r="G19" s="310"/>
-      <c r="H19" s="309"/>
+      <c r="A19" s="192"/>
+      <c r="B19" s="191"/>
+      <c r="C19" s="258"/>
+      <c r="D19" s="259"/>
+      <c r="E19" s="190"/>
+      <c r="F19" s="190"/>
+      <c r="G19" s="189"/>
+      <c r="H19" s="188"/>
     </row>
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A20" s="315"/>
-      <c r="B20" s="314"/>
-      <c r="C20" s="313"/>
-      <c r="D20" s="312"/>
-      <c r="E20" s="311"/>
-      <c r="F20" s="311"/>
-      <c r="G20" s="310"/>
-      <c r="H20" s="309"/>
+      <c r="A20" s="192"/>
+      <c r="B20" s="191"/>
+      <c r="C20" s="258"/>
+      <c r="D20" s="259"/>
+      <c r="E20" s="190"/>
+      <c r="F20" s="190"/>
+      <c r="G20" s="189"/>
+      <c r="H20" s="188"/>
     </row>
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A21" s="315"/>
-      <c r="B21" s="314"/>
-      <c r="C21" s="313"/>
-      <c r="D21" s="312"/>
-      <c r="E21" s="311"/>
-      <c r="F21" s="311"/>
-      <c r="G21" s="310"/>
-      <c r="H21" s="309"/>
+      <c r="A21" s="192"/>
+      <c r="B21" s="191"/>
+      <c r="C21" s="258"/>
+      <c r="D21" s="259"/>
+      <c r="E21" s="190"/>
+      <c r="F21" s="190"/>
+      <c r="G21" s="189"/>
+      <c r="H21" s="188"/>
     </row>
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A22" s="315"/>
-      <c r="B22" s="314"/>
-      <c r="C22" s="313"/>
-      <c r="D22" s="312"/>
-      <c r="E22" s="311"/>
-      <c r="F22" s="311"/>
-      <c r="G22" s="310"/>
-      <c r="H22" s="309"/>
+      <c r="A22" s="192"/>
+      <c r="B22" s="191"/>
+      <c r="C22" s="258"/>
+      <c r="D22" s="259"/>
+      <c r="E22" s="190"/>
+      <c r="F22" s="190"/>
+      <c r="G22" s="189"/>
+      <c r="H22" s="188"/>
     </row>
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A23" s="315"/>
-      <c r="B23" s="314"/>
-      <c r="C23" s="313"/>
-      <c r="D23" s="312"/>
-      <c r="E23" s="311"/>
-      <c r="F23" s="311"/>
-      <c r="G23" s="310"/>
-      <c r="H23" s="309"/>
+      <c r="A23" s="192"/>
+      <c r="B23" s="191"/>
+      <c r="C23" s="258"/>
+      <c r="D23" s="259"/>
+      <c r="E23" s="190"/>
+      <c r="F23" s="190"/>
+      <c r="G23" s="189"/>
+      <c r="H23" s="188"/>
     </row>
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A24" s="315"/>
-      <c r="B24" s="314"/>
-      <c r="C24" s="313"/>
-      <c r="D24" s="312"/>
-      <c r="E24" s="311"/>
-      <c r="F24" s="311"/>
-      <c r="G24" s="310"/>
-      <c r="H24" s="309"/>
+      <c r="A24" s="192"/>
+      <c r="B24" s="191"/>
+      <c r="C24" s="258"/>
+      <c r="D24" s="259"/>
+      <c r="E24" s="190"/>
+      <c r="F24" s="190"/>
+      <c r="G24" s="189"/>
+      <c r="H24" s="188"/>
     </row>
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A25" s="315"/>
-      <c r="B25" s="314"/>
-      <c r="C25" s="313"/>
-      <c r="D25" s="312"/>
-      <c r="E25" s="311"/>
-      <c r="F25" s="311"/>
-      <c r="G25" s="310"/>
-      <c r="H25" s="309"/>
+      <c r="A25" s="192"/>
+      <c r="B25" s="191"/>
+      <c r="C25" s="258"/>
+      <c r="D25" s="259"/>
+      <c r="E25" s="190"/>
+      <c r="F25" s="190"/>
+      <c r="G25" s="189"/>
+      <c r="H25" s="188"/>
     </row>
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A26" s="315"/>
-      <c r="B26" s="314"/>
-      <c r="C26" s="313"/>
-      <c r="D26" s="312"/>
-      <c r="E26" s="311"/>
-      <c r="F26" s="311"/>
-      <c r="G26" s="310"/>
-      <c r="H26" s="309"/>
+      <c r="A26" s="192"/>
+      <c r="B26" s="191"/>
+      <c r="C26" s="258"/>
+      <c r="D26" s="259"/>
+      <c r="E26" s="190"/>
+      <c r="F26" s="190"/>
+      <c r="G26" s="189"/>
+      <c r="H26" s="188"/>
     </row>
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A27" s="315"/>
-      <c r="B27" s="314"/>
-      <c r="C27" s="313"/>
-      <c r="D27" s="312"/>
-      <c r="E27" s="311"/>
-      <c r="F27" s="311"/>
-      <c r="G27" s="310"/>
-      <c r="H27" s="309"/>
+      <c r="A27" s="192"/>
+      <c r="B27" s="191"/>
+      <c r="C27" s="258"/>
+      <c r="D27" s="259"/>
+      <c r="E27" s="190"/>
+      <c r="F27" s="190"/>
+      <c r="G27" s="189"/>
+      <c r="H27" s="188"/>
     </row>
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A28" s="315"/>
-      <c r="B28" s="314"/>
-      <c r="C28" s="313"/>
-      <c r="D28" s="312"/>
-      <c r="E28" s="311"/>
-      <c r="F28" s="311"/>
-      <c r="G28" s="310"/>
-      <c r="H28" s="309"/>
+      <c r="A28" s="192"/>
+      <c r="B28" s="191"/>
+      <c r="C28" s="258"/>
+      <c r="D28" s="259"/>
+      <c r="E28" s="190"/>
+      <c r="F28" s="190"/>
+      <c r="G28" s="189"/>
+      <c r="H28" s="188"/>
     </row>
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A29" s="315"/>
-      <c r="B29" s="314"/>
-      <c r="C29" s="313"/>
-      <c r="D29" s="312"/>
-      <c r="E29" s="311"/>
-      <c r="F29" s="311"/>
-      <c r="G29" s="310"/>
-      <c r="H29" s="309"/>
+      <c r="A29" s="192"/>
+      <c r="B29" s="191"/>
+      <c r="C29" s="258"/>
+      <c r="D29" s="259"/>
+      <c r="E29" s="190"/>
+      <c r="F29" s="190"/>
+      <c r="G29" s="189"/>
+      <c r="H29" s="188"/>
     </row>
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A30" s="292"/>
-      <c r="B30" s="308"/>
-      <c r="C30" s="247"/>
-      <c r="D30" s="245"/>
-      <c r="E30" s="307"/>
-      <c r="F30" s="307"/>
-      <c r="G30" s="289"/>
-      <c r="H30" s="288"/>
+      <c r="A30" s="176"/>
+      <c r="B30" s="187"/>
+      <c r="C30" s="275"/>
+      <c r="D30" s="276"/>
+      <c r="E30" s="186"/>
+      <c r="F30" s="186"/>
+      <c r="G30" s="175"/>
+      <c r="H30" s="174"/>
     </row>
     <row r="31" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A31" s="275"/>
-      <c r="B31" s="275"/>
-      <c r="C31" s="274"/>
-      <c r="D31" s="274"/>
-      <c r="E31" s="274"/>
-      <c r="F31" s="274"/>
-      <c r="G31" s="274"/>
-      <c r="H31" s="274"/>
+      <c r="A31" s="165"/>
+      <c r="B31" s="165"/>
+      <c r="C31" s="164"/>
+      <c r="D31" s="164"/>
+      <c r="E31" s="164"/>
+      <c r="F31" s="164"/>
+      <c r="G31" s="164"/>
+      <c r="H31" s="164"/>
     </row>
     <row r="32" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A32" s="273" t="s">
+      <c r="A32" s="163" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="273"/>
-      <c r="C32" s="272"/>
-      <c r="D32" s="272"/>
-      <c r="E32" s="272"/>
-      <c r="F32" s="272"/>
-      <c r="G32" s="272"/>
-      <c r="H32" s="272"/>
+      <c r="B32" s="163"/>
+      <c r="C32" s="162"/>
+      <c r="D32" s="162"/>
+      <c r="E32" s="162"/>
+      <c r="F32" s="162"/>
+      <c r="G32" s="162"/>
+      <c r="H32" s="162"/>
     </row>
     <row r="33" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A33" s="287" t="s">
+      <c r="A33" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="269" t="s">
+      <c r="B33" s="277" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="267"/>
-      <c r="D33" s="306" t="s">
+      <c r="C33" s="278"/>
+      <c r="D33" s="185" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="305"/>
-      <c r="F33" s="304"/>
-      <c r="G33" s="270" t="s">
+      <c r="E33" s="184"/>
+      <c r="F33" s="183"/>
+      <c r="G33" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="H33" s="285" t="s">
+      <c r="H33" s="172" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A34" s="303"/>
-      <c r="B34" s="302"/>
-      <c r="C34" s="301"/>
+      <c r="A34" s="182"/>
+      <c r="B34" s="279"/>
+      <c r="C34" s="280"/>
       <c r="D34" s="260"/>
-      <c r="E34" s="300"/>
-      <c r="F34" s="259"/>
-      <c r="G34" s="299"/>
-      <c r="H34" s="298"/>
+      <c r="E34" s="261"/>
+      <c r="F34" s="262"/>
+      <c r="G34" s="181"/>
+      <c r="H34" s="180"/>
     </row>
     <row r="35" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A35" s="297"/>
-      <c r="B35" s="296"/>
-      <c r="C35" s="295"/>
-      <c r="D35" s="252"/>
-      <c r="E35" s="253"/>
-      <c r="F35" s="251"/>
-      <c r="G35" s="294"/>
-      <c r="H35" s="293"/>
+      <c r="A35" s="179"/>
+      <c r="B35" s="263"/>
+      <c r="C35" s="264"/>
+      <c r="D35" s="265"/>
+      <c r="E35" s="266"/>
+      <c r="F35" s="267"/>
+      <c r="G35" s="178"/>
+      <c r="H35" s="177"/>
     </row>
     <row r="36" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A36" s="297"/>
-      <c r="B36" s="296"/>
-      <c r="C36" s="295"/>
-      <c r="D36" s="252"/>
-      <c r="E36" s="253"/>
-      <c r="F36" s="251"/>
-      <c r="G36" s="294"/>
-      <c r="H36" s="293"/>
+      <c r="A36" s="179"/>
+      <c r="B36" s="263"/>
+      <c r="C36" s="264"/>
+      <c r="D36" s="265"/>
+      <c r="E36" s="266"/>
+      <c r="F36" s="267"/>
+      <c r="G36" s="178"/>
+      <c r="H36" s="177"/>
     </row>
     <row r="37" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A37" s="297"/>
-      <c r="B37" s="296"/>
-      <c r="C37" s="295"/>
-      <c r="D37" s="252"/>
-      <c r="E37" s="253"/>
-      <c r="F37" s="251"/>
-      <c r="G37" s="294"/>
-      <c r="H37" s="293"/>
+      <c r="A37" s="179"/>
+      <c r="B37" s="263"/>
+      <c r="C37" s="264"/>
+      <c r="D37" s="265"/>
+      <c r="E37" s="266"/>
+      <c r="F37" s="267"/>
+      <c r="G37" s="178"/>
+      <c r="H37" s="177"/>
     </row>
     <row r="38" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A38" s="292"/>
-      <c r="B38" s="291"/>
-      <c r="C38" s="290"/>
-      <c r="D38" s="247"/>
-      <c r="E38" s="246"/>
-      <c r="F38" s="245"/>
-      <c r="G38" s="289"/>
-      <c r="H38" s="288"/>
+      <c r="A38" s="176"/>
+      <c r="B38" s="281"/>
+      <c r="C38" s="282"/>
+      <c r="D38" s="275"/>
+      <c r="E38" s="283"/>
+      <c r="F38" s="276"/>
+      <c r="G38" s="175"/>
+      <c r="H38" s="174"/>
     </row>
     <row r="39" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A39" s="275"/>
-      <c r="B39" s="275"/>
-      <c r="C39" s="274"/>
-      <c r="D39" s="274"/>
-      <c r="E39" s="274"/>
-      <c r="F39" s="274"/>
-      <c r="G39" s="274"/>
-      <c r="H39" s="274"/>
+      <c r="A39" s="165"/>
+      <c r="B39" s="165"/>
+      <c r="C39" s="164"/>
+      <c r="D39" s="164"/>
+      <c r="E39" s="164"/>
+      <c r="F39" s="164"/>
+      <c r="G39" s="164"/>
+      <c r="H39" s="164"/>
     </row>
     <row r="40" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A40" s="273" t="s">
+      <c r="A40" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="273"/>
-      <c r="C40" s="272"/>
-      <c r="D40" s="272"/>
-      <c r="E40" s="272"/>
-      <c r="F40" s="272"/>
-      <c r="G40" s="272"/>
-      <c r="H40" s="272"/>
+      <c r="B40" s="163"/>
+      <c r="C40" s="162"/>
+      <c r="D40" s="162"/>
+      <c r="E40" s="162"/>
+      <c r="F40" s="162"/>
+      <c r="G40" s="162"/>
+      <c r="H40" s="162"/>
     </row>
     <row r="41" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A41" s="287" t="s">
+      <c r="A41" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="270" t="s">
+      <c r="B41" s="160" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="269" t="s">
+      <c r="C41" s="277" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="268"/>
-      <c r="E41" s="267"/>
-      <c r="F41" s="269" t="s">
+      <c r="D41" s="284"/>
+      <c r="E41" s="278"/>
+      <c r="F41" s="277" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="286"/>
-      <c r="H41" s="353" t="s">
+      <c r="G41" s="285"/>
+      <c r="H41" s="295" t="s">
         <v>14</v>
       </c>
-      <c r="I41" s="352"/>
-      <c r="J41" s="352"/>
+      <c r="I41" s="296"/>
+      <c r="J41" s="296"/>
     </row>
     <row r="42" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A42" s="284"/>
-      <c r="B42" s="283"/>
-      <c r="C42" s="258" t="s">
+      <c r="A42" s="171"/>
+      <c r="B42" s="170"/>
+      <c r="C42" s="286" t="s">
         <v>145</v>
       </c>
-      <c r="D42" s="257"/>
-      <c r="E42" s="256"/>
-      <c r="F42" s="258" t="s">
+      <c r="D42" s="287"/>
+      <c r="E42" s="288"/>
+      <c r="F42" s="286" t="s">
         <v>67</v>
       </c>
-      <c r="G42" s="256"/>
-      <c r="H42" s="351" t="s">
+      <c r="G42" s="288"/>
+      <c r="H42" s="297" t="s">
         <v>145</v>
       </c>
-      <c r="I42" s="350"/>
-      <c r="J42" s="349"/>
+      <c r="I42" s="298"/>
+      <c r="J42" s="299"/>
     </row>
     <row r="43" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A43" s="281"/>
-      <c r="B43" s="280"/>
-      <c r="C43" s="278" t="s">
+      <c r="A43" s="168"/>
+      <c r="B43" s="167"/>
+      <c r="C43" s="289" t="s">
         <v>146</v>
       </c>
-      <c r="D43" s="279"/>
-      <c r="E43" s="277"/>
-      <c r="F43" s="258" t="s">
+      <c r="D43" s="290"/>
+      <c r="E43" s="291"/>
+      <c r="F43" s="286" t="s">
         <v>68</v>
       </c>
-      <c r="G43" s="256"/>
-      <c r="H43" s="348" t="s">
+      <c r="G43" s="288"/>
+      <c r="H43" s="300" t="s">
         <v>146</v>
       </c>
-      <c r="I43" s="347"/>
-      <c r="J43" s="347"/>
+      <c r="I43" s="301"/>
+      <c r="J43" s="301"/>
     </row>
     <row r="44" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A44" s="255"/>
-      <c r="B44" s="254"/>
-      <c r="C44" s="252"/>
-      <c r="D44" s="253"/>
-      <c r="E44" s="251"/>
-      <c r="F44" s="252"/>
-      <c r="G44" s="251"/>
-      <c r="H44" s="346"/>
-      <c r="I44" s="345"/>
-      <c r="J44" s="345"/>
+      <c r="A44" s="155"/>
+      <c r="B44" s="154"/>
+      <c r="C44" s="265"/>
+      <c r="D44" s="266"/>
+      <c r="E44" s="267"/>
+      <c r="F44" s="265"/>
+      <c r="G44" s="267"/>
+      <c r="H44" s="302"/>
+      <c r="I44" s="303"/>
+      <c r="J44" s="303"/>
     </row>
     <row r="45" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A45" s="255"/>
-      <c r="B45" s="254"/>
-      <c r="C45" s="252"/>
-      <c r="D45" s="253"/>
-      <c r="E45" s="251"/>
-      <c r="F45" s="252"/>
-      <c r="G45" s="251"/>
-      <c r="H45" s="346"/>
-      <c r="I45" s="345"/>
-      <c r="J45" s="345"/>
+      <c r="A45" s="155"/>
+      <c r="B45" s="154"/>
+      <c r="C45" s="265"/>
+      <c r="D45" s="266"/>
+      <c r="E45" s="267"/>
+      <c r="F45" s="265"/>
+      <c r="G45" s="267"/>
+      <c r="H45" s="302"/>
+      <c r="I45" s="303"/>
+      <c r="J45" s="303"/>
     </row>
     <row r="46" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A46" s="249"/>
-      <c r="B46" s="248"/>
-      <c r="C46" s="247"/>
-      <c r="D46" s="246"/>
-      <c r="E46" s="245"/>
-      <c r="F46" s="244"/>
-      <c r="G46" s="243"/>
-      <c r="H46" s="344"/>
-      <c r="I46" s="343"/>
-      <c r="J46" s="343"/>
+      <c r="A46" s="152"/>
+      <c r="B46" s="151"/>
+      <c r="C46" s="275"/>
+      <c r="D46" s="283"/>
+      <c r="E46" s="276"/>
+      <c r="F46" s="292"/>
+      <c r="G46" s="293"/>
+      <c r="H46" s="304"/>
+      <c r="I46" s="305"/>
+      <c r="J46" s="305"/>
     </row>
     <row r="47" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A47" s="275"/>
-      <c r="B47" s="275"/>
-      <c r="C47" s="274"/>
-      <c r="D47" s="274"/>
-      <c r="E47" s="274"/>
-      <c r="F47" s="274"/>
-      <c r="G47" s="274"/>
-      <c r="H47" s="274"/>
+      <c r="A47" s="165"/>
+      <c r="B47" s="165"/>
+      <c r="C47" s="164"/>
+      <c r="D47" s="164"/>
+      <c r="E47" s="164"/>
+      <c r="F47" s="164"/>
+      <c r="G47" s="164"/>
+      <c r="H47" s="164"/>
     </row>
     <row r="48" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A48" s="273" t="s">
+      <c r="A48" s="163" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="273"/>
-      <c r="C48" s="272"/>
-      <c r="D48" s="272"/>
-      <c r="E48" s="272"/>
-      <c r="F48" s="272"/>
-      <c r="G48" s="272"/>
-      <c r="H48" s="272"/>
-    </row>
-    <row r="49" spans="1:10" s="263" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A49" s="271" t="s">
+      <c r="B48" s="163"/>
+      <c r="C48" s="162"/>
+      <c r="D48" s="162"/>
+      <c r="E48" s="162"/>
+      <c r="F48" s="162"/>
+      <c r="G48" s="162"/>
+      <c r="H48" s="162"/>
+    </row>
+    <row r="49" spans="1:10" s="158" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A49" s="161" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="270" t="s">
+      <c r="B49" s="160" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="269" t="s">
+      <c r="C49" s="277" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="268"/>
-      <c r="E49" s="267"/>
-      <c r="F49" s="266" t="s">
+      <c r="D49" s="284"/>
+      <c r="E49" s="278"/>
+      <c r="F49" s="271" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="265"/>
-      <c r="H49" s="264" t="s">
+      <c r="G49" s="294"/>
+      <c r="H49" s="159" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A50" s="262"/>
-      <c r="B50" s="261"/>
-      <c r="C50" s="278" t="s">
+      <c r="A50" s="157"/>
+      <c r="B50" s="156"/>
+      <c r="C50" s="289" t="s">
         <v>147</v>
       </c>
-      <c r="D50" s="279"/>
-      <c r="E50" s="277"/>
+      <c r="D50" s="290"/>
+      <c r="E50" s="291"/>
       <c r="F50" s="260" t="s">
         <v>69</v>
       </c>
-      <c r="G50" s="259"/>
-      <c r="H50" s="278" t="s">
+      <c r="G50" s="262"/>
+      <c r="H50" s="289" t="s">
         <v>147</v>
       </c>
-      <c r="I50" s="279"/>
-      <c r="J50" s="277"/>
+      <c r="I50" s="290"/>
+      <c r="J50" s="291"/>
     </row>
     <row r="51" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A51" s="255"/>
-      <c r="B51" s="254"/>
-      <c r="C51" s="278" t="s">
+      <c r="A51" s="155"/>
+      <c r="B51" s="154"/>
+      <c r="C51" s="289" t="s">
         <v>147</v>
       </c>
-      <c r="D51" s="279"/>
-      <c r="E51" s="277"/>
-      <c r="F51" s="252" t="s">
+      <c r="D51" s="290"/>
+      <c r="E51" s="291"/>
+      <c r="F51" s="265" t="s">
         <v>104</v>
       </c>
-      <c r="G51" s="251"/>
-      <c r="H51" s="278" t="s">
+      <c r="G51" s="267"/>
+      <c r="H51" s="289" t="s">
         <v>147</v>
       </c>
-      <c r="I51" s="279"/>
-      <c r="J51" s="277"/>
+      <c r="I51" s="290"/>
+      <c r="J51" s="291"/>
     </row>
     <row r="52" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A52" s="255"/>
-      <c r="B52" s="254"/>
-      <c r="C52" s="252"/>
-      <c r="D52" s="253"/>
-      <c r="E52" s="251"/>
-      <c r="F52" s="252"/>
-      <c r="G52" s="251"/>
-      <c r="H52" s="250"/>
+      <c r="A52" s="155"/>
+      <c r="B52" s="154"/>
+      <c r="C52" s="265"/>
+      <c r="D52" s="266"/>
+      <c r="E52" s="267"/>
+      <c r="F52" s="265"/>
+      <c r="G52" s="267"/>
+      <c r="H52" s="153"/>
     </row>
     <row r="53" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A53" s="255"/>
-      <c r="B53" s="254"/>
-      <c r="C53" s="252"/>
-      <c r="D53" s="253"/>
-      <c r="E53" s="251"/>
-      <c r="F53" s="252"/>
-      <c r="G53" s="251"/>
-      <c r="H53" s="250"/>
+      <c r="A53" s="155"/>
+      <c r="B53" s="154"/>
+      <c r="C53" s="265"/>
+      <c r="D53" s="266"/>
+      <c r="E53" s="267"/>
+      <c r="F53" s="265"/>
+      <c r="G53" s="267"/>
+      <c r="H53" s="153"/>
     </row>
     <row r="54" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A54" s="249"/>
-      <c r="B54" s="248"/>
-      <c r="C54" s="247"/>
-      <c r="D54" s="246"/>
-      <c r="E54" s="245"/>
-      <c r="F54" s="244"/>
-      <c r="G54" s="243"/>
-      <c r="H54" s="242"/>
+      <c r="A54" s="152"/>
+      <c r="B54" s="151"/>
+      <c r="C54" s="275"/>
+      <c r="D54" s="283"/>
+      <c r="E54" s="276"/>
+      <c r="F54" s="292"/>
+      <c r="G54" s="293"/>
+      <c r="H54" s="150"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
@@ -8870,50 +8898,14 @@
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9022,40 +9014,40 @@
         <v>47</v>
       </c>
       <c r="B6" s="53"/>
-      <c r="C6" s="198" t="s">
+      <c r="C6" s="337" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="199"/>
-      <c r="E6" s="199"/>
-      <c r="F6" s="199"/>
-      <c r="G6" s="199"/>
-      <c r="H6" s="200"/>
+      <c r="D6" s="338"/>
+      <c r="E6" s="338"/>
+      <c r="F6" s="338"/>
+      <c r="G6" s="338"/>
+      <c r="H6" s="339"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="135" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="53"/>
-      <c r="C7" s="198" t="s">
+      <c r="C7" s="337" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="199"/>
-      <c r="E7" s="199"/>
-      <c r="F7" s="199"/>
-      <c r="G7" s="199"/>
-      <c r="H7" s="200"/>
+      <c r="D7" s="338"/>
+      <c r="E7" s="338"/>
+      <c r="F7" s="338"/>
+      <c r="G7" s="338"/>
+      <c r="H7" s="339"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="135" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="53"/>
-      <c r="C8" s="198"/>
-      <c r="D8" s="199"/>
-      <c r="E8" s="199"/>
-      <c r="F8" s="199"/>
-      <c r="G8" s="199"/>
-      <c r="H8" s="200"/>
+      <c r="C8" s="337"/>
+      <c r="D8" s="338"/>
+      <c r="E8" s="338"/>
+      <c r="F8" s="338"/>
+      <c r="G8" s="338"/>
+      <c r="H8" s="339"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="54" t="s">
@@ -9076,10 +9068,10 @@
       <c r="B10" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="201" t="s">
+      <c r="C10" s="322" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="202"/>
+      <c r="D10" s="340"/>
       <c r="E10" s="56" t="s">
         <v>1</v>
       </c>
@@ -9100,10 +9092,10 @@
       <c r="B11" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="203" t="s">
+      <c r="C11" s="341" t="s">
         <v>152</v>
       </c>
-      <c r="D11" s="204"/>
+      <c r="D11" s="342"/>
       <c r="E11" s="68" t="s">
         <v>82</v>
       </c>
@@ -9188,8 +9180,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="74"/>
       <c r="B18" s="75"/>
-      <c r="C18" s="196"/>
-      <c r="D18" s="197"/>
+      <c r="C18" s="335"/>
+      <c r="D18" s="336"/>
       <c r="E18" s="76"/>
       <c r="F18" s="76"/>
       <c r="G18" s="77"/>
@@ -9198,8 +9190,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="74"/>
       <c r="B19" s="75"/>
-      <c r="C19" s="196"/>
-      <c r="D19" s="197"/>
+      <c r="C19" s="335"/>
+      <c r="D19" s="336"/>
       <c r="E19" s="76"/>
       <c r="F19" s="76"/>
       <c r="G19" s="77"/>
@@ -9208,8 +9200,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="74"/>
       <c r="B20" s="75"/>
-      <c r="C20" s="196"/>
-      <c r="D20" s="197"/>
+      <c r="C20" s="335"/>
+      <c r="D20" s="336"/>
       <c r="E20" s="76"/>
       <c r="F20" s="76"/>
       <c r="G20" s="77"/>
@@ -9218,8 +9210,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="74"/>
       <c r="B21" s="75"/>
-      <c r="C21" s="196"/>
-      <c r="D21" s="197"/>
+      <c r="C21" s="335"/>
+      <c r="D21" s="336"/>
       <c r="E21" s="76"/>
       <c r="F21" s="76"/>
       <c r="G21" s="77"/>
@@ -9228,8 +9220,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="74"/>
       <c r="B22" s="75"/>
-      <c r="C22" s="196"/>
-      <c r="D22" s="197"/>
+      <c r="C22" s="335"/>
+      <c r="D22" s="336"/>
       <c r="E22" s="76"/>
       <c r="F22" s="76"/>
       <c r="G22" s="77"/>
@@ -9238,8 +9230,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="74"/>
       <c r="B23" s="75"/>
-      <c r="C23" s="196"/>
-      <c r="D23" s="197"/>
+      <c r="C23" s="335"/>
+      <c r="D23" s="336"/>
       <c r="E23" s="76"/>
       <c r="F23" s="76"/>
       <c r="G23" s="77"/>
@@ -9248,8 +9240,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="74"/>
       <c r="B24" s="75"/>
-      <c r="C24" s="196"/>
-      <c r="D24" s="197"/>
+      <c r="C24" s="335"/>
+      <c r="D24" s="336"/>
       <c r="E24" s="76"/>
       <c r="F24" s="76"/>
       <c r="G24" s="77"/>
@@ -9258,8 +9250,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="74"/>
       <c r="B25" s="75"/>
-      <c r="C25" s="196"/>
-      <c r="D25" s="197"/>
+      <c r="C25" s="335"/>
+      <c r="D25" s="336"/>
       <c r="E25" s="76"/>
       <c r="F25" s="76"/>
       <c r="G25" s="77"/>
@@ -9268,8 +9260,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="74"/>
       <c r="B26" s="75"/>
-      <c r="C26" s="196"/>
-      <c r="D26" s="197"/>
+      <c r="C26" s="335"/>
+      <c r="D26" s="336"/>
       <c r="E26" s="76"/>
       <c r="F26" s="76"/>
       <c r="G26" s="77"/>
@@ -9278,8 +9270,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="74"/>
       <c r="B27" s="75"/>
-      <c r="C27" s="196"/>
-      <c r="D27" s="197"/>
+      <c r="C27" s="335"/>
+      <c r="D27" s="336"/>
       <c r="E27" s="76"/>
       <c r="F27" s="76"/>
       <c r="G27" s="77"/>
@@ -9288,8 +9280,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="74"/>
       <c r="B28" s="75"/>
-      <c r="C28" s="196"/>
-      <c r="D28" s="197"/>
+      <c r="C28" s="335"/>
+      <c r="D28" s="336"/>
       <c r="E28" s="76"/>
       <c r="F28" s="76"/>
       <c r="G28" s="77"/>
@@ -9298,8 +9290,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="74"/>
       <c r="B29" s="75"/>
-      <c r="C29" s="196"/>
-      <c r="D29" s="197"/>
+      <c r="C29" s="335"/>
+      <c r="D29" s="336"/>
       <c r="E29" s="76"/>
       <c r="F29" s="76"/>
       <c r="G29" s="77"/>
@@ -9308,8 +9300,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="79"/>
       <c r="B30" s="144"/>
-      <c r="C30" s="210"/>
-      <c r="D30" s="211"/>
+      <c r="C30" s="309"/>
+      <c r="D30" s="311"/>
       <c r="E30" s="80"/>
       <c r="F30" s="80"/>
       <c r="G30" s="81"/>
@@ -9341,10 +9333,10 @@
       <c r="A33" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="212" t="s">
+      <c r="B33" s="319" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="213"/>
+      <c r="C33" s="321"/>
       <c r="D33" s="138" t="s">
         <v>9</v>
       </c>
@@ -9359,51 +9351,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="66"/>
-      <c r="B34" s="214"/>
-      <c r="C34" s="215"/>
-      <c r="D34" s="216"/>
-      <c r="E34" s="217"/>
-      <c r="F34" s="218"/>
+      <c r="B34" s="332"/>
+      <c r="C34" s="333"/>
+      <c r="D34" s="317"/>
+      <c r="E34" s="334"/>
+      <c r="F34" s="318"/>
       <c r="G34" s="69"/>
       <c r="H34" s="70"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="71"/>
-      <c r="B35" s="205"/>
-      <c r="C35" s="206"/>
-      <c r="D35" s="207"/>
-      <c r="E35" s="208"/>
-      <c r="F35" s="209"/>
+      <c r="B35" s="327"/>
+      <c r="C35" s="328"/>
+      <c r="D35" s="306"/>
+      <c r="E35" s="307"/>
+      <c r="F35" s="308"/>
       <c r="G35" s="72"/>
       <c r="H35" s="73"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="71"/>
-      <c r="B36" s="205"/>
-      <c r="C36" s="206"/>
-      <c r="D36" s="207"/>
-      <c r="E36" s="208"/>
-      <c r="F36" s="209"/>
+      <c r="B36" s="327"/>
+      <c r="C36" s="328"/>
+      <c r="D36" s="306"/>
+      <c r="E36" s="307"/>
+      <c r="F36" s="308"/>
       <c r="G36" s="72"/>
       <c r="H36" s="73"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="71"/>
-      <c r="B37" s="205"/>
-      <c r="C37" s="206"/>
-      <c r="D37" s="207"/>
-      <c r="E37" s="208"/>
-      <c r="F37" s="209"/>
+      <c r="B37" s="327"/>
+      <c r="C37" s="328"/>
+      <c r="D37" s="306"/>
+      <c r="E37" s="307"/>
+      <c r="F37" s="308"/>
       <c r="G37" s="72"/>
       <c r="H37" s="73"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="79"/>
-      <c r="B38" s="219"/>
-      <c r="C38" s="220"/>
-      <c r="D38" s="210"/>
-      <c r="E38" s="221"/>
-      <c r="F38" s="211"/>
+      <c r="B38" s="329"/>
+      <c r="C38" s="330"/>
+      <c r="D38" s="309"/>
+      <c r="E38" s="310"/>
+      <c r="F38" s="311"/>
       <c r="G38" s="81"/>
       <c r="H38" s="82"/>
     </row>
@@ -9436,15 +9428,15 @@
       <c r="B41" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="212" t="s">
+      <c r="C41" s="319" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="222"/>
-      <c r="E41" s="213"/>
-      <c r="F41" s="212" t="s">
+      <c r="D41" s="320"/>
+      <c r="E41" s="321"/>
+      <c r="F41" s="319" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="223"/>
+      <c r="G41" s="331"/>
       <c r="H41" s="63" t="s">
         <v>14</v>
       </c>
@@ -9452,51 +9444,51 @@
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="94"/>
       <c r="B42" s="95"/>
-      <c r="C42" s="193"/>
-      <c r="D42" s="194"/>
-      <c r="E42" s="195"/>
-      <c r="F42" s="193"/>
-      <c r="G42" s="195"/>
+      <c r="C42" s="324"/>
+      <c r="D42" s="325"/>
+      <c r="E42" s="326"/>
+      <c r="F42" s="324"/>
+      <c r="G42" s="326"/>
       <c r="H42" s="96"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="97"/>
       <c r="B43" s="98"/>
-      <c r="C43" s="224"/>
-      <c r="D43" s="225"/>
-      <c r="E43" s="226"/>
-      <c r="F43" s="224"/>
-      <c r="G43" s="226"/>
+      <c r="C43" s="314"/>
+      <c r="D43" s="315"/>
+      <c r="E43" s="316"/>
+      <c r="F43" s="314"/>
+      <c r="G43" s="316"/>
       <c r="H43" s="99"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="86"/>
       <c r="B44" s="87"/>
-      <c r="C44" s="207"/>
-      <c r="D44" s="208"/>
-      <c r="E44" s="209"/>
-      <c r="F44" s="207"/>
-      <c r="G44" s="209"/>
+      <c r="C44" s="306"/>
+      <c r="D44" s="307"/>
+      <c r="E44" s="308"/>
+      <c r="F44" s="306"/>
+      <c r="G44" s="308"/>
       <c r="H44" s="88"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="86"/>
       <c r="B45" s="87"/>
-      <c r="C45" s="207"/>
-      <c r="D45" s="208"/>
-      <c r="E45" s="209"/>
-      <c r="F45" s="207"/>
-      <c r="G45" s="209"/>
+      <c r="C45" s="306"/>
+      <c r="D45" s="307"/>
+      <c r="E45" s="308"/>
+      <c r="F45" s="306"/>
+      <c r="G45" s="308"/>
       <c r="H45" s="88"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="89"/>
       <c r="B46" s="139"/>
-      <c r="C46" s="210"/>
-      <c r="D46" s="221"/>
-      <c r="E46" s="211"/>
-      <c r="F46" s="227"/>
-      <c r="G46" s="228"/>
+      <c r="C46" s="309"/>
+      <c r="D46" s="310"/>
+      <c r="E46" s="311"/>
+      <c r="F46" s="312"/>
+      <c r="G46" s="313"/>
       <c r="H46" s="90"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -9528,15 +9520,15 @@
       <c r="B49" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="212" t="s">
+      <c r="C49" s="319" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="222"/>
-      <c r="E49" s="213"/>
-      <c r="F49" s="201" t="s">
+      <c r="D49" s="320"/>
+      <c r="E49" s="321"/>
+      <c r="F49" s="322" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="229"/>
+      <c r="G49" s="323"/>
       <c r="H49" s="57" t="s">
         <v>17</v>
       </c>
@@ -9544,101 +9536,63 @@
     <row r="50" spans="1:10" ht="20.25" customHeight="1">
       <c r="A50" s="83"/>
       <c r="B50" s="84"/>
-      <c r="C50" s="224" t="s">
+      <c r="C50" s="314" t="s">
         <v>146</v>
       </c>
-      <c r="D50" s="225"/>
-      <c r="E50" s="226"/>
-      <c r="F50" s="216" t="s">
+      <c r="D50" s="315"/>
+      <c r="E50" s="316"/>
+      <c r="F50" s="317" t="s">
         <v>66</v>
       </c>
-      <c r="G50" s="218"/>
-      <c r="H50" s="224" t="s">
+      <c r="G50" s="318"/>
+      <c r="H50" s="314" t="s">
         <v>146</v>
       </c>
-      <c r="I50" s="225"/>
-      <c r="J50" s="226"/>
+      <c r="I50" s="315"/>
+      <c r="J50" s="316"/>
     </row>
     <row r="51" spans="1:10" ht="20.25" customHeight="1">
       <c r="A51" s="86"/>
       <c r="B51" s="87"/>
-      <c r="C51" s="207"/>
-      <c r="D51" s="208"/>
-      <c r="E51" s="209"/>
-      <c r="F51" s="207"/>
-      <c r="G51" s="209"/>
+      <c r="C51" s="306"/>
+      <c r="D51" s="307"/>
+      <c r="E51" s="308"/>
+      <c r="F51" s="306"/>
+      <c r="G51" s="308"/>
       <c r="H51" s="88"/>
     </row>
     <row r="52" spans="1:10" ht="20.25" customHeight="1">
       <c r="A52" s="86"/>
       <c r="B52" s="87"/>
-      <c r="C52" s="207"/>
-      <c r="D52" s="208"/>
-      <c r="E52" s="209"/>
-      <c r="F52" s="207"/>
-      <c r="G52" s="209"/>
+      <c r="C52" s="306"/>
+      <c r="D52" s="307"/>
+      <c r="E52" s="308"/>
+      <c r="F52" s="306"/>
+      <c r="G52" s="308"/>
       <c r="H52" s="88"/>
     </row>
     <row r="53" spans="1:10" ht="20.25" customHeight="1">
       <c r="A53" s="86"/>
       <c r="B53" s="87"/>
-      <c r="C53" s="207"/>
-      <c r="D53" s="208"/>
-      <c r="E53" s="209"/>
-      <c r="F53" s="207"/>
-      <c r="G53" s="209"/>
+      <c r="C53" s="306"/>
+      <c r="D53" s="307"/>
+      <c r="E53" s="308"/>
+      <c r="F53" s="306"/>
+      <c r="G53" s="308"/>
       <c r="H53" s="88"/>
     </row>
     <row r="54" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="89"/>
       <c r="B54" s="139"/>
-      <c r="C54" s="210"/>
-      <c r="D54" s="221"/>
-      <c r="E54" s="211"/>
-      <c r="F54" s="227"/>
-      <c r="G54" s="228"/>
+      <c r="C54" s="309"/>
+      <c r="D54" s="310"/>
+      <c r="E54" s="311"/>
+      <c r="F54" s="312"/>
+      <c r="G54" s="313"/>
       <c r="H54" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
     <mergeCell ref="H50:J50"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C6:H6"/>
@@ -9655,6 +9609,44 @@
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9763,40 +9755,40 @@
         <v>47</v>
       </c>
       <c r="B6" s="53"/>
-      <c r="C6" s="198" t="s">
+      <c r="C6" s="337" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="199"/>
-      <c r="E6" s="199"/>
-      <c r="F6" s="199"/>
-      <c r="G6" s="199"/>
-      <c r="H6" s="200"/>
+      <c r="D6" s="338"/>
+      <c r="E6" s="338"/>
+      <c r="F6" s="338"/>
+      <c r="G6" s="338"/>
+      <c r="H6" s="339"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="135" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="53"/>
-      <c r="C7" s="198" t="s">
+      <c r="C7" s="337" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="199"/>
-      <c r="E7" s="199"/>
-      <c r="F7" s="199"/>
-      <c r="G7" s="199"/>
-      <c r="H7" s="200"/>
+      <c r="D7" s="338"/>
+      <c r="E7" s="338"/>
+      <c r="F7" s="338"/>
+      <c r="G7" s="338"/>
+      <c r="H7" s="339"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="135" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="53"/>
-      <c r="C8" s="198"/>
-      <c r="D8" s="199"/>
-      <c r="E8" s="199"/>
-      <c r="F8" s="199"/>
-      <c r="G8" s="199"/>
-      <c r="H8" s="200"/>
+      <c r="C8" s="337"/>
+      <c r="D8" s="338"/>
+      <c r="E8" s="338"/>
+      <c r="F8" s="338"/>
+      <c r="G8" s="338"/>
+      <c r="H8" s="339"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="54" t="s">
@@ -9817,10 +9809,10 @@
       <c r="B10" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="201" t="s">
+      <c r="C10" s="322" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="202"/>
+      <c r="D10" s="340"/>
       <c r="E10" s="56" t="s">
         <v>1</v>
       </c>
@@ -9841,10 +9833,10 @@
       <c r="B11" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="203" t="s">
+      <c r="C11" s="341" t="s">
         <v>141</v>
       </c>
-      <c r="D11" s="204"/>
+      <c r="D11" s="342"/>
       <c r="E11" s="68" t="s">
         <v>81</v>
       </c>
@@ -9931,8 +9923,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="74"/>
       <c r="B18" s="75"/>
-      <c r="C18" s="196"/>
-      <c r="D18" s="197"/>
+      <c r="C18" s="335"/>
+      <c r="D18" s="336"/>
       <c r="E18" s="76"/>
       <c r="F18" s="76"/>
       <c r="G18" s="77"/>
@@ -9941,8 +9933,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="74"/>
       <c r="B19" s="75"/>
-      <c r="C19" s="196"/>
-      <c r="D19" s="197"/>
+      <c r="C19" s="335"/>
+      <c r="D19" s="336"/>
       <c r="E19" s="76"/>
       <c r="F19" s="76"/>
       <c r="G19" s="77"/>
@@ -9951,8 +9943,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="74"/>
       <c r="B20" s="75"/>
-      <c r="C20" s="196"/>
-      <c r="D20" s="197"/>
+      <c r="C20" s="335"/>
+      <c r="D20" s="336"/>
       <c r="E20" s="76"/>
       <c r="F20" s="76"/>
       <c r="G20" s="77"/>
@@ -9961,8 +9953,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="74"/>
       <c r="B21" s="75"/>
-      <c r="C21" s="196"/>
-      <c r="D21" s="197"/>
+      <c r="C21" s="335"/>
+      <c r="D21" s="336"/>
       <c r="E21" s="76"/>
       <c r="F21" s="76"/>
       <c r="G21" s="77"/>
@@ -9971,8 +9963,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="74"/>
       <c r="B22" s="75"/>
-      <c r="C22" s="196"/>
-      <c r="D22" s="197"/>
+      <c r="C22" s="335"/>
+      <c r="D22" s="336"/>
       <c r="E22" s="76"/>
       <c r="F22" s="76"/>
       <c r="G22" s="77"/>
@@ -9981,8 +9973,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="74"/>
       <c r="B23" s="75"/>
-      <c r="C23" s="196"/>
-      <c r="D23" s="197"/>
+      <c r="C23" s="335"/>
+      <c r="D23" s="336"/>
       <c r="E23" s="76"/>
       <c r="F23" s="76"/>
       <c r="G23" s="77"/>
@@ -9991,8 +9983,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="74"/>
       <c r="B24" s="75"/>
-      <c r="C24" s="196"/>
-      <c r="D24" s="197"/>
+      <c r="C24" s="335"/>
+      <c r="D24" s="336"/>
       <c r="E24" s="76"/>
       <c r="F24" s="76"/>
       <c r="G24" s="77"/>
@@ -10001,8 +9993,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="74"/>
       <c r="B25" s="75"/>
-      <c r="C25" s="196"/>
-      <c r="D25" s="197"/>
+      <c r="C25" s="335"/>
+      <c r="D25" s="336"/>
       <c r="E25" s="76"/>
       <c r="F25" s="76"/>
       <c r="G25" s="77"/>
@@ -10011,8 +10003,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="74"/>
       <c r="B26" s="75"/>
-      <c r="C26" s="196"/>
-      <c r="D26" s="197"/>
+      <c r="C26" s="335"/>
+      <c r="D26" s="336"/>
       <c r="E26" s="76"/>
       <c r="F26" s="76"/>
       <c r="G26" s="77"/>
@@ -10021,8 +10013,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="74"/>
       <c r="B27" s="75"/>
-      <c r="C27" s="196"/>
-      <c r="D27" s="197"/>
+      <c r="C27" s="335"/>
+      <c r="D27" s="336"/>
       <c r="E27" s="76"/>
       <c r="F27" s="76"/>
       <c r="G27" s="77"/>
@@ -10031,8 +10023,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="74"/>
       <c r="B28" s="75"/>
-      <c r="C28" s="196"/>
-      <c r="D28" s="197"/>
+      <c r="C28" s="335"/>
+      <c r="D28" s="336"/>
       <c r="E28" s="76"/>
       <c r="F28" s="76"/>
       <c r="G28" s="77"/>
@@ -10041,8 +10033,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="74"/>
       <c r="B29" s="75"/>
-      <c r="C29" s="196"/>
-      <c r="D29" s="197"/>
+      <c r="C29" s="335"/>
+      <c r="D29" s="336"/>
       <c r="E29" s="76"/>
       <c r="F29" s="76"/>
       <c r="G29" s="77"/>
@@ -10051,8 +10043,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="79"/>
       <c r="B30" s="144"/>
-      <c r="C30" s="210"/>
-      <c r="D30" s="211"/>
+      <c r="C30" s="309"/>
+      <c r="D30" s="311"/>
       <c r="E30" s="80"/>
       <c r="F30" s="80"/>
       <c r="G30" s="81"/>
@@ -10084,10 +10076,10 @@
       <c r="A33" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="212" t="s">
+      <c r="B33" s="319" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="213"/>
+      <c r="C33" s="321"/>
       <c r="D33" s="138" t="s">
         <v>9</v>
       </c>
@@ -10102,51 +10094,51 @@
     </row>
     <row r="34" spans="1:10" ht="20.25" customHeight="1">
       <c r="A34" s="66"/>
-      <c r="B34" s="214"/>
-      <c r="C34" s="215"/>
-      <c r="D34" s="216"/>
-      <c r="E34" s="217"/>
-      <c r="F34" s="218"/>
+      <c r="B34" s="332"/>
+      <c r="C34" s="333"/>
+      <c r="D34" s="317"/>
+      <c r="E34" s="334"/>
+      <c r="F34" s="318"/>
       <c r="G34" s="69"/>
       <c r="H34" s="70"/>
     </row>
     <row r="35" spans="1:10" ht="20.25" customHeight="1">
       <c r="A35" s="71"/>
-      <c r="B35" s="205"/>
-      <c r="C35" s="206"/>
-      <c r="D35" s="207"/>
-      <c r="E35" s="208"/>
-      <c r="F35" s="209"/>
+      <c r="B35" s="327"/>
+      <c r="C35" s="328"/>
+      <c r="D35" s="306"/>
+      <c r="E35" s="307"/>
+      <c r="F35" s="308"/>
       <c r="G35" s="72"/>
       <c r="H35" s="73"/>
     </row>
     <row r="36" spans="1:10" ht="20.25" customHeight="1">
       <c r="A36" s="71"/>
-      <c r="B36" s="205"/>
-      <c r="C36" s="206"/>
-      <c r="D36" s="207"/>
-      <c r="E36" s="208"/>
-      <c r="F36" s="209"/>
+      <c r="B36" s="327"/>
+      <c r="C36" s="328"/>
+      <c r="D36" s="306"/>
+      <c r="E36" s="307"/>
+      <c r="F36" s="308"/>
       <c r="G36" s="72"/>
       <c r="H36" s="73"/>
     </row>
     <row r="37" spans="1:10" ht="20.25" customHeight="1">
       <c r="A37" s="71"/>
-      <c r="B37" s="205"/>
-      <c r="C37" s="206"/>
-      <c r="D37" s="207"/>
-      <c r="E37" s="208"/>
-      <c r="F37" s="209"/>
+      <c r="B37" s="327"/>
+      <c r="C37" s="328"/>
+      <c r="D37" s="306"/>
+      <c r="E37" s="307"/>
+      <c r="F37" s="308"/>
       <c r="G37" s="72"/>
       <c r="H37" s="73"/>
     </row>
     <row r="38" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="79"/>
-      <c r="B38" s="219"/>
-      <c r="C38" s="220"/>
-      <c r="D38" s="210"/>
-      <c r="E38" s="221"/>
-      <c r="F38" s="211"/>
+      <c r="B38" s="329"/>
+      <c r="C38" s="330"/>
+      <c r="D38" s="309"/>
+      <c r="E38" s="310"/>
+      <c r="F38" s="311"/>
       <c r="G38" s="81"/>
       <c r="H38" s="82"/>
     </row>
@@ -10179,15 +10171,15 @@
       <c r="B41" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="212" t="s">
+      <c r="C41" s="319" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="222"/>
-      <c r="E41" s="213"/>
-      <c r="F41" s="212" t="s">
+      <c r="D41" s="320"/>
+      <c r="E41" s="321"/>
+      <c r="F41" s="319" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="223"/>
+      <c r="G41" s="331"/>
       <c r="H41" s="63" t="s">
         <v>14</v>
       </c>
@@ -10195,67 +10187,67 @@
     <row r="42" spans="1:10" ht="20.25" customHeight="1">
       <c r="A42" s="94"/>
       <c r="B42" s="95"/>
-      <c r="C42" s="193" t="s">
+      <c r="C42" s="324" t="s">
         <v>144</v>
       </c>
-      <c r="D42" s="194"/>
-      <c r="E42" s="195"/>
-      <c r="F42" s="193" t="s">
+      <c r="D42" s="325"/>
+      <c r="E42" s="326"/>
+      <c r="F42" s="324" t="s">
         <v>65</v>
       </c>
-      <c r="G42" s="195"/>
-      <c r="H42" s="193" t="s">
+      <c r="G42" s="326"/>
+      <c r="H42" s="324" t="s">
         <v>144</v>
       </c>
-      <c r="I42" s="194"/>
-      <c r="J42" s="195"/>
+      <c r="I42" s="325"/>
+      <c r="J42" s="326"/>
     </row>
     <row r="43" spans="1:10" ht="20.25" customHeight="1">
       <c r="A43" s="97"/>
       <c r="B43" s="98"/>
-      <c r="C43" s="224" t="s">
+      <c r="C43" s="314" t="s">
         <v>147</v>
       </c>
-      <c r="D43" s="225"/>
-      <c r="E43" s="226"/>
-      <c r="F43" s="224" t="s">
+      <c r="D43" s="315"/>
+      <c r="E43" s="316"/>
+      <c r="F43" s="314" t="s">
         <v>66</v>
       </c>
-      <c r="G43" s="226"/>
-      <c r="H43" s="224" t="s">
+      <c r="G43" s="316"/>
+      <c r="H43" s="314" t="s">
         <v>147</v>
       </c>
-      <c r="I43" s="225"/>
-      <c r="J43" s="226"/>
+      <c r="I43" s="315"/>
+      <c r="J43" s="316"/>
     </row>
     <row r="44" spans="1:10" ht="20.25" customHeight="1">
       <c r="A44" s="86"/>
       <c r="B44" s="87"/>
-      <c r="C44" s="207"/>
-      <c r="D44" s="208"/>
-      <c r="E44" s="209"/>
-      <c r="F44" s="207"/>
-      <c r="G44" s="209"/>
+      <c r="C44" s="306"/>
+      <c r="D44" s="307"/>
+      <c r="E44" s="308"/>
+      <c r="F44" s="306"/>
+      <c r="G44" s="308"/>
       <c r="H44" s="88"/>
     </row>
     <row r="45" spans="1:10" ht="20.25" customHeight="1">
       <c r="A45" s="86"/>
       <c r="B45" s="87"/>
-      <c r="C45" s="207"/>
-      <c r="D45" s="208"/>
-      <c r="E45" s="209"/>
-      <c r="F45" s="207"/>
-      <c r="G45" s="209"/>
+      <c r="C45" s="306"/>
+      <c r="D45" s="307"/>
+      <c r="E45" s="308"/>
+      <c r="F45" s="306"/>
+      <c r="G45" s="308"/>
       <c r="H45" s="88"/>
     </row>
     <row r="46" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="89"/>
       <c r="B46" s="139"/>
-      <c r="C46" s="210"/>
-      <c r="D46" s="221"/>
-      <c r="E46" s="211"/>
-      <c r="F46" s="227"/>
-      <c r="G46" s="228"/>
+      <c r="C46" s="309"/>
+      <c r="D46" s="310"/>
+      <c r="E46" s="311"/>
+      <c r="F46" s="312"/>
+      <c r="G46" s="313"/>
       <c r="H46" s="90"/>
     </row>
     <row r="47" spans="1:10" ht="20.25" customHeight="1">
@@ -10287,15 +10279,15 @@
       <c r="B49" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="212" t="s">
+      <c r="C49" s="319" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="222"/>
-      <c r="E49" s="213"/>
-      <c r="F49" s="201" t="s">
+      <c r="D49" s="320"/>
+      <c r="E49" s="321"/>
+      <c r="F49" s="322" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="229"/>
+      <c r="G49" s="323"/>
       <c r="H49" s="57" t="s">
         <v>17</v>
       </c>
@@ -10303,94 +10295,55 @@
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="83"/>
       <c r="B50" s="84"/>
-      <c r="C50" s="216"/>
-      <c r="D50" s="217"/>
-      <c r="E50" s="218"/>
-      <c r="F50" s="216"/>
-      <c r="G50" s="218"/>
+      <c r="C50" s="317"/>
+      <c r="D50" s="334"/>
+      <c r="E50" s="318"/>
+      <c r="F50" s="317"/>
+      <c r="G50" s="318"/>
       <c r="H50" s="85"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="86"/>
       <c r="B51" s="87"/>
-      <c r="C51" s="207"/>
-      <c r="D51" s="208"/>
-      <c r="E51" s="209"/>
-      <c r="F51" s="207"/>
-      <c r="G51" s="209"/>
+      <c r="C51" s="306"/>
+      <c r="D51" s="307"/>
+      <c r="E51" s="308"/>
+      <c r="F51" s="306"/>
+      <c r="G51" s="308"/>
       <c r="H51" s="88"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="86"/>
       <c r="B52" s="87"/>
-      <c r="C52" s="207"/>
-      <c r="D52" s="208"/>
-      <c r="E52" s="209"/>
-      <c r="F52" s="207"/>
-      <c r="G52" s="209"/>
+      <c r="C52" s="306"/>
+      <c r="D52" s="307"/>
+      <c r="E52" s="308"/>
+      <c r="F52" s="306"/>
+      <c r="G52" s="308"/>
       <c r="H52" s="88"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="86"/>
       <c r="B53" s="87"/>
-      <c r="C53" s="207"/>
-      <c r="D53" s="208"/>
-      <c r="E53" s="209"/>
-      <c r="F53" s="207"/>
-      <c r="G53" s="209"/>
+      <c r="C53" s="306"/>
+      <c r="D53" s="307"/>
+      <c r="E53" s="308"/>
+      <c r="F53" s="306"/>
+      <c r="G53" s="308"/>
       <c r="H53" s="88"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="89"/>
       <c r="B54" s="139"/>
-      <c r="C54" s="210"/>
-      <c r="D54" s="221"/>
-      <c r="E54" s="211"/>
-      <c r="F54" s="227"/>
-      <c r="G54" s="228"/>
+      <c r="C54" s="309"/>
+      <c r="D54" s="310"/>
+      <c r="E54" s="311"/>
+      <c r="F54" s="312"/>
+      <c r="G54" s="313"/>
       <c r="H54" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
     <mergeCell ref="H42:J42"/>
     <mergeCell ref="H43:J43"/>
     <mergeCell ref="C24:D24"/>
@@ -10407,6 +10360,45 @@
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10515,40 +10507,40 @@
         <v>47</v>
       </c>
       <c r="B6" s="53"/>
-      <c r="C6" s="198" t="s">
+      <c r="C6" s="337" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="199"/>
-      <c r="E6" s="199"/>
-      <c r="F6" s="199"/>
-      <c r="G6" s="199"/>
-      <c r="H6" s="200"/>
+      <c r="D6" s="338"/>
+      <c r="E6" s="338"/>
+      <c r="F6" s="338"/>
+      <c r="G6" s="338"/>
+      <c r="H6" s="339"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="135" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="53"/>
-      <c r="C7" s="198" t="s">
+      <c r="C7" s="337" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="199"/>
-      <c r="E7" s="199"/>
-      <c r="F7" s="199"/>
-      <c r="G7" s="199"/>
-      <c r="H7" s="200"/>
+      <c r="D7" s="338"/>
+      <c r="E7" s="338"/>
+      <c r="F7" s="338"/>
+      <c r="G7" s="338"/>
+      <c r="H7" s="339"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="135" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="53"/>
-      <c r="C8" s="198"/>
-      <c r="D8" s="199"/>
-      <c r="E8" s="199"/>
-      <c r="F8" s="199"/>
-      <c r="G8" s="199"/>
-      <c r="H8" s="200"/>
+      <c r="C8" s="337"/>
+      <c r="D8" s="338"/>
+      <c r="E8" s="338"/>
+      <c r="F8" s="338"/>
+      <c r="G8" s="338"/>
+      <c r="H8" s="339"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="54" t="s">
@@ -10569,10 +10561,10 @@
       <c r="B10" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="201" t="s">
+      <c r="C10" s="322" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="202"/>
+      <c r="D10" s="340"/>
       <c r="E10" s="56" t="s">
         <v>1</v>
       </c>
@@ -10593,10 +10585,10 @@
       <c r="B11" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="203" t="s">
+      <c r="C11" s="341" t="s">
         <v>154</v>
       </c>
-      <c r="D11" s="204"/>
+      <c r="D11" s="342"/>
       <c r="E11" s="76" t="s">
         <v>166</v>
       </c>
@@ -10705,8 +10697,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="74"/>
       <c r="B18" s="75"/>
-      <c r="C18" s="196"/>
-      <c r="D18" s="197"/>
+      <c r="C18" s="335"/>
+      <c r="D18" s="336"/>
       <c r="E18" s="76"/>
       <c r="F18" s="76"/>
       <c r="G18" s="77"/>
@@ -10715,8 +10707,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="74"/>
       <c r="B19" s="75"/>
-      <c r="C19" s="196"/>
-      <c r="D19" s="197"/>
+      <c r="C19" s="335"/>
+      <c r="D19" s="336"/>
       <c r="E19" s="76"/>
       <c r="F19" s="76"/>
       <c r="G19" s="77"/>
@@ -10725,8 +10717,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="74"/>
       <c r="B20" s="75"/>
-      <c r="C20" s="196"/>
-      <c r="D20" s="197"/>
+      <c r="C20" s="335"/>
+      <c r="D20" s="336"/>
       <c r="E20" s="76"/>
       <c r="F20" s="76"/>
       <c r="G20" s="77"/>
@@ -10735,8 +10727,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="74"/>
       <c r="B21" s="75"/>
-      <c r="C21" s="196"/>
-      <c r="D21" s="197"/>
+      <c r="C21" s="335"/>
+      <c r="D21" s="336"/>
       <c r="E21" s="76"/>
       <c r="F21" s="76"/>
       <c r="G21" s="77"/>
@@ -10745,8 +10737,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="74"/>
       <c r="B22" s="75"/>
-      <c r="C22" s="196"/>
-      <c r="D22" s="197"/>
+      <c r="C22" s="335"/>
+      <c r="D22" s="336"/>
       <c r="E22" s="76"/>
       <c r="F22" s="76"/>
       <c r="G22" s="77"/>
@@ -10755,8 +10747,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="74"/>
       <c r="B23" s="75"/>
-      <c r="C23" s="196"/>
-      <c r="D23" s="197"/>
+      <c r="C23" s="335"/>
+      <c r="D23" s="336"/>
       <c r="E23" s="76"/>
       <c r="F23" s="76"/>
       <c r="G23" s="77"/>
@@ -10765,8 +10757,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="74"/>
       <c r="B24" s="75"/>
-      <c r="C24" s="196"/>
-      <c r="D24" s="197"/>
+      <c r="C24" s="335"/>
+      <c r="D24" s="336"/>
       <c r="E24" s="76"/>
       <c r="F24" s="76"/>
       <c r="G24" s="77"/>
@@ -10775,8 +10767,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="74"/>
       <c r="B25" s="75"/>
-      <c r="C25" s="196"/>
-      <c r="D25" s="197"/>
+      <c r="C25" s="335"/>
+      <c r="D25" s="336"/>
       <c r="E25" s="76"/>
       <c r="F25" s="76"/>
       <c r="G25" s="77"/>
@@ -10785,8 +10777,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="74"/>
       <c r="B26" s="75"/>
-      <c r="C26" s="196"/>
-      <c r="D26" s="197"/>
+      <c r="C26" s="335"/>
+      <c r="D26" s="336"/>
       <c r="E26" s="76"/>
       <c r="F26" s="76"/>
       <c r="G26" s="77"/>
@@ -10795,8 +10787,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="74"/>
       <c r="B27" s="75"/>
-      <c r="C27" s="196"/>
-      <c r="D27" s="197"/>
+      <c r="C27" s="335"/>
+      <c r="D27" s="336"/>
       <c r="E27" s="76"/>
       <c r="F27" s="76"/>
       <c r="G27" s="77"/>
@@ -10805,8 +10797,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="74"/>
       <c r="B28" s="75"/>
-      <c r="C28" s="196"/>
-      <c r="D28" s="197"/>
+      <c r="C28" s="335"/>
+      <c r="D28" s="336"/>
       <c r="E28" s="76"/>
       <c r="F28" s="76"/>
       <c r="G28" s="77"/>
@@ -10815,8 +10807,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="74"/>
       <c r="B29" s="75"/>
-      <c r="C29" s="196"/>
-      <c r="D29" s="197"/>
+      <c r="C29" s="335"/>
+      <c r="D29" s="336"/>
       <c r="E29" s="76"/>
       <c r="F29" s="76"/>
       <c r="G29" s="77"/>
@@ -10825,8 +10817,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="79"/>
       <c r="B30" s="144"/>
-      <c r="C30" s="210"/>
-      <c r="D30" s="211"/>
+      <c r="C30" s="309"/>
+      <c r="D30" s="311"/>
       <c r="E30" s="80"/>
       <c r="F30" s="80"/>
       <c r="G30" s="81"/>
@@ -10858,10 +10850,10 @@
       <c r="A33" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="212" t="s">
+      <c r="B33" s="319" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="213"/>
+      <c r="C33" s="321"/>
       <c r="D33" s="138" t="s">
         <v>9</v>
       </c>
@@ -10876,51 +10868,51 @@
     </row>
     <row r="34" spans="1:10" ht="20.25" customHeight="1">
       <c r="A34" s="66"/>
-      <c r="B34" s="214"/>
-      <c r="C34" s="215"/>
-      <c r="D34" s="216"/>
-      <c r="E34" s="217"/>
-      <c r="F34" s="218"/>
+      <c r="B34" s="332"/>
+      <c r="C34" s="333"/>
+      <c r="D34" s="317"/>
+      <c r="E34" s="334"/>
+      <c r="F34" s="318"/>
       <c r="G34" s="69"/>
       <c r="H34" s="70"/>
     </row>
     <row r="35" spans="1:10" ht="20.25" customHeight="1">
       <c r="A35" s="71"/>
-      <c r="B35" s="205"/>
-      <c r="C35" s="206"/>
-      <c r="D35" s="207"/>
-      <c r="E35" s="208"/>
-      <c r="F35" s="209"/>
+      <c r="B35" s="327"/>
+      <c r="C35" s="328"/>
+      <c r="D35" s="306"/>
+      <c r="E35" s="307"/>
+      <c r="F35" s="308"/>
       <c r="G35" s="72"/>
       <c r="H35" s="73"/>
     </row>
     <row r="36" spans="1:10" ht="20.25" customHeight="1">
       <c r="A36" s="71"/>
-      <c r="B36" s="205"/>
-      <c r="C36" s="206"/>
-      <c r="D36" s="207"/>
-      <c r="E36" s="208"/>
-      <c r="F36" s="209"/>
+      <c r="B36" s="327"/>
+      <c r="C36" s="328"/>
+      <c r="D36" s="306"/>
+      <c r="E36" s="307"/>
+      <c r="F36" s="308"/>
       <c r="G36" s="72"/>
       <c r="H36" s="73"/>
     </row>
     <row r="37" spans="1:10" ht="20.25" customHeight="1">
       <c r="A37" s="71"/>
-      <c r="B37" s="205"/>
-      <c r="C37" s="206"/>
-      <c r="D37" s="207"/>
-      <c r="E37" s="208"/>
-      <c r="F37" s="209"/>
+      <c r="B37" s="327"/>
+      <c r="C37" s="328"/>
+      <c r="D37" s="306"/>
+      <c r="E37" s="307"/>
+      <c r="F37" s="308"/>
       <c r="G37" s="72"/>
       <c r="H37" s="73"/>
     </row>
     <row r="38" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="79"/>
-      <c r="B38" s="219"/>
-      <c r="C38" s="220"/>
-      <c r="D38" s="210"/>
-      <c r="E38" s="221"/>
-      <c r="F38" s="211"/>
+      <c r="B38" s="329"/>
+      <c r="C38" s="330"/>
+      <c r="D38" s="309"/>
+      <c r="E38" s="310"/>
+      <c r="F38" s="311"/>
       <c r="G38" s="81"/>
       <c r="H38" s="82"/>
     </row>
@@ -10953,15 +10945,15 @@
       <c r="B41" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="212" t="s">
+      <c r="C41" s="319" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="222"/>
-      <c r="E41" s="213"/>
-      <c r="F41" s="212" t="s">
+      <c r="D41" s="320"/>
+      <c r="E41" s="321"/>
+      <c r="F41" s="319" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="223"/>
+      <c r="G41" s="331"/>
       <c r="H41" s="63" t="s">
         <v>14</v>
       </c>
@@ -10969,67 +10961,67 @@
     <row r="42" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A42" s="94"/>
       <c r="B42" s="95"/>
-      <c r="C42" s="224" t="s">
+      <c r="C42" s="314" t="s">
         <v>147</v>
       </c>
-      <c r="D42" s="225"/>
-      <c r="E42" s="226"/>
-      <c r="F42" s="193" t="s">
+      <c r="D42" s="315"/>
+      <c r="E42" s="316"/>
+      <c r="F42" s="324" t="s">
         <v>66</v>
       </c>
-      <c r="G42" s="195"/>
-      <c r="H42" s="224" t="s">
+      <c r="G42" s="326"/>
+      <c r="H42" s="314" t="s">
         <v>147</v>
       </c>
-      <c r="I42" s="225"/>
-      <c r="J42" s="226"/>
+      <c r="I42" s="315"/>
+      <c r="J42" s="316"/>
     </row>
     <row r="43" spans="1:10" ht="20.25" customHeight="1">
       <c r="A43" s="97"/>
       <c r="B43" s="98"/>
-      <c r="C43" s="193" t="s">
+      <c r="C43" s="324" t="s">
         <v>144</v>
       </c>
-      <c r="D43" s="194"/>
-      <c r="E43" s="195"/>
-      <c r="F43" s="224" t="s">
+      <c r="D43" s="325"/>
+      <c r="E43" s="326"/>
+      <c r="F43" s="314" t="s">
         <v>65</v>
       </c>
-      <c r="G43" s="226"/>
-      <c r="H43" s="193" t="s">
+      <c r="G43" s="316"/>
+      <c r="H43" s="324" t="s">
         <v>144</v>
       </c>
-      <c r="I43" s="194"/>
-      <c r="J43" s="195"/>
+      <c r="I43" s="325"/>
+      <c r="J43" s="326"/>
     </row>
     <row r="44" spans="1:10" ht="20.25" customHeight="1">
       <c r="A44" s="86"/>
       <c r="B44" s="87"/>
-      <c r="C44" s="207"/>
-      <c r="D44" s="208"/>
-      <c r="E44" s="209"/>
-      <c r="F44" s="207"/>
-      <c r="G44" s="209"/>
+      <c r="C44" s="306"/>
+      <c r="D44" s="307"/>
+      <c r="E44" s="308"/>
+      <c r="F44" s="306"/>
+      <c r="G44" s="308"/>
       <c r="H44" s="88"/>
     </row>
     <row r="45" spans="1:10" ht="20.25" customHeight="1">
       <c r="A45" s="86"/>
       <c r="B45" s="87"/>
-      <c r="C45" s="207"/>
-      <c r="D45" s="208"/>
-      <c r="E45" s="209"/>
-      <c r="F45" s="207"/>
-      <c r="G45" s="209"/>
+      <c r="C45" s="306"/>
+      <c r="D45" s="307"/>
+      <c r="E45" s="308"/>
+      <c r="F45" s="306"/>
+      <c r="G45" s="308"/>
       <c r="H45" s="88"/>
     </row>
     <row r="46" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="89"/>
       <c r="B46" s="139"/>
-      <c r="C46" s="210"/>
-      <c r="D46" s="221"/>
-      <c r="E46" s="211"/>
-      <c r="F46" s="227"/>
-      <c r="G46" s="228"/>
+      <c r="C46" s="309"/>
+      <c r="D46" s="310"/>
+      <c r="E46" s="311"/>
+      <c r="F46" s="312"/>
+      <c r="G46" s="313"/>
       <c r="H46" s="90"/>
     </row>
     <row r="47" spans="1:10" ht="20.25" customHeight="1">
@@ -11061,15 +11053,15 @@
       <c r="B49" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="212" t="s">
+      <c r="C49" s="319" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="222"/>
-      <c r="E49" s="213"/>
-      <c r="F49" s="201" t="s">
+      <c r="D49" s="320"/>
+      <c r="E49" s="321"/>
+      <c r="F49" s="322" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="229"/>
+      <c r="G49" s="323"/>
       <c r="H49" s="57" t="s">
         <v>17</v>
       </c>
@@ -11077,94 +11069,55 @@
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="83"/>
       <c r="B50" s="84"/>
-      <c r="C50" s="216"/>
-      <c r="D50" s="217"/>
-      <c r="E50" s="218"/>
-      <c r="F50" s="216"/>
-      <c r="G50" s="218"/>
+      <c r="C50" s="317"/>
+      <c r="D50" s="334"/>
+      <c r="E50" s="318"/>
+      <c r="F50" s="317"/>
+      <c r="G50" s="318"/>
       <c r="H50" s="85"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="86"/>
       <c r="B51" s="87"/>
-      <c r="C51" s="207"/>
-      <c r="D51" s="208"/>
-      <c r="E51" s="209"/>
-      <c r="F51" s="207"/>
-      <c r="G51" s="209"/>
+      <c r="C51" s="306"/>
+      <c r="D51" s="307"/>
+      <c r="E51" s="308"/>
+      <c r="F51" s="306"/>
+      <c r="G51" s="308"/>
       <c r="H51" s="88"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="86"/>
       <c r="B52" s="87"/>
-      <c r="C52" s="207"/>
-      <c r="D52" s="208"/>
-      <c r="E52" s="209"/>
-      <c r="F52" s="207"/>
-      <c r="G52" s="209"/>
+      <c r="C52" s="306"/>
+      <c r="D52" s="307"/>
+      <c r="E52" s="308"/>
+      <c r="F52" s="306"/>
+      <c r="G52" s="308"/>
       <c r="H52" s="88"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="86"/>
       <c r="B53" s="87"/>
-      <c r="C53" s="207"/>
-      <c r="D53" s="208"/>
-      <c r="E53" s="209"/>
-      <c r="F53" s="207"/>
-      <c r="G53" s="209"/>
+      <c r="C53" s="306"/>
+      <c r="D53" s="307"/>
+      <c r="E53" s="308"/>
+      <c r="F53" s="306"/>
+      <c r="G53" s="308"/>
       <c r="H53" s="88"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="89"/>
       <c r="B54" s="139"/>
-      <c r="C54" s="210"/>
-      <c r="D54" s="221"/>
-      <c r="E54" s="211"/>
-      <c r="F54" s="227"/>
-      <c r="G54" s="228"/>
+      <c r="C54" s="309"/>
+      <c r="D54" s="310"/>
+      <c r="E54" s="311"/>
+      <c r="F54" s="312"/>
+      <c r="G54" s="313"/>
       <c r="H54" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
     <mergeCell ref="H42:J42"/>
     <mergeCell ref="H43:J43"/>
     <mergeCell ref="C24:D24"/>
@@ -11181,6 +11134,45 @@
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11196,47 +11188,47 @@
   </sheetPr>
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="241" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="241" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" style="241" customWidth="1"/>
-    <col min="4" max="6" width="13.5" style="241" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" style="241" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" style="241" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="241"/>
+    <col min="1" max="1" width="3.6640625" style="149" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="149" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" style="149" customWidth="1"/>
+    <col min="4" max="6" width="13.5" style="149" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" style="149" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" style="149" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="149"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15">
-      <c r="A1" s="339" t="s">
+      <c r="A1" s="210" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="338"/>
-      <c r="C1" s="338"/>
-      <c r="D1" s="338"/>
-      <c r="E1" s="338"/>
-      <c r="F1" s="338"/>
-      <c r="G1" s="338"/>
-      <c r="H1" s="337"/>
+      <c r="B1" s="209"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="208"/>
     </row>
     <row r="2" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A2" s="328" t="s">
+      <c r="A2" s="199" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="328"/>
-      <c r="C2" s="335"/>
-      <c r="D2" s="334"/>
-      <c r="E2" s="333" t="s">
+      <c r="B2" s="199"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="204" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="334" t="s">
+      <c r="F2" s="205" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="333" t="s">
+      <c r="G2" s="204" t="s">
         <v>24</v>
       </c>
       <c r="H2" s="147">
@@ -11244,695 +11236,670 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A3" s="328" t="s">
+      <c r="A3" s="199" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="328"/>
-      <c r="C3" s="335"/>
-      <c r="D3" s="334"/>
-      <c r="E3" s="333" t="s">
+      <c r="B3" s="199"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="205"/>
+      <c r="E3" s="204" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="334"/>
-      <c r="G3" s="333" t="s">
+      <c r="F3" s="205"/>
+      <c r="G3" s="204" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="342">
+      <c r="H3" s="213">
         <v>43971</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A4" s="328" t="s">
+      <c r="A4" s="199" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="328"/>
-      <c r="C4" s="335"/>
-      <c r="D4" s="335"/>
-      <c r="E4" s="334"/>
-      <c r="F4" s="334"/>
-      <c r="G4" s="333" t="s">
+      <c r="B4" s="199"/>
+      <c r="C4" s="206"/>
+      <c r="D4" s="206"/>
+      <c r="E4" s="205"/>
+      <c r="F4" s="205"/>
+      <c r="G4" s="204" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="332"/>
-    </row>
-    <row r="5" spans="1:8" s="329" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A5" s="330"/>
-      <c r="B5" s="330"/>
-      <c r="C5" s="330"/>
-      <c r="D5" s="330"/>
-      <c r="E5" s="330"/>
-      <c r="F5" s="330"/>
-      <c r="G5" s="331"/>
-      <c r="H5" s="330"/>
+      <c r="H4" s="203"/>
+    </row>
+    <row r="5" spans="1:8" s="200" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A5" s="201"/>
+      <c r="B5" s="201"/>
+      <c r="C5" s="201"/>
+      <c r="D5" s="201"/>
+      <c r="E5" s="201"/>
+      <c r="F5" s="201"/>
+      <c r="G5" s="202"/>
+      <c r="H5" s="201"/>
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A6" s="328" t="s">
+      <c r="A6" s="199" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="327"/>
-      <c r="C6" s="326" t="s">
+      <c r="B6" s="198"/>
+      <c r="C6" s="268" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="325"/>
-      <c r="E6" s="325"/>
-      <c r="F6" s="325"/>
-      <c r="G6" s="325"/>
-      <c r="H6" s="324"/>
+      <c r="D6" s="269"/>
+      <c r="E6" s="269"/>
+      <c r="F6" s="269"/>
+      <c r="G6" s="269"/>
+      <c r="H6" s="270"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A7" s="328" t="s">
+      <c r="A7" s="199" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="327"/>
-      <c r="C7" s="326" t="s">
+      <c r="B7" s="198"/>
+      <c r="C7" s="268" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="325"/>
-      <c r="E7" s="325"/>
-      <c r="F7" s="325"/>
-      <c r="G7" s="325"/>
-      <c r="H7" s="324"/>
+      <c r="D7" s="269"/>
+      <c r="E7" s="269"/>
+      <c r="F7" s="269"/>
+      <c r="G7" s="269"/>
+      <c r="H7" s="270"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A8" s="328" t="s">
+      <c r="A8" s="199" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="327"/>
-      <c r="C8" s="326"/>
-      <c r="D8" s="325"/>
-      <c r="E8" s="325"/>
-      <c r="F8" s="325"/>
-      <c r="G8" s="325"/>
-      <c r="H8" s="324"/>
+      <c r="B8" s="198"/>
+      <c r="C8" s="268"/>
+      <c r="D8" s="269"/>
+      <c r="E8" s="269"/>
+      <c r="F8" s="269"/>
+      <c r="G8" s="269"/>
+      <c r="H8" s="270"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A9" s="273" t="s">
+      <c r="A9" s="163" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="273"/>
-      <c r="C9" s="273"/>
-      <c r="D9" s="273"/>
-      <c r="E9" s="273"/>
-      <c r="F9" s="273"/>
-      <c r="G9" s="273"/>
-      <c r="H9" s="273"/>
+      <c r="B9" s="163"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="163"/>
+      <c r="H9" s="163"/>
     </row>
     <row r="10" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A10" s="271" t="s">
+      <c r="A10" s="161" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="322" t="s">
+      <c r="B10" s="197" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="266" t="s">
+      <c r="C10" s="271" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="323"/>
-      <c r="E10" s="322" t="s">
+      <c r="D10" s="272"/>
+      <c r="E10" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="322" t="s">
+      <c r="F10" s="197" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="322" t="s">
+      <c r="G10" s="197" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="264" t="s">
+      <c r="H10" s="159" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A11" s="303">
+      <c r="A11" s="182">
         <v>1</v>
       </c>
-      <c r="B11" s="321" t="s">
+      <c r="B11" s="196" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="320" t="s">
+      <c r="C11" s="273" t="s">
         <v>150</v>
       </c>
-      <c r="D11" s="319"/>
-      <c r="E11" s="316" t="s">
+      <c r="D11" s="274"/>
+      <c r="E11" s="193" t="s">
         <v>81</v>
       </c>
-      <c r="F11" s="316" t="s">
+      <c r="F11" s="193" t="s">
         <v>80</v>
       </c>
-      <c r="G11" s="299"/>
-      <c r="H11" s="298" t="s">
+      <c r="G11" s="181"/>
+      <c r="H11" s="180" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A12" s="297">
+      <c r="A12" s="179">
         <v>2</v>
       </c>
-      <c r="B12" s="314" t="s">
+      <c r="B12" s="191" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="318" t="s">
+      <c r="C12" s="195" t="s">
         <v>156</v>
       </c>
-      <c r="D12" s="317"/>
-      <c r="E12" s="341" t="s">
+      <c r="D12" s="194"/>
+      <c r="E12" s="212" t="s">
         <v>170</v>
       </c>
-      <c r="F12" s="311" t="s">
+      <c r="F12" s="190" t="s">
         <v>80</v>
       </c>
-      <c r="G12" s="310"/>
-      <c r="H12" s="309"/>
+      <c r="G12" s="189"/>
+      <c r="H12" s="188"/>
     </row>
     <row r="13" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A13" s="297">
+      <c r="A13" s="179">
         <v>3</v>
       </c>
-      <c r="B13" s="314" t="s">
+      <c r="B13" s="191" t="s">
         <v>91</v>
       </c>
-      <c r="C13" s="318" t="s">
+      <c r="C13" s="195" t="s">
         <v>157</v>
       </c>
-      <c r="D13" s="317"/>
-      <c r="E13" s="341" t="s">
+      <c r="D13" s="194"/>
+      <c r="E13" s="212" t="s">
         <v>163</v>
       </c>
-      <c r="F13" s="311" t="s">
+      <c r="F13" s="190" t="s">
         <v>80</v>
       </c>
-      <c r="G13" s="310"/>
-      <c r="H13" s="309"/>
+      <c r="G13" s="189"/>
+      <c r="H13" s="188"/>
     </row>
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A14" s="315">
+      <c r="A14" s="192">
         <v>4</v>
       </c>
-      <c r="B14" s="314" t="s">
+      <c r="B14" s="191" t="s">
         <v>160</v>
       </c>
-      <c r="C14" s="318" t="s">
-        <v>190</v>
-      </c>
-      <c r="D14" s="317"/>
-      <c r="E14" s="311" t="s">
+      <c r="C14" s="195" t="s">
+        <v>161</v>
+      </c>
+      <c r="D14" s="194"/>
+      <c r="E14" s="190" t="s">
         <v>162</v>
       </c>
-      <c r="F14" s="311" t="s">
+      <c r="F14" s="190" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="310"/>
-      <c r="H14" s="309"/>
+      <c r="G14" s="189"/>
+      <c r="H14" s="188"/>
     </row>
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A15" s="315">
+      <c r="A15" s="192">
         <v>5</v>
       </c>
-      <c r="B15" s="314" t="s">
+      <c r="B15" s="191" t="s">
         <v>125</v>
       </c>
-      <c r="C15" s="318" t="s">
-        <v>189</v>
-      </c>
-      <c r="D15" s="317"/>
-      <c r="E15" s="341" t="s">
+      <c r="C15" s="195" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="194"/>
+      <c r="E15" s="212" t="s">
         <v>163</v>
       </c>
-      <c r="F15" s="311" t="s">
+      <c r="F15" s="190" t="s">
         <v>80</v>
       </c>
-      <c r="G15" s="310"/>
-      <c r="H15" s="309"/>
+      <c r="G15" s="189"/>
+      <c r="H15" s="188"/>
     </row>
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A16" s="315"/>
-      <c r="B16" s="314"/>
-      <c r="C16" s="318"/>
-      <c r="D16" s="317"/>
-      <c r="E16" s="311"/>
-      <c r="F16" s="311"/>
-      <c r="G16" s="310"/>
-      <c r="H16" s="309"/>
+      <c r="A16" s="192"/>
+      <c r="B16" s="191"/>
+      <c r="C16" s="195"/>
+      <c r="D16" s="194"/>
+      <c r="E16" s="190"/>
+      <c r="F16" s="190"/>
+      <c r="G16" s="189"/>
+      <c r="H16" s="188"/>
     </row>
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A17" s="315"/>
-      <c r="B17" s="314"/>
-      <c r="C17" s="318"/>
-      <c r="D17" s="317"/>
-      <c r="E17" s="311"/>
-      <c r="F17" s="311"/>
-      <c r="G17" s="310"/>
-      <c r="H17" s="309"/>
+      <c r="A17" s="192"/>
+      <c r="B17" s="191"/>
+      <c r="C17" s="195"/>
+      <c r="D17" s="194"/>
+      <c r="E17" s="190"/>
+      <c r="F17" s="190"/>
+      <c r="G17" s="189"/>
+      <c r="H17" s="188"/>
     </row>
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A18" s="315"/>
-      <c r="B18" s="314"/>
-      <c r="C18" s="313"/>
-      <c r="D18" s="312"/>
-      <c r="E18" s="311"/>
-      <c r="F18" s="311"/>
-      <c r="G18" s="310"/>
-      <c r="H18" s="309"/>
+      <c r="A18" s="192"/>
+      <c r="B18" s="191"/>
+      <c r="C18" s="258"/>
+      <c r="D18" s="259"/>
+      <c r="E18" s="190"/>
+      <c r="F18" s="190"/>
+      <c r="G18" s="189"/>
+      <c r="H18" s="188"/>
     </row>
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A19" s="315"/>
-      <c r="B19" s="314"/>
-      <c r="C19" s="313"/>
-      <c r="D19" s="312"/>
-      <c r="E19" s="311"/>
-      <c r="F19" s="311"/>
-      <c r="G19" s="310"/>
-      <c r="H19" s="309"/>
+      <c r="A19" s="192"/>
+      <c r="B19" s="191"/>
+      <c r="C19" s="258"/>
+      <c r="D19" s="259"/>
+      <c r="E19" s="190"/>
+      <c r="F19" s="190"/>
+      <c r="G19" s="189"/>
+      <c r="H19" s="188"/>
     </row>
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A20" s="315"/>
-      <c r="B20" s="314"/>
-      <c r="C20" s="313"/>
-      <c r="D20" s="312"/>
-      <c r="E20" s="311"/>
-      <c r="F20" s="311"/>
-      <c r="G20" s="310"/>
-      <c r="H20" s="309"/>
+      <c r="A20" s="192"/>
+      <c r="B20" s="191"/>
+      <c r="C20" s="258"/>
+      <c r="D20" s="259"/>
+      <c r="E20" s="190"/>
+      <c r="F20" s="190"/>
+      <c r="G20" s="189"/>
+      <c r="H20" s="188"/>
     </row>
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A21" s="315"/>
-      <c r="B21" s="314"/>
-      <c r="C21" s="313"/>
-      <c r="D21" s="312"/>
-      <c r="E21" s="311"/>
-      <c r="F21" s="311"/>
-      <c r="G21" s="310"/>
-      <c r="H21" s="309"/>
+      <c r="A21" s="192"/>
+      <c r="B21" s="191"/>
+      <c r="C21" s="258"/>
+      <c r="D21" s="259"/>
+      <c r="E21" s="190"/>
+      <c r="F21" s="190"/>
+      <c r="G21" s="189"/>
+      <c r="H21" s="188"/>
     </row>
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A22" s="315"/>
-      <c r="B22" s="314"/>
-      <c r="C22" s="313"/>
-      <c r="D22" s="312"/>
-      <c r="E22" s="311"/>
-      <c r="F22" s="311"/>
-      <c r="G22" s="310"/>
-      <c r="H22" s="309"/>
+      <c r="A22" s="192"/>
+      <c r="B22" s="191"/>
+      <c r="C22" s="258"/>
+      <c r="D22" s="259"/>
+      <c r="E22" s="190"/>
+      <c r="F22" s="190"/>
+      <c r="G22" s="189"/>
+      <c r="H22" s="188"/>
     </row>
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A23" s="315"/>
-      <c r="B23" s="314"/>
-      <c r="C23" s="313"/>
-      <c r="D23" s="312"/>
-      <c r="E23" s="311"/>
-      <c r="F23" s="311"/>
-      <c r="G23" s="310"/>
-      <c r="H23" s="309"/>
+      <c r="A23" s="192"/>
+      <c r="B23" s="191"/>
+      <c r="C23" s="258"/>
+      <c r="D23" s="259"/>
+      <c r="E23" s="190"/>
+      <c r="F23" s="190"/>
+      <c r="G23" s="189"/>
+      <c r="H23" s="188"/>
     </row>
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A24" s="315"/>
-      <c r="B24" s="314"/>
-      <c r="C24" s="313"/>
-      <c r="D24" s="312"/>
-      <c r="E24" s="311"/>
-      <c r="F24" s="311"/>
-      <c r="G24" s="310"/>
-      <c r="H24" s="309"/>
+      <c r="A24" s="192"/>
+      <c r="B24" s="191"/>
+      <c r="C24" s="258"/>
+      <c r="D24" s="259"/>
+      <c r="E24" s="190"/>
+      <c r="F24" s="190"/>
+      <c r="G24" s="189"/>
+      <c r="H24" s="188"/>
     </row>
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A25" s="315"/>
-      <c r="B25" s="314"/>
-      <c r="C25" s="313"/>
-      <c r="D25" s="312"/>
-      <c r="E25" s="311"/>
-      <c r="F25" s="311"/>
-      <c r="G25" s="310"/>
-      <c r="H25" s="309"/>
+      <c r="A25" s="192"/>
+      <c r="B25" s="191"/>
+      <c r="C25" s="258"/>
+      <c r="D25" s="259"/>
+      <c r="E25" s="190"/>
+      <c r="F25" s="190"/>
+      <c r="G25" s="189"/>
+      <c r="H25" s="188"/>
     </row>
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A26" s="315"/>
-      <c r="B26" s="314"/>
-      <c r="C26" s="313"/>
-      <c r="D26" s="312"/>
-      <c r="E26" s="311"/>
-      <c r="F26" s="311"/>
-      <c r="G26" s="310"/>
-      <c r="H26" s="309"/>
+      <c r="A26" s="192"/>
+      <c r="B26" s="191"/>
+      <c r="C26" s="258"/>
+      <c r="D26" s="259"/>
+      <c r="E26" s="190"/>
+      <c r="F26" s="190"/>
+      <c r="G26" s="189"/>
+      <c r="H26" s="188"/>
     </row>
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A27" s="315"/>
-      <c r="B27" s="314"/>
-      <c r="C27" s="313"/>
-      <c r="D27" s="312"/>
-      <c r="E27" s="311"/>
-      <c r="F27" s="311"/>
-      <c r="G27" s="310"/>
-      <c r="H27" s="309"/>
+      <c r="A27" s="192"/>
+      <c r="B27" s="191"/>
+      <c r="C27" s="258"/>
+      <c r="D27" s="259"/>
+      <c r="E27" s="190"/>
+      <c r="F27" s="190"/>
+      <c r="G27" s="189"/>
+      <c r="H27" s="188"/>
     </row>
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A28" s="315"/>
-      <c r="B28" s="314"/>
-      <c r="C28" s="313"/>
-      <c r="D28" s="312"/>
-      <c r="E28" s="311"/>
-      <c r="F28" s="311"/>
-      <c r="G28" s="310"/>
-      <c r="H28" s="309"/>
+      <c r="A28" s="192"/>
+      <c r="B28" s="191"/>
+      <c r="C28" s="258"/>
+      <c r="D28" s="259"/>
+      <c r="E28" s="190"/>
+      <c r="F28" s="190"/>
+      <c r="G28" s="189"/>
+      <c r="H28" s="188"/>
     </row>
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A29" s="315"/>
-      <c r="B29" s="314"/>
-      <c r="C29" s="313"/>
-      <c r="D29" s="312"/>
-      <c r="E29" s="311"/>
-      <c r="F29" s="311"/>
-      <c r="G29" s="310"/>
-      <c r="H29" s="309"/>
+      <c r="A29" s="192"/>
+      <c r="B29" s="191"/>
+      <c r="C29" s="258"/>
+      <c r="D29" s="259"/>
+      <c r="E29" s="190"/>
+      <c r="F29" s="190"/>
+      <c r="G29" s="189"/>
+      <c r="H29" s="188"/>
     </row>
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A30" s="292"/>
-      <c r="B30" s="308"/>
-      <c r="C30" s="247"/>
-      <c r="D30" s="245"/>
-      <c r="E30" s="307"/>
-      <c r="F30" s="307"/>
-      <c r="G30" s="289"/>
-      <c r="H30" s="288"/>
+      <c r="A30" s="176"/>
+      <c r="B30" s="187"/>
+      <c r="C30" s="275"/>
+      <c r="D30" s="276"/>
+      <c r="E30" s="186"/>
+      <c r="F30" s="186"/>
+      <c r="G30" s="175"/>
+      <c r="H30" s="174"/>
     </row>
     <row r="31" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A31" s="275"/>
-      <c r="B31" s="275"/>
-      <c r="C31" s="274"/>
-      <c r="D31" s="274"/>
-      <c r="E31" s="274"/>
-      <c r="F31" s="274"/>
-      <c r="G31" s="274"/>
-      <c r="H31" s="274"/>
+      <c r="A31" s="165"/>
+      <c r="B31" s="165"/>
+      <c r="C31" s="164"/>
+      <c r="D31" s="164"/>
+      <c r="E31" s="164"/>
+      <c r="F31" s="164"/>
+      <c r="G31" s="164"/>
+      <c r="H31" s="164"/>
     </row>
     <row r="32" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A32" s="273" t="s">
+      <c r="A32" s="163" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="273"/>
-      <c r="C32" s="272"/>
-      <c r="D32" s="272"/>
-      <c r="E32" s="272"/>
-      <c r="F32" s="272"/>
-      <c r="G32" s="272"/>
-      <c r="H32" s="272"/>
+      <c r="B32" s="163"/>
+      <c r="C32" s="162"/>
+      <c r="D32" s="162"/>
+      <c r="E32" s="162"/>
+      <c r="F32" s="162"/>
+      <c r="G32" s="162"/>
+      <c r="H32" s="162"/>
     </row>
     <row r="33" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A33" s="287" t="s">
+      <c r="A33" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="269" t="s">
+      <c r="B33" s="277" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="267"/>
-      <c r="D33" s="306" t="s">
+      <c r="C33" s="278"/>
+      <c r="D33" s="185" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="305"/>
-      <c r="F33" s="304"/>
-      <c r="G33" s="270" t="s">
+      <c r="E33" s="184"/>
+      <c r="F33" s="183"/>
+      <c r="G33" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="H33" s="285" t="s">
+      <c r="H33" s="172" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A34" s="303"/>
-      <c r="B34" s="302"/>
-      <c r="C34" s="301"/>
+      <c r="A34" s="182"/>
+      <c r="B34" s="279"/>
+      <c r="C34" s="280"/>
       <c r="D34" s="260"/>
-      <c r="E34" s="300"/>
-      <c r="F34" s="259"/>
-      <c r="G34" s="299"/>
-      <c r="H34" s="298"/>
+      <c r="E34" s="261"/>
+      <c r="F34" s="262"/>
+      <c r="G34" s="181"/>
+      <c r="H34" s="180"/>
     </row>
     <row r="35" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A35" s="297"/>
-      <c r="B35" s="296"/>
-      <c r="C35" s="295"/>
-      <c r="D35" s="252"/>
-      <c r="E35" s="253"/>
-      <c r="F35" s="251"/>
-      <c r="G35" s="294"/>
-      <c r="H35" s="293"/>
+      <c r="A35" s="179"/>
+      <c r="B35" s="263"/>
+      <c r="C35" s="264"/>
+      <c r="D35" s="265"/>
+      <c r="E35" s="266"/>
+      <c r="F35" s="267"/>
+      <c r="G35" s="178"/>
+      <c r="H35" s="177"/>
     </row>
     <row r="36" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A36" s="297"/>
-      <c r="B36" s="296"/>
-      <c r="C36" s="295"/>
-      <c r="D36" s="252"/>
-      <c r="E36" s="253"/>
-      <c r="F36" s="251"/>
-      <c r="G36" s="294"/>
-      <c r="H36" s="293"/>
+      <c r="A36" s="179"/>
+      <c r="B36" s="263"/>
+      <c r="C36" s="264"/>
+      <c r="D36" s="265"/>
+      <c r="E36" s="266"/>
+      <c r="F36" s="267"/>
+      <c r="G36" s="178"/>
+      <c r="H36" s="177"/>
     </row>
     <row r="37" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A37" s="297"/>
-      <c r="B37" s="296"/>
-      <c r="C37" s="295"/>
-      <c r="D37" s="252"/>
-      <c r="E37" s="253"/>
-      <c r="F37" s="251"/>
-      <c r="G37" s="294"/>
-      <c r="H37" s="293"/>
+      <c r="A37" s="179"/>
+      <c r="B37" s="263"/>
+      <c r="C37" s="264"/>
+      <c r="D37" s="265"/>
+      <c r="E37" s="266"/>
+      <c r="F37" s="267"/>
+      <c r="G37" s="178"/>
+      <c r="H37" s="177"/>
     </row>
     <row r="38" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A38" s="292"/>
-      <c r="B38" s="291"/>
-      <c r="C38" s="290"/>
-      <c r="D38" s="247"/>
-      <c r="E38" s="246"/>
-      <c r="F38" s="245"/>
-      <c r="G38" s="289"/>
-      <c r="H38" s="288"/>
+      <c r="A38" s="176"/>
+      <c r="B38" s="281"/>
+      <c r="C38" s="282"/>
+      <c r="D38" s="275"/>
+      <c r="E38" s="283"/>
+      <c r="F38" s="276"/>
+      <c r="G38" s="175"/>
+      <c r="H38" s="174"/>
     </row>
     <row r="39" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A39" s="275"/>
-      <c r="B39" s="275"/>
-      <c r="C39" s="274"/>
-      <c r="D39" s="274"/>
-      <c r="E39" s="274"/>
-      <c r="F39" s="274"/>
-      <c r="G39" s="274"/>
-      <c r="H39" s="274"/>
+      <c r="A39" s="165"/>
+      <c r="B39" s="165"/>
+      <c r="C39" s="164"/>
+      <c r="D39" s="164"/>
+      <c r="E39" s="164"/>
+      <c r="F39" s="164"/>
+      <c r="G39" s="164"/>
+      <c r="H39" s="164"/>
     </row>
     <row r="40" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A40" s="273" t="s">
+      <c r="A40" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="273"/>
-      <c r="C40" s="272"/>
-      <c r="D40" s="272"/>
-      <c r="E40" s="272"/>
-      <c r="F40" s="272"/>
-      <c r="G40" s="272"/>
-      <c r="H40" s="272"/>
+      <c r="B40" s="163"/>
+      <c r="C40" s="162"/>
+      <c r="D40" s="162"/>
+      <c r="E40" s="162"/>
+      <c r="F40" s="162"/>
+      <c r="G40" s="162"/>
+      <c r="H40" s="162"/>
     </row>
     <row r="41" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A41" s="287" t="s">
+      <c r="A41" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="270" t="s">
+      <c r="B41" s="160" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="269" t="s">
+      <c r="C41" s="277" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="268"/>
-      <c r="E41" s="267"/>
-      <c r="F41" s="269" t="s">
+      <c r="D41" s="284"/>
+      <c r="E41" s="278"/>
+      <c r="F41" s="277" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="286"/>
-      <c r="H41" s="285" t="s">
+      <c r="G41" s="285"/>
+      <c r="H41" s="172" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A42" s="284"/>
-      <c r="B42" s="283"/>
-      <c r="C42" s="258" t="s">
+      <c r="A42" s="171"/>
+      <c r="B42" s="170"/>
+      <c r="C42" s="286" t="s">
         <v>145</v>
       </c>
-      <c r="D42" s="257"/>
-      <c r="E42" s="256"/>
-      <c r="F42" s="258" t="s">
+      <c r="D42" s="287"/>
+      <c r="E42" s="288"/>
+      <c r="F42" s="286" t="s">
         <v>66</v>
       </c>
-      <c r="G42" s="256"/>
-      <c r="H42" s="258" t="s">
+      <c r="G42" s="288"/>
+      <c r="H42" s="286" t="s">
         <v>145</v>
       </c>
-      <c r="I42" s="257"/>
-      <c r="J42" s="256"/>
+      <c r="I42" s="287"/>
+      <c r="J42" s="288"/>
     </row>
     <row r="43" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A43" s="281"/>
-      <c r="B43" s="280"/>
-      <c r="C43" s="278"/>
-      <c r="D43" s="279"/>
-      <c r="E43" s="277"/>
-      <c r="F43" s="278"/>
-      <c r="G43" s="277"/>
-      <c r="H43" s="276"/>
+      <c r="A43" s="168"/>
+      <c r="B43" s="167"/>
+      <c r="C43" s="289"/>
+      <c r="D43" s="290"/>
+      <c r="E43" s="291"/>
+      <c r="F43" s="289"/>
+      <c r="G43" s="291"/>
+      <c r="H43" s="166"/>
     </row>
     <row r="44" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A44" s="255"/>
-      <c r="B44" s="254"/>
-      <c r="C44" s="252"/>
-      <c r="D44" s="253"/>
-      <c r="E44" s="251"/>
-      <c r="F44" s="252"/>
-      <c r="G44" s="251"/>
-      <c r="H44" s="250"/>
+      <c r="A44" s="155"/>
+      <c r="B44" s="154"/>
+      <c r="C44" s="265"/>
+      <c r="D44" s="266"/>
+      <c r="E44" s="267"/>
+      <c r="F44" s="265"/>
+      <c r="G44" s="267"/>
+      <c r="H44" s="153"/>
     </row>
     <row r="45" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A45" s="255"/>
-      <c r="B45" s="254"/>
-      <c r="C45" s="252"/>
-      <c r="D45" s="253"/>
-      <c r="E45" s="251"/>
-      <c r="F45" s="252"/>
-      <c r="G45" s="251"/>
-      <c r="H45" s="250"/>
+      <c r="A45" s="155"/>
+      <c r="B45" s="154"/>
+      <c r="C45" s="265"/>
+      <c r="D45" s="266"/>
+      <c r="E45" s="267"/>
+      <c r="F45" s="265"/>
+      <c r="G45" s="267"/>
+      <c r="H45" s="153"/>
     </row>
     <row r="46" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A46" s="249"/>
-      <c r="B46" s="248"/>
-      <c r="C46" s="247"/>
-      <c r="D46" s="246"/>
-      <c r="E46" s="245"/>
-      <c r="F46" s="244"/>
-      <c r="G46" s="243"/>
-      <c r="H46" s="242"/>
+      <c r="A46" s="152"/>
+      <c r="B46" s="151"/>
+      <c r="C46" s="275"/>
+      <c r="D46" s="283"/>
+      <c r="E46" s="276"/>
+      <c r="F46" s="292"/>
+      <c r="G46" s="293"/>
+      <c r="H46" s="150"/>
     </row>
     <row r="47" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A47" s="275"/>
-      <c r="B47" s="275"/>
-      <c r="C47" s="274"/>
-      <c r="D47" s="274"/>
-      <c r="E47" s="274"/>
-      <c r="F47" s="274"/>
-      <c r="G47" s="274"/>
-      <c r="H47" s="274"/>
+      <c r="A47" s="165"/>
+      <c r="B47" s="165"/>
+      <c r="C47" s="164"/>
+      <c r="D47" s="164"/>
+      <c r="E47" s="164"/>
+      <c r="F47" s="164"/>
+      <c r="G47" s="164"/>
+      <c r="H47" s="164"/>
     </row>
     <row r="48" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A48" s="273" t="s">
+      <c r="A48" s="163" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="273"/>
-      <c r="C48" s="272"/>
-      <c r="D48" s="272"/>
-      <c r="E48" s="272"/>
-      <c r="F48" s="272"/>
-      <c r="G48" s="272"/>
-      <c r="H48" s="272"/>
-    </row>
-    <row r="49" spans="1:8" s="263" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A49" s="271" t="s">
+      <c r="B48" s="163"/>
+      <c r="C48" s="162"/>
+      <c r="D48" s="162"/>
+      <c r="E48" s="162"/>
+      <c r="F48" s="162"/>
+      <c r="G48" s="162"/>
+      <c r="H48" s="162"/>
+    </row>
+    <row r="49" spans="1:8" s="158" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A49" s="161" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="270" t="s">
+      <c r="B49" s="160" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="269" t="s">
+      <c r="C49" s="277" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="268"/>
-      <c r="E49" s="267"/>
-      <c r="F49" s="266" t="s">
+      <c r="D49" s="284"/>
+      <c r="E49" s="278"/>
+      <c r="F49" s="271" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="265"/>
-      <c r="H49" s="264" t="s">
+      <c r="G49" s="294"/>
+      <c r="H49" s="159" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A50" s="262"/>
-      <c r="B50" s="261"/>
+      <c r="A50" s="157"/>
+      <c r="B50" s="156"/>
       <c r="C50" s="260"/>
-      <c r="D50" s="300"/>
-      <c r="E50" s="259"/>
+      <c r="D50" s="261"/>
+      <c r="E50" s="262"/>
       <c r="F50" s="260"/>
-      <c r="G50" s="259"/>
-      <c r="H50" s="340"/>
+      <c r="G50" s="262"/>
+      <c r="H50" s="211"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A51" s="255"/>
-      <c r="B51" s="254"/>
-      <c r="C51" s="252"/>
-      <c r="D51" s="253"/>
-      <c r="E51" s="251"/>
-      <c r="F51" s="252"/>
-      <c r="G51" s="251"/>
-      <c r="H51" s="250"/>
+      <c r="A51" s="155"/>
+      <c r="B51" s="154"/>
+      <c r="C51" s="265"/>
+      <c r="D51" s="266"/>
+      <c r="E51" s="267"/>
+      <c r="F51" s="265"/>
+      <c r="G51" s="267"/>
+      <c r="H51" s="153"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A52" s="255"/>
-      <c r="B52" s="254"/>
-      <c r="C52" s="252"/>
-      <c r="D52" s="253"/>
-      <c r="E52" s="251"/>
-      <c r="F52" s="252"/>
-      <c r="G52" s="251"/>
-      <c r="H52" s="250"/>
+      <c r="A52" s="155"/>
+      <c r="B52" s="154"/>
+      <c r="C52" s="265"/>
+      <c r="D52" s="266"/>
+      <c r="E52" s="267"/>
+      <c r="F52" s="265"/>
+      <c r="G52" s="267"/>
+      <c r="H52" s="153"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A53" s="255"/>
-      <c r="B53" s="254"/>
-      <c r="C53" s="252"/>
-      <c r="D53" s="253"/>
-      <c r="E53" s="251"/>
-      <c r="F53" s="252"/>
-      <c r="G53" s="251"/>
-      <c r="H53" s="250"/>
+      <c r="A53" s="155"/>
+      <c r="B53" s="154"/>
+      <c r="C53" s="265"/>
+      <c r="D53" s="266"/>
+      <c r="E53" s="267"/>
+      <c r="F53" s="265"/>
+      <c r="G53" s="267"/>
+      <c r="H53" s="153"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A54" s="249"/>
-      <c r="B54" s="248"/>
-      <c r="C54" s="247"/>
-      <c r="D54" s="246"/>
-      <c r="E54" s="245"/>
-      <c r="F54" s="244"/>
-      <c r="G54" s="243"/>
-      <c r="H54" s="242"/>
+      <c r="A54" s="152"/>
+      <c r="B54" s="151"/>
+      <c r="C54" s="275"/>
+      <c r="D54" s="283"/>
+      <c r="E54" s="276"/>
+      <c r="F54" s="292"/>
+      <c r="G54" s="293"/>
+      <c r="H54" s="150"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="B36:C36"/>
@@ -11944,15 +11911,40 @@
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -12016,10 +12008,10 @@
       <c r="K2" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="179">
+      <c r="L2" s="217">
         <v>43971</v>
       </c>
-      <c r="M2" s="181"/>
+      <c r="M2" s="219"/>
       <c r="N2" s="145"/>
       <c r="O2" s="145"/>
     </row>
@@ -12041,8 +12033,8 @@
       <c r="K3" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="236"/>
-      <c r="M3" s="237"/>
+      <c r="L3" s="346"/>
+      <c r="M3" s="347"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="101" t="s">
@@ -12060,8 +12052,8 @@
       <c r="K4" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="236"/>
-      <c r="M4" s="237"/>
+      <c r="L4" s="346"/>
+      <c r="M4" s="347"/>
     </row>
     <row r="5" spans="1:15" s="26" customFormat="1">
       <c r="A5" s="22"/>
@@ -12133,14 +12125,14 @@
       <c r="D9" s="113"/>
       <c r="E9" s="113"/>
       <c r="F9" s="114"/>
-      <c r="G9" s="238" t="s">
+      <c r="G9" s="348" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="239"/>
-      <c r="I9" s="239"/>
-      <c r="J9" s="239"/>
-      <c r="K9" s="239"/>
-      <c r="L9" s="240"/>
+      <c r="H9" s="349"/>
+      <c r="I9" s="349"/>
+      <c r="J9" s="349"/>
+      <c r="K9" s="349"/>
+      <c r="L9" s="350"/>
       <c r="M9" s="112"/>
     </row>
     <row r="10" spans="1:15" ht="21.75" customHeight="1">
@@ -12172,15 +12164,15 @@
     </row>
     <row r="11" spans="1:15" ht="22.5" customHeight="1">
       <c r="A11" s="110"/>
-      <c r="B11" s="230" t="s">
+      <c r="B11" s="351" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="233" t="s">
+      <c r="C11" s="343" t="s">
         <v>105</v>
       </c>
-      <c r="D11" s="234"/>
-      <c r="E11" s="234"/>
-      <c r="F11" s="235"/>
+      <c r="D11" s="344"/>
+      <c r="E11" s="344"/>
+      <c r="F11" s="345"/>
       <c r="G11" s="118" t="s">
         <v>129</v>
       </c>
@@ -12193,13 +12185,13 @@
     </row>
     <row r="12" spans="1:15" ht="22.5" customHeight="1">
       <c r="A12" s="110"/>
-      <c r="B12" s="231"/>
-      <c r="C12" s="233" t="s">
+      <c r="B12" s="352"/>
+      <c r="C12" s="343" t="s">
         <v>106</v>
       </c>
-      <c r="D12" s="234"/>
-      <c r="E12" s="234"/>
-      <c r="F12" s="235"/>
+      <c r="D12" s="344"/>
+      <c r="E12" s="344"/>
+      <c r="F12" s="345"/>
       <c r="G12" s="118" t="s">
         <v>129</v>
       </c>
@@ -12212,13 +12204,13 @@
     </row>
     <row r="13" spans="1:15" ht="22.5" customHeight="1">
       <c r="A13" s="110"/>
-      <c r="B13" s="231"/>
-      <c r="C13" s="233" t="s">
+      <c r="B13" s="352"/>
+      <c r="C13" s="343" t="s">
         <v>107</v>
       </c>
-      <c r="D13" s="234"/>
-      <c r="E13" s="234"/>
-      <c r="F13" s="235"/>
+      <c r="D13" s="344"/>
+      <c r="E13" s="344"/>
+      <c r="F13" s="345"/>
       <c r="G13" s="118" t="s">
         <v>121</v>
       </c>
@@ -12231,13 +12223,13 @@
     </row>
     <row r="14" spans="1:15" ht="22.5" customHeight="1">
       <c r="A14" s="110"/>
-      <c r="B14" s="231"/>
-      <c r="C14" s="233" t="s">
+      <c r="B14" s="352"/>
+      <c r="C14" s="343" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="234"/>
-      <c r="E14" s="234"/>
-      <c r="F14" s="235"/>
+      <c r="D14" s="344"/>
+      <c r="E14" s="344"/>
+      <c r="F14" s="345"/>
       <c r="G14" s="118" t="s">
         <v>122</v>
       </c>
@@ -12250,13 +12242,13 @@
     </row>
     <row r="15" spans="1:15" ht="22.5" customHeight="1">
       <c r="A15" s="110"/>
-      <c r="B15" s="231"/>
-      <c r="C15" s="233" t="s">
+      <c r="B15" s="352"/>
+      <c r="C15" s="343" t="s">
         <v>109</v>
       </c>
-      <c r="D15" s="234"/>
-      <c r="E15" s="234"/>
-      <c r="F15" s="235"/>
+      <c r="D15" s="344"/>
+      <c r="E15" s="344"/>
+      <c r="F15" s="345"/>
       <c r="G15" s="118" t="s">
         <v>123</v>
       </c>
@@ -12269,13 +12261,13 @@
     </row>
     <row r="16" spans="1:15" ht="22.5" customHeight="1">
       <c r="A16" s="110"/>
-      <c r="B16" s="231"/>
-      <c r="C16" s="233" t="s">
+      <c r="B16" s="352"/>
+      <c r="C16" s="343" t="s">
         <v>110</v>
       </c>
-      <c r="D16" s="234"/>
-      <c r="E16" s="234"/>
-      <c r="F16" s="235"/>
+      <c r="D16" s="344"/>
+      <c r="E16" s="344"/>
+      <c r="F16" s="345"/>
       <c r="G16" s="118"/>
       <c r="H16" s="118" t="s">
         <v>129</v>
@@ -12290,13 +12282,13 @@
     </row>
     <row r="17" spans="1:13" ht="22.5" customHeight="1">
       <c r="A17" s="110"/>
-      <c r="B17" s="231"/>
-      <c r="C17" s="233" t="s">
+      <c r="B17" s="352"/>
+      <c r="C17" s="343" t="s">
         <v>111</v>
       </c>
-      <c r="D17" s="234"/>
-      <c r="E17" s="234"/>
-      <c r="F17" s="235"/>
+      <c r="D17" s="344"/>
+      <c r="E17" s="344"/>
+      <c r="F17" s="345"/>
       <c r="G17" s="118"/>
       <c r="H17" s="118" t="s">
         <v>129</v>
@@ -12313,13 +12305,13 @@
     </row>
     <row r="18" spans="1:13" ht="22.5" customHeight="1">
       <c r="A18" s="110"/>
-      <c r="B18" s="231"/>
-      <c r="C18" s="233" t="s">
+      <c r="B18" s="352"/>
+      <c r="C18" s="343" t="s">
         <v>112</v>
       </c>
-      <c r="D18" s="234"/>
-      <c r="E18" s="234"/>
-      <c r="F18" s="235"/>
+      <c r="D18" s="344"/>
+      <c r="E18" s="344"/>
+      <c r="F18" s="345"/>
       <c r="G18" s="118" t="s">
         <v>129</v>
       </c>
@@ -12334,13 +12326,13 @@
     </row>
     <row r="19" spans="1:13" ht="22.5" customHeight="1">
       <c r="A19" s="110"/>
-      <c r="B19" s="231"/>
-      <c r="C19" s="233" t="s">
+      <c r="B19" s="352"/>
+      <c r="C19" s="343" t="s">
         <v>113</v>
       </c>
-      <c r="D19" s="234"/>
-      <c r="E19" s="234"/>
-      <c r="F19" s="235"/>
+      <c r="D19" s="344"/>
+      <c r="E19" s="344"/>
+      <c r="F19" s="345"/>
       <c r="G19" s="118" t="s">
         <v>129</v>
       </c>
@@ -12355,13 +12347,13 @@
     </row>
     <row r="20" spans="1:13" ht="22.5" customHeight="1">
       <c r="A20" s="110"/>
-      <c r="B20" s="231"/>
-      <c r="C20" s="233" t="s">
+      <c r="B20" s="352"/>
+      <c r="C20" s="343" t="s">
         <v>114</v>
       </c>
-      <c r="D20" s="234"/>
-      <c r="E20" s="234"/>
-      <c r="F20" s="235"/>
+      <c r="D20" s="344"/>
+      <c r="E20" s="344"/>
+      <c r="F20" s="345"/>
       <c r="G20" s="118" t="s">
         <v>129</v>
       </c>
@@ -12374,13 +12366,13 @@
     </row>
     <row r="21" spans="1:13" ht="22.5" customHeight="1">
       <c r="A21" s="110"/>
-      <c r="B21" s="231"/>
-      <c r="C21" s="233" t="s">
+      <c r="B21" s="352"/>
+      <c r="C21" s="343" t="s">
         <v>115</v>
       </c>
-      <c r="D21" s="234"/>
-      <c r="E21" s="234"/>
-      <c r="F21" s="235"/>
+      <c r="D21" s="344"/>
+      <c r="E21" s="344"/>
+      <c r="F21" s="345"/>
       <c r="G21" s="118"/>
       <c r="H21" s="118"/>
       <c r="I21" s="118"/>
@@ -12393,13 +12385,13 @@
     </row>
     <row r="22" spans="1:13" ht="22.5" customHeight="1">
       <c r="A22" s="110"/>
-      <c r="B22" s="231"/>
-      <c r="C22" s="233" t="s">
+      <c r="B22" s="352"/>
+      <c r="C22" s="343" t="s">
         <v>116</v>
       </c>
-      <c r="D22" s="234"/>
-      <c r="E22" s="234"/>
-      <c r="F22" s="235"/>
+      <c r="D22" s="344"/>
+      <c r="E22" s="344"/>
+      <c r="F22" s="345"/>
       <c r="G22" s="118"/>
       <c r="H22" s="118"/>
       <c r="I22" s="118"/>
@@ -12412,13 +12404,13 @@
     </row>
     <row r="23" spans="1:13" ht="22.5" customHeight="1">
       <c r="A23" s="110"/>
-      <c r="B23" s="231"/>
-      <c r="C23" s="233" t="s">
+      <c r="B23" s="352"/>
+      <c r="C23" s="343" t="s">
         <v>118</v>
       </c>
-      <c r="D23" s="234"/>
-      <c r="E23" s="234"/>
-      <c r="F23" s="235"/>
+      <c r="D23" s="344"/>
+      <c r="E23" s="344"/>
+      <c r="F23" s="345"/>
       <c r="G23" s="118"/>
       <c r="H23" s="118" t="s">
         <v>121</v>
@@ -12431,13 +12423,13 @@
     </row>
     <row r="24" spans="1:13" ht="22.5" customHeight="1">
       <c r="A24" s="110"/>
-      <c r="B24" s="231"/>
-      <c r="C24" s="233" t="s">
+      <c r="B24" s="352"/>
+      <c r="C24" s="343" t="s">
         <v>119</v>
       </c>
-      <c r="D24" s="234"/>
-      <c r="E24" s="234"/>
-      <c r="F24" s="235"/>
+      <c r="D24" s="344"/>
+      <c r="E24" s="344"/>
+      <c r="F24" s="345"/>
       <c r="G24" s="118"/>
       <c r="H24" s="118" t="s">
         <v>122</v>
@@ -12450,13 +12442,13 @@
     </row>
     <row r="25" spans="1:13" ht="22.5" customHeight="1">
       <c r="A25" s="110"/>
-      <c r="B25" s="231"/>
-      <c r="C25" s="233" t="s">
+      <c r="B25" s="352"/>
+      <c r="C25" s="343" t="s">
         <v>120</v>
       </c>
-      <c r="D25" s="234"/>
-      <c r="E25" s="234"/>
-      <c r="F25" s="235"/>
+      <c r="D25" s="344"/>
+      <c r="E25" s="344"/>
+      <c r="F25" s="345"/>
       <c r="G25" s="118"/>
       <c r="H25" s="118" t="s">
         <v>123</v>
@@ -12469,13 +12461,13 @@
     </row>
     <row r="26" spans="1:13" ht="22.5" customHeight="1">
       <c r="A26" s="110"/>
-      <c r="B26" s="231"/>
-      <c r="C26" s="233" t="s">
+      <c r="B26" s="352"/>
+      <c r="C26" s="343" t="s">
         <v>117</v>
       </c>
-      <c r="D26" s="234"/>
-      <c r="E26" s="234"/>
-      <c r="F26" s="235"/>
+      <c r="D26" s="344"/>
+      <c r="E26" s="344"/>
+      <c r="F26" s="345"/>
       <c r="G26" s="118" t="s">
         <v>129</v>
       </c>
@@ -12490,7 +12482,7 @@
     </row>
     <row r="27" spans="1:13" ht="22.5" customHeight="1">
       <c r="A27" s="110"/>
-      <c r="B27" s="231"/>
+      <c r="B27" s="352"/>
       <c r="C27" s="119"/>
       <c r="D27" s="132"/>
       <c r="E27" s="132"/>
@@ -12505,7 +12497,7 @@
     </row>
     <row r="28" spans="1:13" ht="22.5" customHeight="1">
       <c r="A28" s="110"/>
-      <c r="B28" s="231"/>
+      <c r="B28" s="352"/>
       <c r="C28" s="119"/>
       <c r="D28" s="132"/>
       <c r="E28" s="132"/>
@@ -12520,7 +12512,7 @@
     </row>
     <row r="29" spans="1:13" ht="22.5" customHeight="1">
       <c r="A29" s="110"/>
-      <c r="B29" s="231"/>
+      <c r="B29" s="352"/>
       <c r="C29" s="119"/>
       <c r="D29" s="132"/>
       <c r="E29" s="132"/>
@@ -12535,7 +12527,7 @@
     </row>
     <row r="30" spans="1:13" ht="22.5" customHeight="1">
       <c r="A30" s="110"/>
-      <c r="B30" s="231"/>
+      <c r="B30" s="352"/>
       <c r="C30" s="119"/>
       <c r="D30" s="132"/>
       <c r="E30" s="132"/>
@@ -12550,7 +12542,7 @@
     </row>
     <row r="31" spans="1:13" ht="22.5" customHeight="1">
       <c r="A31" s="110"/>
-      <c r="B31" s="231"/>
+      <c r="B31" s="352"/>
       <c r="C31" s="119"/>
       <c r="D31" s="132"/>
       <c r="E31" s="132"/>
@@ -12565,11 +12557,11 @@
     </row>
     <row r="32" spans="1:13" ht="22.5" customHeight="1">
       <c r="A32" s="110"/>
-      <c r="B32" s="231"/>
-      <c r="C32" s="233"/>
-      <c r="D32" s="234"/>
-      <c r="E32" s="234"/>
-      <c r="F32" s="235"/>
+      <c r="B32" s="352"/>
+      <c r="C32" s="343"/>
+      <c r="D32" s="344"/>
+      <c r="E32" s="344"/>
+      <c r="F32" s="345"/>
       <c r="G32" s="118"/>
       <c r="H32" s="118"/>
       <c r="I32" s="118"/>
@@ -12580,11 +12572,11 @@
     </row>
     <row r="33" spans="1:13" ht="22.5" customHeight="1">
       <c r="A33" s="110"/>
-      <c r="B33" s="231"/>
-      <c r="C33" s="233"/>
-      <c r="D33" s="234"/>
-      <c r="E33" s="234"/>
-      <c r="F33" s="235"/>
+      <c r="B33" s="352"/>
+      <c r="C33" s="343"/>
+      <c r="D33" s="344"/>
+      <c r="E33" s="344"/>
+      <c r="F33" s="345"/>
       <c r="G33" s="118"/>
       <c r="H33" s="118"/>
       <c r="I33" s="118"/>
@@ -12595,11 +12587,11 @@
     </row>
     <row r="34" spans="1:13" ht="23.25" customHeight="1">
       <c r="A34" s="110"/>
-      <c r="B34" s="231"/>
-      <c r="C34" s="233"/>
-      <c r="D34" s="234"/>
-      <c r="E34" s="234"/>
-      <c r="F34" s="235"/>
+      <c r="B34" s="352"/>
+      <c r="C34" s="343"/>
+      <c r="D34" s="344"/>
+      <c r="E34" s="344"/>
+      <c r="F34" s="345"/>
       <c r="G34" s="118"/>
       <c r="H34" s="118"/>
       <c r="I34" s="118"/>
@@ -12610,11 +12602,11 @@
     </row>
     <row r="35" spans="1:13" ht="23.25" customHeight="1">
       <c r="A35" s="110"/>
-      <c r="B35" s="231"/>
-      <c r="C35" s="233"/>
-      <c r="D35" s="234"/>
-      <c r="E35" s="234"/>
-      <c r="F35" s="235"/>
+      <c r="B35" s="352"/>
+      <c r="C35" s="343"/>
+      <c r="D35" s="344"/>
+      <c r="E35" s="344"/>
+      <c r="F35" s="345"/>
       <c r="G35" s="118"/>
       <c r="H35" s="118"/>
       <c r="I35" s="118"/>
@@ -12625,11 +12617,11 @@
     </row>
     <row r="36" spans="1:13" ht="23.25" customHeight="1">
       <c r="A36" s="110"/>
-      <c r="B36" s="232"/>
-      <c r="C36" s="233"/>
-      <c r="D36" s="234"/>
-      <c r="E36" s="234"/>
-      <c r="F36" s="235"/>
+      <c r="B36" s="353"/>
+      <c r="C36" s="343"/>
+      <c r="D36" s="344"/>
+      <c r="E36" s="344"/>
+      <c r="F36" s="345"/>
       <c r="G36" s="118"/>
       <c r="H36" s="118"/>
       <c r="I36" s="118"/>
@@ -12670,16 +12662,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="G9:L9"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
     <mergeCell ref="B11:B36"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="C12:F12"/>
@@ -12696,6 +12678,16 @@
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="C32:F32"/>
     <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12710,15 +12702,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E4BA36D546265442A08A19E41F1D1BDD" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="2e8dd8e6999d741a1c3eb6ca27f596d5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="efbfc87b-5ed5-4f5d-b6fa-67edb1423f3f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8d868ab53af1b141f55385f9a789c4e3" ns2:_="">
     <xsd:import namespace="efbfc87b-5ed5-4f5d-b6fa-67edb1423f3f"/>
@@ -12850,6 +12833,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBF72BD-AB54-43CB-BBC9-F922FCB9F852}">
   <ds:schemaRefs>
@@ -12860,14 +12852,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87C0EB24-2750-4F4F-A61B-57ABA9907FFB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5611681E-FFDA-4FE6-A588-CE730F72FDC7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12883,4 +12867,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87C0EB24-2750-4F4F-A61B-57ABA9907FFB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/designDocuments/databaseDesignDocument/データベース設計書.xlsx
+++ b/designDocuments/databaseDesignDocument/データベース設計書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10614"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takeshitakanta/Desktop/prodate/student_dontneed_shop/designDocuments/databaseDesignDocument/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryo/workspace/student_dontneed_shop/student_dontneed_shop_doc/designDocuments/databaseDesignDocument/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315C4740-A892-044B-946E-D27C1736FF9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD85C4DE-0F73-9D43-BE60-6B3423A7732E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="14920" windowHeight="16160" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14920" windowHeight="16160" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="12" r:id="rId1"/>
@@ -3066,13 +3066,94 @@
     <xf numFmtId="177" fontId="30" fillId="0" borderId="15" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3093,86 +3174,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -3192,10 +3198,82 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="44" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="53" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="45" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="51" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="54" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="48" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="24" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="41" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="52" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="42" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="22" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="19" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="20" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="16" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="44" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="53" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="45" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="44" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="45" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="51" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="48" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="31" fillId="0" borderId="44" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3204,30 +3282,15 @@
     <xf numFmtId="49" fontId="31" fillId="0" borderId="45" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="41" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="42" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="52" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="44" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="45" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="44" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="53" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="45" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3237,9 +3300,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="16" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="2" borderId="25" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3249,65 +3309,23 @@
     <xf numFmtId="49" fontId="31" fillId="0" borderId="50" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="51" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="48" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="22" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="20" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="41" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="42" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="51" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="48" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="54" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="19" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="41" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="52" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="42" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="44" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="53" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="45" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="24" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="32" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="32" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="59" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="60" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="2" borderId="24" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3324,23 +3342,47 @@
     <xf numFmtId="49" fontId="15" fillId="0" borderId="42" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="59" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="60" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="32" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="32" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3354,10 +3396,52 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3366,92 +3450,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3476,15 +3485,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="25">
@@ -5307,21 +5307,21 @@
       <c r="R3" s="16"/>
       <c r="S3" s="16"/>
       <c r="T3" s="16"/>
-      <c r="U3" s="214" t="s">
+      <c r="U3" s="230" t="s">
         <v>33</v>
       </c>
-      <c r="V3" s="216"/>
-      <c r="W3" s="240">
+      <c r="V3" s="231"/>
+      <c r="W3" s="232">
         <v>43969</v>
       </c>
-      <c r="X3" s="215"/>
-      <c r="Y3" s="215"/>
-      <c r="Z3" s="215"/>
-      <c r="AA3" s="215"/>
-      <c r="AB3" s="215"/>
-      <c r="AC3" s="215"/>
-      <c r="AD3" s="215"/>
-      <c r="AE3" s="216"/>
+      <c r="X3" s="233"/>
+      <c r="Y3" s="233"/>
+      <c r="Z3" s="233"/>
+      <c r="AA3" s="233"/>
+      <c r="AB3" s="233"/>
+      <c r="AC3" s="233"/>
+      <c r="AD3" s="233"/>
+      <c r="AE3" s="231"/>
       <c r="AF3" s="16"/>
     </row>
     <row r="4" spans="1:176" ht="15.75" customHeight="1">
@@ -5434,20 +5434,20 @@
       <c r="C7" s="44"/>
       <c r="D7" s="44"/>
       <c r="E7" s="45"/>
-      <c r="F7" s="225" t="s">
+      <c r="F7" s="215" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="226"/>
-      <c r="H7" s="226"/>
-      <c r="I7" s="226"/>
-      <c r="J7" s="226"/>
-      <c r="K7" s="226"/>
-      <c r="L7" s="226"/>
-      <c r="M7" s="226"/>
-      <c r="N7" s="226"/>
-      <c r="O7" s="226"/>
-      <c r="P7" s="226"/>
-      <c r="Q7" s="227"/>
+      <c r="G7" s="216"/>
+      <c r="H7" s="216"/>
+      <c r="I7" s="216"/>
+      <c r="J7" s="216"/>
+      <c r="K7" s="216"/>
+      <c r="L7" s="216"/>
+      <c r="M7" s="216"/>
+      <c r="N7" s="216"/>
+      <c r="O7" s="216"/>
+      <c r="P7" s="216"/>
+      <c r="Q7" s="217"/>
       <c r="R7" s="16"/>
       <c r="S7" s="16"/>
       <c r="T7" s="16"/>
@@ -5465,82 +5465,82 @@
     </row>
     <row r="8" spans="1:176" ht="15.75" customHeight="1">
       <c r="A8" s="16"/>
-      <c r="B8" s="228" t="s">
+      <c r="B8" s="218" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="229"/>
-      <c r="D8" s="229"/>
-      <c r="E8" s="230"/>
-      <c r="F8" s="234"/>
-      <c r="G8" s="235"/>
-      <c r="H8" s="235"/>
-      <c r="I8" s="235"/>
-      <c r="J8" s="235"/>
-      <c r="K8" s="235"/>
-      <c r="L8" s="235"/>
-      <c r="M8" s="235"/>
-      <c r="N8" s="235"/>
-      <c r="O8" s="235"/>
-      <c r="P8" s="235"/>
-      <c r="Q8" s="236"/>
+      <c r="C8" s="219"/>
+      <c r="D8" s="219"/>
+      <c r="E8" s="220"/>
+      <c r="F8" s="224"/>
+      <c r="G8" s="225"/>
+      <c r="H8" s="225"/>
+      <c r="I8" s="225"/>
+      <c r="J8" s="225"/>
+      <c r="K8" s="225"/>
+      <c r="L8" s="225"/>
+      <c r="M8" s="225"/>
+      <c r="N8" s="225"/>
+      <c r="O8" s="225"/>
+      <c r="P8" s="225"/>
+      <c r="Q8" s="226"/>
       <c r="R8" s="16"/>
       <c r="S8" s="16"/>
       <c r="T8" s="16"/>
       <c r="U8" s="16"/>
       <c r="V8" s="16"/>
-      <c r="W8" s="224" t="s">
+      <c r="W8" s="214" t="s">
         <v>38</v>
       </c>
-      <c r="X8" s="224"/>
-      <c r="Y8" s="224"/>
-      <c r="Z8" s="224" t="s">
+      <c r="X8" s="214"/>
+      <c r="Y8" s="214"/>
+      <c r="Z8" s="214" t="s">
         <v>39</v>
       </c>
-      <c r="AA8" s="224"/>
-      <c r="AB8" s="224"/>
-      <c r="AC8" s="224" t="s">
+      <c r="AA8" s="214"/>
+      <c r="AB8" s="214"/>
+      <c r="AC8" s="214" t="s">
         <v>40</v>
       </c>
-      <c r="AD8" s="224"/>
-      <c r="AE8" s="224"/>
+      <c r="AD8" s="214"/>
+      <c r="AE8" s="214"/>
       <c r="AF8" s="16"/>
     </row>
     <row r="9" spans="1:176" ht="15.75" customHeight="1">
       <c r="A9" s="16"/>
-      <c r="B9" s="231"/>
-      <c r="C9" s="232"/>
-      <c r="D9" s="232"/>
-      <c r="E9" s="233"/>
-      <c r="F9" s="237"/>
-      <c r="G9" s="238"/>
-      <c r="H9" s="238"/>
-      <c r="I9" s="238"/>
-      <c r="J9" s="238"/>
-      <c r="K9" s="238"/>
-      <c r="L9" s="238"/>
-      <c r="M9" s="238"/>
-      <c r="N9" s="238"/>
-      <c r="O9" s="238"/>
-      <c r="P9" s="238"/>
-      <c r="Q9" s="239"/>
+      <c r="B9" s="221"/>
+      <c r="C9" s="222"/>
+      <c r="D9" s="222"/>
+      <c r="E9" s="223"/>
+      <c r="F9" s="227"/>
+      <c r="G9" s="228"/>
+      <c r="H9" s="228"/>
+      <c r="I9" s="228"/>
+      <c r="J9" s="228"/>
+      <c r="K9" s="228"/>
+      <c r="L9" s="228"/>
+      <c r="M9" s="228"/>
+      <c r="N9" s="228"/>
+      <c r="O9" s="228"/>
+      <c r="P9" s="228"/>
+      <c r="Q9" s="229"/>
       <c r="R9" s="16"/>
       <c r="S9" s="16"/>
       <c r="T9" s="16"/>
       <c r="U9" s="16"/>
       <c r="V9" s="16"/>
-      <c r="W9" s="241" t="s">
+      <c r="W9" s="234" t="s">
         <v>61</v>
       </c>
-      <c r="X9" s="242"/>
-      <c r="Y9" s="243"/>
-      <c r="Z9" s="241"/>
-      <c r="AA9" s="242"/>
-      <c r="AB9" s="243"/>
-      <c r="AC9" s="241" t="s">
+      <c r="X9" s="235"/>
+      <c r="Y9" s="236"/>
+      <c r="Z9" s="234"/>
+      <c r="AA9" s="235"/>
+      <c r="AB9" s="236"/>
+      <c r="AC9" s="234" t="s">
         <v>62</v>
       </c>
-      <c r="AD9" s="242"/>
-      <c r="AE9" s="243"/>
+      <c r="AD9" s="235"/>
+      <c r="AE9" s="236"/>
       <c r="AF9" s="16"/>
     </row>
     <row r="10" spans="1:176" ht="15.75" customHeight="1">
@@ -5566,15 +5566,15 @@
       <c r="T10" s="16"/>
       <c r="U10" s="16"/>
       <c r="V10" s="16"/>
-      <c r="W10" s="244"/>
-      <c r="X10" s="245"/>
-      <c r="Y10" s="246"/>
-      <c r="Z10" s="244"/>
-      <c r="AA10" s="245"/>
-      <c r="AB10" s="246"/>
-      <c r="AC10" s="244"/>
-      <c r="AD10" s="245"/>
-      <c r="AE10" s="246"/>
+      <c r="W10" s="237"/>
+      <c r="X10" s="238"/>
+      <c r="Y10" s="239"/>
+      <c r="Z10" s="237"/>
+      <c r="AA10" s="238"/>
+      <c r="AB10" s="239"/>
+      <c r="AC10" s="237"/>
+      <c r="AD10" s="238"/>
+      <c r="AE10" s="239"/>
       <c r="AF10" s="16"/>
     </row>
     <row r="11" spans="1:176" ht="15.75" customHeight="1">
@@ -5600,15 +5600,15 @@
       <c r="T11" s="16"/>
       <c r="U11" s="16"/>
       <c r="V11" s="16"/>
-      <c r="W11" s="244"/>
-      <c r="X11" s="245"/>
-      <c r="Y11" s="246"/>
-      <c r="Z11" s="244"/>
-      <c r="AA11" s="245"/>
-      <c r="AB11" s="246"/>
-      <c r="AC11" s="244"/>
-      <c r="AD11" s="245"/>
-      <c r="AE11" s="246"/>
+      <c r="W11" s="237"/>
+      <c r="X11" s="238"/>
+      <c r="Y11" s="239"/>
+      <c r="Z11" s="237"/>
+      <c r="AA11" s="238"/>
+      <c r="AB11" s="239"/>
+      <c r="AC11" s="237"/>
+      <c r="AD11" s="238"/>
+      <c r="AE11" s="239"/>
       <c r="AF11" s="16"/>
     </row>
     <row r="12" spans="1:176" ht="15.75" customHeight="1">
@@ -5634,15 +5634,15 @@
       <c r="T12" s="20"/>
       <c r="U12" s="20"/>
       <c r="V12" s="20"/>
-      <c r="W12" s="247"/>
-      <c r="X12" s="248"/>
-      <c r="Y12" s="249"/>
-      <c r="Z12" s="247"/>
-      <c r="AA12" s="248"/>
-      <c r="AB12" s="249"/>
-      <c r="AC12" s="247"/>
-      <c r="AD12" s="248"/>
-      <c r="AE12" s="249"/>
+      <c r="W12" s="240"/>
+      <c r="X12" s="241"/>
+      <c r="Y12" s="242"/>
+      <c r="Z12" s="240"/>
+      <c r="AA12" s="241"/>
+      <c r="AB12" s="242"/>
+      <c r="AC12" s="240"/>
+      <c r="AD12" s="241"/>
+      <c r="AE12" s="242"/>
       <c r="AF12" s="16"/>
     </row>
     <row r="13" spans="1:176" ht="15.75" customHeight="1">
@@ -5741,106 +5741,106 @@
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
       <c r="A16" s="16"/>
-      <c r="B16" s="223" t="s">
+      <c r="B16" s="243" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="223"/>
-      <c r="D16" s="223"/>
-      <c r="E16" s="223"/>
-      <c r="F16" s="223"/>
-      <c r="G16" s="223"/>
-      <c r="H16" s="223"/>
-      <c r="I16" s="223"/>
-      <c r="J16" s="223"/>
-      <c r="K16" s="223"/>
-      <c r="L16" s="223"/>
-      <c r="M16" s="223"/>
-      <c r="N16" s="223"/>
-      <c r="O16" s="223"/>
-      <c r="P16" s="223"/>
-      <c r="Q16" s="223"/>
-      <c r="R16" s="223"/>
-      <c r="S16" s="223"/>
-      <c r="T16" s="223"/>
-      <c r="U16" s="223"/>
-      <c r="V16" s="223"/>
-      <c r="W16" s="223"/>
-      <c r="X16" s="223"/>
-      <c r="Y16" s="223"/>
-      <c r="Z16" s="223"/>
-      <c r="AA16" s="223"/>
-      <c r="AB16" s="223"/>
-      <c r="AC16" s="223"/>
-      <c r="AD16" s="223"/>
-      <c r="AE16" s="223"/>
+      <c r="C16" s="243"/>
+      <c r="D16" s="243"/>
+      <c r="E16" s="243"/>
+      <c r="F16" s="243"/>
+      <c r="G16" s="243"/>
+      <c r="H16" s="243"/>
+      <c r="I16" s="243"/>
+      <c r="J16" s="243"/>
+      <c r="K16" s="243"/>
+      <c r="L16" s="243"/>
+      <c r="M16" s="243"/>
+      <c r="N16" s="243"/>
+      <c r="O16" s="243"/>
+      <c r="P16" s="243"/>
+      <c r="Q16" s="243"/>
+      <c r="R16" s="243"/>
+      <c r="S16" s="243"/>
+      <c r="T16" s="243"/>
+      <c r="U16" s="243"/>
+      <c r="V16" s="243"/>
+      <c r="W16" s="243"/>
+      <c r="X16" s="243"/>
+      <c r="Y16" s="243"/>
+      <c r="Z16" s="243"/>
+      <c r="AA16" s="243"/>
+      <c r="AB16" s="243"/>
+      <c r="AC16" s="243"/>
+      <c r="AD16" s="243"/>
+      <c r="AE16" s="243"/>
       <c r="AF16" s="16"/>
     </row>
     <row r="17" spans="1:32" ht="15" customHeight="1">
       <c r="A17" s="16"/>
-      <c r="B17" s="223"/>
-      <c r="C17" s="223"/>
-      <c r="D17" s="223"/>
-      <c r="E17" s="223"/>
-      <c r="F17" s="223"/>
-      <c r="G17" s="223"/>
-      <c r="H17" s="223"/>
-      <c r="I17" s="223"/>
-      <c r="J17" s="223"/>
-      <c r="K17" s="223"/>
-      <c r="L17" s="223"/>
-      <c r="M17" s="223"/>
-      <c r="N17" s="223"/>
-      <c r="O17" s="223"/>
-      <c r="P17" s="223"/>
-      <c r="Q17" s="223"/>
-      <c r="R17" s="223"/>
-      <c r="S17" s="223"/>
-      <c r="T17" s="223"/>
-      <c r="U17" s="223"/>
-      <c r="V17" s="223"/>
-      <c r="W17" s="223"/>
-      <c r="X17" s="223"/>
-      <c r="Y17" s="223"/>
-      <c r="Z17" s="223"/>
-      <c r="AA17" s="223"/>
-      <c r="AB17" s="223"/>
-      <c r="AC17" s="223"/>
-      <c r="AD17" s="223"/>
-      <c r="AE17" s="223"/>
+      <c r="B17" s="243"/>
+      <c r="C17" s="243"/>
+      <c r="D17" s="243"/>
+      <c r="E17" s="243"/>
+      <c r="F17" s="243"/>
+      <c r="G17" s="243"/>
+      <c r="H17" s="243"/>
+      <c r="I17" s="243"/>
+      <c r="J17" s="243"/>
+      <c r="K17" s="243"/>
+      <c r="L17" s="243"/>
+      <c r="M17" s="243"/>
+      <c r="N17" s="243"/>
+      <c r="O17" s="243"/>
+      <c r="P17" s="243"/>
+      <c r="Q17" s="243"/>
+      <c r="R17" s="243"/>
+      <c r="S17" s="243"/>
+      <c r="T17" s="243"/>
+      <c r="U17" s="243"/>
+      <c r="V17" s="243"/>
+      <c r="W17" s="243"/>
+      <c r="X17" s="243"/>
+      <c r="Y17" s="243"/>
+      <c r="Z17" s="243"/>
+      <c r="AA17" s="243"/>
+      <c r="AB17" s="243"/>
+      <c r="AC17" s="243"/>
+      <c r="AD17" s="243"/>
+      <c r="AE17" s="243"/>
       <c r="AF17" s="16"/>
     </row>
     <row r="18" spans="1:32" ht="15" customHeight="1">
       <c r="A18" s="16"/>
-      <c r="B18" s="223"/>
-      <c r="C18" s="223"/>
-      <c r="D18" s="223"/>
-      <c r="E18" s="223"/>
-      <c r="F18" s="223"/>
-      <c r="G18" s="223"/>
-      <c r="H18" s="223"/>
-      <c r="I18" s="223"/>
-      <c r="J18" s="223"/>
-      <c r="K18" s="223"/>
-      <c r="L18" s="223"/>
-      <c r="M18" s="223"/>
-      <c r="N18" s="223"/>
-      <c r="O18" s="223"/>
-      <c r="P18" s="223"/>
-      <c r="Q18" s="223"/>
-      <c r="R18" s="223"/>
-      <c r="S18" s="223"/>
-      <c r="T18" s="223"/>
-      <c r="U18" s="223"/>
-      <c r="V18" s="223"/>
-      <c r="W18" s="223"/>
-      <c r="X18" s="223"/>
-      <c r="Y18" s="223"/>
-      <c r="Z18" s="223"/>
-      <c r="AA18" s="223"/>
-      <c r="AB18" s="223"/>
-      <c r="AC18" s="223"/>
-      <c r="AD18" s="223"/>
-      <c r="AE18" s="223"/>
+      <c r="B18" s="243"/>
+      <c r="C18" s="243"/>
+      <c r="D18" s="243"/>
+      <c r="E18" s="243"/>
+      <c r="F18" s="243"/>
+      <c r="G18" s="243"/>
+      <c r="H18" s="243"/>
+      <c r="I18" s="243"/>
+      <c r="J18" s="243"/>
+      <c r="K18" s="243"/>
+      <c r="L18" s="243"/>
+      <c r="M18" s="243"/>
+      <c r="N18" s="243"/>
+      <c r="O18" s="243"/>
+      <c r="P18" s="243"/>
+      <c r="Q18" s="243"/>
+      <c r="R18" s="243"/>
+      <c r="S18" s="243"/>
+      <c r="T18" s="243"/>
+      <c r="U18" s="243"/>
+      <c r="V18" s="243"/>
+      <c r="W18" s="243"/>
+      <c r="X18" s="243"/>
+      <c r="Y18" s="243"/>
+      <c r="Z18" s="243"/>
+      <c r="AA18" s="243"/>
+      <c r="AB18" s="243"/>
+      <c r="AC18" s="243"/>
+      <c r="AD18" s="243"/>
+      <c r="AE18" s="243"/>
       <c r="AF18" s="16"/>
     </row>
     <row r="19" spans="1:32" ht="15" customHeight="1">
@@ -5983,416 +5983,416 @@
     </row>
     <row r="23" spans="1:32" s="49" customFormat="1" ht="29.25" customHeight="1">
       <c r="A23" s="46"/>
-      <c r="B23" s="214" t="s">
+      <c r="B23" s="230" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="215"/>
-      <c r="D23" s="215"/>
-      <c r="E23" s="216"/>
-      <c r="F23" s="214" t="s">
+      <c r="C23" s="233"/>
+      <c r="D23" s="233"/>
+      <c r="E23" s="231"/>
+      <c r="F23" s="230" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="215"/>
-      <c r="H23" s="215"/>
-      <c r="I23" s="216"/>
-      <c r="J23" s="214" t="s">
+      <c r="G23" s="233"/>
+      <c r="H23" s="233"/>
+      <c r="I23" s="231"/>
+      <c r="J23" s="230" t="s">
         <v>44</v>
       </c>
-      <c r="K23" s="215"/>
-      <c r="L23" s="215"/>
-      <c r="M23" s="215"/>
-      <c r="N23" s="215"/>
-      <c r="O23" s="215"/>
-      <c r="P23" s="215"/>
-      <c r="Q23" s="215"/>
-      <c r="R23" s="215"/>
-      <c r="S23" s="215"/>
-      <c r="T23" s="215"/>
-      <c r="U23" s="215"/>
-      <c r="V23" s="215"/>
-      <c r="W23" s="215"/>
-      <c r="X23" s="215"/>
-      <c r="Y23" s="215"/>
-      <c r="Z23" s="215"/>
-      <c r="AA23" s="215"/>
-      <c r="AB23" s="216"/>
-      <c r="AC23" s="214" t="s">
+      <c r="K23" s="233"/>
+      <c r="L23" s="233"/>
+      <c r="M23" s="233"/>
+      <c r="N23" s="233"/>
+      <c r="O23" s="233"/>
+      <c r="P23" s="233"/>
+      <c r="Q23" s="233"/>
+      <c r="R23" s="233"/>
+      <c r="S23" s="233"/>
+      <c r="T23" s="233"/>
+      <c r="U23" s="233"/>
+      <c r="V23" s="233"/>
+      <c r="W23" s="233"/>
+      <c r="X23" s="233"/>
+      <c r="Y23" s="233"/>
+      <c r="Z23" s="233"/>
+      <c r="AA23" s="233"/>
+      <c r="AB23" s="231"/>
+      <c r="AC23" s="230" t="s">
         <v>40</v>
       </c>
-      <c r="AD23" s="215"/>
-      <c r="AE23" s="216"/>
+      <c r="AD23" s="233"/>
+      <c r="AE23" s="231"/>
       <c r="AF23" s="46"/>
     </row>
     <row r="24" spans="1:32" ht="29.25" customHeight="1">
       <c r="A24" s="16"/>
-      <c r="B24" s="214" t="s">
+      <c r="B24" s="230" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="215"/>
-      <c r="D24" s="215"/>
-      <c r="E24" s="216"/>
-      <c r="F24" s="217">
+      <c r="C24" s="233"/>
+      <c r="D24" s="233"/>
+      <c r="E24" s="231"/>
+      <c r="F24" s="244">
         <v>43969</v>
       </c>
-      <c r="G24" s="218"/>
-      <c r="H24" s="218"/>
-      <c r="I24" s="219"/>
-      <c r="J24" s="220" t="s">
+      <c r="G24" s="245"/>
+      <c r="H24" s="245"/>
+      <c r="I24" s="246"/>
+      <c r="J24" s="247" t="s">
         <v>51</v>
       </c>
-      <c r="K24" s="221"/>
-      <c r="L24" s="221"/>
-      <c r="M24" s="221"/>
-      <c r="N24" s="221"/>
-      <c r="O24" s="221"/>
-      <c r="P24" s="221"/>
-      <c r="Q24" s="221"/>
-      <c r="R24" s="221"/>
-      <c r="S24" s="221"/>
-      <c r="T24" s="221"/>
-      <c r="U24" s="221"/>
-      <c r="V24" s="221"/>
-      <c r="W24" s="221"/>
-      <c r="X24" s="221"/>
-      <c r="Y24" s="221"/>
-      <c r="Z24" s="221"/>
-      <c r="AA24" s="221"/>
-      <c r="AB24" s="222"/>
-      <c r="AC24" s="214" t="s">
+      <c r="K24" s="248"/>
+      <c r="L24" s="248"/>
+      <c r="M24" s="248"/>
+      <c r="N24" s="248"/>
+      <c r="O24" s="248"/>
+      <c r="P24" s="248"/>
+      <c r="Q24" s="248"/>
+      <c r="R24" s="248"/>
+      <c r="S24" s="248"/>
+      <c r="T24" s="248"/>
+      <c r="U24" s="248"/>
+      <c r="V24" s="248"/>
+      <c r="W24" s="248"/>
+      <c r="X24" s="248"/>
+      <c r="Y24" s="248"/>
+      <c r="Z24" s="248"/>
+      <c r="AA24" s="248"/>
+      <c r="AB24" s="249"/>
+      <c r="AC24" s="230" t="s">
         <v>60</v>
       </c>
-      <c r="AD24" s="215"/>
-      <c r="AE24" s="216"/>
+      <c r="AD24" s="233"/>
+      <c r="AE24" s="231"/>
       <c r="AF24" s="16"/>
     </row>
     <row r="25" spans="1:32" ht="29.25" customHeight="1">
       <c r="A25" s="16"/>
-      <c r="B25" s="214" t="s">
+      <c r="B25" s="230" t="s">
         <v>132</v>
       </c>
-      <c r="C25" s="215"/>
-      <c r="D25" s="215"/>
-      <c r="E25" s="216"/>
-      <c r="F25" s="217">
+      <c r="C25" s="233"/>
+      <c r="D25" s="233"/>
+      <c r="E25" s="231"/>
+      <c r="F25" s="244">
         <v>43971</v>
       </c>
-      <c r="G25" s="218"/>
-      <c r="H25" s="218"/>
-      <c r="I25" s="219"/>
-      <c r="J25" s="220" t="s">
+      <c r="G25" s="245"/>
+      <c r="H25" s="245"/>
+      <c r="I25" s="246"/>
+      <c r="J25" s="247" t="s">
         <v>134</v>
       </c>
-      <c r="K25" s="221"/>
-      <c r="L25" s="221"/>
-      <c r="M25" s="221"/>
-      <c r="N25" s="221"/>
-      <c r="O25" s="221"/>
-      <c r="P25" s="221"/>
-      <c r="Q25" s="221"/>
-      <c r="R25" s="221"/>
-      <c r="S25" s="221"/>
-      <c r="T25" s="221"/>
-      <c r="U25" s="221"/>
-      <c r="V25" s="221"/>
-      <c r="W25" s="221"/>
-      <c r="X25" s="221"/>
-      <c r="Y25" s="221"/>
-      <c r="Z25" s="221"/>
-      <c r="AA25" s="221"/>
-      <c r="AB25" s="222"/>
-      <c r="AC25" s="214" t="s">
+      <c r="K25" s="248"/>
+      <c r="L25" s="248"/>
+      <c r="M25" s="248"/>
+      <c r="N25" s="248"/>
+      <c r="O25" s="248"/>
+      <c r="P25" s="248"/>
+      <c r="Q25" s="248"/>
+      <c r="R25" s="248"/>
+      <c r="S25" s="248"/>
+      <c r="T25" s="248"/>
+      <c r="U25" s="248"/>
+      <c r="V25" s="248"/>
+      <c r="W25" s="248"/>
+      <c r="X25" s="248"/>
+      <c r="Y25" s="248"/>
+      <c r="Z25" s="248"/>
+      <c r="AA25" s="248"/>
+      <c r="AB25" s="249"/>
+      <c r="AC25" s="230" t="s">
         <v>133</v>
       </c>
-      <c r="AD25" s="215"/>
-      <c r="AE25" s="216"/>
+      <c r="AD25" s="233"/>
+      <c r="AE25" s="231"/>
       <c r="AF25" s="16"/>
     </row>
     <row r="26" spans="1:32" ht="29.25" customHeight="1">
       <c r="A26" s="16"/>
-      <c r="B26" s="214" t="s">
+      <c r="B26" s="230" t="s">
         <v>158</v>
       </c>
-      <c r="C26" s="215"/>
-      <c r="D26" s="215"/>
-      <c r="E26" s="216"/>
-      <c r="F26" s="217">
+      <c r="C26" s="233"/>
+      <c r="D26" s="233"/>
+      <c r="E26" s="231"/>
+      <c r="F26" s="244">
         <v>43972</v>
       </c>
-      <c r="G26" s="218"/>
-      <c r="H26" s="218"/>
-      <c r="I26" s="219"/>
-      <c r="J26" s="220" t="s">
+      <c r="G26" s="245"/>
+      <c r="H26" s="245"/>
+      <c r="I26" s="246"/>
+      <c r="J26" s="247" t="s">
         <v>159</v>
       </c>
-      <c r="K26" s="221"/>
-      <c r="L26" s="221"/>
-      <c r="M26" s="221"/>
-      <c r="N26" s="221"/>
-      <c r="O26" s="221"/>
-      <c r="P26" s="221"/>
-      <c r="Q26" s="221"/>
-      <c r="R26" s="221"/>
-      <c r="S26" s="221"/>
-      <c r="T26" s="221"/>
-      <c r="U26" s="221"/>
-      <c r="V26" s="221"/>
-      <c r="W26" s="221"/>
-      <c r="X26" s="221"/>
-      <c r="Y26" s="221"/>
-      <c r="Z26" s="221"/>
-      <c r="AA26" s="221"/>
-      <c r="AB26" s="222"/>
-      <c r="AC26" s="214" t="s">
+      <c r="K26" s="248"/>
+      <c r="L26" s="248"/>
+      <c r="M26" s="248"/>
+      <c r="N26" s="248"/>
+      <c r="O26" s="248"/>
+      <c r="P26" s="248"/>
+      <c r="Q26" s="248"/>
+      <c r="R26" s="248"/>
+      <c r="S26" s="248"/>
+      <c r="T26" s="248"/>
+      <c r="U26" s="248"/>
+      <c r="V26" s="248"/>
+      <c r="W26" s="248"/>
+      <c r="X26" s="248"/>
+      <c r="Y26" s="248"/>
+      <c r="Z26" s="248"/>
+      <c r="AA26" s="248"/>
+      <c r="AB26" s="249"/>
+      <c r="AC26" s="230" t="s">
         <v>62</v>
       </c>
-      <c r="AD26" s="215"/>
-      <c r="AE26" s="216"/>
+      <c r="AD26" s="233"/>
+      <c r="AE26" s="231"/>
       <c r="AF26" s="16"/>
     </row>
     <row r="27" spans="1:32" ht="29.25" customHeight="1">
       <c r="A27" s="16"/>
-      <c r="B27" s="214" t="s">
+      <c r="B27" s="230" t="s">
         <v>173</v>
       </c>
-      <c r="C27" s="215"/>
-      <c r="D27" s="215"/>
-      <c r="E27" s="216"/>
-      <c r="F27" s="217">
+      <c r="C27" s="233"/>
+      <c r="D27" s="233"/>
+      <c r="E27" s="231"/>
+      <c r="F27" s="244">
         <v>43976</v>
       </c>
-      <c r="G27" s="218"/>
-      <c r="H27" s="218"/>
-      <c r="I27" s="219"/>
-      <c r="J27" s="220" t="s">
+      <c r="G27" s="245"/>
+      <c r="H27" s="245"/>
+      <c r="I27" s="246"/>
+      <c r="J27" s="247" t="s">
         <v>174</v>
       </c>
-      <c r="K27" s="221"/>
-      <c r="L27" s="221"/>
-      <c r="M27" s="221"/>
-      <c r="N27" s="221"/>
-      <c r="O27" s="221"/>
-      <c r="P27" s="221"/>
-      <c r="Q27" s="221"/>
-      <c r="R27" s="221"/>
-      <c r="S27" s="221"/>
-      <c r="T27" s="221"/>
-      <c r="U27" s="221"/>
-      <c r="V27" s="221"/>
-      <c r="W27" s="221"/>
-      <c r="X27" s="221"/>
-      <c r="Y27" s="221"/>
-      <c r="Z27" s="221"/>
-      <c r="AA27" s="221"/>
-      <c r="AB27" s="222"/>
-      <c r="AC27" s="214" t="s">
+      <c r="K27" s="248"/>
+      <c r="L27" s="248"/>
+      <c r="M27" s="248"/>
+      <c r="N27" s="248"/>
+      <c r="O27" s="248"/>
+      <c r="P27" s="248"/>
+      <c r="Q27" s="248"/>
+      <c r="R27" s="248"/>
+      <c r="S27" s="248"/>
+      <c r="T27" s="248"/>
+      <c r="U27" s="248"/>
+      <c r="V27" s="248"/>
+      <c r="W27" s="248"/>
+      <c r="X27" s="248"/>
+      <c r="Y27" s="248"/>
+      <c r="Z27" s="248"/>
+      <c r="AA27" s="248"/>
+      <c r="AB27" s="249"/>
+      <c r="AC27" s="230" t="s">
         <v>62</v>
       </c>
-      <c r="AD27" s="215"/>
-      <c r="AE27" s="216"/>
+      <c r="AD27" s="233"/>
+      <c r="AE27" s="231"/>
       <c r="AF27" s="16"/>
     </row>
     <row r="28" spans="1:32" ht="29.25" customHeight="1">
       <c r="A28" s="16"/>
-      <c r="B28" s="214"/>
-      <c r="C28" s="215"/>
-      <c r="D28" s="215"/>
-      <c r="E28" s="216"/>
-      <c r="F28" s="217"/>
-      <c r="G28" s="218"/>
-      <c r="H28" s="218"/>
-      <c r="I28" s="219"/>
-      <c r="J28" s="220"/>
-      <c r="K28" s="221"/>
-      <c r="L28" s="221"/>
-      <c r="M28" s="221"/>
-      <c r="N28" s="221"/>
-      <c r="O28" s="221"/>
-      <c r="P28" s="221"/>
-      <c r="Q28" s="221"/>
-      <c r="R28" s="221"/>
-      <c r="S28" s="221"/>
-      <c r="T28" s="221"/>
-      <c r="U28" s="221"/>
-      <c r="V28" s="221"/>
-      <c r="W28" s="221"/>
-      <c r="X28" s="221"/>
-      <c r="Y28" s="221"/>
-      <c r="Z28" s="221"/>
-      <c r="AA28" s="221"/>
-      <c r="AB28" s="222"/>
-      <c r="AC28" s="214"/>
-      <c r="AD28" s="215"/>
-      <c r="AE28" s="216"/>
+      <c r="B28" s="230"/>
+      <c r="C28" s="233"/>
+      <c r="D28" s="233"/>
+      <c r="E28" s="231"/>
+      <c r="F28" s="244"/>
+      <c r="G28" s="245"/>
+      <c r="H28" s="245"/>
+      <c r="I28" s="246"/>
+      <c r="J28" s="247"/>
+      <c r="K28" s="248"/>
+      <c r="L28" s="248"/>
+      <c r="M28" s="248"/>
+      <c r="N28" s="248"/>
+      <c r="O28" s="248"/>
+      <c r="P28" s="248"/>
+      <c r="Q28" s="248"/>
+      <c r="R28" s="248"/>
+      <c r="S28" s="248"/>
+      <c r="T28" s="248"/>
+      <c r="U28" s="248"/>
+      <c r="V28" s="248"/>
+      <c r="W28" s="248"/>
+      <c r="X28" s="248"/>
+      <c r="Y28" s="248"/>
+      <c r="Z28" s="248"/>
+      <c r="AA28" s="248"/>
+      <c r="AB28" s="249"/>
+      <c r="AC28" s="230"/>
+      <c r="AD28" s="233"/>
+      <c r="AE28" s="231"/>
       <c r="AF28" s="16"/>
     </row>
     <row r="29" spans="1:32" ht="29.25" customHeight="1">
       <c r="A29" s="16"/>
-      <c r="B29" s="214"/>
-      <c r="C29" s="215"/>
-      <c r="D29" s="215"/>
-      <c r="E29" s="216"/>
-      <c r="F29" s="217"/>
-      <c r="G29" s="218"/>
-      <c r="H29" s="218"/>
-      <c r="I29" s="219"/>
-      <c r="J29" s="220"/>
-      <c r="K29" s="221"/>
-      <c r="L29" s="221"/>
-      <c r="M29" s="221"/>
-      <c r="N29" s="221"/>
-      <c r="O29" s="221"/>
-      <c r="P29" s="221"/>
-      <c r="Q29" s="221"/>
-      <c r="R29" s="221"/>
-      <c r="S29" s="221"/>
-      <c r="T29" s="221"/>
-      <c r="U29" s="221"/>
-      <c r="V29" s="221"/>
-      <c r="W29" s="221"/>
-      <c r="X29" s="221"/>
-      <c r="Y29" s="221"/>
-      <c r="Z29" s="221"/>
-      <c r="AA29" s="221"/>
-      <c r="AB29" s="222"/>
-      <c r="AC29" s="214"/>
-      <c r="AD29" s="215"/>
-      <c r="AE29" s="216"/>
+      <c r="B29" s="230"/>
+      <c r="C29" s="233"/>
+      <c r="D29" s="233"/>
+      <c r="E29" s="231"/>
+      <c r="F29" s="244"/>
+      <c r="G29" s="245"/>
+      <c r="H29" s="245"/>
+      <c r="I29" s="246"/>
+      <c r="J29" s="247"/>
+      <c r="K29" s="248"/>
+      <c r="L29" s="248"/>
+      <c r="M29" s="248"/>
+      <c r="N29" s="248"/>
+      <c r="O29" s="248"/>
+      <c r="P29" s="248"/>
+      <c r="Q29" s="248"/>
+      <c r="R29" s="248"/>
+      <c r="S29" s="248"/>
+      <c r="T29" s="248"/>
+      <c r="U29" s="248"/>
+      <c r="V29" s="248"/>
+      <c r="W29" s="248"/>
+      <c r="X29" s="248"/>
+      <c r="Y29" s="248"/>
+      <c r="Z29" s="248"/>
+      <c r="AA29" s="248"/>
+      <c r="AB29" s="249"/>
+      <c r="AC29" s="230"/>
+      <c r="AD29" s="233"/>
+      <c r="AE29" s="231"/>
       <c r="AF29" s="16"/>
     </row>
     <row r="30" spans="1:32" ht="29.25" customHeight="1">
       <c r="A30" s="16"/>
-      <c r="B30" s="214"/>
-      <c r="C30" s="215"/>
-      <c r="D30" s="215"/>
-      <c r="E30" s="216"/>
-      <c r="F30" s="217"/>
-      <c r="G30" s="218"/>
-      <c r="H30" s="218"/>
-      <c r="I30" s="219"/>
-      <c r="J30" s="220"/>
-      <c r="K30" s="221"/>
-      <c r="L30" s="221"/>
-      <c r="M30" s="221"/>
-      <c r="N30" s="221"/>
-      <c r="O30" s="221"/>
-      <c r="P30" s="221"/>
-      <c r="Q30" s="221"/>
-      <c r="R30" s="221"/>
-      <c r="S30" s="221"/>
-      <c r="T30" s="221"/>
-      <c r="U30" s="221"/>
-      <c r="V30" s="221"/>
-      <c r="W30" s="221"/>
-      <c r="X30" s="221"/>
-      <c r="Y30" s="221"/>
-      <c r="Z30" s="221"/>
-      <c r="AA30" s="221"/>
-      <c r="AB30" s="222"/>
-      <c r="AC30" s="214"/>
-      <c r="AD30" s="215"/>
-      <c r="AE30" s="216"/>
+      <c r="B30" s="230"/>
+      <c r="C30" s="233"/>
+      <c r="D30" s="233"/>
+      <c r="E30" s="231"/>
+      <c r="F30" s="244"/>
+      <c r="G30" s="245"/>
+      <c r="H30" s="245"/>
+      <c r="I30" s="246"/>
+      <c r="J30" s="247"/>
+      <c r="K30" s="248"/>
+      <c r="L30" s="248"/>
+      <c r="M30" s="248"/>
+      <c r="N30" s="248"/>
+      <c r="O30" s="248"/>
+      <c r="P30" s="248"/>
+      <c r="Q30" s="248"/>
+      <c r="R30" s="248"/>
+      <c r="S30" s="248"/>
+      <c r="T30" s="248"/>
+      <c r="U30" s="248"/>
+      <c r="V30" s="248"/>
+      <c r="W30" s="248"/>
+      <c r="X30" s="248"/>
+      <c r="Y30" s="248"/>
+      <c r="Z30" s="248"/>
+      <c r="AA30" s="248"/>
+      <c r="AB30" s="249"/>
+      <c r="AC30" s="230"/>
+      <c r="AD30" s="233"/>
+      <c r="AE30" s="231"/>
       <c r="AF30" s="16"/>
     </row>
     <row r="31" spans="1:32" ht="29.25" customHeight="1">
       <c r="A31" s="16"/>
-      <c r="B31" s="214"/>
-      <c r="C31" s="215"/>
-      <c r="D31" s="215"/>
-      <c r="E31" s="216"/>
-      <c r="F31" s="217"/>
-      <c r="G31" s="218"/>
-      <c r="H31" s="218"/>
-      <c r="I31" s="219"/>
-      <c r="J31" s="220"/>
-      <c r="K31" s="221"/>
-      <c r="L31" s="221"/>
-      <c r="M31" s="221"/>
-      <c r="N31" s="221"/>
-      <c r="O31" s="221"/>
-      <c r="P31" s="221"/>
-      <c r="Q31" s="221"/>
-      <c r="R31" s="221"/>
-      <c r="S31" s="221"/>
-      <c r="T31" s="221"/>
-      <c r="U31" s="221"/>
-      <c r="V31" s="221"/>
-      <c r="W31" s="221"/>
-      <c r="X31" s="221"/>
-      <c r="Y31" s="221"/>
-      <c r="Z31" s="221"/>
-      <c r="AA31" s="221"/>
-      <c r="AB31" s="222"/>
-      <c r="AC31" s="214"/>
-      <c r="AD31" s="215"/>
-      <c r="AE31" s="216"/>
+      <c r="B31" s="230"/>
+      <c r="C31" s="233"/>
+      <c r="D31" s="233"/>
+      <c r="E31" s="231"/>
+      <c r="F31" s="244"/>
+      <c r="G31" s="245"/>
+      <c r="H31" s="245"/>
+      <c r="I31" s="246"/>
+      <c r="J31" s="247"/>
+      <c r="K31" s="248"/>
+      <c r="L31" s="248"/>
+      <c r="M31" s="248"/>
+      <c r="N31" s="248"/>
+      <c r="O31" s="248"/>
+      <c r="P31" s="248"/>
+      <c r="Q31" s="248"/>
+      <c r="R31" s="248"/>
+      <c r="S31" s="248"/>
+      <c r="T31" s="248"/>
+      <c r="U31" s="248"/>
+      <c r="V31" s="248"/>
+      <c r="W31" s="248"/>
+      <c r="X31" s="248"/>
+      <c r="Y31" s="248"/>
+      <c r="Z31" s="248"/>
+      <c r="AA31" s="248"/>
+      <c r="AB31" s="249"/>
+      <c r="AC31" s="230"/>
+      <c r="AD31" s="233"/>
+      <c r="AE31" s="231"/>
       <c r="AF31" s="16"/>
     </row>
     <row r="32" spans="1:32" ht="29.25" customHeight="1">
       <c r="A32" s="16"/>
-      <c r="B32" s="214"/>
-      <c r="C32" s="215"/>
-      <c r="D32" s="215"/>
-      <c r="E32" s="216"/>
-      <c r="F32" s="217"/>
-      <c r="G32" s="218"/>
-      <c r="H32" s="218"/>
-      <c r="I32" s="219"/>
-      <c r="J32" s="220"/>
-      <c r="K32" s="221"/>
-      <c r="L32" s="221"/>
-      <c r="M32" s="221"/>
-      <c r="N32" s="221"/>
-      <c r="O32" s="221"/>
-      <c r="P32" s="221"/>
-      <c r="Q32" s="221"/>
-      <c r="R32" s="221"/>
-      <c r="S32" s="221"/>
-      <c r="T32" s="221"/>
-      <c r="U32" s="221"/>
-      <c r="V32" s="221"/>
-      <c r="W32" s="221"/>
-      <c r="X32" s="221"/>
-      <c r="Y32" s="221"/>
-      <c r="Z32" s="221"/>
-      <c r="AA32" s="221"/>
-      <c r="AB32" s="222"/>
-      <c r="AC32" s="214"/>
-      <c r="AD32" s="215"/>
-      <c r="AE32" s="216"/>
+      <c r="B32" s="230"/>
+      <c r="C32" s="233"/>
+      <c r="D32" s="233"/>
+      <c r="E32" s="231"/>
+      <c r="F32" s="244"/>
+      <c r="G32" s="245"/>
+      <c r="H32" s="245"/>
+      <c r="I32" s="246"/>
+      <c r="J32" s="247"/>
+      <c r="K32" s="248"/>
+      <c r="L32" s="248"/>
+      <c r="M32" s="248"/>
+      <c r="N32" s="248"/>
+      <c r="O32" s="248"/>
+      <c r="P32" s="248"/>
+      <c r="Q32" s="248"/>
+      <c r="R32" s="248"/>
+      <c r="S32" s="248"/>
+      <c r="T32" s="248"/>
+      <c r="U32" s="248"/>
+      <c r="V32" s="248"/>
+      <c r="W32" s="248"/>
+      <c r="X32" s="248"/>
+      <c r="Y32" s="248"/>
+      <c r="Z32" s="248"/>
+      <c r="AA32" s="248"/>
+      <c r="AB32" s="249"/>
+      <c r="AC32" s="230"/>
+      <c r="AD32" s="233"/>
+      <c r="AE32" s="231"/>
       <c r="AF32" s="16"/>
     </row>
     <row r="33" spans="1:32" ht="29.25" customHeight="1">
       <c r="A33" s="16"/>
-      <c r="B33" s="214"/>
-      <c r="C33" s="215"/>
-      <c r="D33" s="215"/>
-      <c r="E33" s="216"/>
-      <c r="F33" s="217"/>
-      <c r="G33" s="218"/>
-      <c r="H33" s="218"/>
-      <c r="I33" s="219"/>
-      <c r="J33" s="220"/>
-      <c r="K33" s="221"/>
-      <c r="L33" s="221"/>
-      <c r="M33" s="221"/>
-      <c r="N33" s="221"/>
-      <c r="O33" s="221"/>
-      <c r="P33" s="221"/>
-      <c r="Q33" s="221"/>
-      <c r="R33" s="221"/>
-      <c r="S33" s="221"/>
-      <c r="T33" s="221"/>
-      <c r="U33" s="221"/>
-      <c r="V33" s="221"/>
-      <c r="W33" s="221"/>
-      <c r="X33" s="221"/>
-      <c r="Y33" s="221"/>
-      <c r="Z33" s="221"/>
-      <c r="AA33" s="221"/>
-      <c r="AB33" s="222"/>
-      <c r="AC33" s="214"/>
-      <c r="AD33" s="215"/>
-      <c r="AE33" s="216"/>
+      <c r="B33" s="230"/>
+      <c r="C33" s="233"/>
+      <c r="D33" s="233"/>
+      <c r="E33" s="231"/>
+      <c r="F33" s="244"/>
+      <c r="G33" s="245"/>
+      <c r="H33" s="245"/>
+      <c r="I33" s="246"/>
+      <c r="J33" s="247"/>
+      <c r="K33" s="248"/>
+      <c r="L33" s="248"/>
+      <c r="M33" s="248"/>
+      <c r="N33" s="248"/>
+      <c r="O33" s="248"/>
+      <c r="P33" s="248"/>
+      <c r="Q33" s="248"/>
+      <c r="R33" s="248"/>
+      <c r="S33" s="248"/>
+      <c r="T33" s="248"/>
+      <c r="U33" s="248"/>
+      <c r="V33" s="248"/>
+      <c r="W33" s="248"/>
+      <c r="X33" s="248"/>
+      <c r="Y33" s="248"/>
+      <c r="Z33" s="248"/>
+      <c r="AA33" s="248"/>
+      <c r="AB33" s="249"/>
+      <c r="AC33" s="230"/>
+      <c r="AD33" s="233"/>
+      <c r="AE33" s="231"/>
       <c r="AF33" s="16"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
@@ -6431,6 +6431,51 @@
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B16:AE18"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
     <mergeCell ref="AC8:AE8"/>
     <mergeCell ref="F7:Q7"/>
     <mergeCell ref="B8:E9"/>
@@ -6442,51 +6487,6 @@
     <mergeCell ref="AC9:AE12"/>
     <mergeCell ref="Z9:AB12"/>
     <mergeCell ref="W9:Y12"/>
-    <mergeCell ref="B16:AE18"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:AB23"/>
-    <mergeCell ref="AC23:AE23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -6536,10 +6536,10 @@
       <c r="F1" s="127"/>
     </row>
     <row r="2" spans="1:6" s="40" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="250" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="257"/>
+      <c r="B2" s="251"/>
       <c r="C2" s="37"/>
       <c r="D2" s="38"/>
       <c r="E2" s="39" t="s">
@@ -6550,10 +6550,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="40" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="250" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="257"/>
+      <c r="B3" s="251"/>
       <c r="C3" s="37"/>
       <c r="D3" s="38"/>
       <c r="E3" s="39" t="s">
@@ -6564,10 +6564,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="40" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="256" t="s">
+      <c r="A4" s="250" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="257"/>
+      <c r="B4" s="251"/>
       <c r="C4" s="37"/>
       <c r="D4" s="38"/>
       <c r="E4" s="39" t="s">
@@ -6578,10 +6578,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" s="40" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="256" t="s">
+      <c r="A5" s="250" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="257"/>
+      <c r="B5" s="251"/>
       <c r="C5" s="41"/>
       <c r="D5" s="38"/>
       <c r="E5" s="39" t="s">
@@ -6590,10 +6590,10 @@
       <c r="F5" s="92"/>
     </row>
     <row r="6" spans="1:6" s="40" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="256" t="s">
+      <c r="A6" s="250" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="257"/>
+      <c r="B6" s="251"/>
       <c r="C6" s="37"/>
       <c r="D6" s="38"/>
       <c r="E6" s="39" t="s">
@@ -6632,10 +6632,10 @@
       <c r="D9" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="254" t="s">
+      <c r="E9" s="256" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="255"/>
+      <c r="F9" s="257"/>
     </row>
     <row r="10" spans="1:6" ht="33.75" customHeight="1">
       <c r="A10" s="64">
@@ -6650,8 +6650,8 @@
       <c r="D10" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="250"/>
-      <c r="F10" s="251"/>
+      <c r="E10" s="252"/>
+      <c r="F10" s="253"/>
     </row>
     <row r="11" spans="1:6" ht="33.75" customHeight="1">
       <c r="A11" s="64">
@@ -6666,8 +6666,8 @@
       <c r="D11" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="250"/>
-      <c r="F11" s="251"/>
+      <c r="E11" s="252"/>
+      <c r="F11" s="253"/>
     </row>
     <row r="12" spans="1:6" ht="33.75" customHeight="1">
       <c r="A12" s="64">
@@ -6682,8 +6682,8 @@
       <c r="D12" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="250"/>
-      <c r="F12" s="251"/>
+      <c r="E12" s="252"/>
+      <c r="F12" s="253"/>
     </row>
     <row r="13" spans="1:6" ht="33.75" customHeight="1">
       <c r="A13" s="64">
@@ -6698,8 +6698,8 @@
       <c r="D13" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="250"/>
-      <c r="F13" s="251"/>
+      <c r="E13" s="252"/>
+      <c r="F13" s="253"/>
     </row>
     <row r="14" spans="1:6" ht="33.75" customHeight="1">
       <c r="A14" s="64">
@@ -6714,8 +6714,8 @@
       <c r="D14" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="E14" s="250"/>
-      <c r="F14" s="251"/>
+      <c r="E14" s="252"/>
+      <c r="F14" s="253"/>
     </row>
     <row r="15" spans="1:6" ht="33.75" customHeight="1">
       <c r="A15" s="9">
@@ -6730,24 +6730,24 @@
       <c r="D15" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="252"/>
-      <c r="F15" s="253"/>
+      <c r="E15" s="254"/>
+      <c r="F15" s="255"/>
     </row>
     <row r="16" spans="1:6" ht="33.75" customHeight="1">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="252"/>
-      <c r="F16" s="253"/>
+      <c r="E16" s="254"/>
+      <c r="F16" s="255"/>
     </row>
     <row r="17" spans="1:6" ht="33.75" customHeight="1">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="252"/>
-      <c r="F17" s="253"/>
+      <c r="E17" s="254"/>
+      <c r="F17" s="255"/>
     </row>
     <row r="18" spans="1:6" ht="29.25" customHeight="1">
       <c r="A18" s="36" t="s">
@@ -7209,11 +7209,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
@@ -7223,6 +7218,11 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7243,8 +7243,8 @@
   </sheetPr>
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -7338,40 +7338,40 @@
         <v>47</v>
       </c>
       <c r="B6" s="198"/>
-      <c r="C6" s="268" t="s">
+      <c r="C6" s="289" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="269"/>
-      <c r="E6" s="269"/>
-      <c r="F6" s="269"/>
-      <c r="G6" s="269"/>
-      <c r="H6" s="270"/>
+      <c r="D6" s="290"/>
+      <c r="E6" s="290"/>
+      <c r="F6" s="290"/>
+      <c r="G6" s="290"/>
+      <c r="H6" s="291"/>
     </row>
     <row r="7" spans="1:9" ht="20.25" customHeight="1">
       <c r="A7" s="199" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="198"/>
-      <c r="C7" s="268" t="s">
+      <c r="C7" s="289" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="269"/>
-      <c r="E7" s="269"/>
-      <c r="F7" s="269"/>
-      <c r="G7" s="269"/>
-      <c r="H7" s="270"/>
+      <c r="D7" s="290"/>
+      <c r="E7" s="290"/>
+      <c r="F7" s="290"/>
+      <c r="G7" s="290"/>
+      <c r="H7" s="291"/>
     </row>
     <row r="8" spans="1:9" ht="20.25" customHeight="1">
       <c r="A8" s="199" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="198"/>
-      <c r="C8" s="268"/>
-      <c r="D8" s="269"/>
-      <c r="E8" s="269"/>
-      <c r="F8" s="269"/>
-      <c r="G8" s="269"/>
-      <c r="H8" s="270"/>
+      <c r="C8" s="289"/>
+      <c r="D8" s="290"/>
+      <c r="E8" s="290"/>
+      <c r="F8" s="290"/>
+      <c r="G8" s="290"/>
+      <c r="H8" s="291"/>
     </row>
     <row r="9" spans="1:9" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="163" t="s">
@@ -7392,10 +7392,10 @@
       <c r="B10" s="197" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="271" t="s">
+      <c r="C10" s="274" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="272"/>
+      <c r="D10" s="292"/>
       <c r="E10" s="197" t="s">
         <v>1</v>
       </c>
@@ -7416,10 +7416,10 @@
       <c r="B11" s="196" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="273" t="s">
+      <c r="C11" s="293" t="s">
         <v>141</v>
       </c>
-      <c r="D11" s="274"/>
+      <c r="D11" s="294"/>
       <c r="E11" s="193" t="s">
         <v>81</v>
       </c>
@@ -7558,10 +7558,10 @@
       <c r="B18" s="191" t="s">
         <v>184</v>
       </c>
-      <c r="C18" s="258" t="s">
+      <c r="C18" s="284" t="s">
         <v>183</v>
       </c>
-      <c r="D18" s="259"/>
+      <c r="D18" s="285"/>
       <c r="E18" s="190" t="s">
         <v>95</v>
       </c>
@@ -7578,10 +7578,10 @@
       <c r="B19" s="191" t="s">
         <v>182</v>
       </c>
-      <c r="C19" s="258" t="s">
+      <c r="C19" s="284" t="s">
         <v>181</v>
       </c>
-      <c r="D19" s="259"/>
+      <c r="D19" s="285"/>
       <c r="E19" s="190" t="s">
         <v>180</v>
       </c>
@@ -7598,10 +7598,10 @@
       <c r="B20" s="191" t="s">
         <v>179</v>
       </c>
-      <c r="C20" s="258" t="s">
+      <c r="C20" s="284" t="s">
         <v>178</v>
       </c>
-      <c r="D20" s="259"/>
+      <c r="D20" s="285"/>
       <c r="E20" s="193" t="s">
         <v>170</v>
       </c>
@@ -7616,8 +7616,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="192"/>
       <c r="B21" s="191"/>
-      <c r="C21" s="258"/>
-      <c r="D21" s="259"/>
+      <c r="C21" s="284"/>
+      <c r="D21" s="285"/>
       <c r="E21" s="190"/>
       <c r="F21" s="190"/>
       <c r="G21" s="189"/>
@@ -7626,8 +7626,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="192"/>
       <c r="B22" s="191"/>
-      <c r="C22" s="258"/>
-      <c r="D22" s="259"/>
+      <c r="C22" s="284"/>
+      <c r="D22" s="285"/>
       <c r="E22" s="190"/>
       <c r="F22" s="190"/>
       <c r="G22" s="189"/>
@@ -7636,8 +7636,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="192"/>
       <c r="B23" s="191"/>
-      <c r="C23" s="258"/>
-      <c r="D23" s="259"/>
+      <c r="C23" s="284"/>
+      <c r="D23" s="285"/>
       <c r="E23" s="190"/>
       <c r="F23" s="190"/>
       <c r="G23" s="189"/>
@@ -7646,8 +7646,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="192"/>
       <c r="B24" s="191"/>
-      <c r="C24" s="258"/>
-      <c r="D24" s="259"/>
+      <c r="C24" s="284"/>
+      <c r="D24" s="285"/>
       <c r="E24" s="190"/>
       <c r="F24" s="190"/>
       <c r="G24" s="189"/>
@@ -7656,8 +7656,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="192"/>
       <c r="B25" s="191"/>
-      <c r="C25" s="258"/>
-      <c r="D25" s="259"/>
+      <c r="C25" s="284"/>
+      <c r="D25" s="285"/>
       <c r="E25" s="190"/>
       <c r="F25" s="190"/>
       <c r="G25" s="189"/>
@@ -7666,8 +7666,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="192"/>
       <c r="B26" s="191"/>
-      <c r="C26" s="258"/>
-      <c r="D26" s="259"/>
+      <c r="C26" s="284"/>
+      <c r="D26" s="285"/>
       <c r="E26" s="190"/>
       <c r="F26" s="190"/>
       <c r="G26" s="189"/>
@@ -7676,8 +7676,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="192"/>
       <c r="B27" s="191"/>
-      <c r="C27" s="258"/>
-      <c r="D27" s="259"/>
+      <c r="C27" s="284"/>
+      <c r="D27" s="285"/>
       <c r="E27" s="190"/>
       <c r="F27" s="190"/>
       <c r="G27" s="189"/>
@@ -7686,8 +7686,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="192"/>
       <c r="B28" s="191"/>
-      <c r="C28" s="258"/>
-      <c r="D28" s="259"/>
+      <c r="C28" s="284"/>
+      <c r="D28" s="285"/>
       <c r="E28" s="190"/>
       <c r="F28" s="190"/>
       <c r="G28" s="189"/>
@@ -7696,8 +7696,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="192"/>
       <c r="B29" s="191"/>
-      <c r="C29" s="258"/>
-      <c r="D29" s="259"/>
+      <c r="C29" s="284"/>
+      <c r="D29" s="285"/>
       <c r="E29" s="190"/>
       <c r="F29" s="190"/>
       <c r="G29" s="189"/>
@@ -7706,8 +7706,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="176"/>
       <c r="B30" s="187"/>
-      <c r="C30" s="275"/>
-      <c r="D30" s="276"/>
+      <c r="C30" s="261"/>
+      <c r="D30" s="263"/>
       <c r="E30" s="186"/>
       <c r="F30" s="186"/>
       <c r="G30" s="175"/>
@@ -7739,10 +7739,10 @@
       <c r="A33" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="277" t="s">
+      <c r="B33" s="271" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="278"/>
+      <c r="C33" s="273"/>
       <c r="D33" s="185" t="s">
         <v>9</v>
       </c>
@@ -7757,41 +7757,41 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="182"/>
-      <c r="B34" s="279"/>
-      <c r="C34" s="280"/>
-      <c r="D34" s="260"/>
-      <c r="E34" s="261"/>
-      <c r="F34" s="262"/>
+      <c r="B34" s="286"/>
+      <c r="C34" s="287"/>
+      <c r="D34" s="269"/>
+      <c r="E34" s="288"/>
+      <c r="F34" s="270"/>
       <c r="G34" s="181"/>
       <c r="H34" s="180"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="179"/>
-      <c r="B35" s="263"/>
-      <c r="C35" s="264"/>
-      <c r="D35" s="265"/>
-      <c r="E35" s="266"/>
-      <c r="F35" s="267"/>
+      <c r="B35" s="279"/>
+      <c r="C35" s="280"/>
+      <c r="D35" s="258"/>
+      <c r="E35" s="259"/>
+      <c r="F35" s="260"/>
       <c r="G35" s="178"/>
       <c r="H35" s="177"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="179"/>
-      <c r="B36" s="263"/>
-      <c r="C36" s="264"/>
-      <c r="D36" s="265"/>
-      <c r="E36" s="266"/>
-      <c r="F36" s="267"/>
+      <c r="B36" s="279"/>
+      <c r="C36" s="280"/>
+      <c r="D36" s="258"/>
+      <c r="E36" s="259"/>
+      <c r="F36" s="260"/>
       <c r="G36" s="178"/>
       <c r="H36" s="177"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="179"/>
-      <c r="B37" s="263"/>
-      <c r="C37" s="264"/>
-      <c r="D37" s="265"/>
-      <c r="E37" s="266"/>
-      <c r="F37" s="267"/>
+      <c r="B37" s="279"/>
+      <c r="C37" s="280"/>
+      <c r="D37" s="258"/>
+      <c r="E37" s="259"/>
+      <c r="F37" s="260"/>
       <c r="G37" s="178"/>
       <c r="H37" s="177"/>
     </row>
@@ -7799,9 +7799,9 @@
       <c r="A38" s="176"/>
       <c r="B38" s="281"/>
       <c r="C38" s="282"/>
-      <c r="D38" s="275"/>
-      <c r="E38" s="283"/>
-      <c r="F38" s="276"/>
+      <c r="D38" s="261"/>
+      <c r="E38" s="262"/>
+      <c r="F38" s="263"/>
       <c r="G38" s="175"/>
       <c r="H38" s="174"/>
     </row>
@@ -7834,15 +7834,15 @@
       <c r="B41" s="160" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="277" t="s">
+      <c r="C41" s="271" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="284"/>
-      <c r="E41" s="278"/>
-      <c r="F41" s="277" t="s">
+      <c r="D41" s="272"/>
+      <c r="E41" s="273"/>
+      <c r="F41" s="271" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="285"/>
+      <c r="G41" s="283"/>
       <c r="H41" s="172" t="s">
         <v>14</v>
       </c>
@@ -7850,51 +7850,51 @@
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="171"/>
       <c r="B42" s="170"/>
-      <c r="C42" s="286"/>
-      <c r="D42" s="287"/>
-      <c r="E42" s="288"/>
-      <c r="F42" s="286"/>
-      <c r="G42" s="288"/>
+      <c r="C42" s="266"/>
+      <c r="D42" s="267"/>
+      <c r="E42" s="268"/>
+      <c r="F42" s="266"/>
+      <c r="G42" s="268"/>
       <c r="H42" s="169"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="168"/>
       <c r="B43" s="167"/>
-      <c r="C43" s="289"/>
-      <c r="D43" s="290"/>
-      <c r="E43" s="291"/>
-      <c r="F43" s="289"/>
-      <c r="G43" s="291"/>
+      <c r="C43" s="276"/>
+      <c r="D43" s="277"/>
+      <c r="E43" s="278"/>
+      <c r="F43" s="276"/>
+      <c r="G43" s="278"/>
       <c r="H43" s="166"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="155"/>
       <c r="B44" s="154"/>
-      <c r="C44" s="265"/>
-      <c r="D44" s="266"/>
-      <c r="E44" s="267"/>
-      <c r="F44" s="265"/>
-      <c r="G44" s="267"/>
+      <c r="C44" s="258"/>
+      <c r="D44" s="259"/>
+      <c r="E44" s="260"/>
+      <c r="F44" s="258"/>
+      <c r="G44" s="260"/>
       <c r="H44" s="153"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="155"/>
       <c r="B45" s="154"/>
-      <c r="C45" s="265"/>
-      <c r="D45" s="266"/>
-      <c r="E45" s="267"/>
-      <c r="F45" s="265"/>
-      <c r="G45" s="267"/>
+      <c r="C45" s="258"/>
+      <c r="D45" s="259"/>
+      <c r="E45" s="260"/>
+      <c r="F45" s="258"/>
+      <c r="G45" s="260"/>
       <c r="H45" s="153"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="152"/>
       <c r="B46" s="151"/>
-      <c r="C46" s="275"/>
-      <c r="D46" s="283"/>
-      <c r="E46" s="276"/>
-      <c r="F46" s="292"/>
-      <c r="G46" s="293"/>
+      <c r="C46" s="261"/>
+      <c r="D46" s="262"/>
+      <c r="E46" s="263"/>
+      <c r="F46" s="264"/>
+      <c r="G46" s="265"/>
       <c r="H46" s="150"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -7926,15 +7926,15 @@
       <c r="B49" s="160" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="277" t="s">
+      <c r="C49" s="271" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="284"/>
-      <c r="E49" s="278"/>
-      <c r="F49" s="271" t="s">
+      <c r="D49" s="272"/>
+      <c r="E49" s="273"/>
+      <c r="F49" s="274" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="294"/>
+      <c r="G49" s="275"/>
       <c r="H49" s="159" t="s">
         <v>17</v>
       </c>
@@ -7942,1658 +7942,71 @@
     <row r="50" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A50" s="157"/>
       <c r="B50" s="156"/>
-      <c r="C50" s="286" t="s">
+      <c r="C50" s="266" t="s">
         <v>144</v>
       </c>
-      <c r="D50" s="287"/>
-      <c r="E50" s="288"/>
-      <c r="F50" s="260" t="s">
+      <c r="D50" s="267"/>
+      <c r="E50" s="268"/>
+      <c r="F50" s="269" t="s">
         <v>69</v>
       </c>
-      <c r="G50" s="262"/>
-      <c r="H50" s="286" t="s">
+      <c r="G50" s="270"/>
+      <c r="H50" s="266" t="s">
         <v>144</v>
       </c>
-      <c r="I50" s="287"/>
-      <c r="J50" s="288"/>
+      <c r="I50" s="267"/>
+      <c r="J50" s="268"/>
     </row>
     <row r="51" spans="1:10" ht="20.25" customHeight="1">
       <c r="A51" s="155"/>
       <c r="B51" s="154"/>
-      <c r="C51" s="286" t="s">
+      <c r="C51" s="266" t="s">
         <v>144</v>
       </c>
-      <c r="D51" s="287"/>
-      <c r="E51" s="288"/>
-      <c r="F51" s="265" t="s">
+      <c r="D51" s="267"/>
+      <c r="E51" s="268"/>
+      <c r="F51" s="258" t="s">
         <v>103</v>
       </c>
-      <c r="G51" s="267"/>
-      <c r="H51" s="286" t="s">
+      <c r="G51" s="260"/>
+      <c r="H51" s="266" t="s">
         <v>144</v>
       </c>
-      <c r="I51" s="287"/>
-      <c r="J51" s="288"/>
+      <c r="I51" s="267"/>
+      <c r="J51" s="268"/>
     </row>
     <row r="52" spans="1:10" ht="20.25" customHeight="1">
       <c r="A52" s="155"/>
       <c r="B52" s="154"/>
-      <c r="C52" s="265"/>
-      <c r="D52" s="266"/>
-      <c r="E52" s="267"/>
-      <c r="F52" s="265"/>
-      <c r="G52" s="267"/>
+      <c r="C52" s="258"/>
+      <c r="D52" s="259"/>
+      <c r="E52" s="260"/>
+      <c r="F52" s="258"/>
+      <c r="G52" s="260"/>
       <c r="H52" s="153"/>
     </row>
     <row r="53" spans="1:10" ht="20.25" customHeight="1">
       <c r="A53" s="155"/>
       <c r="B53" s="154"/>
-      <c r="C53" s="265"/>
-      <c r="D53" s="266"/>
-      <c r="E53" s="267"/>
-      <c r="F53" s="265"/>
-      <c r="G53" s="267"/>
+      <c r="C53" s="258"/>
+      <c r="D53" s="259"/>
+      <c r="E53" s="260"/>
+      <c r="F53" s="258"/>
+      <c r="G53" s="260"/>
       <c r="H53" s="153"/>
     </row>
     <row r="54" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="152"/>
       <c r="B54" s="151"/>
-      <c r="C54" s="275"/>
-      <c r="D54" s="283"/>
-      <c r="E54" s="276"/>
-      <c r="F54" s="292"/>
-      <c r="G54" s="293"/>
+      <c r="C54" s="261"/>
+      <c r="D54" s="262"/>
+      <c r="E54" s="263"/>
+      <c r="F54" s="264"/>
+      <c r="G54" s="265"/>
       <c r="H54" s="150"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7098C011-6A9E-D048-A636-998168CA356E}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:J54"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="3.6640625" style="149" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="149" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" style="149" customWidth="1"/>
-    <col min="4" max="6" width="13.5" style="149" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" style="149" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" style="149" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="149"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="15">
-      <c r="A1" s="210" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="209"/>
-      <c r="C1" s="209"/>
-      <c r="D1" s="209"/>
-      <c r="E1" s="209"/>
-      <c r="F1" s="209"/>
-      <c r="G1" s="209"/>
-      <c r="H1" s="208"/>
-    </row>
-    <row r="2" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A2" s="199" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="199"/>
-      <c r="C2" s="206"/>
-      <c r="D2" s="205"/>
-      <c r="E2" s="204" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="205" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="204" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="147">
-        <v>43969</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A3" s="199" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="199"/>
-      <c r="C3" s="206"/>
-      <c r="D3" s="205"/>
-      <c r="E3" s="204" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="205"/>
-      <c r="G3" s="204" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="213">
-        <v>43971</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A4" s="199" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="199"/>
-      <c r="C4" s="206"/>
-      <c r="D4" s="206"/>
-      <c r="E4" s="205"/>
-      <c r="F4" s="205"/>
-      <c r="G4" s="204" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="203"/>
-    </row>
-    <row r="5" spans="1:8" s="200" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A5" s="201"/>
-      <c r="B5" s="201"/>
-      <c r="C5" s="201"/>
-      <c r="D5" s="201"/>
-      <c r="E5" s="201"/>
-      <c r="F5" s="201"/>
-      <c r="G5" s="202"/>
-      <c r="H5" s="201"/>
-    </row>
-    <row r="6" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A6" s="199" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="198"/>
-      <c r="C6" s="268"/>
-      <c r="D6" s="269"/>
-      <c r="E6" s="269"/>
-      <c r="F6" s="269"/>
-      <c r="G6" s="269"/>
-      <c r="H6" s="270"/>
-    </row>
-    <row r="7" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A7" s="199" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="198"/>
-      <c r="C7" s="268"/>
-      <c r="D7" s="269"/>
-      <c r="E7" s="269"/>
-      <c r="F7" s="269"/>
-      <c r="G7" s="269"/>
-      <c r="H7" s="270"/>
-    </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A8" s="199" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="198"/>
-      <c r="C8" s="268"/>
-      <c r="D8" s="269"/>
-      <c r="E8" s="269"/>
-      <c r="F8" s="269"/>
-      <c r="G8" s="269"/>
-      <c r="H8" s="270"/>
-    </row>
-    <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A9" s="163" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="163"/>
-      <c r="C9" s="163"/>
-      <c r="D9" s="163"/>
-      <c r="E9" s="163"/>
-      <c r="F9" s="163"/>
-      <c r="G9" s="163"/>
-      <c r="H9" s="163"/>
-    </row>
-    <row r="10" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A10" s="161" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="197" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="271" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="272"/>
-      <c r="E10" s="197" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="197" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="197" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="159" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A11" s="182">
-        <v>1</v>
-      </c>
-      <c r="B11" s="196" t="s">
-        <v>97</v>
-      </c>
-      <c r="C11" s="273" t="s">
-        <v>148</v>
-      </c>
-      <c r="D11" s="274"/>
-      <c r="E11" s="193" t="s">
-        <v>166</v>
-      </c>
-      <c r="F11" s="193" t="s">
-        <v>80</v>
-      </c>
-      <c r="G11" s="181"/>
-      <c r="H11" s="180" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A12" s="179">
-        <v>2</v>
-      </c>
-      <c r="B12" s="191" t="s">
-        <v>98</v>
-      </c>
-      <c r="C12" s="195" t="s">
-        <v>149</v>
-      </c>
-      <c r="D12" s="194"/>
-      <c r="E12" s="193" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" s="190" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="189"/>
-      <c r="H12" s="188"/>
-    </row>
-    <row r="13" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A13" s="179">
-        <v>3</v>
-      </c>
-      <c r="B13" s="191" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="195" t="s">
-        <v>167</v>
-      </c>
-      <c r="D13" s="194"/>
-      <c r="E13" s="190" t="s">
-        <v>102</v>
-      </c>
-      <c r="F13" s="190" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" s="189"/>
-      <c r="H13" s="188"/>
-    </row>
-    <row r="14" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A14" s="192">
-        <v>4</v>
-      </c>
-      <c r="B14" s="191" t="s">
-        <v>164</v>
-      </c>
-      <c r="C14" s="195" t="s">
-        <v>165</v>
-      </c>
-      <c r="D14" s="194"/>
-      <c r="E14" s="193" t="s">
-        <v>172</v>
-      </c>
-      <c r="F14" s="190"/>
-      <c r="G14" s="189"/>
-      <c r="H14" s="188"/>
-    </row>
-    <row r="15" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A15" s="192">
-        <v>5</v>
-      </c>
-      <c r="B15" s="191" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" s="195" t="s">
-        <v>168</v>
-      </c>
-      <c r="D15" s="194"/>
-      <c r="E15" s="212" t="s">
-        <v>169</v>
-      </c>
-      <c r="F15" s="190" t="s">
-        <v>80</v>
-      </c>
-      <c r="G15" s="189"/>
-      <c r="H15" s="188"/>
-    </row>
-    <row r="16" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A16" s="192">
-        <v>6</v>
-      </c>
-      <c r="B16" s="191" t="s">
-        <v>101</v>
-      </c>
-      <c r="C16" s="195" t="s">
-        <v>176</v>
-      </c>
-      <c r="D16" s="194"/>
-      <c r="E16" s="190" t="s">
-        <v>171</v>
-      </c>
-      <c r="F16" s="190" t="s">
-        <v>80</v>
-      </c>
-      <c r="G16" s="189" t="s">
-        <v>175</v>
-      </c>
-      <c r="H16" s="188" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A17" s="192">
-        <v>7</v>
-      </c>
-      <c r="B17" s="191" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" s="273" t="s">
-        <v>150</v>
-      </c>
-      <c r="D17" s="274"/>
-      <c r="E17" s="193" t="s">
-        <v>81</v>
-      </c>
-      <c r="F17" s="190" t="s">
-        <v>80</v>
-      </c>
-      <c r="G17" s="189"/>
-      <c r="H17" s="188" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A18" s="192">
-        <v>8</v>
-      </c>
-      <c r="B18" s="191" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" s="258" t="s">
-        <v>151</v>
-      </c>
-      <c r="D18" s="259"/>
-      <c r="E18" s="193" t="s">
-        <v>82</v>
-      </c>
-      <c r="F18" s="190" t="s">
-        <v>80</v>
-      </c>
-      <c r="G18" s="189"/>
-      <c r="H18" s="188" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A19" s="192"/>
-      <c r="B19" s="191"/>
-      <c r="C19" s="258"/>
-      <c r="D19" s="259"/>
-      <c r="E19" s="190"/>
-      <c r="F19" s="190"/>
-      <c r="G19" s="189"/>
-      <c r="H19" s="188"/>
-    </row>
-    <row r="20" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A20" s="192"/>
-      <c r="B20" s="191"/>
-      <c r="C20" s="258"/>
-      <c r="D20" s="259"/>
-      <c r="E20" s="190"/>
-      <c r="F20" s="190"/>
-      <c r="G20" s="189"/>
-      <c r="H20" s="188"/>
-    </row>
-    <row r="21" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A21" s="192"/>
-      <c r="B21" s="191"/>
-      <c r="C21" s="258"/>
-      <c r="D21" s="259"/>
-      <c r="E21" s="190"/>
-      <c r="F21" s="190"/>
-      <c r="G21" s="189"/>
-      <c r="H21" s="188"/>
-    </row>
-    <row r="22" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A22" s="192"/>
-      <c r="B22" s="191"/>
-      <c r="C22" s="258"/>
-      <c r="D22" s="259"/>
-      <c r="E22" s="190"/>
-      <c r="F22" s="190"/>
-      <c r="G22" s="189"/>
-      <c r="H22" s="188"/>
-    </row>
-    <row r="23" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A23" s="192"/>
-      <c r="B23" s="191"/>
-      <c r="C23" s="258"/>
-      <c r="D23" s="259"/>
-      <c r="E23" s="190"/>
-      <c r="F23" s="190"/>
-      <c r="G23" s="189"/>
-      <c r="H23" s="188"/>
-    </row>
-    <row r="24" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A24" s="192"/>
-      <c r="B24" s="191"/>
-      <c r="C24" s="258"/>
-      <c r="D24" s="259"/>
-      <c r="E24" s="190"/>
-      <c r="F24" s="190"/>
-      <c r="G24" s="189"/>
-      <c r="H24" s="188"/>
-    </row>
-    <row r="25" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A25" s="192"/>
-      <c r="B25" s="191"/>
-      <c r="C25" s="258"/>
-      <c r="D25" s="259"/>
-      <c r="E25" s="190"/>
-      <c r="F25" s="190"/>
-      <c r="G25" s="189"/>
-      <c r="H25" s="188"/>
-    </row>
-    <row r="26" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A26" s="192"/>
-      <c r="B26" s="191"/>
-      <c r="C26" s="258"/>
-      <c r="D26" s="259"/>
-      <c r="E26" s="190"/>
-      <c r="F26" s="190"/>
-      <c r="G26" s="189"/>
-      <c r="H26" s="188"/>
-    </row>
-    <row r="27" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A27" s="192"/>
-      <c r="B27" s="191"/>
-      <c r="C27" s="258"/>
-      <c r="D27" s="259"/>
-      <c r="E27" s="190"/>
-      <c r="F27" s="190"/>
-      <c r="G27" s="189"/>
-      <c r="H27" s="188"/>
-    </row>
-    <row r="28" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A28" s="192"/>
-      <c r="B28" s="191"/>
-      <c r="C28" s="258"/>
-      <c r="D28" s="259"/>
-      <c r="E28" s="190"/>
-      <c r="F28" s="190"/>
-      <c r="G28" s="189"/>
-      <c r="H28" s="188"/>
-    </row>
-    <row r="29" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A29" s="192"/>
-      <c r="B29" s="191"/>
-      <c r="C29" s="258"/>
-      <c r="D29" s="259"/>
-      <c r="E29" s="190"/>
-      <c r="F29" s="190"/>
-      <c r="G29" s="189"/>
-      <c r="H29" s="188"/>
-    </row>
-    <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A30" s="176"/>
-      <c r="B30" s="187"/>
-      <c r="C30" s="275"/>
-      <c r="D30" s="276"/>
-      <c r="E30" s="186"/>
-      <c r="F30" s="186"/>
-      <c r="G30" s="175"/>
-      <c r="H30" s="174"/>
-    </row>
-    <row r="31" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A31" s="165"/>
-      <c r="B31" s="165"/>
-      <c r="C31" s="164"/>
-      <c r="D31" s="164"/>
-      <c r="E31" s="164"/>
-      <c r="F31" s="164"/>
-      <c r="G31" s="164"/>
-      <c r="H31" s="164"/>
-    </row>
-    <row r="32" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A32" s="163" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="163"/>
-      <c r="C32" s="162"/>
-      <c r="D32" s="162"/>
-      <c r="E32" s="162"/>
-      <c r="F32" s="162"/>
-      <c r="G32" s="162"/>
-      <c r="H32" s="162"/>
-    </row>
-    <row r="33" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A33" s="173" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="277" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="278"/>
-      <c r="D33" s="185" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="184"/>
-      <c r="F33" s="183"/>
-      <c r="G33" s="160" t="s">
-        <v>10</v>
-      </c>
-      <c r="H33" s="172" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A34" s="182"/>
-      <c r="B34" s="279"/>
-      <c r="C34" s="280"/>
-      <c r="D34" s="260"/>
-      <c r="E34" s="261"/>
-      <c r="F34" s="262"/>
-      <c r="G34" s="181"/>
-      <c r="H34" s="180"/>
-    </row>
-    <row r="35" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A35" s="179"/>
-      <c r="B35" s="263"/>
-      <c r="C35" s="264"/>
-      <c r="D35" s="265"/>
-      <c r="E35" s="266"/>
-      <c r="F35" s="267"/>
-      <c r="G35" s="178"/>
-      <c r="H35" s="177"/>
-    </row>
-    <row r="36" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A36" s="179"/>
-      <c r="B36" s="263"/>
-      <c r="C36" s="264"/>
-      <c r="D36" s="265"/>
-      <c r="E36" s="266"/>
-      <c r="F36" s="267"/>
-      <c r="G36" s="178"/>
-      <c r="H36" s="177"/>
-    </row>
-    <row r="37" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A37" s="179"/>
-      <c r="B37" s="263"/>
-      <c r="C37" s="264"/>
-      <c r="D37" s="265"/>
-      <c r="E37" s="266"/>
-      <c r="F37" s="267"/>
-      <c r="G37" s="178"/>
-      <c r="H37" s="177"/>
-    </row>
-    <row r="38" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A38" s="176"/>
-      <c r="B38" s="281"/>
-      <c r="C38" s="282"/>
-      <c r="D38" s="275"/>
-      <c r="E38" s="283"/>
-      <c r="F38" s="276"/>
-      <c r="G38" s="175"/>
-      <c r="H38" s="174"/>
-    </row>
-    <row r="39" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A39" s="165"/>
-      <c r="B39" s="165"/>
-      <c r="C39" s="164"/>
-      <c r="D39" s="164"/>
-      <c r="E39" s="164"/>
-      <c r="F39" s="164"/>
-      <c r="G39" s="164"/>
-      <c r="H39" s="164"/>
-    </row>
-    <row r="40" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A40" s="163" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" s="163"/>
-      <c r="C40" s="162"/>
-      <c r="D40" s="162"/>
-      <c r="E40" s="162"/>
-      <c r="F40" s="162"/>
-      <c r="G40" s="162"/>
-      <c r="H40" s="162"/>
-    </row>
-    <row r="41" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A41" s="173" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" s="160" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="277" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="284"/>
-      <c r="E41" s="278"/>
-      <c r="F41" s="277" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" s="285"/>
-      <c r="H41" s="295" t="s">
-        <v>14</v>
-      </c>
-      <c r="I41" s="296"/>
-      <c r="J41" s="296"/>
-    </row>
-    <row r="42" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A42" s="171"/>
-      <c r="B42" s="170"/>
-      <c r="C42" s="286" t="s">
-        <v>145</v>
-      </c>
-      <c r="D42" s="287"/>
-      <c r="E42" s="288"/>
-      <c r="F42" s="286" t="s">
-        <v>67</v>
-      </c>
-      <c r="G42" s="288"/>
-      <c r="H42" s="297" t="s">
-        <v>145</v>
-      </c>
-      <c r="I42" s="298"/>
-      <c r="J42" s="299"/>
-    </row>
-    <row r="43" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A43" s="168"/>
-      <c r="B43" s="167"/>
-      <c r="C43" s="289" t="s">
-        <v>146</v>
-      </c>
-      <c r="D43" s="290"/>
-      <c r="E43" s="291"/>
-      <c r="F43" s="286" t="s">
-        <v>68</v>
-      </c>
-      <c r="G43" s="288"/>
-      <c r="H43" s="300" t="s">
-        <v>146</v>
-      </c>
-      <c r="I43" s="301"/>
-      <c r="J43" s="301"/>
-    </row>
-    <row r="44" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A44" s="155"/>
-      <c r="B44" s="154"/>
-      <c r="C44" s="265"/>
-      <c r="D44" s="266"/>
-      <c r="E44" s="267"/>
-      <c r="F44" s="265"/>
-      <c r="G44" s="267"/>
-      <c r="H44" s="302"/>
-      <c r="I44" s="303"/>
-      <c r="J44" s="303"/>
-    </row>
-    <row r="45" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A45" s="155"/>
-      <c r="B45" s="154"/>
-      <c r="C45" s="265"/>
-      <c r="D45" s="266"/>
-      <c r="E45" s="267"/>
-      <c r="F45" s="265"/>
-      <c r="G45" s="267"/>
-      <c r="H45" s="302"/>
-      <c r="I45" s="303"/>
-      <c r="J45" s="303"/>
-    </row>
-    <row r="46" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A46" s="152"/>
-      <c r="B46" s="151"/>
-      <c r="C46" s="275"/>
-      <c r="D46" s="283"/>
-      <c r="E46" s="276"/>
-      <c r="F46" s="292"/>
-      <c r="G46" s="293"/>
-      <c r="H46" s="304"/>
-      <c r="I46" s="305"/>
-      <c r="J46" s="305"/>
-    </row>
-    <row r="47" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A47" s="165"/>
-      <c r="B47" s="165"/>
-      <c r="C47" s="164"/>
-      <c r="D47" s="164"/>
-      <c r="E47" s="164"/>
-      <c r="F47" s="164"/>
-      <c r="G47" s="164"/>
-      <c r="H47" s="164"/>
-    </row>
-    <row r="48" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A48" s="163" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48" s="163"/>
-      <c r="C48" s="162"/>
-      <c r="D48" s="162"/>
-      <c r="E48" s="162"/>
-      <c r="F48" s="162"/>
-      <c r="G48" s="162"/>
-      <c r="H48" s="162"/>
-    </row>
-    <row r="49" spans="1:10" s="158" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A49" s="161" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" s="160" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" s="277" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="284"/>
-      <c r="E49" s="278"/>
-      <c r="F49" s="271" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" s="294"/>
-      <c r="H49" s="159" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A50" s="157"/>
-      <c r="B50" s="156"/>
-      <c r="C50" s="289" t="s">
-        <v>147</v>
-      </c>
-      <c r="D50" s="290"/>
-      <c r="E50" s="291"/>
-      <c r="F50" s="260" t="s">
-        <v>69</v>
-      </c>
-      <c r="G50" s="262"/>
-      <c r="H50" s="289" t="s">
-        <v>147</v>
-      </c>
-      <c r="I50" s="290"/>
-      <c r="J50" s="291"/>
-    </row>
-    <row r="51" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A51" s="155"/>
-      <c r="B51" s="154"/>
-      <c r="C51" s="289" t="s">
-        <v>147</v>
-      </c>
-      <c r="D51" s="290"/>
-      <c r="E51" s="291"/>
-      <c r="F51" s="265" t="s">
-        <v>104</v>
-      </c>
-      <c r="G51" s="267"/>
-      <c r="H51" s="289" t="s">
-        <v>147</v>
-      </c>
-      <c r="I51" s="290"/>
-      <c r="J51" s="291"/>
-    </row>
-    <row r="52" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A52" s="155"/>
-      <c r="B52" s="154"/>
-      <c r="C52" s="265"/>
-      <c r="D52" s="266"/>
-      <c r="E52" s="267"/>
-      <c r="F52" s="265"/>
-      <c r="G52" s="267"/>
-      <c r="H52" s="153"/>
-    </row>
-    <row r="53" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A53" s="155"/>
-      <c r="B53" s="154"/>
-      <c r="C53" s="265"/>
-      <c r="D53" s="266"/>
-      <c r="E53" s="267"/>
-      <c r="F53" s="265"/>
-      <c r="G53" s="267"/>
-      <c r="H53" s="153"/>
-    </row>
-    <row r="54" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A54" s="152"/>
-      <c r="B54" s="151"/>
-      <c r="C54" s="275"/>
-      <c r="D54" s="283"/>
-      <c r="E54" s="276"/>
-      <c r="F54" s="292"/>
-      <c r="G54" s="293"/>
-      <c r="H54" s="150"/>
-    </row>
-  </sheetData>
-  <mergeCells count="62">
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3C3D43-7D57-3648-9D4F-54E54A62CDE8}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:J54"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" customWidth="1"/>
-    <col min="4" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="15">
-      <c r="A1" s="128" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="130"/>
-    </row>
-    <row r="2" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A2" s="135" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="135"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="143" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="147">
-        <v>43969</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A3" s="135" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="135"/>
-      <c r="C3" s="142"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="143"/>
-      <c r="G3" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="148">
-        <v>43971</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A4" s="135" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="135"/>
-      <c r="C4" s="142"/>
-      <c r="D4" s="142"/>
-      <c r="E4" s="143"/>
-      <c r="F4" s="143"/>
-      <c r="G4" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="93"/>
-    </row>
-    <row r="5" spans="1:8" s="26" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A5" s="50"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="50"/>
-    </row>
-    <row r="6" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A6" s="135" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="337" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="338"/>
-      <c r="E6" s="338"/>
-      <c r="F6" s="338"/>
-      <c r="G6" s="338"/>
-      <c r="H6" s="339"/>
-    </row>
-    <row r="7" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A7" s="135" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="337" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="338"/>
-      <c r="E7" s="338"/>
-      <c r="F7" s="338"/>
-      <c r="G7" s="338"/>
-      <c r="H7" s="339"/>
-    </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A8" s="135" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="337"/>
-      <c r="D8" s="338"/>
-      <c r="E8" s="338"/>
-      <c r="F8" s="338"/>
-      <c r="G8" s="338"/>
-      <c r="H8" s="339"/>
-    </row>
-    <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A9" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-    </row>
-    <row r="10" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A10" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="322" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="340"/>
-      <c r="E10" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A11" s="66">
-        <v>1</v>
-      </c>
-      <c r="B11" s="67" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="341" t="s">
-        <v>152</v>
-      </c>
-      <c r="D11" s="342"/>
-      <c r="E11" s="68" t="s">
-        <v>82</v>
-      </c>
-      <c r="F11" s="68" t="s">
-        <v>80</v>
-      </c>
-      <c r="G11" s="69"/>
-      <c r="H11" s="70" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A12" s="66">
-        <v>2</v>
-      </c>
-      <c r="B12" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="136" t="s">
-        <v>153</v>
-      </c>
-      <c r="D12" s="137"/>
-      <c r="E12" s="68" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" s="76" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="77"/>
-      <c r="H12" s="78"/>
-    </row>
-    <row r="13" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A13" s="71"/>
-      <c r="B13" s="75"/>
-      <c r="C13" s="136"/>
-      <c r="D13" s="137"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="78"/>
-    </row>
-    <row r="14" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A14" s="74"/>
-      <c r="B14" s="75"/>
-      <c r="C14" s="136"/>
-      <c r="D14" s="137"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="78"/>
-    </row>
-    <row r="15" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A15" s="74"/>
-      <c r="B15" s="75"/>
-      <c r="C15" s="136"/>
-      <c r="D15" s="137"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="78"/>
-    </row>
-    <row r="16" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A16" s="74"/>
-      <c r="B16" s="75"/>
-      <c r="C16" s="136"/>
-      <c r="D16" s="137"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="78"/>
-    </row>
-    <row r="17" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A17" s="74"/>
-      <c r="B17" s="75"/>
-      <c r="C17" s="136"/>
-      <c r="D17" s="137"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="78"/>
-    </row>
-    <row r="18" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A18" s="74"/>
-      <c r="B18" s="75"/>
-      <c r="C18" s="335"/>
-      <c r="D18" s="336"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="78"/>
-    </row>
-    <row r="19" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A19" s="74"/>
-      <c r="B19" s="75"/>
-      <c r="C19" s="335"/>
-      <c r="D19" s="336"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="78"/>
-    </row>
-    <row r="20" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A20" s="74"/>
-      <c r="B20" s="75"/>
-      <c r="C20" s="335"/>
-      <c r="D20" s="336"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="78"/>
-    </row>
-    <row r="21" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A21" s="74"/>
-      <c r="B21" s="75"/>
-      <c r="C21" s="335"/>
-      <c r="D21" s="336"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="78"/>
-    </row>
-    <row r="22" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A22" s="74"/>
-      <c r="B22" s="75"/>
-      <c r="C22" s="335"/>
-      <c r="D22" s="336"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="77"/>
-      <c r="H22" s="78"/>
-    </row>
-    <row r="23" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A23" s="74"/>
-      <c r="B23" s="75"/>
-      <c r="C23" s="335"/>
-      <c r="D23" s="336"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="78"/>
-    </row>
-    <row r="24" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A24" s="74"/>
-      <c r="B24" s="75"/>
-      <c r="C24" s="335"/>
-      <c r="D24" s="336"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="78"/>
-    </row>
-    <row r="25" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A25" s="74"/>
-      <c r="B25" s="75"/>
-      <c r="C25" s="335"/>
-      <c r="D25" s="336"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="78"/>
-    </row>
-    <row r="26" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A26" s="74"/>
-      <c r="B26" s="75"/>
-      <c r="C26" s="335"/>
-      <c r="D26" s="336"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="78"/>
-    </row>
-    <row r="27" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A27" s="74"/>
-      <c r="B27" s="75"/>
-      <c r="C27" s="335"/>
-      <c r="D27" s="336"/>
-      <c r="E27" s="76"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="78"/>
-    </row>
-    <row r="28" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A28" s="74"/>
-      <c r="B28" s="75"/>
-      <c r="C28" s="335"/>
-      <c r="D28" s="336"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="77"/>
-      <c r="H28" s="78"/>
-    </row>
-    <row r="29" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A29" s="74"/>
-      <c r="B29" s="75"/>
-      <c r="C29" s="335"/>
-      <c r="D29" s="336"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="77"/>
-      <c r="H29" s="78"/>
-    </row>
-    <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A30" s="79"/>
-      <c r="B30" s="144"/>
-      <c r="C30" s="309"/>
-      <c r="D30" s="311"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="81"/>
-      <c r="H30" s="82"/>
-    </row>
-    <row r="31" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A31" s="58"/>
-      <c r="B31" s="58"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-    </row>
-    <row r="32" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A32" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="54"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="60"/>
-    </row>
-    <row r="33" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A33" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="319" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="321"/>
-      <c r="D33" s="138" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="140"/>
-      <c r="F33" s="141"/>
-      <c r="G33" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="H33" s="63" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A34" s="66"/>
-      <c r="B34" s="332"/>
-      <c r="C34" s="333"/>
-      <c r="D34" s="317"/>
-      <c r="E34" s="334"/>
-      <c r="F34" s="318"/>
-      <c r="G34" s="69"/>
-      <c r="H34" s="70"/>
-    </row>
-    <row r="35" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A35" s="71"/>
-      <c r="B35" s="327"/>
-      <c r="C35" s="328"/>
-      <c r="D35" s="306"/>
-      <c r="E35" s="307"/>
-      <c r="F35" s="308"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="73"/>
-    </row>
-    <row r="36" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A36" s="71"/>
-      <c r="B36" s="327"/>
-      <c r="C36" s="328"/>
-      <c r="D36" s="306"/>
-      <c r="E36" s="307"/>
-      <c r="F36" s="308"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="73"/>
-    </row>
-    <row r="37" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A37" s="71"/>
-      <c r="B37" s="327"/>
-      <c r="C37" s="328"/>
-      <c r="D37" s="306"/>
-      <c r="E37" s="307"/>
-      <c r="F37" s="308"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="73"/>
-    </row>
-    <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A38" s="79"/>
-      <c r="B38" s="329"/>
-      <c r="C38" s="330"/>
-      <c r="D38" s="309"/>
-      <c r="E38" s="310"/>
-      <c r="F38" s="311"/>
-      <c r="G38" s="81"/>
-      <c r="H38" s="82"/>
-    </row>
-    <row r="39" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A39" s="58"/>
-      <c r="B39" s="58"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="59"/>
-      <c r="H39" s="59"/>
-    </row>
-    <row r="40" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A40" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" s="54"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="60"/>
-      <c r="H40" s="60"/>
-    </row>
-    <row r="41" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A41" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="319" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="320"/>
-      <c r="E41" s="321"/>
-      <c r="F41" s="319" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" s="331"/>
-      <c r="H41" s="63" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A42" s="94"/>
-      <c r="B42" s="95"/>
-      <c r="C42" s="324"/>
-      <c r="D42" s="325"/>
-      <c r="E42" s="326"/>
-      <c r="F42" s="324"/>
-      <c r="G42" s="326"/>
-      <c r="H42" s="96"/>
-    </row>
-    <row r="43" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A43" s="97"/>
-      <c r="B43" s="98"/>
-      <c r="C43" s="314"/>
-      <c r="D43" s="315"/>
-      <c r="E43" s="316"/>
-      <c r="F43" s="314"/>
-      <c r="G43" s="316"/>
-      <c r="H43" s="99"/>
-    </row>
-    <row r="44" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A44" s="86"/>
-      <c r="B44" s="87"/>
-      <c r="C44" s="306"/>
-      <c r="D44" s="307"/>
-      <c r="E44" s="308"/>
-      <c r="F44" s="306"/>
-      <c r="G44" s="308"/>
-      <c r="H44" s="88"/>
-    </row>
-    <row r="45" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A45" s="86"/>
-      <c r="B45" s="87"/>
-      <c r="C45" s="306"/>
-      <c r="D45" s="307"/>
-      <c r="E45" s="308"/>
-      <c r="F45" s="306"/>
-      <c r="G45" s="308"/>
-      <c r="H45" s="88"/>
-    </row>
-    <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A46" s="89"/>
-      <c r="B46" s="139"/>
-      <c r="C46" s="309"/>
-      <c r="D46" s="310"/>
-      <c r="E46" s="311"/>
-      <c r="F46" s="312"/>
-      <c r="G46" s="313"/>
-      <c r="H46" s="90"/>
-    </row>
-    <row r="47" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A47" s="58"/>
-      <c r="B47" s="58"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="59"/>
-      <c r="E47" s="59"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="59"/>
-      <c r="H47" s="59"/>
-    </row>
-    <row r="48" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A48" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48" s="54"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="60"/>
-      <c r="H48" s="60"/>
-    </row>
-    <row r="49" spans="1:10" s="25" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A49" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" s="319" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="320"/>
-      <c r="E49" s="321"/>
-      <c r="F49" s="322" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" s="323"/>
-      <c r="H49" s="57" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A50" s="83"/>
-      <c r="B50" s="84"/>
-      <c r="C50" s="314" t="s">
-        <v>146</v>
-      </c>
-      <c r="D50" s="315"/>
-      <c r="E50" s="316"/>
-      <c r="F50" s="317" t="s">
-        <v>66</v>
-      </c>
-      <c r="G50" s="318"/>
-      <c r="H50" s="314" t="s">
-        <v>146</v>
-      </c>
-      <c r="I50" s="315"/>
-      <c r="J50" s="316"/>
-    </row>
-    <row r="51" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A51" s="86"/>
-      <c r="B51" s="87"/>
-      <c r="C51" s="306"/>
-      <c r="D51" s="307"/>
-      <c r="E51" s="308"/>
-      <c r="F51" s="306"/>
-      <c r="G51" s="308"/>
-      <c r="H51" s="88"/>
-    </row>
-    <row r="52" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A52" s="86"/>
-      <c r="B52" s="87"/>
-      <c r="C52" s="306"/>
-      <c r="D52" s="307"/>
-      <c r="E52" s="308"/>
-      <c r="F52" s="306"/>
-      <c r="G52" s="308"/>
-      <c r="H52" s="88"/>
-    </row>
-    <row r="53" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A53" s="86"/>
-      <c r="B53" s="87"/>
-      <c r="C53" s="306"/>
-      <c r="D53" s="307"/>
-      <c r="E53" s="308"/>
-      <c r="F53" s="306"/>
-      <c r="G53" s="308"/>
-      <c r="H53" s="88"/>
-    </row>
-    <row r="54" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A54" s="89"/>
-      <c r="B54" s="139"/>
-      <c r="C54" s="309"/>
-      <c r="D54" s="310"/>
-      <c r="E54" s="311"/>
-      <c r="F54" s="312"/>
-      <c r="G54" s="313"/>
-      <c r="H54" s="90"/>
-    </row>
-  </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="H50:J50"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="C7:H7"/>
@@ -9637,6 +8050,1549 @@
     <mergeCell ref="F46:G46"/>
     <mergeCell ref="C49:E49"/>
     <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7098C011-6A9E-D048-A636-998168CA356E}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J54"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" style="149" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="149" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" style="149" customWidth="1"/>
+    <col min="4" max="6" width="13.5" style="149" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" style="149" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" style="149" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="149"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15">
+      <c r="A1" s="210" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="209"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="208"/>
+    </row>
+    <row r="2" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A2" s="199" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="199"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="204" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="205" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="204" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="147">
+        <v>43969</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A3" s="199" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="199"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="205"/>
+      <c r="E3" s="204" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="205"/>
+      <c r="G3" s="204" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="213">
+        <v>43971</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A4" s="199" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="199"/>
+      <c r="C4" s="206"/>
+      <c r="D4" s="206"/>
+      <c r="E4" s="205"/>
+      <c r="F4" s="205"/>
+      <c r="G4" s="204" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="203"/>
+    </row>
+    <row r="5" spans="1:8" s="200" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A5" s="201"/>
+      <c r="B5" s="201"/>
+      <c r="C5" s="201"/>
+      <c r="D5" s="201"/>
+      <c r="E5" s="201"/>
+      <c r="F5" s="201"/>
+      <c r="G5" s="202"/>
+      <c r="H5" s="201"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A6" s="199" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="198"/>
+      <c r="C6" s="289"/>
+      <c r="D6" s="290"/>
+      <c r="E6" s="290"/>
+      <c r="F6" s="290"/>
+      <c r="G6" s="290"/>
+      <c r="H6" s="291"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A7" s="199" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="198"/>
+      <c r="C7" s="289"/>
+      <c r="D7" s="290"/>
+      <c r="E7" s="290"/>
+      <c r="F7" s="290"/>
+      <c r="G7" s="290"/>
+      <c r="H7" s="291"/>
+    </row>
+    <row r="8" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A8" s="199" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="198"/>
+      <c r="C8" s="289"/>
+      <c r="D8" s="290"/>
+      <c r="E8" s="290"/>
+      <c r="F8" s="290"/>
+      <c r="G8" s="290"/>
+      <c r="H8" s="291"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A9" s="163" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="163"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="163"/>
+      <c r="H9" s="163"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A10" s="161" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="197" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="274" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="292"/>
+      <c r="E10" s="197" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="197" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="197" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="159" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A11" s="182">
+        <v>1</v>
+      </c>
+      <c r="B11" s="196" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="293" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="294"/>
+      <c r="E11" s="193" t="s">
+        <v>166</v>
+      </c>
+      <c r="F11" s="193" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="181"/>
+      <c r="H11" s="180" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A12" s="179">
+        <v>2</v>
+      </c>
+      <c r="B12" s="191" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="195" t="s">
+        <v>149</v>
+      </c>
+      <c r="D12" s="194"/>
+      <c r="E12" s="193" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="190" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="189"/>
+      <c r="H12" s="188"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A13" s="179">
+        <v>3</v>
+      </c>
+      <c r="B13" s="191" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="195" t="s">
+        <v>167</v>
+      </c>
+      <c r="D13" s="194"/>
+      <c r="E13" s="190" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" s="190" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="189"/>
+      <c r="H13" s="188"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A14" s="192">
+        <v>4</v>
+      </c>
+      <c r="B14" s="191" t="s">
+        <v>164</v>
+      </c>
+      <c r="C14" s="195" t="s">
+        <v>165</v>
+      </c>
+      <c r="D14" s="194"/>
+      <c r="E14" s="193" t="s">
+        <v>172</v>
+      </c>
+      <c r="F14" s="190"/>
+      <c r="G14" s="189"/>
+      <c r="H14" s="188"/>
+    </row>
+    <row r="15" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A15" s="192">
+        <v>5</v>
+      </c>
+      <c r="B15" s="191" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="195" t="s">
+        <v>168</v>
+      </c>
+      <c r="D15" s="194"/>
+      <c r="E15" s="212" t="s">
+        <v>169</v>
+      </c>
+      <c r="F15" s="190" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="189"/>
+      <c r="H15" s="188"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A16" s="192">
+        <v>6</v>
+      </c>
+      <c r="B16" s="191" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="195" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16" s="194"/>
+      <c r="E16" s="190" t="s">
+        <v>171</v>
+      </c>
+      <c r="F16" s="190" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="189" t="s">
+        <v>175</v>
+      </c>
+      <c r="H16" s="188" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A17" s="192">
+        <v>7</v>
+      </c>
+      <c r="B17" s="191" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="293" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" s="294"/>
+      <c r="E17" s="193" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="190" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="189"/>
+      <c r="H17" s="188" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A18" s="192">
+        <v>8</v>
+      </c>
+      <c r="B18" s="191" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="284" t="s">
+        <v>151</v>
+      </c>
+      <c r="D18" s="285"/>
+      <c r="E18" s="193" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="190" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" s="189"/>
+      <c r="H18" s="188" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A19" s="192"/>
+      <c r="B19" s="191"/>
+      <c r="C19" s="284"/>
+      <c r="D19" s="285"/>
+      <c r="E19" s="190"/>
+      <c r="F19" s="190"/>
+      <c r="G19" s="189"/>
+      <c r="H19" s="188"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A20" s="192"/>
+      <c r="B20" s="191"/>
+      <c r="C20" s="284"/>
+      <c r="D20" s="285"/>
+      <c r="E20" s="190"/>
+      <c r="F20" s="190"/>
+      <c r="G20" s="189"/>
+      <c r="H20" s="188"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A21" s="192"/>
+      <c r="B21" s="191"/>
+      <c r="C21" s="284"/>
+      <c r="D21" s="285"/>
+      <c r="E21" s="190"/>
+      <c r="F21" s="190"/>
+      <c r="G21" s="189"/>
+      <c r="H21" s="188"/>
+    </row>
+    <row r="22" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A22" s="192"/>
+      <c r="B22" s="191"/>
+      <c r="C22" s="284"/>
+      <c r="D22" s="285"/>
+      <c r="E22" s="190"/>
+      <c r="F22" s="190"/>
+      <c r="G22" s="189"/>
+      <c r="H22" s="188"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A23" s="192"/>
+      <c r="B23" s="191"/>
+      <c r="C23" s="284"/>
+      <c r="D23" s="285"/>
+      <c r="E23" s="190"/>
+      <c r="F23" s="190"/>
+      <c r="G23" s="189"/>
+      <c r="H23" s="188"/>
+    </row>
+    <row r="24" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A24" s="192"/>
+      <c r="B24" s="191"/>
+      <c r="C24" s="284"/>
+      <c r="D24" s="285"/>
+      <c r="E24" s="190"/>
+      <c r="F24" s="190"/>
+      <c r="G24" s="189"/>
+      <c r="H24" s="188"/>
+    </row>
+    <row r="25" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A25" s="192"/>
+      <c r="B25" s="191"/>
+      <c r="C25" s="284"/>
+      <c r="D25" s="285"/>
+      <c r="E25" s="190"/>
+      <c r="F25" s="190"/>
+      <c r="G25" s="189"/>
+      <c r="H25" s="188"/>
+    </row>
+    <row r="26" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A26" s="192"/>
+      <c r="B26" s="191"/>
+      <c r="C26" s="284"/>
+      <c r="D26" s="285"/>
+      <c r="E26" s="190"/>
+      <c r="F26" s="190"/>
+      <c r="G26" s="189"/>
+      <c r="H26" s="188"/>
+    </row>
+    <row r="27" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A27" s="192"/>
+      <c r="B27" s="191"/>
+      <c r="C27" s="284"/>
+      <c r="D27" s="285"/>
+      <c r="E27" s="190"/>
+      <c r="F27" s="190"/>
+      <c r="G27" s="189"/>
+      <c r="H27" s="188"/>
+    </row>
+    <row r="28" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A28" s="192"/>
+      <c r="B28" s="191"/>
+      <c r="C28" s="284"/>
+      <c r="D28" s="285"/>
+      <c r="E28" s="190"/>
+      <c r="F28" s="190"/>
+      <c r="G28" s="189"/>
+      <c r="H28" s="188"/>
+    </row>
+    <row r="29" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A29" s="192"/>
+      <c r="B29" s="191"/>
+      <c r="C29" s="284"/>
+      <c r="D29" s="285"/>
+      <c r="E29" s="190"/>
+      <c r="F29" s="190"/>
+      <c r="G29" s="189"/>
+      <c r="H29" s="188"/>
+    </row>
+    <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A30" s="176"/>
+      <c r="B30" s="187"/>
+      <c r="C30" s="261"/>
+      <c r="D30" s="263"/>
+      <c r="E30" s="186"/>
+      <c r="F30" s="186"/>
+      <c r="G30" s="175"/>
+      <c r="H30" s="174"/>
+    </row>
+    <row r="31" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A31" s="165"/>
+      <c r="B31" s="165"/>
+      <c r="C31" s="164"/>
+      <c r="D31" s="164"/>
+      <c r="E31" s="164"/>
+      <c r="F31" s="164"/>
+      <c r="G31" s="164"/>
+      <c r="H31" s="164"/>
+    </row>
+    <row r="32" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A32" s="163" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="163"/>
+      <c r="C32" s="162"/>
+      <c r="D32" s="162"/>
+      <c r="E32" s="162"/>
+      <c r="F32" s="162"/>
+      <c r="G32" s="162"/>
+      <c r="H32" s="162"/>
+    </row>
+    <row r="33" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A33" s="173" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="271" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="273"/>
+      <c r="D33" s="185" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="184"/>
+      <c r="F33" s="183"/>
+      <c r="G33" s="160" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="172" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A34" s="182"/>
+      <c r="B34" s="286"/>
+      <c r="C34" s="287"/>
+      <c r="D34" s="269"/>
+      <c r="E34" s="288"/>
+      <c r="F34" s="270"/>
+      <c r="G34" s="181"/>
+      <c r="H34" s="180"/>
+    </row>
+    <row r="35" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A35" s="179"/>
+      <c r="B35" s="279"/>
+      <c r="C35" s="280"/>
+      <c r="D35" s="258"/>
+      <c r="E35" s="259"/>
+      <c r="F35" s="260"/>
+      <c r="G35" s="178"/>
+      <c r="H35" s="177"/>
+    </row>
+    <row r="36" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A36" s="179"/>
+      <c r="B36" s="279"/>
+      <c r="C36" s="280"/>
+      <c r="D36" s="258"/>
+      <c r="E36" s="259"/>
+      <c r="F36" s="260"/>
+      <c r="G36" s="178"/>
+      <c r="H36" s="177"/>
+    </row>
+    <row r="37" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A37" s="179"/>
+      <c r="B37" s="279"/>
+      <c r="C37" s="280"/>
+      <c r="D37" s="258"/>
+      <c r="E37" s="259"/>
+      <c r="F37" s="260"/>
+      <c r="G37" s="178"/>
+      <c r="H37" s="177"/>
+    </row>
+    <row r="38" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A38" s="176"/>
+      <c r="B38" s="281"/>
+      <c r="C38" s="282"/>
+      <c r="D38" s="261"/>
+      <c r="E38" s="262"/>
+      <c r="F38" s="263"/>
+      <c r="G38" s="175"/>
+      <c r="H38" s="174"/>
+    </row>
+    <row r="39" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A39" s="165"/>
+      <c r="B39" s="165"/>
+      <c r="C39" s="164"/>
+      <c r="D39" s="164"/>
+      <c r="E39" s="164"/>
+      <c r="F39" s="164"/>
+      <c r="G39" s="164"/>
+      <c r="H39" s="164"/>
+    </row>
+    <row r="40" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A40" s="163" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="163"/>
+      <c r="C40" s="162"/>
+      <c r="D40" s="162"/>
+      <c r="E40" s="162"/>
+      <c r="F40" s="162"/>
+      <c r="G40" s="162"/>
+      <c r="H40" s="162"/>
+    </row>
+    <row r="41" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A41" s="173" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="160" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="271" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="272"/>
+      <c r="E41" s="273"/>
+      <c r="F41" s="271" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="283"/>
+      <c r="H41" s="301" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" s="302"/>
+      <c r="J41" s="302"/>
+    </row>
+    <row r="42" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A42" s="171"/>
+      <c r="B42" s="170"/>
+      <c r="C42" s="266" t="s">
+        <v>145</v>
+      </c>
+      <c r="D42" s="267"/>
+      <c r="E42" s="268"/>
+      <c r="F42" s="266" t="s">
+        <v>67</v>
+      </c>
+      <c r="G42" s="268"/>
+      <c r="H42" s="303" t="s">
+        <v>145</v>
+      </c>
+      <c r="I42" s="304"/>
+      <c r="J42" s="305"/>
+    </row>
+    <row r="43" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A43" s="168"/>
+      <c r="B43" s="167"/>
+      <c r="C43" s="276" t="s">
+        <v>146</v>
+      </c>
+      <c r="D43" s="277"/>
+      <c r="E43" s="278"/>
+      <c r="F43" s="266" t="s">
+        <v>68</v>
+      </c>
+      <c r="G43" s="268"/>
+      <c r="H43" s="299" t="s">
+        <v>146</v>
+      </c>
+      <c r="I43" s="300"/>
+      <c r="J43" s="300"/>
+    </row>
+    <row r="44" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A44" s="155"/>
+      <c r="B44" s="154"/>
+      <c r="C44" s="258"/>
+      <c r="D44" s="259"/>
+      <c r="E44" s="260"/>
+      <c r="F44" s="258"/>
+      <c r="G44" s="260"/>
+      <c r="H44" s="295"/>
+      <c r="I44" s="296"/>
+      <c r="J44" s="296"/>
+    </row>
+    <row r="45" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A45" s="155"/>
+      <c r="B45" s="154"/>
+      <c r="C45" s="258"/>
+      <c r="D45" s="259"/>
+      <c r="E45" s="260"/>
+      <c r="F45" s="258"/>
+      <c r="G45" s="260"/>
+      <c r="H45" s="295"/>
+      <c r="I45" s="296"/>
+      <c r="J45" s="296"/>
+    </row>
+    <row r="46" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A46" s="152"/>
+      <c r="B46" s="151"/>
+      <c r="C46" s="261"/>
+      <c r="D46" s="262"/>
+      <c r="E46" s="263"/>
+      <c r="F46" s="264"/>
+      <c r="G46" s="265"/>
+      <c r="H46" s="297"/>
+      <c r="I46" s="298"/>
+      <c r="J46" s="298"/>
+    </row>
+    <row r="47" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A47" s="165"/>
+      <c r="B47" s="165"/>
+      <c r="C47" s="164"/>
+      <c r="D47" s="164"/>
+      <c r="E47" s="164"/>
+      <c r="F47" s="164"/>
+      <c r="G47" s="164"/>
+      <c r="H47" s="164"/>
+    </row>
+    <row r="48" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A48" s="163" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="163"/>
+      <c r="C48" s="162"/>
+      <c r="D48" s="162"/>
+      <c r="E48" s="162"/>
+      <c r="F48" s="162"/>
+      <c r="G48" s="162"/>
+      <c r="H48" s="162"/>
+    </row>
+    <row r="49" spans="1:10" s="158" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A49" s="161" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="160" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="271" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="272"/>
+      <c r="E49" s="273"/>
+      <c r="F49" s="274" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" s="275"/>
+      <c r="H49" s="159" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A50" s="157"/>
+      <c r="B50" s="156"/>
+      <c r="C50" s="276" t="s">
+        <v>147</v>
+      </c>
+      <c r="D50" s="277"/>
+      <c r="E50" s="278"/>
+      <c r="F50" s="269" t="s">
+        <v>69</v>
+      </c>
+      <c r="G50" s="270"/>
+      <c r="H50" s="276" t="s">
+        <v>147</v>
+      </c>
+      <c r="I50" s="277"/>
+      <c r="J50" s="278"/>
+    </row>
+    <row r="51" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A51" s="155"/>
+      <c r="B51" s="154"/>
+      <c r="C51" s="276" t="s">
+        <v>147</v>
+      </c>
+      <c r="D51" s="277"/>
+      <c r="E51" s="278"/>
+      <c r="F51" s="258" t="s">
+        <v>104</v>
+      </c>
+      <c r="G51" s="260"/>
+      <c r="H51" s="276" t="s">
+        <v>147</v>
+      </c>
+      <c r="I51" s="277"/>
+      <c r="J51" s="278"/>
+    </row>
+    <row r="52" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A52" s="155"/>
+      <c r="B52" s="154"/>
+      <c r="C52" s="258"/>
+      <c r="D52" s="259"/>
+      <c r="E52" s="260"/>
+      <c r="F52" s="258"/>
+      <c r="G52" s="260"/>
+      <c r="H52" s="153"/>
+    </row>
+    <row r="53" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A53" s="155"/>
+      <c r="B53" s="154"/>
+      <c r="C53" s="258"/>
+      <c r="D53" s="259"/>
+      <c r="E53" s="260"/>
+      <c r="F53" s="258"/>
+      <c r="G53" s="260"/>
+      <c r="H53" s="153"/>
+    </row>
+    <row r="54" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A54" s="152"/>
+      <c r="B54" s="151"/>
+      <c r="C54" s="261"/>
+      <c r="D54" s="262"/>
+      <c r="E54" s="263"/>
+      <c r="F54" s="264"/>
+      <c r="G54" s="265"/>
+      <c r="H54" s="150"/>
+    </row>
+  </sheetData>
+  <mergeCells count="62">
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3C3D43-7D57-3648-9D4F-54E54A62CDE8}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="4" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15">
+      <c r="A1" s="128" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="130"/>
+    </row>
+    <row r="2" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A2" s="135" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="135"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="143" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="147">
+        <v>43969</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A3" s="135" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="135"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="143"/>
+      <c r="G3" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="148">
+        <v>43971</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A4" s="135" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="135"/>
+      <c r="C4" s="142"/>
+      <c r="D4" s="142"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="143"/>
+      <c r="G4" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="93"/>
+    </row>
+    <row r="5" spans="1:8" s="26" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A5" s="50"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="50"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A6" s="135" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="53"/>
+      <c r="C6" s="311" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="312"/>
+      <c r="E6" s="312"/>
+      <c r="F6" s="312"/>
+      <c r="G6" s="312"/>
+      <c r="H6" s="313"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A7" s="135" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="53"/>
+      <c r="C7" s="311" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="312"/>
+      <c r="E7" s="312"/>
+      <c r="F7" s="312"/>
+      <c r="G7" s="312"/>
+      <c r="H7" s="313"/>
+    </row>
+    <row r="8" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A8" s="135" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="53"/>
+      <c r="C8" s="311"/>
+      <c r="D8" s="312"/>
+      <c r="E8" s="312"/>
+      <c r="F8" s="312"/>
+      <c r="G8" s="312"/>
+      <c r="H8" s="313"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A9" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A10" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="314" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="315"/>
+      <c r="E10" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A11" s="66">
+        <v>1</v>
+      </c>
+      <c r="B11" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="316" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11" s="317"/>
+      <c r="E11" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="69"/>
+      <c r="H11" s="70" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A12" s="66">
+        <v>2</v>
+      </c>
+      <c r="B12" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="136" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12" s="137"/>
+      <c r="E12" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="77"/>
+      <c r="H12" s="78"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A13" s="71"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="136"/>
+      <c r="D13" s="137"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="78"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A14" s="74"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="136"/>
+      <c r="D14" s="137"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="78"/>
+    </row>
+    <row r="15" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A15" s="74"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="136"/>
+      <c r="D15" s="137"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="78"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A16" s="74"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="136"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="78"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A17" s="74"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="137"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="78"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A18" s="74"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="309"/>
+      <c r="D18" s="310"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="78"/>
+    </row>
+    <row r="19" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A19" s="74"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="309"/>
+      <c r="D19" s="310"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="78"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A20" s="74"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="309"/>
+      <c r="D20" s="310"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="78"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A21" s="74"/>
+      <c r="B21" s="75"/>
+      <c r="C21" s="309"/>
+      <c r="D21" s="310"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="78"/>
+    </row>
+    <row r="22" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A22" s="74"/>
+      <c r="B22" s="75"/>
+      <c r="C22" s="309"/>
+      <c r="D22" s="310"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="78"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A23" s="74"/>
+      <c r="B23" s="75"/>
+      <c r="C23" s="309"/>
+      <c r="D23" s="310"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="78"/>
+    </row>
+    <row r="24" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A24" s="74"/>
+      <c r="B24" s="75"/>
+      <c r="C24" s="309"/>
+      <c r="D24" s="310"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="78"/>
+    </row>
+    <row r="25" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A25" s="74"/>
+      <c r="B25" s="75"/>
+      <c r="C25" s="309"/>
+      <c r="D25" s="310"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="78"/>
+    </row>
+    <row r="26" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A26" s="74"/>
+      <c r="B26" s="75"/>
+      <c r="C26" s="309"/>
+      <c r="D26" s="310"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="78"/>
+    </row>
+    <row r="27" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A27" s="74"/>
+      <c r="B27" s="75"/>
+      <c r="C27" s="309"/>
+      <c r="D27" s="310"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="78"/>
+    </row>
+    <row r="28" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A28" s="74"/>
+      <c r="B28" s="75"/>
+      <c r="C28" s="309"/>
+      <c r="D28" s="310"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="78"/>
+    </row>
+    <row r="29" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A29" s="74"/>
+      <c r="B29" s="75"/>
+      <c r="C29" s="309"/>
+      <c r="D29" s="310"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="78"/>
+    </row>
+    <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A30" s="79"/>
+      <c r="B30" s="144"/>
+      <c r="C30" s="323"/>
+      <c r="D30" s="324"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="81"/>
+      <c r="H30" s="82"/>
+    </row>
+    <row r="31" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A31" s="58"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+    </row>
+    <row r="32" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A32" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="54"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+    </row>
+    <row r="33" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A33" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="325" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="326"/>
+      <c r="D33" s="138" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="140"/>
+      <c r="F33" s="141"/>
+      <c r="G33" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="63" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A34" s="66"/>
+      <c r="B34" s="327"/>
+      <c r="C34" s="328"/>
+      <c r="D34" s="329"/>
+      <c r="E34" s="330"/>
+      <c r="F34" s="331"/>
+      <c r="G34" s="69"/>
+      <c r="H34" s="70"/>
+    </row>
+    <row r="35" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A35" s="71"/>
+      <c r="B35" s="318"/>
+      <c r="C35" s="319"/>
+      <c r="D35" s="320"/>
+      <c r="E35" s="321"/>
+      <c r="F35" s="322"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="73"/>
+    </row>
+    <row r="36" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A36" s="71"/>
+      <c r="B36" s="318"/>
+      <c r="C36" s="319"/>
+      <c r="D36" s="320"/>
+      <c r="E36" s="321"/>
+      <c r="F36" s="322"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="73"/>
+    </row>
+    <row r="37" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A37" s="71"/>
+      <c r="B37" s="318"/>
+      <c r="C37" s="319"/>
+      <c r="D37" s="320"/>
+      <c r="E37" s="321"/>
+      <c r="F37" s="322"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="73"/>
+    </row>
+    <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A38" s="79"/>
+      <c r="B38" s="332"/>
+      <c r="C38" s="333"/>
+      <c r="D38" s="323"/>
+      <c r="E38" s="334"/>
+      <c r="F38" s="324"/>
+      <c r="G38" s="81"/>
+      <c r="H38" s="82"/>
+    </row>
+    <row r="39" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A39" s="58"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="59"/>
+    </row>
+    <row r="40" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A40" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="54"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="60"/>
+    </row>
+    <row r="41" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A41" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="325" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="335"/>
+      <c r="E41" s="326"/>
+      <c r="F41" s="325" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="336"/>
+      <c r="H41" s="63" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A42" s="94"/>
+      <c r="B42" s="95"/>
+      <c r="C42" s="337"/>
+      <c r="D42" s="338"/>
+      <c r="E42" s="339"/>
+      <c r="F42" s="337"/>
+      <c r="G42" s="339"/>
+      <c r="H42" s="96"/>
+    </row>
+    <row r="43" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A43" s="97"/>
+      <c r="B43" s="98"/>
+      <c r="C43" s="306"/>
+      <c r="D43" s="307"/>
+      <c r="E43" s="308"/>
+      <c r="F43" s="306"/>
+      <c r="G43" s="308"/>
+      <c r="H43" s="99"/>
+    </row>
+    <row r="44" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A44" s="86"/>
+      <c r="B44" s="87"/>
+      <c r="C44" s="320"/>
+      <c r="D44" s="321"/>
+      <c r="E44" s="322"/>
+      <c r="F44" s="320"/>
+      <c r="G44" s="322"/>
+      <c r="H44" s="88"/>
+    </row>
+    <row r="45" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A45" s="86"/>
+      <c r="B45" s="87"/>
+      <c r="C45" s="320"/>
+      <c r="D45" s="321"/>
+      <c r="E45" s="322"/>
+      <c r="F45" s="320"/>
+      <c r="G45" s="322"/>
+      <c r="H45" s="88"/>
+    </row>
+    <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A46" s="89"/>
+      <c r="B46" s="139"/>
+      <c r="C46" s="323"/>
+      <c r="D46" s="334"/>
+      <c r="E46" s="324"/>
+      <c r="F46" s="340"/>
+      <c r="G46" s="341"/>
+      <c r="H46" s="90"/>
+    </row>
+    <row r="47" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A47" s="58"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="59"/>
+      <c r="H47" s="59"/>
+    </row>
+    <row r="48" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A48" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="54"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="60"/>
+      <c r="H48" s="60"/>
+    </row>
+    <row r="49" spans="1:10" s="25" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A49" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="325" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="335"/>
+      <c r="E49" s="326"/>
+      <c r="F49" s="314" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" s="342"/>
+      <c r="H49" s="57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A50" s="83"/>
+      <c r="B50" s="84"/>
+      <c r="C50" s="306" t="s">
+        <v>146</v>
+      </c>
+      <c r="D50" s="307"/>
+      <c r="E50" s="308"/>
+      <c r="F50" s="329" t="s">
+        <v>66</v>
+      </c>
+      <c r="G50" s="331"/>
+      <c r="H50" s="306" t="s">
+        <v>146</v>
+      </c>
+      <c r="I50" s="307"/>
+      <c r="J50" s="308"/>
+    </row>
+    <row r="51" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A51" s="86"/>
+      <c r="B51" s="87"/>
+      <c r="C51" s="320"/>
+      <c r="D51" s="321"/>
+      <c r="E51" s="322"/>
+      <c r="F51" s="320"/>
+      <c r="G51" s="322"/>
+      <c r="H51" s="88"/>
+    </row>
+    <row r="52" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A52" s="86"/>
+      <c r="B52" s="87"/>
+      <c r="C52" s="320"/>
+      <c r="D52" s="321"/>
+      <c r="E52" s="322"/>
+      <c r="F52" s="320"/>
+      <c r="G52" s="322"/>
+      <c r="H52" s="88"/>
+    </row>
+    <row r="53" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A53" s="86"/>
+      <c r="B53" s="87"/>
+      <c r="C53" s="320"/>
+      <c r="D53" s="321"/>
+      <c r="E53" s="322"/>
+      <c r="F53" s="320"/>
+      <c r="G53" s="322"/>
+      <c r="H53" s="88"/>
+    </row>
+    <row r="54" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A54" s="89"/>
+      <c r="B54" s="139"/>
+      <c r="C54" s="323"/>
+      <c r="D54" s="334"/>
+      <c r="E54" s="324"/>
+      <c r="F54" s="340"/>
+      <c r="G54" s="341"/>
+      <c r="H54" s="90"/>
+    </row>
+  </sheetData>
+  <mergeCells count="54">
     <mergeCell ref="C53:E53"/>
     <mergeCell ref="F53:G53"/>
     <mergeCell ref="C54:E54"/>
@@ -9647,6 +9603,50 @@
     <mergeCell ref="F51:G51"/>
     <mergeCell ref="C52:E52"/>
     <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="C25:D25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9755,40 +9755,40 @@
         <v>47</v>
       </c>
       <c r="B6" s="53"/>
-      <c r="C6" s="337" t="s">
+      <c r="C6" s="311" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="338"/>
-      <c r="E6" s="338"/>
-      <c r="F6" s="338"/>
-      <c r="G6" s="338"/>
-      <c r="H6" s="339"/>
+      <c r="D6" s="312"/>
+      <c r="E6" s="312"/>
+      <c r="F6" s="312"/>
+      <c r="G6" s="312"/>
+      <c r="H6" s="313"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="135" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="53"/>
-      <c r="C7" s="337" t="s">
+      <c r="C7" s="311" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="338"/>
-      <c r="E7" s="338"/>
-      <c r="F7" s="338"/>
-      <c r="G7" s="338"/>
-      <c r="H7" s="339"/>
+      <c r="D7" s="312"/>
+      <c r="E7" s="312"/>
+      <c r="F7" s="312"/>
+      <c r="G7" s="312"/>
+      <c r="H7" s="313"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="135" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="53"/>
-      <c r="C8" s="337"/>
-      <c r="D8" s="338"/>
-      <c r="E8" s="338"/>
-      <c r="F8" s="338"/>
-      <c r="G8" s="338"/>
-      <c r="H8" s="339"/>
+      <c r="C8" s="311"/>
+      <c r="D8" s="312"/>
+      <c r="E8" s="312"/>
+      <c r="F8" s="312"/>
+      <c r="G8" s="312"/>
+      <c r="H8" s="313"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="54" t="s">
@@ -9809,10 +9809,10 @@
       <c r="B10" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="322" t="s">
+      <c r="C10" s="314" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="340"/>
+      <c r="D10" s="315"/>
       <c r="E10" s="56" t="s">
         <v>1</v>
       </c>
@@ -9833,10 +9833,10 @@
       <c r="B11" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="341" t="s">
+      <c r="C11" s="316" t="s">
         <v>141</v>
       </c>
-      <c r="D11" s="342"/>
+      <c r="D11" s="317"/>
       <c r="E11" s="68" t="s">
         <v>81</v>
       </c>
@@ -9923,8 +9923,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="74"/>
       <c r="B18" s="75"/>
-      <c r="C18" s="335"/>
-      <c r="D18" s="336"/>
+      <c r="C18" s="309"/>
+      <c r="D18" s="310"/>
       <c r="E18" s="76"/>
       <c r="F18" s="76"/>
       <c r="G18" s="77"/>
@@ -9933,8 +9933,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="74"/>
       <c r="B19" s="75"/>
-      <c r="C19" s="335"/>
-      <c r="D19" s="336"/>
+      <c r="C19" s="309"/>
+      <c r="D19" s="310"/>
       <c r="E19" s="76"/>
       <c r="F19" s="76"/>
       <c r="G19" s="77"/>
@@ -9943,8 +9943,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="74"/>
       <c r="B20" s="75"/>
-      <c r="C20" s="335"/>
-      <c r="D20" s="336"/>
+      <c r="C20" s="309"/>
+      <c r="D20" s="310"/>
       <c r="E20" s="76"/>
       <c r="F20" s="76"/>
       <c r="G20" s="77"/>
@@ -9953,8 +9953,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="74"/>
       <c r="B21" s="75"/>
-      <c r="C21" s="335"/>
-      <c r="D21" s="336"/>
+      <c r="C21" s="309"/>
+      <c r="D21" s="310"/>
       <c r="E21" s="76"/>
       <c r="F21" s="76"/>
       <c r="G21" s="77"/>
@@ -9963,8 +9963,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="74"/>
       <c r="B22" s="75"/>
-      <c r="C22" s="335"/>
-      <c r="D22" s="336"/>
+      <c r="C22" s="309"/>
+      <c r="D22" s="310"/>
       <c r="E22" s="76"/>
       <c r="F22" s="76"/>
       <c r="G22" s="77"/>
@@ -9973,8 +9973,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="74"/>
       <c r="B23" s="75"/>
-      <c r="C23" s="335"/>
-      <c r="D23" s="336"/>
+      <c r="C23" s="309"/>
+      <c r="D23" s="310"/>
       <c r="E23" s="76"/>
       <c r="F23" s="76"/>
       <c r="G23" s="77"/>
@@ -9983,8 +9983,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="74"/>
       <c r="B24" s="75"/>
-      <c r="C24" s="335"/>
-      <c r="D24" s="336"/>
+      <c r="C24" s="309"/>
+      <c r="D24" s="310"/>
       <c r="E24" s="76"/>
       <c r="F24" s="76"/>
       <c r="G24" s="77"/>
@@ -9993,8 +9993,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="74"/>
       <c r="B25" s="75"/>
-      <c r="C25" s="335"/>
-      <c r="D25" s="336"/>
+      <c r="C25" s="309"/>
+      <c r="D25" s="310"/>
       <c r="E25" s="76"/>
       <c r="F25" s="76"/>
       <c r="G25" s="77"/>
@@ -10003,8 +10003,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="74"/>
       <c r="B26" s="75"/>
-      <c r="C26" s="335"/>
-      <c r="D26" s="336"/>
+      <c r="C26" s="309"/>
+      <c r="D26" s="310"/>
       <c r="E26" s="76"/>
       <c r="F26" s="76"/>
       <c r="G26" s="77"/>
@@ -10013,8 +10013,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="74"/>
       <c r="B27" s="75"/>
-      <c r="C27" s="335"/>
-      <c r="D27" s="336"/>
+      <c r="C27" s="309"/>
+      <c r="D27" s="310"/>
       <c r="E27" s="76"/>
       <c r="F27" s="76"/>
       <c r="G27" s="77"/>
@@ -10023,8 +10023,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="74"/>
       <c r="B28" s="75"/>
-      <c r="C28" s="335"/>
-      <c r="D28" s="336"/>
+      <c r="C28" s="309"/>
+      <c r="D28" s="310"/>
       <c r="E28" s="76"/>
       <c r="F28" s="76"/>
       <c r="G28" s="77"/>
@@ -10033,8 +10033,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="74"/>
       <c r="B29" s="75"/>
-      <c r="C29" s="335"/>
-      <c r="D29" s="336"/>
+      <c r="C29" s="309"/>
+      <c r="D29" s="310"/>
       <c r="E29" s="76"/>
       <c r="F29" s="76"/>
       <c r="G29" s="77"/>
@@ -10043,8 +10043,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="79"/>
       <c r="B30" s="144"/>
-      <c r="C30" s="309"/>
-      <c r="D30" s="311"/>
+      <c r="C30" s="323"/>
+      <c r="D30" s="324"/>
       <c r="E30" s="80"/>
       <c r="F30" s="80"/>
       <c r="G30" s="81"/>
@@ -10076,10 +10076,10 @@
       <c r="A33" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="319" t="s">
+      <c r="B33" s="325" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="321"/>
+      <c r="C33" s="326"/>
       <c r="D33" s="138" t="s">
         <v>9</v>
       </c>
@@ -10094,51 +10094,51 @@
     </row>
     <row r="34" spans="1:10" ht="20.25" customHeight="1">
       <c r="A34" s="66"/>
-      <c r="B34" s="332"/>
-      <c r="C34" s="333"/>
-      <c r="D34" s="317"/>
-      <c r="E34" s="334"/>
-      <c r="F34" s="318"/>
+      <c r="B34" s="327"/>
+      <c r="C34" s="328"/>
+      <c r="D34" s="329"/>
+      <c r="E34" s="330"/>
+      <c r="F34" s="331"/>
       <c r="G34" s="69"/>
       <c r="H34" s="70"/>
     </row>
     <row r="35" spans="1:10" ht="20.25" customHeight="1">
       <c r="A35" s="71"/>
-      <c r="B35" s="327"/>
-      <c r="C35" s="328"/>
-      <c r="D35" s="306"/>
-      <c r="E35" s="307"/>
-      <c r="F35" s="308"/>
+      <c r="B35" s="318"/>
+      <c r="C35" s="319"/>
+      <c r="D35" s="320"/>
+      <c r="E35" s="321"/>
+      <c r="F35" s="322"/>
       <c r="G35" s="72"/>
       <c r="H35" s="73"/>
     </row>
     <row r="36" spans="1:10" ht="20.25" customHeight="1">
       <c r="A36" s="71"/>
-      <c r="B36" s="327"/>
-      <c r="C36" s="328"/>
-      <c r="D36" s="306"/>
-      <c r="E36" s="307"/>
-      <c r="F36" s="308"/>
+      <c r="B36" s="318"/>
+      <c r="C36" s="319"/>
+      <c r="D36" s="320"/>
+      <c r="E36" s="321"/>
+      <c r="F36" s="322"/>
       <c r="G36" s="72"/>
       <c r="H36" s="73"/>
     </row>
     <row r="37" spans="1:10" ht="20.25" customHeight="1">
       <c r="A37" s="71"/>
-      <c r="B37" s="327"/>
-      <c r="C37" s="328"/>
-      <c r="D37" s="306"/>
-      <c r="E37" s="307"/>
-      <c r="F37" s="308"/>
+      <c r="B37" s="318"/>
+      <c r="C37" s="319"/>
+      <c r="D37" s="320"/>
+      <c r="E37" s="321"/>
+      <c r="F37" s="322"/>
       <c r="G37" s="72"/>
       <c r="H37" s="73"/>
     </row>
     <row r="38" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="79"/>
-      <c r="B38" s="329"/>
-      <c r="C38" s="330"/>
-      <c r="D38" s="309"/>
-      <c r="E38" s="310"/>
-      <c r="F38" s="311"/>
+      <c r="B38" s="332"/>
+      <c r="C38" s="333"/>
+      <c r="D38" s="323"/>
+      <c r="E38" s="334"/>
+      <c r="F38" s="324"/>
       <c r="G38" s="81"/>
       <c r="H38" s="82"/>
     </row>
@@ -10171,15 +10171,15 @@
       <c r="B41" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="319" t="s">
+      <c r="C41" s="325" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="320"/>
-      <c r="E41" s="321"/>
-      <c r="F41" s="319" t="s">
+      <c r="D41" s="335"/>
+      <c r="E41" s="326"/>
+      <c r="F41" s="325" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="331"/>
+      <c r="G41" s="336"/>
       <c r="H41" s="63" t="s">
         <v>14</v>
       </c>
@@ -10187,67 +10187,67 @@
     <row r="42" spans="1:10" ht="20.25" customHeight="1">
       <c r="A42" s="94"/>
       <c r="B42" s="95"/>
-      <c r="C42" s="324" t="s">
+      <c r="C42" s="337" t="s">
         <v>144</v>
       </c>
-      <c r="D42" s="325"/>
-      <c r="E42" s="326"/>
-      <c r="F42" s="324" t="s">
+      <c r="D42" s="338"/>
+      <c r="E42" s="339"/>
+      <c r="F42" s="337" t="s">
         <v>65</v>
       </c>
-      <c r="G42" s="326"/>
-      <c r="H42" s="324" t="s">
+      <c r="G42" s="339"/>
+      <c r="H42" s="337" t="s">
         <v>144</v>
       </c>
-      <c r="I42" s="325"/>
-      <c r="J42" s="326"/>
+      <c r="I42" s="338"/>
+      <c r="J42" s="339"/>
     </row>
     <row r="43" spans="1:10" ht="20.25" customHeight="1">
       <c r="A43" s="97"/>
       <c r="B43" s="98"/>
-      <c r="C43" s="314" t="s">
+      <c r="C43" s="306" t="s">
         <v>147</v>
       </c>
-      <c r="D43" s="315"/>
-      <c r="E43" s="316"/>
-      <c r="F43" s="314" t="s">
+      <c r="D43" s="307"/>
+      <c r="E43" s="308"/>
+      <c r="F43" s="306" t="s">
         <v>66</v>
       </c>
-      <c r="G43" s="316"/>
-      <c r="H43" s="314" t="s">
+      <c r="G43" s="308"/>
+      <c r="H43" s="306" t="s">
         <v>147</v>
       </c>
-      <c r="I43" s="315"/>
-      <c r="J43" s="316"/>
+      <c r="I43" s="307"/>
+      <c r="J43" s="308"/>
     </row>
     <row r="44" spans="1:10" ht="20.25" customHeight="1">
       <c r="A44" s="86"/>
       <c r="B44" s="87"/>
-      <c r="C44" s="306"/>
-      <c r="D44" s="307"/>
-      <c r="E44" s="308"/>
-      <c r="F44" s="306"/>
-      <c r="G44" s="308"/>
+      <c r="C44" s="320"/>
+      <c r="D44" s="321"/>
+      <c r="E44" s="322"/>
+      <c r="F44" s="320"/>
+      <c r="G44" s="322"/>
       <c r="H44" s="88"/>
     </row>
     <row r="45" spans="1:10" ht="20.25" customHeight="1">
       <c r="A45" s="86"/>
       <c r="B45" s="87"/>
-      <c r="C45" s="306"/>
-      <c r="D45" s="307"/>
-      <c r="E45" s="308"/>
-      <c r="F45" s="306"/>
-      <c r="G45" s="308"/>
+      <c r="C45" s="320"/>
+      <c r="D45" s="321"/>
+      <c r="E45" s="322"/>
+      <c r="F45" s="320"/>
+      <c r="G45" s="322"/>
       <c r="H45" s="88"/>
     </row>
     <row r="46" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="89"/>
       <c r="B46" s="139"/>
-      <c r="C46" s="309"/>
-      <c r="D46" s="310"/>
-      <c r="E46" s="311"/>
-      <c r="F46" s="312"/>
-      <c r="G46" s="313"/>
+      <c r="C46" s="323"/>
+      <c r="D46" s="334"/>
+      <c r="E46" s="324"/>
+      <c r="F46" s="340"/>
+      <c r="G46" s="341"/>
       <c r="H46" s="90"/>
     </row>
     <row r="47" spans="1:10" ht="20.25" customHeight="1">
@@ -10279,15 +10279,15 @@
       <c r="B49" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="319" t="s">
+      <c r="C49" s="325" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="320"/>
-      <c r="E49" s="321"/>
-      <c r="F49" s="322" t="s">
+      <c r="D49" s="335"/>
+      <c r="E49" s="326"/>
+      <c r="F49" s="314" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="323"/>
+      <c r="G49" s="342"/>
       <c r="H49" s="57" t="s">
         <v>17</v>
       </c>
@@ -10295,55 +10295,94 @@
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="83"/>
       <c r="B50" s="84"/>
-      <c r="C50" s="317"/>
-      <c r="D50" s="334"/>
-      <c r="E50" s="318"/>
-      <c r="F50" s="317"/>
-      <c r="G50" s="318"/>
+      <c r="C50" s="329"/>
+      <c r="D50" s="330"/>
+      <c r="E50" s="331"/>
+      <c r="F50" s="329"/>
+      <c r="G50" s="331"/>
       <c r="H50" s="85"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="86"/>
       <c r="B51" s="87"/>
-      <c r="C51" s="306"/>
-      <c r="D51" s="307"/>
-      <c r="E51" s="308"/>
-      <c r="F51" s="306"/>
-      <c r="G51" s="308"/>
+      <c r="C51" s="320"/>
+      <c r="D51" s="321"/>
+      <c r="E51" s="322"/>
+      <c r="F51" s="320"/>
+      <c r="G51" s="322"/>
       <c r="H51" s="88"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="86"/>
       <c r="B52" s="87"/>
-      <c r="C52" s="306"/>
-      <c r="D52" s="307"/>
-      <c r="E52" s="308"/>
-      <c r="F52" s="306"/>
-      <c r="G52" s="308"/>
+      <c r="C52" s="320"/>
+      <c r="D52" s="321"/>
+      <c r="E52" s="322"/>
+      <c r="F52" s="320"/>
+      <c r="G52" s="322"/>
       <c r="H52" s="88"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="86"/>
       <c r="B53" s="87"/>
-      <c r="C53" s="306"/>
-      <c r="D53" s="307"/>
-      <c r="E53" s="308"/>
-      <c r="F53" s="306"/>
-      <c r="G53" s="308"/>
+      <c r="C53" s="320"/>
+      <c r="D53" s="321"/>
+      <c r="E53" s="322"/>
+      <c r="F53" s="320"/>
+      <c r="G53" s="322"/>
       <c r="H53" s="88"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="89"/>
       <c r="B54" s="139"/>
-      <c r="C54" s="309"/>
-      <c r="D54" s="310"/>
-      <c r="E54" s="311"/>
-      <c r="F54" s="312"/>
-      <c r="G54" s="313"/>
+      <c r="C54" s="323"/>
+      <c r="D54" s="334"/>
+      <c r="E54" s="324"/>
+      <c r="F54" s="340"/>
+      <c r="G54" s="341"/>
       <c r="H54" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
     <mergeCell ref="H42:J42"/>
     <mergeCell ref="H43:J43"/>
     <mergeCell ref="C24:D24"/>
@@ -10360,45 +10399,6 @@
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10507,40 +10507,40 @@
         <v>47</v>
       </c>
       <c r="B6" s="53"/>
-      <c r="C6" s="337" t="s">
+      <c r="C6" s="311" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="338"/>
-      <c r="E6" s="338"/>
-      <c r="F6" s="338"/>
-      <c r="G6" s="338"/>
-      <c r="H6" s="339"/>
+      <c r="D6" s="312"/>
+      <c r="E6" s="312"/>
+      <c r="F6" s="312"/>
+      <c r="G6" s="312"/>
+      <c r="H6" s="313"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="135" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="53"/>
-      <c r="C7" s="337" t="s">
+      <c r="C7" s="311" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="338"/>
-      <c r="E7" s="338"/>
-      <c r="F7" s="338"/>
-      <c r="G7" s="338"/>
-      <c r="H7" s="339"/>
+      <c r="D7" s="312"/>
+      <c r="E7" s="312"/>
+      <c r="F7" s="312"/>
+      <c r="G7" s="312"/>
+      <c r="H7" s="313"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="135" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="53"/>
-      <c r="C8" s="337"/>
-      <c r="D8" s="338"/>
-      <c r="E8" s="338"/>
-      <c r="F8" s="338"/>
-      <c r="G8" s="338"/>
-      <c r="H8" s="339"/>
+      <c r="C8" s="311"/>
+      <c r="D8" s="312"/>
+      <c r="E8" s="312"/>
+      <c r="F8" s="312"/>
+      <c r="G8" s="312"/>
+      <c r="H8" s="313"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="54" t="s">
@@ -10561,10 +10561,10 @@
       <c r="B10" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="322" t="s">
+      <c r="C10" s="314" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="340"/>
+      <c r="D10" s="315"/>
       <c r="E10" s="56" t="s">
         <v>1</v>
       </c>
@@ -10585,10 +10585,10 @@
       <c r="B11" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="341" t="s">
+      <c r="C11" s="316" t="s">
         <v>154</v>
       </c>
-      <c r="D11" s="342"/>
+      <c r="D11" s="317"/>
       <c r="E11" s="76" t="s">
         <v>166</v>
       </c>
@@ -10697,8 +10697,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="74"/>
       <c r="B18" s="75"/>
-      <c r="C18" s="335"/>
-      <c r="D18" s="336"/>
+      <c r="C18" s="309"/>
+      <c r="D18" s="310"/>
       <c r="E18" s="76"/>
       <c r="F18" s="76"/>
       <c r="G18" s="77"/>
@@ -10707,8 +10707,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="74"/>
       <c r="B19" s="75"/>
-      <c r="C19" s="335"/>
-      <c r="D19" s="336"/>
+      <c r="C19" s="309"/>
+      <c r="D19" s="310"/>
       <c r="E19" s="76"/>
       <c r="F19" s="76"/>
       <c r="G19" s="77"/>
@@ -10717,8 +10717,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="74"/>
       <c r="B20" s="75"/>
-      <c r="C20" s="335"/>
-      <c r="D20" s="336"/>
+      <c r="C20" s="309"/>
+      <c r="D20" s="310"/>
       <c r="E20" s="76"/>
       <c r="F20" s="76"/>
       <c r="G20" s="77"/>
@@ -10727,8 +10727,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="74"/>
       <c r="B21" s="75"/>
-      <c r="C21" s="335"/>
-      <c r="D21" s="336"/>
+      <c r="C21" s="309"/>
+      <c r="D21" s="310"/>
       <c r="E21" s="76"/>
       <c r="F21" s="76"/>
       <c r="G21" s="77"/>
@@ -10737,8 +10737,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="74"/>
       <c r="B22" s="75"/>
-      <c r="C22" s="335"/>
-      <c r="D22" s="336"/>
+      <c r="C22" s="309"/>
+      <c r="D22" s="310"/>
       <c r="E22" s="76"/>
       <c r="F22" s="76"/>
       <c r="G22" s="77"/>
@@ -10747,8 +10747,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="74"/>
       <c r="B23" s="75"/>
-      <c r="C23" s="335"/>
-      <c r="D23" s="336"/>
+      <c r="C23" s="309"/>
+      <c r="D23" s="310"/>
       <c r="E23" s="76"/>
       <c r="F23" s="76"/>
       <c r="G23" s="77"/>
@@ -10757,8 +10757,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="74"/>
       <c r="B24" s="75"/>
-      <c r="C24" s="335"/>
-      <c r="D24" s="336"/>
+      <c r="C24" s="309"/>
+      <c r="D24" s="310"/>
       <c r="E24" s="76"/>
       <c r="F24" s="76"/>
       <c r="G24" s="77"/>
@@ -10767,8 +10767,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="74"/>
       <c r="B25" s="75"/>
-      <c r="C25" s="335"/>
-      <c r="D25" s="336"/>
+      <c r="C25" s="309"/>
+      <c r="D25" s="310"/>
       <c r="E25" s="76"/>
       <c r="F25" s="76"/>
       <c r="G25" s="77"/>
@@ -10777,8 +10777,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="74"/>
       <c r="B26" s="75"/>
-      <c r="C26" s="335"/>
-      <c r="D26" s="336"/>
+      <c r="C26" s="309"/>
+      <c r="D26" s="310"/>
       <c r="E26" s="76"/>
       <c r="F26" s="76"/>
       <c r="G26" s="77"/>
@@ -10787,8 +10787,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="74"/>
       <c r="B27" s="75"/>
-      <c r="C27" s="335"/>
-      <c r="D27" s="336"/>
+      <c r="C27" s="309"/>
+      <c r="D27" s="310"/>
       <c r="E27" s="76"/>
       <c r="F27" s="76"/>
       <c r="G27" s="77"/>
@@ -10797,8 +10797,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="74"/>
       <c r="B28" s="75"/>
-      <c r="C28" s="335"/>
-      <c r="D28" s="336"/>
+      <c r="C28" s="309"/>
+      <c r="D28" s="310"/>
       <c r="E28" s="76"/>
       <c r="F28" s="76"/>
       <c r="G28" s="77"/>
@@ -10807,8 +10807,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="74"/>
       <c r="B29" s="75"/>
-      <c r="C29" s="335"/>
-      <c r="D29" s="336"/>
+      <c r="C29" s="309"/>
+      <c r="D29" s="310"/>
       <c r="E29" s="76"/>
       <c r="F29" s="76"/>
       <c r="G29" s="77"/>
@@ -10817,8 +10817,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="79"/>
       <c r="B30" s="144"/>
-      <c r="C30" s="309"/>
-      <c r="D30" s="311"/>
+      <c r="C30" s="323"/>
+      <c r="D30" s="324"/>
       <c r="E30" s="80"/>
       <c r="F30" s="80"/>
       <c r="G30" s="81"/>
@@ -10850,10 +10850,10 @@
       <c r="A33" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="319" t="s">
+      <c r="B33" s="325" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="321"/>
+      <c r="C33" s="326"/>
       <c r="D33" s="138" t="s">
         <v>9</v>
       </c>
@@ -10868,51 +10868,51 @@
     </row>
     <row r="34" spans="1:10" ht="20.25" customHeight="1">
       <c r="A34" s="66"/>
-      <c r="B34" s="332"/>
-      <c r="C34" s="333"/>
-      <c r="D34" s="317"/>
-      <c r="E34" s="334"/>
-      <c r="F34" s="318"/>
+      <c r="B34" s="327"/>
+      <c r="C34" s="328"/>
+      <c r="D34" s="329"/>
+      <c r="E34" s="330"/>
+      <c r="F34" s="331"/>
       <c r="G34" s="69"/>
       <c r="H34" s="70"/>
     </row>
     <row r="35" spans="1:10" ht="20.25" customHeight="1">
       <c r="A35" s="71"/>
-      <c r="B35" s="327"/>
-      <c r="C35" s="328"/>
-      <c r="D35" s="306"/>
-      <c r="E35" s="307"/>
-      <c r="F35" s="308"/>
+      <c r="B35" s="318"/>
+      <c r="C35" s="319"/>
+      <c r="D35" s="320"/>
+      <c r="E35" s="321"/>
+      <c r="F35" s="322"/>
       <c r="G35" s="72"/>
       <c r="H35" s="73"/>
     </row>
     <row r="36" spans="1:10" ht="20.25" customHeight="1">
       <c r="A36" s="71"/>
-      <c r="B36" s="327"/>
-      <c r="C36" s="328"/>
-      <c r="D36" s="306"/>
-      <c r="E36" s="307"/>
-      <c r="F36" s="308"/>
+      <c r="B36" s="318"/>
+      <c r="C36" s="319"/>
+      <c r="D36" s="320"/>
+      <c r="E36" s="321"/>
+      <c r="F36" s="322"/>
       <c r="G36" s="72"/>
       <c r="H36" s="73"/>
     </row>
     <row r="37" spans="1:10" ht="20.25" customHeight="1">
       <c r="A37" s="71"/>
-      <c r="B37" s="327"/>
-      <c r="C37" s="328"/>
-      <c r="D37" s="306"/>
-      <c r="E37" s="307"/>
-      <c r="F37" s="308"/>
+      <c r="B37" s="318"/>
+      <c r="C37" s="319"/>
+      <c r="D37" s="320"/>
+      <c r="E37" s="321"/>
+      <c r="F37" s="322"/>
       <c r="G37" s="72"/>
       <c r="H37" s="73"/>
     </row>
     <row r="38" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="79"/>
-      <c r="B38" s="329"/>
-      <c r="C38" s="330"/>
-      <c r="D38" s="309"/>
-      <c r="E38" s="310"/>
-      <c r="F38" s="311"/>
+      <c r="B38" s="332"/>
+      <c r="C38" s="333"/>
+      <c r="D38" s="323"/>
+      <c r="E38" s="334"/>
+      <c r="F38" s="324"/>
       <c r="G38" s="81"/>
       <c r="H38" s="82"/>
     </row>
@@ -10945,15 +10945,15 @@
       <c r="B41" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="319" t="s">
+      <c r="C41" s="325" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="320"/>
-      <c r="E41" s="321"/>
-      <c r="F41" s="319" t="s">
+      <c r="D41" s="335"/>
+      <c r="E41" s="326"/>
+      <c r="F41" s="325" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="331"/>
+      <c r="G41" s="336"/>
       <c r="H41" s="63" t="s">
         <v>14</v>
       </c>
@@ -10961,67 +10961,67 @@
     <row r="42" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A42" s="94"/>
       <c r="B42" s="95"/>
-      <c r="C42" s="314" t="s">
+      <c r="C42" s="306" t="s">
         <v>147</v>
       </c>
-      <c r="D42" s="315"/>
-      <c r="E42" s="316"/>
-      <c r="F42" s="324" t="s">
+      <c r="D42" s="307"/>
+      <c r="E42" s="308"/>
+      <c r="F42" s="337" t="s">
         <v>66</v>
       </c>
-      <c r="G42" s="326"/>
-      <c r="H42" s="314" t="s">
+      <c r="G42" s="339"/>
+      <c r="H42" s="306" t="s">
         <v>147</v>
       </c>
-      <c r="I42" s="315"/>
-      <c r="J42" s="316"/>
+      <c r="I42" s="307"/>
+      <c r="J42" s="308"/>
     </row>
     <row r="43" spans="1:10" ht="20.25" customHeight="1">
       <c r="A43" s="97"/>
       <c r="B43" s="98"/>
-      <c r="C43" s="324" t="s">
+      <c r="C43" s="337" t="s">
         <v>144</v>
       </c>
-      <c r="D43" s="325"/>
-      <c r="E43" s="326"/>
-      <c r="F43" s="314" t="s">
+      <c r="D43" s="338"/>
+      <c r="E43" s="339"/>
+      <c r="F43" s="306" t="s">
         <v>65</v>
       </c>
-      <c r="G43" s="316"/>
-      <c r="H43" s="324" t="s">
+      <c r="G43" s="308"/>
+      <c r="H43" s="337" t="s">
         <v>144</v>
       </c>
-      <c r="I43" s="325"/>
-      <c r="J43" s="326"/>
+      <c r="I43" s="338"/>
+      <c r="J43" s="339"/>
     </row>
     <row r="44" spans="1:10" ht="20.25" customHeight="1">
       <c r="A44" s="86"/>
       <c r="B44" s="87"/>
-      <c r="C44" s="306"/>
-      <c r="D44" s="307"/>
-      <c r="E44" s="308"/>
-      <c r="F44" s="306"/>
-      <c r="G44" s="308"/>
+      <c r="C44" s="320"/>
+      <c r="D44" s="321"/>
+      <c r="E44" s="322"/>
+      <c r="F44" s="320"/>
+      <c r="G44" s="322"/>
       <c r="H44" s="88"/>
     </row>
     <row r="45" spans="1:10" ht="20.25" customHeight="1">
       <c r="A45" s="86"/>
       <c r="B45" s="87"/>
-      <c r="C45" s="306"/>
-      <c r="D45" s="307"/>
-      <c r="E45" s="308"/>
-      <c r="F45" s="306"/>
-      <c r="G45" s="308"/>
+      <c r="C45" s="320"/>
+      <c r="D45" s="321"/>
+      <c r="E45" s="322"/>
+      <c r="F45" s="320"/>
+      <c r="G45" s="322"/>
       <c r="H45" s="88"/>
     </row>
     <row r="46" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="89"/>
       <c r="B46" s="139"/>
-      <c r="C46" s="309"/>
-      <c r="D46" s="310"/>
-      <c r="E46" s="311"/>
-      <c r="F46" s="312"/>
-      <c r="G46" s="313"/>
+      <c r="C46" s="323"/>
+      <c r="D46" s="334"/>
+      <c r="E46" s="324"/>
+      <c r="F46" s="340"/>
+      <c r="G46" s="341"/>
       <c r="H46" s="90"/>
     </row>
     <row r="47" spans="1:10" ht="20.25" customHeight="1">
@@ -11053,15 +11053,15 @@
       <c r="B49" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="319" t="s">
+      <c r="C49" s="325" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="320"/>
-      <c r="E49" s="321"/>
-      <c r="F49" s="322" t="s">
+      <c r="D49" s="335"/>
+      <c r="E49" s="326"/>
+      <c r="F49" s="314" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="323"/>
+      <c r="G49" s="342"/>
       <c r="H49" s="57" t="s">
         <v>17</v>
       </c>
@@ -11069,55 +11069,94 @@
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="83"/>
       <c r="B50" s="84"/>
-      <c r="C50" s="317"/>
-      <c r="D50" s="334"/>
-      <c r="E50" s="318"/>
-      <c r="F50" s="317"/>
-      <c r="G50" s="318"/>
+      <c r="C50" s="329"/>
+      <c r="D50" s="330"/>
+      <c r="E50" s="331"/>
+      <c r="F50" s="329"/>
+      <c r="G50" s="331"/>
       <c r="H50" s="85"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="86"/>
       <c r="B51" s="87"/>
-      <c r="C51" s="306"/>
-      <c r="D51" s="307"/>
-      <c r="E51" s="308"/>
-      <c r="F51" s="306"/>
-      <c r="G51" s="308"/>
+      <c r="C51" s="320"/>
+      <c r="D51" s="321"/>
+      <c r="E51" s="322"/>
+      <c r="F51" s="320"/>
+      <c r="G51" s="322"/>
       <c r="H51" s="88"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="86"/>
       <c r="B52" s="87"/>
-      <c r="C52" s="306"/>
-      <c r="D52" s="307"/>
-      <c r="E52" s="308"/>
-      <c r="F52" s="306"/>
-      <c r="G52" s="308"/>
+      <c r="C52" s="320"/>
+      <c r="D52" s="321"/>
+      <c r="E52" s="322"/>
+      <c r="F52" s="320"/>
+      <c r="G52" s="322"/>
       <c r="H52" s="88"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="86"/>
       <c r="B53" s="87"/>
-      <c r="C53" s="306"/>
-      <c r="D53" s="307"/>
-      <c r="E53" s="308"/>
-      <c r="F53" s="306"/>
-      <c r="G53" s="308"/>
+      <c r="C53" s="320"/>
+      <c r="D53" s="321"/>
+      <c r="E53" s="322"/>
+      <c r="F53" s="320"/>
+      <c r="G53" s="322"/>
       <c r="H53" s="88"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="89"/>
       <c r="B54" s="139"/>
-      <c r="C54" s="309"/>
-      <c r="D54" s="310"/>
-      <c r="E54" s="311"/>
-      <c r="F54" s="312"/>
-      <c r="G54" s="313"/>
+      <c r="C54" s="323"/>
+      <c r="D54" s="334"/>
+      <c r="E54" s="324"/>
+      <c r="F54" s="340"/>
+      <c r="G54" s="341"/>
       <c r="H54" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
     <mergeCell ref="H42:J42"/>
     <mergeCell ref="H43:J43"/>
     <mergeCell ref="C24:D24"/>
@@ -11134,45 +11173,6 @@
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11188,7 +11188,7 @@
   </sheetPr>
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -11282,40 +11282,40 @@
         <v>47</v>
       </c>
       <c r="B6" s="198"/>
-      <c r="C6" s="268" t="s">
+      <c r="C6" s="289" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="269"/>
-      <c r="E6" s="269"/>
-      <c r="F6" s="269"/>
-      <c r="G6" s="269"/>
-      <c r="H6" s="270"/>
+      <c r="D6" s="290"/>
+      <c r="E6" s="290"/>
+      <c r="F6" s="290"/>
+      <c r="G6" s="290"/>
+      <c r="H6" s="291"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="199" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="198"/>
-      <c r="C7" s="268" t="s">
+      <c r="C7" s="289" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="269"/>
-      <c r="E7" s="269"/>
-      <c r="F7" s="269"/>
-      <c r="G7" s="269"/>
-      <c r="H7" s="270"/>
+      <c r="D7" s="290"/>
+      <c r="E7" s="290"/>
+      <c r="F7" s="290"/>
+      <c r="G7" s="290"/>
+      <c r="H7" s="291"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="199" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="198"/>
-      <c r="C8" s="268"/>
-      <c r="D8" s="269"/>
-      <c r="E8" s="269"/>
-      <c r="F8" s="269"/>
-      <c r="G8" s="269"/>
-      <c r="H8" s="270"/>
+      <c r="C8" s="289"/>
+      <c r="D8" s="290"/>
+      <c r="E8" s="290"/>
+      <c r="F8" s="290"/>
+      <c r="G8" s="290"/>
+      <c r="H8" s="291"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="163" t="s">
@@ -11336,10 +11336,10 @@
       <c r="B10" s="197" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="271" t="s">
+      <c r="C10" s="274" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="272"/>
+      <c r="D10" s="292"/>
       <c r="E10" s="197" t="s">
         <v>1</v>
       </c>
@@ -11360,10 +11360,10 @@
       <c r="B11" s="196" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="273" t="s">
+      <c r="C11" s="293" t="s">
         <v>150</v>
       </c>
-      <c r="D11" s="274"/>
+      <c r="D11" s="294"/>
       <c r="E11" s="193" t="s">
         <v>81</v>
       </c>
@@ -11478,8 +11478,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="192"/>
       <c r="B18" s="191"/>
-      <c r="C18" s="258"/>
-      <c r="D18" s="259"/>
+      <c r="C18" s="284"/>
+      <c r="D18" s="285"/>
       <c r="E18" s="190"/>
       <c r="F18" s="190"/>
       <c r="G18" s="189"/>
@@ -11488,8 +11488,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="192"/>
       <c r="B19" s="191"/>
-      <c r="C19" s="258"/>
-      <c r="D19" s="259"/>
+      <c r="C19" s="284"/>
+      <c r="D19" s="285"/>
       <c r="E19" s="190"/>
       <c r="F19" s="190"/>
       <c r="G19" s="189"/>
@@ -11498,8 +11498,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="192"/>
       <c r="B20" s="191"/>
-      <c r="C20" s="258"/>
-      <c r="D20" s="259"/>
+      <c r="C20" s="284"/>
+      <c r="D20" s="285"/>
       <c r="E20" s="190"/>
       <c r="F20" s="190"/>
       <c r="G20" s="189"/>
@@ -11508,8 +11508,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="192"/>
       <c r="B21" s="191"/>
-      <c r="C21" s="258"/>
-      <c r="D21" s="259"/>
+      <c r="C21" s="284"/>
+      <c r="D21" s="285"/>
       <c r="E21" s="190"/>
       <c r="F21" s="190"/>
       <c r="G21" s="189"/>
@@ -11518,8 +11518,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="192"/>
       <c r="B22" s="191"/>
-      <c r="C22" s="258"/>
-      <c r="D22" s="259"/>
+      <c r="C22" s="284"/>
+      <c r="D22" s="285"/>
       <c r="E22" s="190"/>
       <c r="F22" s="190"/>
       <c r="G22" s="189"/>
@@ -11528,8 +11528,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="192"/>
       <c r="B23" s="191"/>
-      <c r="C23" s="258"/>
-      <c r="D23" s="259"/>
+      <c r="C23" s="284"/>
+      <c r="D23" s="285"/>
       <c r="E23" s="190"/>
       <c r="F23" s="190"/>
       <c r="G23" s="189"/>
@@ -11538,8 +11538,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="192"/>
       <c r="B24" s="191"/>
-      <c r="C24" s="258"/>
-      <c r="D24" s="259"/>
+      <c r="C24" s="284"/>
+      <c r="D24" s="285"/>
       <c r="E24" s="190"/>
       <c r="F24" s="190"/>
       <c r="G24" s="189"/>
@@ -11548,8 +11548,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="192"/>
       <c r="B25" s="191"/>
-      <c r="C25" s="258"/>
-      <c r="D25" s="259"/>
+      <c r="C25" s="284"/>
+      <c r="D25" s="285"/>
       <c r="E25" s="190"/>
       <c r="F25" s="190"/>
       <c r="G25" s="189"/>
@@ -11558,8 +11558,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="192"/>
       <c r="B26" s="191"/>
-      <c r="C26" s="258"/>
-      <c r="D26" s="259"/>
+      <c r="C26" s="284"/>
+      <c r="D26" s="285"/>
       <c r="E26" s="190"/>
       <c r="F26" s="190"/>
       <c r="G26" s="189"/>
@@ -11568,8 +11568,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="192"/>
       <c r="B27" s="191"/>
-      <c r="C27" s="258"/>
-      <c r="D27" s="259"/>
+      <c r="C27" s="284"/>
+      <c r="D27" s="285"/>
       <c r="E27" s="190"/>
       <c r="F27" s="190"/>
       <c r="G27" s="189"/>
@@ -11578,8 +11578,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="192"/>
       <c r="B28" s="191"/>
-      <c r="C28" s="258"/>
-      <c r="D28" s="259"/>
+      <c r="C28" s="284"/>
+      <c r="D28" s="285"/>
       <c r="E28" s="190"/>
       <c r="F28" s="190"/>
       <c r="G28" s="189"/>
@@ -11588,8 +11588,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="192"/>
       <c r="B29" s="191"/>
-      <c r="C29" s="258"/>
-      <c r="D29" s="259"/>
+      <c r="C29" s="284"/>
+      <c r="D29" s="285"/>
       <c r="E29" s="190"/>
       <c r="F29" s="190"/>
       <c r="G29" s="189"/>
@@ -11598,8 +11598,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="176"/>
       <c r="B30" s="187"/>
-      <c r="C30" s="275"/>
-      <c r="D30" s="276"/>
+      <c r="C30" s="261"/>
+      <c r="D30" s="263"/>
       <c r="E30" s="186"/>
       <c r="F30" s="186"/>
       <c r="G30" s="175"/>
@@ -11631,10 +11631,10 @@
       <c r="A33" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="277" t="s">
+      <c r="B33" s="271" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="278"/>
+      <c r="C33" s="273"/>
       <c r="D33" s="185" t="s">
         <v>9</v>
       </c>
@@ -11649,41 +11649,41 @@
     </row>
     <row r="34" spans="1:10" ht="20.25" customHeight="1">
       <c r="A34" s="182"/>
-      <c r="B34" s="279"/>
-      <c r="C34" s="280"/>
-      <c r="D34" s="260"/>
-      <c r="E34" s="261"/>
-      <c r="F34" s="262"/>
+      <c r="B34" s="286"/>
+      <c r="C34" s="287"/>
+      <c r="D34" s="269"/>
+      <c r="E34" s="288"/>
+      <c r="F34" s="270"/>
       <c r="G34" s="181"/>
       <c r="H34" s="180"/>
     </row>
     <row r="35" spans="1:10" ht="20.25" customHeight="1">
       <c r="A35" s="179"/>
-      <c r="B35" s="263"/>
-      <c r="C35" s="264"/>
-      <c r="D35" s="265"/>
-      <c r="E35" s="266"/>
-      <c r="F35" s="267"/>
+      <c r="B35" s="279"/>
+      <c r="C35" s="280"/>
+      <c r="D35" s="258"/>
+      <c r="E35" s="259"/>
+      <c r="F35" s="260"/>
       <c r="G35" s="178"/>
       <c r="H35" s="177"/>
     </row>
     <row r="36" spans="1:10" ht="20.25" customHeight="1">
       <c r="A36" s="179"/>
-      <c r="B36" s="263"/>
-      <c r="C36" s="264"/>
-      <c r="D36" s="265"/>
-      <c r="E36" s="266"/>
-      <c r="F36" s="267"/>
+      <c r="B36" s="279"/>
+      <c r="C36" s="280"/>
+      <c r="D36" s="258"/>
+      <c r="E36" s="259"/>
+      <c r="F36" s="260"/>
       <c r="G36" s="178"/>
       <c r="H36" s="177"/>
     </row>
     <row r="37" spans="1:10" ht="20.25" customHeight="1">
       <c r="A37" s="179"/>
-      <c r="B37" s="263"/>
-      <c r="C37" s="264"/>
-      <c r="D37" s="265"/>
-      <c r="E37" s="266"/>
-      <c r="F37" s="267"/>
+      <c r="B37" s="279"/>
+      <c r="C37" s="280"/>
+      <c r="D37" s="258"/>
+      <c r="E37" s="259"/>
+      <c r="F37" s="260"/>
       <c r="G37" s="178"/>
       <c r="H37" s="177"/>
     </row>
@@ -11691,9 +11691,9 @@
       <c r="A38" s="176"/>
       <c r="B38" s="281"/>
       <c r="C38" s="282"/>
-      <c r="D38" s="275"/>
-      <c r="E38" s="283"/>
-      <c r="F38" s="276"/>
+      <c r="D38" s="261"/>
+      <c r="E38" s="262"/>
+      <c r="F38" s="263"/>
       <c r="G38" s="175"/>
       <c r="H38" s="174"/>
     </row>
@@ -11726,15 +11726,15 @@
       <c r="B41" s="160" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="277" t="s">
+      <c r="C41" s="271" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="284"/>
-      <c r="E41" s="278"/>
-      <c r="F41" s="277" t="s">
+      <c r="D41" s="272"/>
+      <c r="E41" s="273"/>
+      <c r="F41" s="271" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="285"/>
+      <c r="G41" s="283"/>
       <c r="H41" s="172" t="s">
         <v>14</v>
       </c>
@@ -11742,59 +11742,59 @@
     <row r="42" spans="1:10" ht="20.25" customHeight="1">
       <c r="A42" s="171"/>
       <c r="B42" s="170"/>
-      <c r="C42" s="286" t="s">
+      <c r="C42" s="266" t="s">
         <v>145</v>
       </c>
-      <c r="D42" s="287"/>
-      <c r="E42" s="288"/>
-      <c r="F42" s="286" t="s">
+      <c r="D42" s="267"/>
+      <c r="E42" s="268"/>
+      <c r="F42" s="266" t="s">
         <v>66</v>
       </c>
-      <c r="G42" s="288"/>
-      <c r="H42" s="286" t="s">
+      <c r="G42" s="268"/>
+      <c r="H42" s="266" t="s">
         <v>145</v>
       </c>
-      <c r="I42" s="287"/>
-      <c r="J42" s="288"/>
+      <c r="I42" s="267"/>
+      <c r="J42" s="268"/>
     </row>
     <row r="43" spans="1:10" ht="20.25" customHeight="1">
       <c r="A43" s="168"/>
       <c r="B43" s="167"/>
-      <c r="C43" s="289"/>
-      <c r="D43" s="290"/>
-      <c r="E43" s="291"/>
-      <c r="F43" s="289"/>
-      <c r="G43" s="291"/>
+      <c r="C43" s="276"/>
+      <c r="D43" s="277"/>
+      <c r="E43" s="278"/>
+      <c r="F43" s="276"/>
+      <c r="G43" s="278"/>
       <c r="H43" s="166"/>
     </row>
     <row r="44" spans="1:10" ht="20.25" customHeight="1">
       <c r="A44" s="155"/>
       <c r="B44" s="154"/>
-      <c r="C44" s="265"/>
-      <c r="D44" s="266"/>
-      <c r="E44" s="267"/>
-      <c r="F44" s="265"/>
-      <c r="G44" s="267"/>
+      <c r="C44" s="258"/>
+      <c r="D44" s="259"/>
+      <c r="E44" s="260"/>
+      <c r="F44" s="258"/>
+      <c r="G44" s="260"/>
       <c r="H44" s="153"/>
     </row>
     <row r="45" spans="1:10" ht="20.25" customHeight="1">
       <c r="A45" s="155"/>
       <c r="B45" s="154"/>
-      <c r="C45" s="265"/>
-      <c r="D45" s="266"/>
-      <c r="E45" s="267"/>
-      <c r="F45" s="265"/>
-      <c r="G45" s="267"/>
+      <c r="C45" s="258"/>
+      <c r="D45" s="259"/>
+      <c r="E45" s="260"/>
+      <c r="F45" s="258"/>
+      <c r="G45" s="260"/>
       <c r="H45" s="153"/>
     </row>
     <row r="46" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="152"/>
       <c r="B46" s="151"/>
-      <c r="C46" s="275"/>
-      <c r="D46" s="283"/>
-      <c r="E46" s="276"/>
-      <c r="F46" s="292"/>
-      <c r="G46" s="293"/>
+      <c r="C46" s="261"/>
+      <c r="D46" s="262"/>
+      <c r="E46" s="263"/>
+      <c r="F46" s="264"/>
+      <c r="G46" s="265"/>
       <c r="H46" s="150"/>
     </row>
     <row r="47" spans="1:10" ht="20.25" customHeight="1">
@@ -11826,15 +11826,15 @@
       <c r="B49" s="160" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="277" t="s">
+      <c r="C49" s="271" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="284"/>
-      <c r="E49" s="278"/>
-      <c r="F49" s="271" t="s">
+      <c r="D49" s="272"/>
+      <c r="E49" s="273"/>
+      <c r="F49" s="274" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="294"/>
+      <c r="G49" s="275"/>
       <c r="H49" s="159" t="s">
         <v>17</v>
       </c>
@@ -11842,75 +11842,75 @@
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="157"/>
       <c r="B50" s="156"/>
-      <c r="C50" s="260"/>
-      <c r="D50" s="261"/>
-      <c r="E50" s="262"/>
-      <c r="F50" s="260"/>
-      <c r="G50" s="262"/>
+      <c r="C50" s="269"/>
+      <c r="D50" s="288"/>
+      <c r="E50" s="270"/>
+      <c r="F50" s="269"/>
+      <c r="G50" s="270"/>
       <c r="H50" s="211"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="155"/>
       <c r="B51" s="154"/>
-      <c r="C51" s="265"/>
-      <c r="D51" s="266"/>
-      <c r="E51" s="267"/>
-      <c r="F51" s="265"/>
-      <c r="G51" s="267"/>
+      <c r="C51" s="258"/>
+      <c r="D51" s="259"/>
+      <c r="E51" s="260"/>
+      <c r="F51" s="258"/>
+      <c r="G51" s="260"/>
       <c r="H51" s="153"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="155"/>
       <c r="B52" s="154"/>
-      <c r="C52" s="265"/>
-      <c r="D52" s="266"/>
-      <c r="E52" s="267"/>
-      <c r="F52" s="265"/>
-      <c r="G52" s="267"/>
+      <c r="C52" s="258"/>
+      <c r="D52" s="259"/>
+      <c r="E52" s="260"/>
+      <c r="F52" s="258"/>
+      <c r="G52" s="260"/>
       <c r="H52" s="153"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="155"/>
       <c r="B53" s="154"/>
-      <c r="C53" s="265"/>
-      <c r="D53" s="266"/>
-      <c r="E53" s="267"/>
-      <c r="F53" s="265"/>
-      <c r="G53" s="267"/>
+      <c r="C53" s="258"/>
+      <c r="D53" s="259"/>
+      <c r="E53" s="260"/>
+      <c r="F53" s="258"/>
+      <c r="G53" s="260"/>
       <c r="H53" s="153"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="152"/>
       <c r="B54" s="151"/>
-      <c r="C54" s="275"/>
-      <c r="D54" s="283"/>
-      <c r="E54" s="276"/>
-      <c r="F54" s="292"/>
-      <c r="G54" s="293"/>
+      <c r="C54" s="261"/>
+      <c r="D54" s="262"/>
+      <c r="E54" s="263"/>
+      <c r="F54" s="264"/>
+      <c r="G54" s="265"/>
       <c r="H54" s="150"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
     <mergeCell ref="H42:J42"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B34:C34"/>
@@ -11925,26 +11925,26 @@
     <mergeCell ref="F41:G41"/>
     <mergeCell ref="C42:E42"/>
     <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -12008,10 +12008,10 @@
       <c r="K2" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="217">
+      <c r="L2" s="244">
         <v>43971</v>
       </c>
-      <c r="M2" s="219"/>
+      <c r="M2" s="246"/>
       <c r="N2" s="145"/>
       <c r="O2" s="145"/>
     </row>
@@ -12033,8 +12033,8 @@
       <c r="K3" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="346"/>
-      <c r="M3" s="347"/>
+      <c r="L3" s="349"/>
+      <c r="M3" s="350"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="101" t="s">
@@ -12052,8 +12052,8 @@
       <c r="K4" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="346"/>
-      <c r="M4" s="347"/>
+      <c r="L4" s="349"/>
+      <c r="M4" s="350"/>
     </row>
     <row r="5" spans="1:15" s="26" customFormat="1">
       <c r="A5" s="22"/>
@@ -12125,14 +12125,14 @@
       <c r="D9" s="113"/>
       <c r="E9" s="113"/>
       <c r="F9" s="114"/>
-      <c r="G9" s="348" t="s">
+      <c r="G9" s="351" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="349"/>
-      <c r="I9" s="349"/>
-      <c r="J9" s="349"/>
-      <c r="K9" s="349"/>
-      <c r="L9" s="350"/>
+      <c r="H9" s="352"/>
+      <c r="I9" s="352"/>
+      <c r="J9" s="352"/>
+      <c r="K9" s="352"/>
+      <c r="L9" s="353"/>
       <c r="M9" s="112"/>
     </row>
     <row r="10" spans="1:15" ht="21.75" customHeight="1">
@@ -12164,15 +12164,15 @@
     </row>
     <row r="11" spans="1:15" ht="22.5" customHeight="1">
       <c r="A11" s="110"/>
-      <c r="B11" s="351" t="s">
+      <c r="B11" s="343" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="343" t="s">
+      <c r="C11" s="346" t="s">
         <v>105</v>
       </c>
-      <c r="D11" s="344"/>
-      <c r="E11" s="344"/>
-      <c r="F11" s="345"/>
+      <c r="D11" s="347"/>
+      <c r="E11" s="347"/>
+      <c r="F11" s="348"/>
       <c r="G11" s="118" t="s">
         <v>129</v>
       </c>
@@ -12185,13 +12185,13 @@
     </row>
     <row r="12" spans="1:15" ht="22.5" customHeight="1">
       <c r="A12" s="110"/>
-      <c r="B12" s="352"/>
-      <c r="C12" s="343" t="s">
+      <c r="B12" s="344"/>
+      <c r="C12" s="346" t="s">
         <v>106</v>
       </c>
-      <c r="D12" s="344"/>
-      <c r="E12" s="344"/>
-      <c r="F12" s="345"/>
+      <c r="D12" s="347"/>
+      <c r="E12" s="347"/>
+      <c r="F12" s="348"/>
       <c r="G12" s="118" t="s">
         <v>129</v>
       </c>
@@ -12204,13 +12204,13 @@
     </row>
     <row r="13" spans="1:15" ht="22.5" customHeight="1">
       <c r="A13" s="110"/>
-      <c r="B13" s="352"/>
-      <c r="C13" s="343" t="s">
+      <c r="B13" s="344"/>
+      <c r="C13" s="346" t="s">
         <v>107</v>
       </c>
-      <c r="D13" s="344"/>
-      <c r="E13" s="344"/>
-      <c r="F13" s="345"/>
+      <c r="D13" s="347"/>
+      <c r="E13" s="347"/>
+      <c r="F13" s="348"/>
       <c r="G13" s="118" t="s">
         <v>121</v>
       </c>
@@ -12223,13 +12223,13 @@
     </row>
     <row r="14" spans="1:15" ht="22.5" customHeight="1">
       <c r="A14" s="110"/>
-      <c r="B14" s="352"/>
-      <c r="C14" s="343" t="s">
+      <c r="B14" s="344"/>
+      <c r="C14" s="346" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="344"/>
-      <c r="E14" s="344"/>
-      <c r="F14" s="345"/>
+      <c r="D14" s="347"/>
+      <c r="E14" s="347"/>
+      <c r="F14" s="348"/>
       <c r="G14" s="118" t="s">
         <v>122</v>
       </c>
@@ -12242,13 +12242,13 @@
     </row>
     <row r="15" spans="1:15" ht="22.5" customHeight="1">
       <c r="A15" s="110"/>
-      <c r="B15" s="352"/>
-      <c r="C15" s="343" t="s">
+      <c r="B15" s="344"/>
+      <c r="C15" s="346" t="s">
         <v>109</v>
       </c>
-      <c r="D15" s="344"/>
-      <c r="E15" s="344"/>
-      <c r="F15" s="345"/>
+      <c r="D15" s="347"/>
+      <c r="E15" s="347"/>
+      <c r="F15" s="348"/>
       <c r="G15" s="118" t="s">
         <v>123</v>
       </c>
@@ -12261,13 +12261,13 @@
     </row>
     <row r="16" spans="1:15" ht="22.5" customHeight="1">
       <c r="A16" s="110"/>
-      <c r="B16" s="352"/>
-      <c r="C16" s="343" t="s">
+      <c r="B16" s="344"/>
+      <c r="C16" s="346" t="s">
         <v>110</v>
       </c>
-      <c r="D16" s="344"/>
-      <c r="E16" s="344"/>
-      <c r="F16" s="345"/>
+      <c r="D16" s="347"/>
+      <c r="E16" s="347"/>
+      <c r="F16" s="348"/>
       <c r="G16" s="118"/>
       <c r="H16" s="118" t="s">
         <v>129</v>
@@ -12282,13 +12282,13 @@
     </row>
     <row r="17" spans="1:13" ht="22.5" customHeight="1">
       <c r="A17" s="110"/>
-      <c r="B17" s="352"/>
-      <c r="C17" s="343" t="s">
+      <c r="B17" s="344"/>
+      <c r="C17" s="346" t="s">
         <v>111</v>
       </c>
-      <c r="D17" s="344"/>
-      <c r="E17" s="344"/>
-      <c r="F17" s="345"/>
+      <c r="D17" s="347"/>
+      <c r="E17" s="347"/>
+      <c r="F17" s="348"/>
       <c r="G17" s="118"/>
       <c r="H17" s="118" t="s">
         <v>129</v>
@@ -12305,13 +12305,13 @@
     </row>
     <row r="18" spans="1:13" ht="22.5" customHeight="1">
       <c r="A18" s="110"/>
-      <c r="B18" s="352"/>
-      <c r="C18" s="343" t="s">
+      <c r="B18" s="344"/>
+      <c r="C18" s="346" t="s">
         <v>112</v>
       </c>
-      <c r="D18" s="344"/>
-      <c r="E18" s="344"/>
-      <c r="F18" s="345"/>
+      <c r="D18" s="347"/>
+      <c r="E18" s="347"/>
+      <c r="F18" s="348"/>
       <c r="G18" s="118" t="s">
         <v>129</v>
       </c>
@@ -12326,13 +12326,13 @@
     </row>
     <row r="19" spans="1:13" ht="22.5" customHeight="1">
       <c r="A19" s="110"/>
-      <c r="B19" s="352"/>
-      <c r="C19" s="343" t="s">
+      <c r="B19" s="344"/>
+      <c r="C19" s="346" t="s">
         <v>113</v>
       </c>
-      <c r="D19" s="344"/>
-      <c r="E19" s="344"/>
-      <c r="F19" s="345"/>
+      <c r="D19" s="347"/>
+      <c r="E19" s="347"/>
+      <c r="F19" s="348"/>
       <c r="G19" s="118" t="s">
         <v>129</v>
       </c>
@@ -12347,13 +12347,13 @@
     </row>
     <row r="20" spans="1:13" ht="22.5" customHeight="1">
       <c r="A20" s="110"/>
-      <c r="B20" s="352"/>
-      <c r="C20" s="343" t="s">
+      <c r="B20" s="344"/>
+      <c r="C20" s="346" t="s">
         <v>114</v>
       </c>
-      <c r="D20" s="344"/>
-      <c r="E20" s="344"/>
-      <c r="F20" s="345"/>
+      <c r="D20" s="347"/>
+      <c r="E20" s="347"/>
+      <c r="F20" s="348"/>
       <c r="G20" s="118" t="s">
         <v>129</v>
       </c>
@@ -12366,13 +12366,13 @@
     </row>
     <row r="21" spans="1:13" ht="22.5" customHeight="1">
       <c r="A21" s="110"/>
-      <c r="B21" s="352"/>
-      <c r="C21" s="343" t="s">
+      <c r="B21" s="344"/>
+      <c r="C21" s="346" t="s">
         <v>115</v>
       </c>
-      <c r="D21" s="344"/>
-      <c r="E21" s="344"/>
-      <c r="F21" s="345"/>
+      <c r="D21" s="347"/>
+      <c r="E21" s="347"/>
+      <c r="F21" s="348"/>
       <c r="G21" s="118"/>
       <c r="H21" s="118"/>
       <c r="I21" s="118"/>
@@ -12385,13 +12385,13 @@
     </row>
     <row r="22" spans="1:13" ht="22.5" customHeight="1">
       <c r="A22" s="110"/>
-      <c r="B22" s="352"/>
-      <c r="C22" s="343" t="s">
+      <c r="B22" s="344"/>
+      <c r="C22" s="346" t="s">
         <v>116</v>
       </c>
-      <c r="D22" s="344"/>
-      <c r="E22" s="344"/>
-      <c r="F22" s="345"/>
+      <c r="D22" s="347"/>
+      <c r="E22" s="347"/>
+      <c r="F22" s="348"/>
       <c r="G22" s="118"/>
       <c r="H22" s="118"/>
       <c r="I22" s="118"/>
@@ -12404,13 +12404,13 @@
     </row>
     <row r="23" spans="1:13" ht="22.5" customHeight="1">
       <c r="A23" s="110"/>
-      <c r="B23" s="352"/>
-      <c r="C23" s="343" t="s">
+      <c r="B23" s="344"/>
+      <c r="C23" s="346" t="s">
         <v>118</v>
       </c>
-      <c r="D23" s="344"/>
-      <c r="E23" s="344"/>
-      <c r="F23" s="345"/>
+      <c r="D23" s="347"/>
+      <c r="E23" s="347"/>
+      <c r="F23" s="348"/>
       <c r="G23" s="118"/>
       <c r="H23" s="118" t="s">
         <v>121</v>
@@ -12423,13 +12423,13 @@
     </row>
     <row r="24" spans="1:13" ht="22.5" customHeight="1">
       <c r="A24" s="110"/>
-      <c r="B24" s="352"/>
-      <c r="C24" s="343" t="s">
+      <c r="B24" s="344"/>
+      <c r="C24" s="346" t="s">
         <v>119</v>
       </c>
-      <c r="D24" s="344"/>
-      <c r="E24" s="344"/>
-      <c r="F24" s="345"/>
+      <c r="D24" s="347"/>
+      <c r="E24" s="347"/>
+      <c r="F24" s="348"/>
       <c r="G24" s="118"/>
       <c r="H24" s="118" t="s">
         <v>122</v>
@@ -12442,13 +12442,13 @@
     </row>
     <row r="25" spans="1:13" ht="22.5" customHeight="1">
       <c r="A25" s="110"/>
-      <c r="B25" s="352"/>
-      <c r="C25" s="343" t="s">
+      <c r="B25" s="344"/>
+      <c r="C25" s="346" t="s">
         <v>120</v>
       </c>
-      <c r="D25" s="344"/>
-      <c r="E25" s="344"/>
-      <c r="F25" s="345"/>
+      <c r="D25" s="347"/>
+      <c r="E25" s="347"/>
+      <c r="F25" s="348"/>
       <c r="G25" s="118"/>
       <c r="H25" s="118" t="s">
         <v>123</v>
@@ -12461,13 +12461,13 @@
     </row>
     <row r="26" spans="1:13" ht="22.5" customHeight="1">
       <c r="A26" s="110"/>
-      <c r="B26" s="352"/>
-      <c r="C26" s="343" t="s">
+      <c r="B26" s="344"/>
+      <c r="C26" s="346" t="s">
         <v>117</v>
       </c>
-      <c r="D26" s="344"/>
-      <c r="E26" s="344"/>
-      <c r="F26" s="345"/>
+      <c r="D26" s="347"/>
+      <c r="E26" s="347"/>
+      <c r="F26" s="348"/>
       <c r="G26" s="118" t="s">
         <v>129</v>
       </c>
@@ -12482,7 +12482,7 @@
     </row>
     <row r="27" spans="1:13" ht="22.5" customHeight="1">
       <c r="A27" s="110"/>
-      <c r="B27" s="352"/>
+      <c r="B27" s="344"/>
       <c r="C27" s="119"/>
       <c r="D27" s="132"/>
       <c r="E27" s="132"/>
@@ -12497,7 +12497,7 @@
     </row>
     <row r="28" spans="1:13" ht="22.5" customHeight="1">
       <c r="A28" s="110"/>
-      <c r="B28" s="352"/>
+      <c r="B28" s="344"/>
       <c r="C28" s="119"/>
       <c r="D28" s="132"/>
       <c r="E28" s="132"/>
@@ -12512,7 +12512,7 @@
     </row>
     <row r="29" spans="1:13" ht="22.5" customHeight="1">
       <c r="A29" s="110"/>
-      <c r="B29" s="352"/>
+      <c r="B29" s="344"/>
       <c r="C29" s="119"/>
       <c r="D29" s="132"/>
       <c r="E29" s="132"/>
@@ -12527,7 +12527,7 @@
     </row>
     <row r="30" spans="1:13" ht="22.5" customHeight="1">
       <c r="A30" s="110"/>
-      <c r="B30" s="352"/>
+      <c r="B30" s="344"/>
       <c r="C30" s="119"/>
       <c r="D30" s="132"/>
       <c r="E30" s="132"/>
@@ -12542,7 +12542,7 @@
     </row>
     <row r="31" spans="1:13" ht="22.5" customHeight="1">
       <c r="A31" s="110"/>
-      <c r="B31" s="352"/>
+      <c r="B31" s="344"/>
       <c r="C31" s="119"/>
       <c r="D31" s="132"/>
       <c r="E31" s="132"/>
@@ -12557,11 +12557,11 @@
     </row>
     <row r="32" spans="1:13" ht="22.5" customHeight="1">
       <c r="A32" s="110"/>
-      <c r="B32" s="352"/>
-      <c r="C32" s="343"/>
-      <c r="D32" s="344"/>
-      <c r="E32" s="344"/>
-      <c r="F32" s="345"/>
+      <c r="B32" s="344"/>
+      <c r="C32" s="346"/>
+      <c r="D32" s="347"/>
+      <c r="E32" s="347"/>
+      <c r="F32" s="348"/>
       <c r="G32" s="118"/>
       <c r="H32" s="118"/>
       <c r="I32" s="118"/>
@@ -12572,11 +12572,11 @@
     </row>
     <row r="33" spans="1:13" ht="22.5" customHeight="1">
       <c r="A33" s="110"/>
-      <c r="B33" s="352"/>
-      <c r="C33" s="343"/>
-      <c r="D33" s="344"/>
-      <c r="E33" s="344"/>
-      <c r="F33" s="345"/>
+      <c r="B33" s="344"/>
+      <c r="C33" s="346"/>
+      <c r="D33" s="347"/>
+      <c r="E33" s="347"/>
+      <c r="F33" s="348"/>
       <c r="G33" s="118"/>
       <c r="H33" s="118"/>
       <c r="I33" s="118"/>
@@ -12587,11 +12587,11 @@
     </row>
     <row r="34" spans="1:13" ht="23.25" customHeight="1">
       <c r="A34" s="110"/>
-      <c r="B34" s="352"/>
-      <c r="C34" s="343"/>
-      <c r="D34" s="344"/>
-      <c r="E34" s="344"/>
-      <c r="F34" s="345"/>
+      <c r="B34" s="344"/>
+      <c r="C34" s="346"/>
+      <c r="D34" s="347"/>
+      <c r="E34" s="347"/>
+      <c r="F34" s="348"/>
       <c r="G34" s="118"/>
       <c r="H34" s="118"/>
       <c r="I34" s="118"/>
@@ -12602,11 +12602,11 @@
     </row>
     <row r="35" spans="1:13" ht="23.25" customHeight="1">
       <c r="A35" s="110"/>
-      <c r="B35" s="352"/>
-      <c r="C35" s="343"/>
-      <c r="D35" s="344"/>
-      <c r="E35" s="344"/>
-      <c r="F35" s="345"/>
+      <c r="B35" s="344"/>
+      <c r="C35" s="346"/>
+      <c r="D35" s="347"/>
+      <c r="E35" s="347"/>
+      <c r="F35" s="348"/>
       <c r="G35" s="118"/>
       <c r="H35" s="118"/>
       <c r="I35" s="118"/>
@@ -12617,11 +12617,11 @@
     </row>
     <row r="36" spans="1:13" ht="23.25" customHeight="1">
       <c r="A36" s="110"/>
-      <c r="B36" s="353"/>
-      <c r="C36" s="343"/>
-      <c r="D36" s="344"/>
-      <c r="E36" s="344"/>
-      <c r="F36" s="345"/>
+      <c r="B36" s="345"/>
+      <c r="C36" s="346"/>
+      <c r="D36" s="347"/>
+      <c r="E36" s="347"/>
+      <c r="F36" s="348"/>
       <c r="G36" s="118"/>
       <c r="H36" s="118"/>
       <c r="I36" s="118"/>
@@ -12662,6 +12662,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
     <mergeCell ref="B11:B36"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="C12:F12"/>
@@ -12678,16 +12688,6 @@
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="C32:F32"/>
     <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="G9:L9"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12696,9 +12696,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12834,19 +12837,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBF72BD-AB54-43CB-BBC9-F922FCB9F852}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87C0EB24-2750-4F4F-A61B-57ABA9907FFB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12870,9 +12869,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87C0EB24-2750-4F4F-A61B-57ABA9907FFB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBF72BD-AB54-43CB-BBC9-F922FCB9F852}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>